--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{94049D12-A1F0-419C-A726-FAF5B84454AD}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D811ADCF-C4B8-4731-A81D-36D86B62A83F}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="420" windowWidth="20985" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WEB cvx list" sheetId="37" r:id="rId1"/>
+    <sheet name="WEB cvx list" sheetId="42" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" localSheetId="0" hidden="1">'WEB cvx list'!$A$1:$H$212</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">'WEB cvx list'!$A$1:$H$232</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{22753C7F-9325-46C5-BF15-EA97F835B6E0}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes1111111111111111" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{ECAE8868-3722-4E5E-87EC-C906933B3B5D}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes111111111111111111111" type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="770">
   <si>
     <t>CVX Code</t>
   </si>
@@ -2082,15 +2082,6 @@
     <t>207</t>
   </si>
   <si>
-    <t>COVID-19, mRNA, LNP-S, PF, 100 mcg/0.5 mL dose</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 100 mcg/0.5mL dose</t>
-  </si>
-  <si>
-    <t>Potential EUA, 2-dose vaccine</t>
-  </si>
-  <si>
     <t>208</t>
   </si>
   <si>
@@ -2103,15 +2094,6 @@
     <t>SARS-COV-2 (COVID-19) vaccine, UNSPECIFIED</t>
   </si>
   <si>
-    <t>Unspecified code for COVID-19 not to be used to record patient administration</t>
-  </si>
-  <si>
-    <t>EUA 12/18/2020, 2-dose vaccine</t>
-  </si>
-  <si>
-    <t>EUA 12/11/2020, 2-dose vaccine</t>
-  </si>
-  <si>
     <t>213</t>
   </si>
   <si>
@@ -2133,7 +2115,232 @@
     <t>SARS-COV-2 (COVID-19) vaccine, vector non-replicating, recombinant spike protein-Ad26, preservative free, 0.5 mL</t>
   </si>
   <si>
-    <t xml:space="preserve">Potential EUA, 1-dose vaccine </t>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Ebola Zaire vaccine, live, recombinant, 1mL dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebola Zaire vaccine, live, recombinant, 1mL dose </t>
+  </si>
+  <si>
+    <t>FDA Approval Pending</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>Ebola, unspecified</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine, Subunit, rS-nanoparticle+Matrix-M1 Adjuvant, PF, 0.5 mL</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, Subunit, recombinant spike protein-nanoparticle+Matrix-M1 Adjuvant, preservative free, 0.5mL per dose</t>
+  </si>
+  <si>
+    <t>Unspecified code for COVID-19 not to be used to record patient US administration. May be used to record historic US administration if product not known.  CVX code 500 should be used to record Non-US vaccine where product is not known.</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>COVID-19 Non-US Vaccine, Product Unknown</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Non-US Vaccine, Specific Product Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandemic Non-US Covid Administration - specific CVX or product unknown </t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>COVID-19 IV Non-US Vaccine (QAZCOVID-IN)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Inactivated Virus Non-US Vaccine Product (QAZCOVID-IN)</t>
+  </si>
+  <si>
+    <t>Pandemic Non-US Vaccine not Authorized by WHO - not counted toward  immunity in US</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>COVID-19 IV Non-US Vaccine (COVAXIN)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Inactivated Virus Non-US Vaccine Product (COVAXIN)</t>
+  </si>
+  <si>
+    <t>Pandemic Non-US Vaccine not Authorized by WHO - not counted toward immunity in US</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>COVID-19 LAV Non-US Vaccine (COVIVAC)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19  Live Attenuated Virus Non-US Vaccine Product (COVIVAC)</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>COVID-19 VVnr Non-US Vaccine (Sputnik Light)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Viral Vector Non-replicating Non-US Vaccine Product (Sputnik Light)</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>COVID-19 VVnr Non-US Vaccine (Sputnik V)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Viral Vector Non-replicating Non-US Vaccine Product (Sputnik V)</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>COVID-19 VVnr Non-US Vaccine (CanSino Biological Inc./Beijing Institute of Biotechnology)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Viral Vector Non-replicating Non-US Vaccine Product (CanSino Biological Inc./Beijing Institute of Biotechnology)</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Protein Subunit Non-US Vaccine Product (Anhui Zhifei Longcom Biopharmaceutical + Institute of Microbiology, Chinese Academy of Sciences)</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>COVID-19 PS Non-US Vaccine (Jiangsu Province Centers for Disease Control and Prevention)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Protein Subunit Non-US Vaccine Product  (Jiangsu Province Centers for Disease Control and Prevention)</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>COVID-19 PS Non-US Vaccine (EpiVacCorona)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Protein Subunit Non-US Vaccine Product (EpiVacCorona)</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>COVID-19 IV Non-US Vaccine (BIBP, Sinopharm)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Inactivated Virus Non-US Vaccine Product (BIBP, Sinopharm)</t>
+  </si>
+  <si>
+    <t>WHO authorized pandemic vaccine.  Recognized towards immunity in US</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>COVID-19 IV Non-US Vaccine (CoronaVac, Sinovac)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Inactivated Virus Non-US Vaccine Product (CoronaVac, Sinovac)</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>COVID-19 PS Non-US Vaccine (Anhui Zhifei Longcom Biopharm + Inst of Micro, Chinese Acad of Sciences)</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate PCV15, polysaccharide CRM197 conjugate, adjuvant, PF</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate vaccine 15-valent (PCV15), polysaccharide CRM197 conjugate, adjuvant, preservative free</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate PCV20, polysaccharide CRM197 conjugate, adjuvant, PF</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate vaccine 20-valent (PCV20), polysaccharide CRM197 conjugate, adjuvant, preservative free</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 100 mcg or 50 mcg dose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 100 mcg or 50 mcg dose</t>
+  </si>
+  <si>
+    <t>FDA EUA 12/18/2020, 2-dose vaccine.  Used to record Moderna vaccines administered in the US and in non-US locations (includes tradename Spikevax)</t>
+  </si>
+  <si>
+    <t>FDA BLA 08/23/2021 for adult dose (16+ years). Still under EUA for adolescent doses and presentations. EUA 12/11/2020, 2-dose vaccine. Used to record Pfizer vaccines administered in the US and in non-US locations (includes tradename Comirnaty)</t>
+  </si>
+  <si>
+    <t>Potential FDA EUA, 2-dose vaccine. AstraZeneca vaccine is authorized by the WHO and recognized towards immunity in the US. Non-US WHO authorized tradenames/identifiers include VAXZEVRIA, AZD1222, ChAdOx1 nCoV-19, COVISHIELD</t>
+  </si>
+  <si>
+    <t>FDA EUA 02/27/2021, 1-dose vaccine. Used to record Janssen/J&amp;J vaccines administered in the US and in non-US locations</t>
+  </si>
+  <si>
+    <t>Potential FDA EUA Authorization</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 3 mcg/0.2 mL dose, tris-sucrose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 3 mcg/0.2mL dose, tris-sucrose formulation</t>
+  </si>
+  <si>
+    <t>Potential FDA EUA, Pfizer tris-sucrose vaccine for 2 through 4  years of age</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 30 mcg/0.3 mL dose, tris-sucrose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 30 mcg/0.3mL dose, tris-sucrose formulation</t>
+  </si>
+  <si>
+    <t>Potential FDA EUA, Pfizer tris-sucrose formuation vaccine for ages 12 and older</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 10 mcg/0.2 mL dose, tris-sucrose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 10 mcg/0.2mL dose, tris-sucrose formulation</t>
+  </si>
+  <si>
+    <t>Potential FDA EUA, Pfizer tris-sucrose vaccine for 5 through 11 years of age</t>
   </si>
 </sst>
 </file>
@@ -2197,8 +2404,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes_1" connectionId="1" xr16:uid="{1FDDD49B-BA9F-4638-ACE8-30BCB2DCEC89}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{B0840924-AE36-40B5-85DD-74CD2458E754}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
       <queryTableField id="3" name="vacc_shortname" tableColumnId="3"/>
@@ -2217,16 +2424,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91D213EF-8893-485C-A25E-EDC37BA3E51F}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" ref="A1:H212" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{129B5D7F-CD5C-47AF-8D63-94243C6DDDE1}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H232" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{0F8B41CD-37A2-4BAB-A8DA-A283D0F25647}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{954AC1AF-8053-404C-997B-BF166827CB57}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7061467B-9A19-49A1-89A9-4B222F3C8F37}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{C288BA3F-4303-4D56-9FF6-FED86EFF4442}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{BE805427-94CF-4144-B5EC-4BB8D46165DB}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{91E003E2-1F6F-450F-80AA-C4B65E5DCD93}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{25428C79-685D-42DF-9853-70EAE818820F}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{C299C8A9-BE40-48CE-9E58-792FDF2BE54F}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{AF2D0A92-44F7-44B1-92B6-5803D4E7F56A}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{4ED8AD15-482D-407E-9020-55BFE572A258}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{FA8C43DA-8E76-4724-95AD-83EE41B80151}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{57C4C23D-CB92-44E7-9EC3-38D3644615B1}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{ABA83B98-1B47-44D8-A829-9F06B6596366}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{77EB7BD1-4B11-4EB4-8224-F2A75A210184}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{BB6C4214-6C4E-479E-926B-EABFA73F492D}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{A580AF77-F1F4-48C8-980A-53CC73ECEB09}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2552,22 +2759,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCCDA0E-374A-41A8-816F-7B9F1B47BEDB}">
-  <dimension ref="A1:H212"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B233E3FE-C012-4ABF-AEDD-F39A0EED51D4}">
+  <dimension ref="A1:H232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="4" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7586,7 +7792,7 @@
         <v>617</v>
       </c>
       <c r="H193" s="1">
-        <v>43230</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -7958,13 +8164,13 @@
         <v>682</v>
       </c>
       <c r="B208" t="s">
-        <v>683</v>
+        <v>751</v>
       </c>
       <c r="C208" t="s">
-        <v>684</v>
+        <v>752</v>
       </c>
       <c r="D208" t="s">
-        <v>691</v>
+        <v>753</v>
       </c>
       <c r="E208" t="s">
         <v>23</v>
@@ -7976,21 +8182,21 @@
         <v>617</v>
       </c>
       <c r="H208" s="1">
-        <v>44187</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B209" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C209" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D209" t="s">
-        <v>692</v>
+        <v>754</v>
       </c>
       <c r="E209" t="s">
         <v>23</v>
@@ -8002,21 +8208,21 @@
         <v>617</v>
       </c>
       <c r="H209" s="1">
-        <v>44177</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B210" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C210" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D210" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="E210" t="s">
         <v>11</v>
@@ -8028,24 +8234,24 @@
         <v>617</v>
       </c>
       <c r="H210" s="1">
-        <v>44151</v>
+        <v>44408</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B211" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C211" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D211" t="s">
-        <v>685</v>
+        <v>755</v>
       </c>
       <c r="E211" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F211">
         <v>233</v>
@@ -8054,21 +8260,21 @@
         <v>617</v>
       </c>
       <c r="H211" s="1">
-        <v>44222</v>
+        <v>44447</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B212" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C212" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D212" t="s">
-        <v>700</v>
+        <v>756</v>
       </c>
       <c r="E212" t="s">
         <v>23</v>
@@ -8080,7 +8286,527 @@
         <v>617</v>
       </c>
       <c r="H212" s="1">
-        <v>44222</v>
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>694</v>
+      </c>
+      <c r="B213" t="s">
+        <v>695</v>
+      </c>
+      <c r="C213" t="s">
+        <v>696</v>
+      </c>
+      <c r="D213" t="s">
+        <v>697</v>
+      </c>
+      <c r="E213" t="s">
+        <v>23</v>
+      </c>
+      <c r="F213">
+        <v>235</v>
+      </c>
+      <c r="G213" t="s">
+        <v>617</v>
+      </c>
+      <c r="H213" s="1">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>698</v>
+      </c>
+      <c r="B214" t="s">
+        <v>699</v>
+      </c>
+      <c r="C214" t="s">
+        <v>699</v>
+      </c>
+      <c r="D214" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" t="s">
+        <v>11</v>
+      </c>
+      <c r="F214">
+        <v>236</v>
+      </c>
+      <c r="G214" t="s">
+        <v>617</v>
+      </c>
+      <c r="H214" s="1">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>700</v>
+      </c>
+      <c r="B215" t="s">
+        <v>701</v>
+      </c>
+      <c r="C215" t="s">
+        <v>702</v>
+      </c>
+      <c r="D215" t="s">
+        <v>757</v>
+      </c>
+      <c r="E215" t="s">
+        <v>743</v>
+      </c>
+      <c r="F215">
+        <v>237</v>
+      </c>
+      <c r="G215" t="s">
+        <v>617</v>
+      </c>
+      <c r="H215" s="1">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>704</v>
+      </c>
+      <c r="B216" t="s">
+        <v>705</v>
+      </c>
+      <c r="C216" t="s">
+        <v>706</v>
+      </c>
+      <c r="D216" t="s">
+        <v>707</v>
+      </c>
+      <c r="E216" t="s">
+        <v>50</v>
+      </c>
+      <c r="F216">
+        <v>238</v>
+      </c>
+      <c r="G216" t="s">
+        <v>617</v>
+      </c>
+      <c r="H216" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>708</v>
+      </c>
+      <c r="B217" t="s">
+        <v>709</v>
+      </c>
+      <c r="C217" t="s">
+        <v>710</v>
+      </c>
+      <c r="D217" t="s">
+        <v>711</v>
+      </c>
+      <c r="E217" t="s">
+        <v>50</v>
+      </c>
+      <c r="F217">
+        <v>239</v>
+      </c>
+      <c r="G217" t="s">
+        <v>617</v>
+      </c>
+      <c r="H217" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>712</v>
+      </c>
+      <c r="B218" t="s">
+        <v>713</v>
+      </c>
+      <c r="C218" t="s">
+        <v>714</v>
+      </c>
+      <c r="D218" t="s">
+        <v>715</v>
+      </c>
+      <c r="E218" t="s">
+        <v>50</v>
+      </c>
+      <c r="F218">
+        <v>240</v>
+      </c>
+      <c r="G218" t="s">
+        <v>617</v>
+      </c>
+      <c r="H218" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>716</v>
+      </c>
+      <c r="B219" t="s">
+        <v>717</v>
+      </c>
+      <c r="C219" t="s">
+        <v>718</v>
+      </c>
+      <c r="D219" t="s">
+        <v>711</v>
+      </c>
+      <c r="E219" t="s">
+        <v>50</v>
+      </c>
+      <c r="F219">
+        <v>241</v>
+      </c>
+      <c r="G219" t="s">
+        <v>617</v>
+      </c>
+      <c r="H219" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>719</v>
+      </c>
+      <c r="B220" t="s">
+        <v>720</v>
+      </c>
+      <c r="C220" t="s">
+        <v>721</v>
+      </c>
+      <c r="D220" t="s">
+        <v>711</v>
+      </c>
+      <c r="E220" t="s">
+        <v>50</v>
+      </c>
+      <c r="F220">
+        <v>242</v>
+      </c>
+      <c r="G220" t="s">
+        <v>617</v>
+      </c>
+      <c r="H220" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>722</v>
+      </c>
+      <c r="B221" t="s">
+        <v>723</v>
+      </c>
+      <c r="C221" t="s">
+        <v>724</v>
+      </c>
+      <c r="D221" t="s">
+        <v>711</v>
+      </c>
+      <c r="E221" t="s">
+        <v>50</v>
+      </c>
+      <c r="F221">
+        <v>243</v>
+      </c>
+      <c r="G221" t="s">
+        <v>617</v>
+      </c>
+      <c r="H221" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>725</v>
+      </c>
+      <c r="B222" t="s">
+        <v>726</v>
+      </c>
+      <c r="C222" t="s">
+        <v>727</v>
+      </c>
+      <c r="D222" t="s">
+        <v>711</v>
+      </c>
+      <c r="E222" t="s">
+        <v>50</v>
+      </c>
+      <c r="F222">
+        <v>244</v>
+      </c>
+      <c r="G222" t="s">
+        <v>617</v>
+      </c>
+      <c r="H222" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>728</v>
+      </c>
+      <c r="B223" t="s">
+        <v>744</v>
+      </c>
+      <c r="C223" t="s">
+        <v>729</v>
+      </c>
+      <c r="D223" t="s">
+        <v>715</v>
+      </c>
+      <c r="E223" t="s">
+        <v>50</v>
+      </c>
+      <c r="F223">
+        <v>245</v>
+      </c>
+      <c r="G223" t="s">
+        <v>617</v>
+      </c>
+      <c r="H223" s="1">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>730</v>
+      </c>
+      <c r="B224" t="s">
+        <v>731</v>
+      </c>
+      <c r="C224" t="s">
+        <v>732</v>
+      </c>
+      <c r="D224" t="s">
+        <v>711</v>
+      </c>
+      <c r="E224" t="s">
+        <v>50</v>
+      </c>
+      <c r="F224">
+        <v>246</v>
+      </c>
+      <c r="G224" t="s">
+        <v>617</v>
+      </c>
+      <c r="H224" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>733</v>
+      </c>
+      <c r="B225" t="s">
+        <v>734</v>
+      </c>
+      <c r="C225" t="s">
+        <v>735</v>
+      </c>
+      <c r="D225" t="s">
+        <v>711</v>
+      </c>
+      <c r="E225" t="s">
+        <v>50</v>
+      </c>
+      <c r="F225">
+        <v>247</v>
+      </c>
+      <c r="G225" t="s">
+        <v>617</v>
+      </c>
+      <c r="H225" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>736</v>
+      </c>
+      <c r="B226" t="s">
+        <v>737</v>
+      </c>
+      <c r="C226" t="s">
+        <v>738</v>
+      </c>
+      <c r="D226" t="s">
+        <v>739</v>
+      </c>
+      <c r="E226" t="s">
+        <v>50</v>
+      </c>
+      <c r="F226">
+        <v>248</v>
+      </c>
+      <c r="G226" t="s">
+        <v>617</v>
+      </c>
+      <c r="H226" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>740</v>
+      </c>
+      <c r="B227" t="s">
+        <v>741</v>
+      </c>
+      <c r="C227" t="s">
+        <v>742</v>
+      </c>
+      <c r="D227" t="s">
+        <v>739</v>
+      </c>
+      <c r="E227" t="s">
+        <v>50</v>
+      </c>
+      <c r="F227">
+        <v>249</v>
+      </c>
+      <c r="G227" t="s">
+        <v>617</v>
+      </c>
+      <c r="H227" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>745</v>
+      </c>
+      <c r="B228" t="s">
+        <v>746</v>
+      </c>
+      <c r="C228" t="s">
+        <v>747</v>
+      </c>
+      <c r="D228" t="s">
+        <v>27</v>
+      </c>
+      <c r="E228" t="s">
+        <v>23</v>
+      </c>
+      <c r="F228">
+        <v>250</v>
+      </c>
+      <c r="G228" t="s">
+        <v>617</v>
+      </c>
+      <c r="H228" s="1">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>748</v>
+      </c>
+      <c r="B229" t="s">
+        <v>749</v>
+      </c>
+      <c r="C229" t="s">
+        <v>750</v>
+      </c>
+      <c r="D229" t="s">
+        <v>27</v>
+      </c>
+      <c r="E229" t="s">
+        <v>23</v>
+      </c>
+      <c r="F229">
+        <v>251</v>
+      </c>
+      <c r="G229" t="s">
+        <v>617</v>
+      </c>
+      <c r="H229" s="1">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>758</v>
+      </c>
+      <c r="B230" t="s">
+        <v>759</v>
+      </c>
+      <c r="C230" t="s">
+        <v>760</v>
+      </c>
+      <c r="D230" t="s">
+        <v>761</v>
+      </c>
+      <c r="E230" t="s">
+        <v>23</v>
+      </c>
+      <c r="F230">
+        <v>252</v>
+      </c>
+      <c r="G230" t="s">
+        <v>617</v>
+      </c>
+      <c r="H230" s="1">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>762</v>
+      </c>
+      <c r="B231" t="s">
+        <v>763</v>
+      </c>
+      <c r="C231" t="s">
+        <v>764</v>
+      </c>
+      <c r="D231" t="s">
+        <v>765</v>
+      </c>
+      <c r="E231" t="s">
+        <v>23</v>
+      </c>
+      <c r="F231">
+        <v>253</v>
+      </c>
+      <c r="G231" t="s">
+        <v>617</v>
+      </c>
+      <c r="H231" s="1">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>766</v>
+      </c>
+      <c r="B232" t="s">
+        <v>767</v>
+      </c>
+      <c r="C232" t="s">
+        <v>768</v>
+      </c>
+      <c r="D232" t="s">
+        <v>769</v>
+      </c>
+      <c r="E232" t="s">
+        <v>23</v>
+      </c>
+      <c r="F232">
+        <v>254</v>
+      </c>
+      <c r="G232" t="s">
+        <v>617</v>
+      </c>
+      <c r="H232" s="1">
+        <v>44452</v>
       </c>
     </row>
   </sheetData>

--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D811ADCF-C4B8-4731-A81D-36D86B62A83F}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B11A90B-ED5F-40BC-A65F-D1C10E5748AA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WEB cvx list" sheetId="42" r:id="rId1"/>
+    <sheet name="WEB cvx list" sheetId="47" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">'WEB cvx list'!$A$1:$H$232</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" localSheetId="0" hidden="1">'WEB cvx list'!$A$1:$H$239</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{ECAE8868-3722-4E5E-87EC-C906933B3B5D}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes111111111111111111111" type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{ED7E5AE7-4B40-4367-A4C0-1D89997A1DFE}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes11111111111111111111111111" type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="799">
   <si>
     <t>CVX Code</t>
   </si>
@@ -1626,12 +1626,6 @@
     <t>77</t>
   </si>
   <si>
-    <t>tick-borne encephalitis</t>
-  </si>
-  <si>
-    <t>tick-borne encephalitis vaccine</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -2073,9 +2067,6 @@
     <t>Smallpox monkeypox vaccine (National Stockpile)</t>
   </si>
   <si>
-    <t>smallpox monkeypox vaccine, live attenuated, preservative free (National Stockpile)</t>
-  </si>
-  <si>
     <t xml:space="preserve">National Stockpile Only. FDA US Licensed products JYNNEOS (also brandnames IMVAMUNE, IMVANEX) </t>
   </si>
   <si>
@@ -2136,12 +2127,6 @@
     <t>211</t>
   </si>
   <si>
-    <t>COVID-19 vaccine, Subunit, rS-nanoparticle+Matrix-M1 Adjuvant, PF, 0.5 mL</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 (COVID-19) vaccine, Subunit, recombinant spike protein-nanoparticle+Matrix-M1 Adjuvant, preservative free, 0.5mL per dose</t>
-  </si>
-  <si>
     <t>Unspecified code for COVID-19 not to be used to record patient US administration. May be used to record historic US administration if product not known.  CVX code 500 should be used to record Non-US vaccine where product is not known.</t>
   </si>
   <si>
@@ -2286,12 +2271,6 @@
     <t>Pneumococcal conjugate vaccine 20-valent (PCV20), polysaccharide CRM197 conjugate, adjuvant, preservative free</t>
   </si>
   <si>
-    <t>COVID-19, mRNA, LNP-S, PF, 100 mcg or 50 mcg dose</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 100 mcg or 50 mcg dose</t>
-  </si>
-  <si>
     <t>FDA EUA 12/18/2020, 2-dose vaccine.  Used to record Moderna vaccines administered in the US and in non-US locations (includes tradename Spikevax)</t>
   </si>
   <si>
@@ -2301,46 +2280,154 @@
     <t>Potential FDA EUA, 2-dose vaccine. AstraZeneca vaccine is authorized by the WHO and recognized towards immunity in the US. Non-US WHO authorized tradenames/identifiers include VAXZEVRIA, AZD1222, ChAdOx1 nCoV-19, COVISHIELD</t>
   </si>
   <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 3 mcg/0.2 mL dose, tris-sucrose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 3 mcg/0.2mL dose, tris-sucrose formulation</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 30 mcg/0.3 mL dose, tris-sucrose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 30 mcg/0.3mL dose, tris-sucrose formulation</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 10 mcg/0.2 mL dose, tris-sucrose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 10 mcg/0.2mL dose, tris-sucrose formulation</t>
+  </si>
+  <si>
+    <t>Pandemic Non-US Vaccine Authorized by WHO 11-3-2021, recognized toward immunity in US, https://extranet.who.int/pqweb/vaccines/who-recommendation-bharat-biotech-international-ltd-covid-19-vaccine-whole-virion</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>New Hep B vaccine 1/2022</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 100 mcg/0.5mL dose or 50 mcg/0.25mL dose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 100 mcg/0.5mL dose or 50 mcg/0.25mL dose</t>
+  </si>
+  <si>
+    <t>Potential FDA EUA, Pfizer tris-sucrose vaccine for 6 mo through 4 years of age</t>
+  </si>
+  <si>
+    <t>HepB recombinant, 3-antigen, Al(OH)3</t>
+  </si>
+  <si>
+    <t>Hepatitis B vaccine (recombinant), 3-antigen, Al(OH)3 adjuvanted</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, 50 mcg/0.5 mL dose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 50 mcg/0.5 mL dose</t>
+  </si>
+  <si>
+    <t>EUA 12+ yrs, BLA 16+ yrs Pfizer tris-sucrose formulation vaccine for ages 12 and older</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis vaccine (non-US)</t>
+  </si>
+  <si>
+    <t>Non-US vaccine</t>
+  </si>
+  <si>
+    <t>Vaccinia, smallpox monkeypox vaccine, live attenuated, preservative free (National Stockpile)</t>
+  </si>
+  <si>
     <t>FDA EUA 02/27/2021, 1-dose vaccine. Used to record Janssen/J&amp;J vaccines administered in the US and in non-US locations</t>
   </si>
   <si>
-    <t>Potential FDA EUA Authorization</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>COVID-19, mRNA, LNP-S, PF, 3 mcg/0.2 mL dose, tris-sucrose</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 3 mcg/0.2mL dose, tris-sucrose formulation</t>
-  </si>
-  <si>
-    <t>Potential FDA EUA, Pfizer tris-sucrose vaccine for 2 through 4  years of age</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>COVID-19, mRNA, LNP-S, PF, 30 mcg/0.3 mL dose, tris-sucrose</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 30 mcg/0.3mL dose, tris-sucrose formulation</t>
-  </si>
-  <si>
-    <t>Potential FDA EUA, Pfizer tris-sucrose formuation vaccine for ages 12 and older</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>COVID-19, mRNA, LNP-S, PF, 10 mcg/0.2 mL dose, tris-sucrose</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 10 mcg/0.2mL dose, tris-sucrose formulation</t>
-  </si>
-  <si>
-    <t>Potential FDA EUA, Pfizer tris-sucrose vaccine for 5 through 11 years of age</t>
+    <t>COVID-19, subunit, rS-nanoparticle+Matrix-M1 Adjuvant, PF, 0.5 mL</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, subunit, recombinant spike protein-nanoparticle+Matrix-M1 Adjuvant, preservative free, 0.5mL dose</t>
+  </si>
+  <si>
+    <t>Pre-EUA Authorization - Novavax Primary Series dose</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Unspecified Code - should only be used when specific vaccine administered is unknown</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis, inactivated, PF, 0.25mL</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis vaccine, inactivated, preservative free, 0.25mL dose</t>
+  </si>
+  <si>
+    <t>Pediatric dose vaccine</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis, inactivated, PF, 0.5mL</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis vaccine, inactivated, preservative free, 0.5mL dose</t>
+  </si>
+  <si>
+    <t>Adult dose vaccine</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>COVID-19, D614, recomb, preS dTM, AS03 adjuvant add, PF, 5mcg/0.5mL</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, D614, prefusion spike recombinant protein subunit (CoV2 preS dTM), AS03 adjuvant added, preservative free, 5mcg/0.5mL dose</t>
+  </si>
+  <si>
+    <t>Pre-EUA Authorization, Sanofi Booster dose - requires addition of AS03 adjuvant</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>COVID-19, D614, recomb, preS dTM, AS03 adjuvant add, PF, 10mcg/0.5mL</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, D614, prefusion spike recombinant protein subunit (CoV2 preS dTM), AS03 adjuvant added, preservative free, 10mcg/0.5mL dose</t>
+  </si>
+  <si>
+    <t>Pre-EUA Authorization, Sanofi Primary Series dose - requires addition of AS03 adjuvant</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis, unspecified</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis vaccine, unspecified</t>
+  </si>
+  <si>
+    <t>FDA EUA 01/03/2022, Pfizer tris-sucrose vaccine for 5 through 11 years of age</t>
+  </si>
+  <si>
+    <t>FDA EUA 03/29/2022, Moderna booster dose 2.5mL vial presentation only</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2435,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -2388,7 +2475,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2404,7 +2491,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{B0840924-AE36-40B5-85DD-74CD2458E754}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes_1" connectionId="1" xr16:uid="{EF101FE4-4086-4396-9F8F-191A84734629}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
@@ -2424,16 +2511,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{129B5D7F-CD5C-47AF-8D63-94243C6DDDE1}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H232" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C59044EB-852A-4634-A34B-F161A521B6BD}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" ref="A1:H239" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{AF2D0A92-44F7-44B1-92B6-5803D4E7F56A}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{4ED8AD15-482D-407E-9020-55BFE572A258}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{FA8C43DA-8E76-4724-95AD-83EE41B80151}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{57C4C23D-CB92-44E7-9EC3-38D3644615B1}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{ABA83B98-1B47-44D8-A829-9F06B6596366}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{77EB7BD1-4B11-4EB4-8224-F2A75A210184}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{BB6C4214-6C4E-479E-926B-EABFA73F492D}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{A580AF77-F1F4-48C8-980A-53CC73ECEB09}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{62823254-6479-441F-90FD-DECD59D91DC0}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{D31DA72F-629A-4EE5-8B18-C52AD196FE64}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{934F6B8F-B58D-4393-A359-56FE39EA6C32}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{F2DE8279-FAB0-4449-9BA5-1A4C10A90084}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{059A9EBB-0C55-41C7-BF8B-F8C568758BBE}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{06C55A2D-D90A-4B77-BBDC-B12220EF17D2}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{7B2E4500-FEE2-4CE4-9AE9-5CF2A1C7E1D9}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{98FA754C-3927-49E1-9DA9-87981018FFE1}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2759,25 +2846,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B233E3FE-C012-4ABF-AEDD-F39A0EED51D4}">
-  <dimension ref="A1:H232"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8946C10C-C798-47F5-907C-8094165B04CF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="H233" sqref="H233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="4" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2803,7 +2893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2823,13 +2913,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H2" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2849,13 +2939,13 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H3" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2875,13 +2965,13 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H4" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2901,13 +2991,13 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H5" s="1">
         <v>43627</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2927,13 +3017,13 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H6" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2953,13 +3043,13 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H7" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2979,13 +3069,13 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H8" s="1">
         <v>42538</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -3005,13 +3095,13 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H9" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3022,7 +3112,7 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -3031,13 +3121,13 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H10" s="1">
         <v>43732</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -3057,13 +3147,13 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H11" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -3083,13 +3173,13 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H12" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -3109,13 +3199,13 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H13" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -3135,13 +3225,13 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H14" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -3161,13 +3251,13 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H15" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -3187,13 +3277,13 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H16" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3213,13 +3303,13 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H17" s="1">
         <v>42814</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -3239,13 +3329,13 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H18" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -3265,13 +3355,13 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H19" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3291,13 +3381,13 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H20" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -3317,13 +3407,13 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H21" s="1">
         <v>42817</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -3343,13 +3433,13 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H22" s="1">
         <v>42510</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -3369,13 +3459,13 @@
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H23" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -3395,13 +3485,13 @@
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H24" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -3421,13 +3511,13 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H25" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -3447,13 +3537,13 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H26" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -3473,13 +3563,13 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H27" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3499,13 +3589,13 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H28" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -3525,13 +3615,13 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H29" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -3551,13 +3641,13 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H30" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -3568,7 +3658,7 @@
         <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -3577,13 +3667,13 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H31" s="1">
         <v>43230</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>152</v>
       </c>
@@ -3603,13 +3693,13 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H32" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -3620,7 +3710,7 @@
         <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
@@ -3629,13 +3719,13 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H33" s="1">
         <v>43230</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>159</v>
       </c>
@@ -3646,7 +3736,7 @@
         <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -3655,13 +3745,13 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H34" s="1">
         <v>43593</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>162</v>
       </c>
@@ -3681,13 +3771,13 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H35" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -3707,13 +3797,13 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H36" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>169</v>
       </c>
@@ -3733,13 +3823,13 @@
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H37" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>172</v>
       </c>
@@ -3759,13 +3849,13 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H38" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -3785,13 +3875,13 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H39" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -3811,13 +3901,13 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H40" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -3837,13 +3927,13 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H41" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>181</v>
       </c>
@@ -3863,13 +3953,13 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H42" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -3889,13 +3979,13 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H43" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -3915,13 +4005,13 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H44" s="1">
         <v>42440</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>194</v>
       </c>
@@ -3941,13 +4031,13 @@
         <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H45" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>197</v>
       </c>
@@ -3967,13 +4057,13 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H46" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>200</v>
       </c>
@@ -3993,13 +4083,13 @@
         <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H47" s="1">
         <v>43984</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>209</v>
       </c>
@@ -4019,13 +4109,13 @@
         <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H48" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>215</v>
       </c>
@@ -4045,13 +4135,13 @@
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H49" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>212</v>
       </c>
@@ -4071,13 +4161,13 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H50" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>254</v>
       </c>
@@ -4097,13 +4187,13 @@
         <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H51" s="1">
         <v>41904</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>278</v>
       </c>
@@ -4123,13 +4213,13 @@
         <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H52" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -4149,13 +4239,13 @@
         <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H53" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>285</v>
       </c>
@@ -4175,13 +4265,13 @@
         <v>57</v>
       </c>
       <c r="G54" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H54" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>225</v>
       </c>
@@ -4201,13 +4291,13 @@
         <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H55" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>292</v>
       </c>
@@ -4227,13 +4317,13 @@
         <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H56" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>387</v>
       </c>
@@ -4253,13 +4343,13 @@
         <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H57" s="1">
         <v>42776</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>432</v>
       </c>
@@ -4279,13 +4369,13 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H58" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>298</v>
       </c>
@@ -4305,13 +4395,13 @@
         <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H59" s="1">
         <v>42271</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>305</v>
       </c>
@@ -4331,13 +4421,13 @@
         <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H60" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>308</v>
       </c>
@@ -4357,13 +4447,13 @@
         <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H61" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>311</v>
       </c>
@@ -4383,13 +4473,13 @@
         <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H62" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>314</v>
       </c>
@@ -4409,13 +4499,13 @@
         <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H63" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>365</v>
       </c>
@@ -4435,13 +4525,13 @@
         <v>68</v>
       </c>
       <c r="G64" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H64" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>317</v>
       </c>
@@ -4461,13 +4551,13 @@
         <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H65" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>368</v>
       </c>
@@ -4487,13 +4577,13 @@
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H66" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>320</v>
       </c>
@@ -4513,13 +4603,13 @@
         <v>71</v>
       </c>
       <c r="G67" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H67" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>323</v>
       </c>
@@ -4539,13 +4629,13 @@
         <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H68" s="1">
         <v>40421</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>326</v>
       </c>
@@ -4565,13 +4655,13 @@
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H69" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>358</v>
       </c>
@@ -4591,13 +4681,13 @@
         <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H70" s="1">
         <v>43035</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>342</v>
       </c>
@@ -4617,13 +4707,13 @@
         <v>75</v>
       </c>
       <c r="G71" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H71" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>355</v>
       </c>
@@ -4643,13 +4733,13 @@
         <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H72" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>329</v>
       </c>
@@ -4669,13 +4759,13 @@
         <v>77</v>
       </c>
       <c r="G73" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H73" s="1">
         <v>42339</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>371</v>
       </c>
@@ -4695,13 +4785,13 @@
         <v>79</v>
       </c>
       <c r="G74" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H74" s="1">
         <v>42173</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>403</v>
       </c>
@@ -4721,13 +4811,13 @@
         <v>80</v>
       </c>
       <c r="G75" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H75" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>410</v>
       </c>
@@ -4747,13 +4837,13 @@
         <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H76" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>413</v>
       </c>
@@ -4773,13 +4863,13 @@
         <v>82</v>
       </c>
       <c r="G77" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H77" s="1">
         <v>43237</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>425</v>
       </c>
@@ -4799,13 +4889,13 @@
         <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H78" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>419</v>
       </c>
@@ -4825,13 +4915,13 @@
         <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H79" s="1">
         <v>41816</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>428</v>
       </c>
@@ -4851,13 +4941,13 @@
         <v>85</v>
       </c>
       <c r="G80" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H80" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>436</v>
       </c>
@@ -4877,13 +4967,13 @@
         <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H81" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>448</v>
       </c>
@@ -4903,13 +4993,13 @@
         <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H82" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>445</v>
       </c>
@@ -4929,13 +5019,13 @@
         <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H83" s="1">
         <v>42173</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>452</v>
       </c>
@@ -4955,13 +5045,13 @@
         <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H84" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>456</v>
       </c>
@@ -4981,13 +5071,13 @@
         <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H85" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>470</v>
       </c>
@@ -5007,13 +5097,13 @@
         <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H86" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>473</v>
       </c>
@@ -5033,13 +5123,13 @@
         <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H87" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>476</v>
       </c>
@@ -5059,13 +5149,13 @@
         <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H88" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>485</v>
       </c>
@@ -5085,13 +5175,13 @@
         <v>95</v>
       </c>
       <c r="G89" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H89" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>479</v>
       </c>
@@ -5111,13 +5201,13 @@
         <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H90" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>482</v>
       </c>
@@ -5137,13 +5227,13 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H91" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>488</v>
       </c>
@@ -5163,13 +5253,13 @@
         <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H92" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>491</v>
       </c>
@@ -5189,13 +5279,13 @@
         <v>102</v>
       </c>
       <c r="G93" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H93" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>497</v>
       </c>
@@ -5215,13 +5305,13 @@
         <v>103</v>
       </c>
       <c r="G94" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H94" s="1">
         <v>42173</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>500</v>
       </c>
@@ -5241,13 +5331,13 @@
         <v>104</v>
       </c>
       <c r="G95" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H95" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>503</v>
       </c>
@@ -5267,13 +5357,13 @@
         <v>105</v>
       </c>
       <c r="G96" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H96" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>513</v>
       </c>
@@ -5293,13 +5383,13 @@
         <v>106</v>
       </c>
       <c r="G97" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H97" s="1">
         <v>43035</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>510</v>
       </c>
@@ -5319,13 +5409,13 @@
         <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H98" s="1">
         <v>43035</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>518</v>
       </c>
@@ -5345,13 +5435,13 @@
         <v>108</v>
       </c>
       <c r="G99" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H99" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>524</v>
       </c>
@@ -5371,13 +5461,13 @@
         <v>110</v>
       </c>
       <c r="G100" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H100" s="1">
         <v>42230</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>528</v>
       </c>
@@ -5397,24 +5487,24 @@
         <v>111</v>
       </c>
       <c r="G101" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H101" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>530</v>
       </c>
       <c r="B102" t="s">
-        <v>531</v>
+        <v>770</v>
       </c>
       <c r="C102" t="s">
-        <v>532</v>
+        <v>770</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>771</v>
       </c>
       <c r="E102" t="s">
         <v>50</v>
@@ -5423,18 +5513,18 @@
         <v>112</v>
       </c>
       <c r="G102" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H102" s="1">
-        <v>43035</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B103" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C103" t="s">
         <v>522</v>
@@ -5449,24 +5539,24 @@
         <v>113</v>
       </c>
       <c r="G103" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H103" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>537</v>
+      </c>
+      <c r="B104" t="s">
+        <v>538</v>
+      </c>
+      <c r="C104" t="s">
         <v>539</v>
       </c>
-      <c r="B104" t="s">
-        <v>540</v>
-      </c>
-      <c r="C104" t="s">
-        <v>541</v>
-      </c>
       <c r="D104" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -5475,24 +5565,24 @@
         <v>114</v>
       </c>
       <c r="G104" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H104" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>540</v>
+      </c>
+      <c r="B105" t="s">
+        <v>541</v>
+      </c>
+      <c r="C105" t="s">
         <v>542</v>
       </c>
-      <c r="B105" t="s">
-        <v>543</v>
-      </c>
-      <c r="C105" t="s">
-        <v>544</v>
-      </c>
       <c r="D105" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -5501,24 +5591,24 @@
         <v>115</v>
       </c>
       <c r="G105" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H105" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>543</v>
+      </c>
+      <c r="B106" t="s">
+        <v>544</v>
+      </c>
+      <c r="C106" t="s">
         <v>545</v>
       </c>
-      <c r="B106" t="s">
-        <v>546</v>
-      </c>
-      <c r="C106" t="s">
-        <v>547</v>
-      </c>
       <c r="D106" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -5527,24 +5617,24 @@
         <v>116</v>
       </c>
       <c r="G106" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H106" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>533</v>
+      </c>
+      <c r="B107" t="s">
+        <v>534</v>
+      </c>
+      <c r="C107" t="s">
         <v>535</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>536</v>
-      </c>
-      <c r="C107" t="s">
-        <v>537</v>
-      </c>
-      <c r="D107" t="s">
-        <v>538</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -5553,21 +5643,21 @@
         <v>117</v>
       </c>
       <c r="G107" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H107" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B108" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C108" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D108" t="s">
         <v>27</v>
@@ -5579,24 +5669,24 @@
         <v>118</v>
       </c>
       <c r="G108" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H108" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>557</v>
+      </c>
+      <c r="B109" t="s">
+        <v>558</v>
+      </c>
+      <c r="C109" t="s">
         <v>559</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" t="s">
         <v>560</v>
-      </c>
-      <c r="C109" t="s">
-        <v>561</v>
-      </c>
-      <c r="D109" t="s">
-        <v>562</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -5605,21 +5695,21 @@
         <v>119</v>
       </c>
       <c r="G109" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H109" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>548</v>
+      </c>
+      <c r="B110" t="s">
+        <v>549</v>
+      </c>
+      <c r="C110" t="s">
         <v>550</v>
-      </c>
-      <c r="B110" t="s">
-        <v>551</v>
-      </c>
-      <c r="C110" t="s">
-        <v>552</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
@@ -5631,21 +5721,21 @@
         <v>120</v>
       </c>
       <c r="G110" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H110" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>551</v>
+      </c>
+      <c r="B111" t="s">
+        <v>552</v>
+      </c>
+      <c r="C111" t="s">
         <v>553</v>
-      </c>
-      <c r="B111" t="s">
-        <v>554</v>
-      </c>
-      <c r="C111" t="s">
-        <v>555</v>
       </c>
       <c r="D111" t="s">
         <v>27</v>
@@ -5657,21 +5747,21 @@
         <v>121</v>
       </c>
       <c r="G111" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H111" s="1">
         <v>42229</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>554</v>
+      </c>
+      <c r="B112" t="s">
+        <v>555</v>
+      </c>
+      <c r="C112" t="s">
         <v>556</v>
-      </c>
-      <c r="B112" t="s">
-        <v>557</v>
-      </c>
-      <c r="C112" t="s">
-        <v>558</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
@@ -5683,21 +5773,21 @@
         <v>122</v>
       </c>
       <c r="G112" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H112" s="1">
         <v>42173</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>561</v>
+      </c>
+      <c r="B113" t="s">
+        <v>562</v>
+      </c>
+      <c r="C113" t="s">
         <v>563</v>
-      </c>
-      <c r="B113" t="s">
-        <v>564</v>
-      </c>
-      <c r="C113" t="s">
-        <v>565</v>
       </c>
       <c r="D113" t="s">
         <v>27</v>
@@ -5709,21 +5799,21 @@
         <v>123</v>
       </c>
       <c r="G113" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H113" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>567</v>
+      </c>
+      <c r="B114" t="s">
+        <v>568</v>
+      </c>
+      <c r="C114" t="s">
         <v>569</v>
-      </c>
-      <c r="B114" t="s">
-        <v>570</v>
-      </c>
-      <c r="C114" t="s">
-        <v>571</v>
       </c>
       <c r="D114" t="s">
         <v>27</v>
@@ -5735,21 +5825,21 @@
         <v>124</v>
       </c>
       <c r="G114" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H114" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>570</v>
+      </c>
+      <c r="B115" t="s">
+        <v>571</v>
+      </c>
+      <c r="C115" t="s">
         <v>572</v>
-      </c>
-      <c r="B115" t="s">
-        <v>573</v>
-      </c>
-      <c r="C115" t="s">
-        <v>574</v>
       </c>
       <c r="D115" t="s">
         <v>27</v>
@@ -5761,21 +5851,21 @@
         <v>125</v>
       </c>
       <c r="G115" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H115" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B116" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C116" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
@@ -5787,21 +5877,21 @@
         <v>126</v>
       </c>
       <c r="G116" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H116" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>575</v>
+      </c>
+      <c r="B117" t="s">
+        <v>576</v>
+      </c>
+      <c r="C117" t="s">
         <v>577</v>
-      </c>
-      <c r="B117" t="s">
-        <v>578</v>
-      </c>
-      <c r="C117" t="s">
-        <v>579</v>
       </c>
       <c r="D117" t="s">
         <v>27</v>
@@ -5813,21 +5903,21 @@
         <v>127</v>
       </c>
       <c r="G117" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H117" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>578</v>
+      </c>
+      <c r="B118" t="s">
+        <v>579</v>
+      </c>
+      <c r="C118" t="s">
         <v>580</v>
-      </c>
-      <c r="B118" t="s">
-        <v>581</v>
-      </c>
-      <c r="C118" t="s">
-        <v>582</v>
       </c>
       <c r="D118" t="s">
         <v>27</v>
@@ -5839,21 +5929,21 @@
         <v>128</v>
       </c>
       <c r="G118" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H118" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>581</v>
+      </c>
+      <c r="B119" t="s">
+        <v>582</v>
+      </c>
+      <c r="C119" t="s">
         <v>583</v>
-      </c>
-      <c r="B119" t="s">
-        <v>584</v>
-      </c>
-      <c r="C119" t="s">
-        <v>585</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
@@ -5865,24 +5955,24 @@
         <v>129</v>
       </c>
       <c r="G119" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H119" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>584</v>
+      </c>
+      <c r="B120" t="s">
+        <v>585</v>
+      </c>
+      <c r="C120" t="s">
         <v>586</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
         <v>587</v>
-      </c>
-      <c r="C120" t="s">
-        <v>588</v>
-      </c>
-      <c r="D120" t="s">
-        <v>589</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -5891,21 +5981,21 @@
         <v>130</v>
       </c>
       <c r="G120" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H120" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>588</v>
+      </c>
+      <c r="B121" t="s">
+        <v>589</v>
+      </c>
+      <c r="C121" t="s">
         <v>590</v>
-      </c>
-      <c r="B121" t="s">
-        <v>591</v>
-      </c>
-      <c r="C121" t="s">
-        <v>592</v>
       </c>
       <c r="D121" t="s">
         <v>27</v>
@@ -5917,21 +6007,21 @@
         <v>131</v>
       </c>
       <c r="G121" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H121" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>591</v>
+      </c>
+      <c r="B122" t="s">
+        <v>592</v>
+      </c>
+      <c r="C122" t="s">
         <v>593</v>
-      </c>
-      <c r="B122" t="s">
-        <v>594</v>
-      </c>
-      <c r="C122" t="s">
-        <v>595</v>
       </c>
       <c r="D122" t="s">
         <v>27</v>
@@ -5943,24 +6033,24 @@
         <v>132</v>
       </c>
       <c r="G122" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H122" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>594</v>
+      </c>
+      <c r="B123" t="s">
+        <v>595</v>
+      </c>
+      <c r="C123" t="s">
         <v>596</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>597</v>
-      </c>
-      <c r="C123" t="s">
-        <v>598</v>
-      </c>
-      <c r="D123" t="s">
-        <v>599</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
@@ -5969,21 +6059,21 @@
         <v>134</v>
       </c>
       <c r="G123" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H123" s="1">
         <v>42796</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>605</v>
+      </c>
+      <c r="B124" t="s">
+        <v>606</v>
+      </c>
+      <c r="C124" t="s">
         <v>607</v>
-      </c>
-      <c r="B124" t="s">
-        <v>608</v>
-      </c>
-      <c r="C124" t="s">
-        <v>609</v>
       </c>
       <c r="D124" t="s">
         <v>27</v>
@@ -5995,13 +6085,13 @@
         <v>135</v>
       </c>
       <c r="G124" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H124" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -6021,13 +6111,13 @@
         <v>137</v>
       </c>
       <c r="G125" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H125" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -6047,13 +6137,13 @@
         <v>138</v>
       </c>
       <c r="G126" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H126" s="1">
         <v>44131</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -6073,13 +6163,13 @@
         <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H127" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>416</v>
       </c>
@@ -6099,13 +6189,13 @@
         <v>141</v>
       </c>
       <c r="G128" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H128" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>295</v>
       </c>
@@ -6125,13 +6215,13 @@
         <v>142</v>
       </c>
       <c r="G129" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H129" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>203</v>
       </c>
@@ -6151,13 +6241,13 @@
         <v>144</v>
       </c>
       <c r="G130" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H130" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>352</v>
       </c>
@@ -6177,13 +6267,13 @@
         <v>145</v>
       </c>
       <c r="G131" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H131" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>228</v>
       </c>
@@ -6203,21 +6293,21 @@
         <v>146</v>
       </c>
       <c r="G132" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H132" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>564</v>
+      </c>
+      <c r="B133" t="s">
+        <v>565</v>
+      </c>
+      <c r="C133" t="s">
         <v>566</v>
-      </c>
-      <c r="B133" t="s">
-        <v>567</v>
-      </c>
-      <c r="C133" t="s">
-        <v>568</v>
       </c>
       <c r="D133" t="s">
         <v>27</v>
@@ -6229,13 +6319,13 @@
         <v>147</v>
       </c>
       <c r="G133" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H133" s="1">
         <v>40326</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>100</v>
       </c>
@@ -6243,7 +6333,7 @@
         <v>101</v>
       </c>
       <c r="C134" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D134" t="s">
         <v>102</v>
@@ -6255,13 +6345,13 @@
         <v>148</v>
       </c>
       <c r="G134" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H134" s="1">
         <v>43230</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>377</v>
       </c>
@@ -6281,13 +6371,13 @@
         <v>149</v>
       </c>
       <c r="G135" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H135" s="1">
         <v>40418</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>381</v>
       </c>
@@ -6307,13 +6397,13 @@
         <v>150</v>
       </c>
       <c r="G136" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H136" s="1">
         <v>40418</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>384</v>
       </c>
@@ -6333,13 +6423,13 @@
         <v>151</v>
       </c>
       <c r="G137" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H137" s="1">
         <v>40418</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>374</v>
       </c>
@@ -6359,13 +6449,13 @@
         <v>152</v>
       </c>
       <c r="G138" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H138" s="1">
         <v>40418</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>506</v>
       </c>
@@ -6385,13 +6475,13 @@
         <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H139" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>516</v>
       </c>
@@ -6402,7 +6492,7 @@
         <v>517</v>
       </c>
       <c r="D140" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -6411,13 +6501,13 @@
         <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H140" s="1">
         <v>43704</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>271</v>
       </c>
@@ -6437,13 +6527,13 @@
         <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H141" s="1">
         <v>41472</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>301</v>
       </c>
@@ -6463,13 +6553,13 @@
         <v>157</v>
       </c>
       <c r="G142" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H142" s="1">
         <v>40451</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>268</v>
       </c>
@@ -6489,13 +6579,13 @@
         <v>159</v>
       </c>
       <c r="G143" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H143" s="1">
         <v>41472</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>526</v>
       </c>
@@ -6515,13 +6605,13 @@
         <v>160</v>
       </c>
       <c r="G144" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H144" s="1">
         <v>42230</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -6541,13 +6631,13 @@
         <v>161</v>
       </c>
       <c r="G145" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H145" s="1">
         <v>40622</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>274</v>
       </c>
@@ -6567,13 +6657,13 @@
         <v>162</v>
       </c>
       <c r="G146" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H146" s="1">
         <v>41472</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>494</v>
       </c>
@@ -6593,13 +6683,13 @@
         <v>163</v>
       </c>
       <c r="G147" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H147" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>80</v>
       </c>
@@ -6619,13 +6709,13 @@
         <v>164</v>
       </c>
       <c r="G148" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H148" s="1">
         <v>43587</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>348</v>
       </c>
@@ -6645,13 +6735,13 @@
         <v>165</v>
       </c>
       <c r="G149" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H149" s="1">
         <v>40947</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>345</v>
       </c>
@@ -6671,13 +6761,13 @@
         <v>166</v>
       </c>
       <c r="G150" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H150" s="1">
         <v>43231</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>258</v>
       </c>
@@ -6697,13 +6787,13 @@
         <v>167</v>
       </c>
       <c r="G151" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H151" s="1">
         <v>41472</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>245</v>
       </c>
@@ -6723,13 +6813,13 @@
         <v>168</v>
       </c>
       <c r="G152" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H152" s="1">
         <v>41472</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>222</v>
       </c>
@@ -6749,13 +6839,13 @@
         <v>169</v>
       </c>
       <c r="G153" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H153" s="1">
         <v>41302</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>422</v>
       </c>
@@ -6775,13 +6865,13 @@
         <v>170</v>
       </c>
       <c r="G154" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H154" s="1">
         <v>41302</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>231</v>
       </c>
@@ -6801,13 +6891,13 @@
         <v>171</v>
       </c>
       <c r="G155" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H155" s="1">
         <v>42545</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>122</v>
       </c>
@@ -6827,13 +6917,13 @@
         <v>172</v>
       </c>
       <c r="G156" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H156" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>261</v>
       </c>
@@ -6853,13 +6943,13 @@
         <v>173</v>
       </c>
       <c r="G157" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H157" s="1">
         <v>41472</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>466</v>
       </c>
@@ -6879,13 +6969,13 @@
         <v>174</v>
       </c>
       <c r="G158" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H158" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>462</v>
       </c>
@@ -6905,13 +6995,13 @@
         <v>175</v>
       </c>
       <c r="G159" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H159" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>241</v>
       </c>
@@ -6931,13 +7021,13 @@
         <v>176</v>
       </c>
       <c r="G160" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H160" s="1">
         <v>41506</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>459</v>
       </c>
@@ -6957,13 +7047,13 @@
         <v>177</v>
       </c>
       <c r="G161" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H161" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>218</v>
       </c>
@@ -6983,13 +7073,13 @@
         <v>178</v>
       </c>
       <c r="G162" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H162" s="1">
         <v>41786</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>40</v>
       </c>
@@ -7009,13 +7099,13 @@
         <v>179</v>
       </c>
       <c r="G163" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H163" s="1">
         <v>44131</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>249</v>
       </c>
@@ -7035,13 +7125,13 @@
         <v>180</v>
       </c>
       <c r="G164" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H164" s="1">
         <v>41843</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -7061,13 +7151,13 @@
         <v>181</v>
       </c>
       <c r="G165" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H165" s="1">
         <v>41946</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>333</v>
       </c>
@@ -7087,13 +7177,13 @@
         <v>182</v>
       </c>
       <c r="G166" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H166" s="1">
         <v>42037</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>339</v>
       </c>
@@ -7113,13 +7203,13 @@
         <v>183</v>
       </c>
       <c r="G167" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H167" s="1">
         <v>41946</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>206</v>
       </c>
@@ -7139,13 +7229,13 @@
         <v>184</v>
       </c>
       <c r="G168" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H168" s="1">
         <v>41984</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>251</v>
       </c>
@@ -7165,13 +7255,13 @@
         <v>185</v>
       </c>
       <c r="G169" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H169" s="1">
         <v>41988</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>361</v>
       </c>
@@ -7191,13 +7281,13 @@
         <v>188</v>
       </c>
       <c r="G170" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H170" s="1">
         <v>42339</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>282</v>
       </c>
@@ -7217,13 +7307,13 @@
         <v>189</v>
       </c>
       <c r="G171" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H171" s="1">
         <v>42348</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>126</v>
       </c>
@@ -7243,13 +7333,13 @@
         <v>190</v>
       </c>
       <c r="G172" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H172" s="1">
         <v>42500</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>84</v>
       </c>
@@ -7269,13 +7359,13 @@
         <v>191</v>
       </c>
       <c r="G173" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H173" s="1">
         <v>42510</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>235</v>
       </c>
@@ -7295,13 +7385,13 @@
         <v>192</v>
       </c>
       <c r="G174" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H174" s="1">
         <v>42537</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>56</v>
       </c>
@@ -7321,13 +7411,13 @@
         <v>193</v>
       </c>
       <c r="G175" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H175" s="1">
         <v>42538</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -7347,13 +7437,13 @@
         <v>194</v>
       </c>
       <c r="G176" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H176" s="1">
         <v>42538</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>51</v>
       </c>
@@ -7373,13 +7463,13 @@
         <v>195</v>
       </c>
       <c r="G177" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H177" s="1">
         <v>42538</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>439</v>
       </c>
@@ -7399,13 +7489,13 @@
         <v>196</v>
       </c>
       <c r="G178" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H178" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>442</v>
       </c>
@@ -7425,13 +7515,13 @@
         <v>197</v>
       </c>
       <c r="G179" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H179" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>406</v>
       </c>
@@ -7451,13 +7541,13 @@
         <v>201</v>
       </c>
       <c r="G180" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H180" s="1">
         <v>42723</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>395</v>
       </c>
@@ -7477,13 +7567,13 @@
         <v>202</v>
       </c>
       <c r="G181" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H181" s="1">
         <v>42752</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>391</v>
       </c>
@@ -7503,13 +7593,13 @@
         <v>203</v>
       </c>
       <c r="G182" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H182" s="1">
         <v>42752</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>521</v>
       </c>
@@ -7529,13 +7619,13 @@
         <v>204</v>
       </c>
       <c r="G183" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H183" s="1">
         <v>44083</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>38</v>
       </c>
@@ -7555,13 +7645,13 @@
         <v>205</v>
       </c>
       <c r="G184" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H184" s="1">
         <v>44078</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>399</v>
       </c>
@@ -7581,24 +7671,24 @@
         <v>206</v>
       </c>
       <c r="G185" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H185" s="1">
         <v>42752</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>598</v>
+      </c>
+      <c r="B186" t="s">
+        <v>599</v>
+      </c>
+      <c r="C186" t="s">
         <v>600</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D186" t="s">
         <v>601</v>
-      </c>
-      <c r="C186" t="s">
-        <v>602</v>
-      </c>
-      <c r="D186" t="s">
-        <v>603</v>
       </c>
       <c r="E186" t="s">
         <v>23</v>
@@ -7607,21 +7697,21 @@
         <v>207</v>
       </c>
       <c r="G186" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H186" s="1">
         <v>42796</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>602</v>
+      </c>
+      <c r="B187" t="s">
+        <v>603</v>
+      </c>
+      <c r="C187" t="s">
         <v>604</v>
-      </c>
-      <c r="B187" t="s">
-        <v>605</v>
-      </c>
-      <c r="C187" t="s">
-        <v>606</v>
       </c>
       <c r="D187" t="s">
         <v>27</v>
@@ -7633,13 +7723,13 @@
         <v>208</v>
       </c>
       <c r="G187" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H187" s="1">
         <v>42796</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>265</v>
       </c>
@@ -7659,13 +7749,13 @@
         <v>209</v>
       </c>
       <c r="G188" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H188" s="1">
         <v>42846</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>238</v>
       </c>
@@ -7685,21 +7775,21 @@
         <v>210</v>
       </c>
       <c r="G189" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H189" s="1">
         <v>42913</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>608</v>
+      </c>
+      <c r="B190" t="s">
+        <v>609</v>
+      </c>
+      <c r="C190" t="s">
         <v>610</v>
-      </c>
-      <c r="B190" t="s">
-        <v>611</v>
-      </c>
-      <c r="C190" t="s">
-        <v>612</v>
       </c>
       <c r="D190" t="s">
         <v>27</v>
@@ -7711,24 +7801,24 @@
         <v>211</v>
       </c>
       <c r="G190" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H190" s="1">
         <v>43035</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>611</v>
+      </c>
+      <c r="B191" t="s">
+        <v>612</v>
+      </c>
+      <c r="C191" t="s">
         <v>613</v>
       </c>
-      <c r="B191" t="s">
+      <c r="D191" t="s">
         <v>614</v>
-      </c>
-      <c r="C191" t="s">
-        <v>615</v>
-      </c>
-      <c r="D191" t="s">
-        <v>616</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
@@ -7737,21 +7827,21 @@
         <v>212</v>
       </c>
       <c r="G191" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H191" s="1">
         <v>43035</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>148</v>
       </c>
       <c r="B192" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C192" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D192" t="s">
         <v>27</v>
@@ -7763,21 +7853,21 @@
         <v>213</v>
       </c>
       <c r="G192" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H192" s="1">
         <v>43230</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>622</v>
+      </c>
+      <c r="B193" t="s">
+        <v>623</v>
+      </c>
+      <c r="C193" t="s">
         <v>624</v>
-      </c>
-      <c r="B193" t="s">
-        <v>625</v>
-      </c>
-      <c r="C193" t="s">
-        <v>626</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
@@ -7789,21 +7879,21 @@
         <v>214</v>
       </c>
       <c r="G193" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H193" s="1">
         <v>44400</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>625</v>
+      </c>
+      <c r="B194" t="s">
+        <v>626</v>
+      </c>
+      <c r="C194" t="s">
         <v>627</v>
-      </c>
-      <c r="B194" t="s">
-        <v>628</v>
-      </c>
-      <c r="C194" t="s">
-        <v>629</v>
       </c>
       <c r="D194" t="s">
         <v>27</v>
@@ -7815,21 +7905,21 @@
         <v>215</v>
       </c>
       <c r="G194" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H194" s="1">
         <v>43230</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>628</v>
+      </c>
+      <c r="B195" t="s">
+        <v>629</v>
+      </c>
+      <c r="C195" t="s">
         <v>630</v>
-      </c>
-      <c r="B195" t="s">
-        <v>631</v>
-      </c>
-      <c r="C195" t="s">
-        <v>632</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
@@ -7841,24 +7931,24 @@
         <v>216</v>
       </c>
       <c r="G195" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H195" s="1">
         <v>43230</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>631</v>
+      </c>
+      <c r="B196" t="s">
+        <v>632</v>
+      </c>
+      <c r="C196" t="s">
         <v>633</v>
       </c>
-      <c r="B196" t="s">
+      <c r="D196" t="s">
         <v>634</v>
-      </c>
-      <c r="C196" t="s">
-        <v>635</v>
-      </c>
-      <c r="D196" t="s">
-        <v>636</v>
       </c>
       <c r="E196" t="s">
         <v>50</v>
@@ -7867,24 +7957,24 @@
         <v>217</v>
       </c>
       <c r="G196" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H196" s="1">
         <v>43333</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B197" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C197" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D197" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -7893,24 +7983,24 @@
         <v>218</v>
       </c>
       <c r="G197" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H197" s="1">
         <v>44028</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>638</v>
+      </c>
+      <c r="B198" t="s">
+        <v>639</v>
+      </c>
+      <c r="C198" t="s">
+        <v>641</v>
+      </c>
+      <c r="D198" t="s">
         <v>640</v>
-      </c>
-      <c r="B198" t="s">
-        <v>641</v>
-      </c>
-      <c r="C198" t="s">
-        <v>643</v>
-      </c>
-      <c r="D198" t="s">
-        <v>642</v>
       </c>
       <c r="E198" t="s">
         <v>50</v>
@@ -7919,24 +8009,24 @@
         <v>219</v>
       </c>
       <c r="G198" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H198" s="1">
         <v>43676</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>642</v>
+      </c>
+      <c r="B199" t="s">
+        <v>643</v>
+      </c>
+      <c r="C199" t="s">
         <v>644</v>
       </c>
-      <c r="B199" t="s">
+      <c r="D199" t="s">
         <v>645</v>
-      </c>
-      <c r="C199" t="s">
-        <v>646</v>
-      </c>
-      <c r="D199" t="s">
-        <v>647</v>
       </c>
       <c r="E199" t="s">
         <v>23</v>
@@ -7945,24 +8035,24 @@
         <v>220</v>
       </c>
       <c r="G199" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H199" s="1">
         <v>43692</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B200" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C200" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D200" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E200" t="s">
         <v>23</v>
@@ -7971,24 +8061,24 @@
         <v>221</v>
       </c>
       <c r="G200" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H200" s="1">
         <v>44034</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>650</v>
+      </c>
+      <c r="B201" t="s">
+        <v>651</v>
+      </c>
+      <c r="C201" t="s">
         <v>652</v>
       </c>
-      <c r="B201" t="s">
+      <c r="D201" t="s">
         <v>653</v>
-      </c>
-      <c r="C201" t="s">
-        <v>654</v>
-      </c>
-      <c r="D201" t="s">
-        <v>655</v>
       </c>
       <c r="E201" t="s">
         <v>23</v>
@@ -7997,24 +8087,24 @@
         <v>222</v>
       </c>
       <c r="G201" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H201" s="1">
         <v>43957</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>654</v>
+      </c>
+      <c r="B202" t="s">
+        <v>655</v>
+      </c>
+      <c r="C202" t="s">
         <v>656</v>
       </c>
-      <c r="B202" t="s">
+      <c r="D202" t="s">
         <v>657</v>
-      </c>
-      <c r="C202" t="s">
-        <v>658</v>
-      </c>
-      <c r="D202" t="s">
-        <v>659</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -8023,24 +8113,24 @@
         <v>223</v>
       </c>
       <c r="G202" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H202" s="1">
         <v>43957</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>658</v>
+      </c>
+      <c r="B203" t="s">
+        <v>659</v>
+      </c>
+      <c r="C203" t="s">
         <v>660</v>
       </c>
-      <c r="B203" t="s">
+      <c r="D203" t="s">
         <v>661</v>
-      </c>
-      <c r="C203" t="s">
-        <v>662</v>
-      </c>
-      <c r="D203" t="s">
-        <v>663</v>
       </c>
       <c r="E203" t="s">
         <v>23</v>
@@ -8049,24 +8139,24 @@
         <v>224</v>
       </c>
       <c r="G203" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H203" s="1">
         <v>43957</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>662</v>
+      </c>
+      <c r="B204" t="s">
+        <v>663</v>
+      </c>
+      <c r="C204" t="s">
         <v>664</v>
       </c>
-      <c r="B204" t="s">
+      <c r="D204" t="s">
         <v>665</v>
-      </c>
-      <c r="C204" t="s">
-        <v>666</v>
-      </c>
-      <c r="D204" t="s">
-        <v>667</v>
       </c>
       <c r="E204" t="s">
         <v>50</v>
@@ -8075,21 +8165,21 @@
         <v>225</v>
       </c>
       <c r="G204" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H204" s="1">
         <v>43943</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>670</v>
+      </c>
+      <c r="B205" t="s">
+        <v>671</v>
+      </c>
+      <c r="C205" t="s">
         <v>672</v>
-      </c>
-      <c r="B205" t="s">
-        <v>673</v>
-      </c>
-      <c r="C205" t="s">
-        <v>674</v>
       </c>
       <c r="D205" t="s">
         <v>27</v>
@@ -8101,21 +8191,21 @@
         <v>226</v>
       </c>
       <c r="G205" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H205" s="1">
         <v>43978</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>673</v>
+      </c>
+      <c r="B206" t="s">
+        <v>674</v>
+      </c>
+      <c r="C206" t="s">
         <v>675</v>
-      </c>
-      <c r="B206" t="s">
-        <v>676</v>
-      </c>
-      <c r="C206" t="s">
-        <v>677</v>
       </c>
       <c r="D206" t="s">
         <v>27</v>
@@ -8127,24 +8217,24 @@
         <v>228</v>
       </c>
       <c r="G206" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H206" s="1">
         <v>44034</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>676</v>
+      </c>
+      <c r="B207" t="s">
+        <v>677</v>
+      </c>
+      <c r="C207" t="s">
+        <v>772</v>
+      </c>
+      <c r="D207" t="s">
         <v>678</v>
-      </c>
-      <c r="B207" t="s">
-        <v>679</v>
-      </c>
-      <c r="C207" t="s">
-        <v>680</v>
-      </c>
-      <c r="D207" t="s">
-        <v>681</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8153,24 +8243,24 @@
         <v>229</v>
       </c>
       <c r="G207" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H207" s="1">
-        <v>44032</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B208" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="C208" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="D208" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E208" t="s">
         <v>23</v>
@@ -8179,24 +8269,24 @@
         <v>230</v>
       </c>
       <c r="G208" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H208" s="1">
-        <v>44447</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44601</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B209" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C209" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D209" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="E209" t="s">
         <v>23</v>
@@ -8205,24 +8295,24 @@
         <v>231</v>
       </c>
       <c r="G209" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H209" s="1">
         <v>44449</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B210" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C210" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D210" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E210" t="s">
         <v>11</v>
@@ -8231,24 +8321,24 @@
         <v>232</v>
       </c>
       <c r="G210" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H210" s="1">
         <v>44408</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B211" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C211" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D211" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E211" t="s">
         <v>50</v>
@@ -8257,24 +8347,24 @@
         <v>233</v>
       </c>
       <c r="G211" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H211" s="1">
         <v>44447</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B212" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C212" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D212" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="E212" t="s">
         <v>23</v>
@@ -8283,24 +8373,24 @@
         <v>234</v>
       </c>
       <c r="G212" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H212" s="1">
         <v>44447</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
+        <v>691</v>
+      </c>
+      <c r="B213" t="s">
+        <v>692</v>
+      </c>
+      <c r="C213" t="s">
+        <v>693</v>
+      </c>
+      <c r="D213" t="s">
         <v>694</v>
-      </c>
-      <c r="B213" t="s">
-        <v>695</v>
-      </c>
-      <c r="C213" t="s">
-        <v>696</v>
-      </c>
-      <c r="D213" t="s">
-        <v>697</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -8309,21 +8399,21 @@
         <v>235</v>
       </c>
       <c r="G213" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H213" s="1">
         <v>44292</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B214" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C214" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D214" t="s">
         <v>27</v>
@@ -8335,50 +8425,50 @@
         <v>236</v>
       </c>
       <c r="G214" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H214" s="1">
         <v>44292</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B215" t="s">
-        <v>701</v>
+        <v>774</v>
       </c>
       <c r="C215" t="s">
-        <v>702</v>
+        <v>775</v>
       </c>
       <c r="D215" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="E215" t="s">
-        <v>743</v>
+        <v>23</v>
       </c>
       <c r="F215">
         <v>237</v>
       </c>
       <c r="G215" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H215" s="1">
-        <v>44447</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B216" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C216" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D216" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E216" t="s">
         <v>50</v>
@@ -8387,24 +8477,24 @@
         <v>238</v>
       </c>
       <c r="G216" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H216" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B217" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C217" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D217" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E217" t="s">
         <v>50</v>
@@ -8413,24 +8503,24 @@
         <v>239</v>
       </c>
       <c r="G217" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H217" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="B218" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C218" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D218" t="s">
-        <v>715</v>
+        <v>758</v>
       </c>
       <c r="E218" t="s">
         <v>50</v>
@@ -8439,24 +8529,24 @@
         <v>240</v>
       </c>
       <c r="G218" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H218" s="1">
-        <v>44392</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44519</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B219" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C219" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D219" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E219" t="s">
         <v>50</v>
@@ -8465,24 +8555,24 @@
         <v>241</v>
       </c>
       <c r="G219" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H219" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B220" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C220" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D220" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E220" t="s">
         <v>50</v>
@@ -8491,24 +8581,24 @@
         <v>242</v>
       </c>
       <c r="G220" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H220" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B221" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C221" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D221" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E221" t="s">
         <v>50</v>
@@ -8517,24 +8607,24 @@
         <v>243</v>
       </c>
       <c r="G221" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H221" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B222" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C222" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D222" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E222" t="s">
         <v>50</v>
@@ -8543,24 +8633,24 @@
         <v>244</v>
       </c>
       <c r="G222" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H222" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B223" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C223" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D223" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E223" t="s">
         <v>50</v>
@@ -8569,24 +8659,24 @@
         <v>245</v>
       </c>
       <c r="G223" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H223" s="1">
         <v>44426</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B224" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C224" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D224" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E224" t="s">
         <v>50</v>
@@ -8595,24 +8685,24 @@
         <v>246</v>
       </c>
       <c r="G224" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H224" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B225" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C225" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D225" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E225" t="s">
         <v>50</v>
@@ -8621,24 +8711,24 @@
         <v>247</v>
       </c>
       <c r="G225" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H225" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B226" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C226" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D226" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E226" t="s">
         <v>50</v>
@@ -8647,24 +8737,24 @@
         <v>248</v>
       </c>
       <c r="G226" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H226" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B227" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C227" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D227" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E227" t="s">
         <v>50</v>
@@ -8673,21 +8763,21 @@
         <v>249</v>
       </c>
       <c r="G227" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H227" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B228" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C228" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D228" t="s">
         <v>27</v>
@@ -8699,21 +8789,21 @@
         <v>250</v>
       </c>
       <c r="G228" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H228" s="1">
         <v>44426</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B229" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C229" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D229" t="s">
         <v>27</v>
@@ -8725,24 +8815,24 @@
         <v>251</v>
       </c>
       <c r="G229" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H229" s="1">
         <v>44426</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B230" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="C230" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="D230" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E230" t="s">
         <v>23</v>
@@ -8751,24 +8841,24 @@
         <v>252</v>
       </c>
       <c r="G230" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H230" s="1">
-        <v>44447</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44602</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B231" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C231" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D231" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E231" t="s">
         <v>23</v>
@@ -8777,24 +8867,24 @@
         <v>253</v>
       </c>
       <c r="G231" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H231" s="1">
-        <v>44452</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="B232" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="C232" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="D232" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="E232" t="s">
         <v>23</v>
@@ -8803,15 +8893,197 @@
         <v>254</v>
       </c>
       <c r="G232" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H232" s="1">
-        <v>44452</v>
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>759</v>
+      </c>
+      <c r="B233" t="s">
+        <v>764</v>
+      </c>
+      <c r="C233" t="s">
+        <v>765</v>
+      </c>
+      <c r="D233" t="s">
+        <v>760</v>
+      </c>
+      <c r="E233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F233">
+        <v>255</v>
+      </c>
+      <c r="G233" t="s">
+        <v>615</v>
+      </c>
+      <c r="H233" s="1">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>766</v>
+      </c>
+      <c r="B234" t="s">
+        <v>767</v>
+      </c>
+      <c r="C234" t="s">
+        <v>768</v>
+      </c>
+      <c r="D234" t="s">
+        <v>798</v>
+      </c>
+      <c r="E234" t="s">
+        <v>23</v>
+      </c>
+      <c r="F234">
+        <v>256</v>
+      </c>
+      <c r="G234" t="s">
+        <v>615</v>
+      </c>
+      <c r="H234" s="1">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>777</v>
+      </c>
+      <c r="B235" t="s">
+        <v>795</v>
+      </c>
+      <c r="C235" t="s">
+        <v>796</v>
+      </c>
+      <c r="D235" t="s">
+        <v>778</v>
+      </c>
+      <c r="E235" t="s">
+        <v>11</v>
+      </c>
+      <c r="F235">
+        <v>257</v>
+      </c>
+      <c r="G235" t="s">
+        <v>615</v>
+      </c>
+      <c r="H235" s="1">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>779</v>
+      </c>
+      <c r="B236" t="s">
+        <v>780</v>
+      </c>
+      <c r="C236" t="s">
+        <v>781</v>
+      </c>
+      <c r="D236" t="s">
+        <v>782</v>
+      </c>
+      <c r="E236" t="s">
+        <v>23</v>
+      </c>
+      <c r="F236">
+        <v>258</v>
+      </c>
+      <c r="G236" t="s">
+        <v>615</v>
+      </c>
+      <c r="H236" s="1">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>783</v>
+      </c>
+      <c r="B237" t="s">
+        <v>784</v>
+      </c>
+      <c r="C237" t="s">
+        <v>785</v>
+      </c>
+      <c r="D237" t="s">
+        <v>786</v>
+      </c>
+      <c r="E237" t="s">
+        <v>23</v>
+      </c>
+      <c r="F237">
+        <v>259</v>
+      </c>
+      <c r="G237" t="s">
+        <v>615</v>
+      </c>
+      <c r="H237" s="1">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>787</v>
+      </c>
+      <c r="B238" t="s">
+        <v>788</v>
+      </c>
+      <c r="C238" t="s">
+        <v>789</v>
+      </c>
+      <c r="D238" t="s">
+        <v>790</v>
+      </c>
+      <c r="E238" t="s">
+        <v>23</v>
+      </c>
+      <c r="F238">
+        <v>260</v>
+      </c>
+      <c r="G238" t="s">
+        <v>615</v>
+      </c>
+      <c r="H238" s="1">
+        <v>44630</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>791</v>
+      </c>
+      <c r="B239" t="s">
+        <v>792</v>
+      </c>
+      <c r="C239" t="s">
+        <v>793</v>
+      </c>
+      <c r="D239" t="s">
+        <v>794</v>
+      </c>
+      <c r="E239" t="s">
+        <v>738</v>
+      </c>
+      <c r="F239">
+        <v>261</v>
+      </c>
+      <c r="G239" t="s">
+        <v>615</v>
+      </c>
+      <c r="H239" s="1">
+        <v>44630</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="20" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B11A90B-ED5F-40BC-A65F-D1C10E5748AA}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0D7EB78-1A57-44AD-8EF2-D9D212F8023D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WEB cvx list" sheetId="47" r:id="rId1"/>
+    <sheet name="WEB cvx list" sheetId="48" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" localSheetId="0" hidden="1">'WEB cvx list'!$A$1:$H$239</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">'WEB cvx list'!$A$1:$H$247</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{ED7E5AE7-4B40-4367-A4C0-1D89997A1DFE}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes11111111111111111111111111" type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{ED0B1E6E-28B3-4E4A-ABD9-3F47F544470F}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes111111111111111111111111111" type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="826">
   <si>
     <t>CVX Code</t>
   </si>
@@ -2428,6 +2428,87 @@
   </si>
   <si>
     <t>FDA EUA 03/29/2022, Moderna booster dose 2.5mL vial presentation only</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 VLP Non-US Vaccine (Medicago, Covifenz)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Virus Like Particle (VLP) Non-US Vaccine Product (Medicago, Covifenz)</t>
+  </si>
+  <si>
+    <t>Pandemic Non-US Vaccine not Authorized by WHO - ACIP does recognize towards immunity in US</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 PS Non-US Vaccine (Anhui Zhifei Longcom, Zifivax)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Protein Subunit Non-US Vaccine Product (Anhui Zhifei Longcom, Zifivax)</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 DNA Non-US Vaccine (Zydus Cadila, ZyCoV-D)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 DNA Non-US Vaccine Product (Zydus Cadila, ZyCoV-D)</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 PS Non-US Vaccine (Medigen, MVC-COV1901)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Protein Subunit Non-US Vaccine Product (Medigen, MVC-COV1901)</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>COV-2 COVID-19 Inactivated Non-US Vaccine Product (Minhai Biotechnology Co, KCONVAC)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Inactivated Non-US Vaccine Product (Minhai Biotechnology Co, KCONVAC)</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 PS Non-US Vaccine (Biological E Limited, Corbevax)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Protein Subunit Non-US Vaccine Product (Biological E Limited, Corbevax)</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, pediatric 50 mcg/0.5 mL dose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, pediatric 50 mcg/0.5 mL dose</t>
+  </si>
+  <si>
+    <t>Pre-EUA Moderna Pediatric 6yr to&lt;12 yr vaccine 2.5 mL vial, 50 mcg/0.5 mL dose</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, PF, pediatric 25 mcg/0.25 mL dose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, pediatric 25 mcg/0.25 mL dose</t>
+  </si>
+  <si>
+    <t>Pre-EUA Moderna Pediatric 6mo to&lt;6yr 2.5 mL vial, 25 mcg/0.25 mL dose</t>
   </si>
 </sst>
 </file>
@@ -2435,7 +2516,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -2475,7 +2556,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2491,7 +2572,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes_1" connectionId="1" xr16:uid="{EF101FE4-4086-4396-9F8F-191A84734629}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{9F851C33-44E3-421E-8029-DB537F28EAFA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
@@ -2511,16 +2592,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C59044EB-852A-4634-A34B-F161A521B6BD}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" ref="A1:H239" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BCA8BF2C-20C2-4C01-A9A1-E26E0C7CD2B0}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H247" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{62823254-6479-441F-90FD-DECD59D91DC0}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{D31DA72F-629A-4EE5-8B18-C52AD196FE64}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{934F6B8F-B58D-4393-A359-56FE39EA6C32}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{F2DE8279-FAB0-4449-9BA5-1A4C10A90084}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{059A9EBB-0C55-41C7-BF8B-F8C568758BBE}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{06C55A2D-D90A-4B77-BBDC-B12220EF17D2}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{7B2E4500-FEE2-4CE4-9AE9-5CF2A1C7E1D9}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{98FA754C-3927-49E1-9DA9-87981018FFE1}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F2654376-AF8E-4C2A-BDA2-4C8E6A9F52CF}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{DF8A440B-53A7-4B06-97E4-FCB436AE01B8}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{4A00DA9F-1F34-45A9-A9F1-36CB98A0A39F}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{1105948F-93AC-4B5B-8B9A-CE8C8D74B959}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{14D5DC58-669F-414B-B5A6-D56A7FBBEE1F}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{6241FCBF-E936-468C-81AB-A0363389F43B}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{B9F4AD64-E9E6-429F-8FBB-BFDFA7DA7819}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{BFAF6871-50AB-4D2E-8406-219495F631BB}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2846,24 +2927,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8946C10C-C798-47F5-907C-8094165B04CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90FE9E-F67E-49C9-9B0E-08DFB6E83501}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="H233" sqref="H233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
     <col min="3" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8974,7 +9055,7 @@
         <v>615</v>
       </c>
       <c r="H235" s="1">
-        <v>44623</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -9081,9 +9162,217 @@
         <v>44630</v>
       </c>
     </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>799</v>
+      </c>
+      <c r="B240" t="s">
+        <v>800</v>
+      </c>
+      <c r="C240" t="s">
+        <v>801</v>
+      </c>
+      <c r="D240" t="s">
+        <v>802</v>
+      </c>
+      <c r="E240" t="s">
+        <v>50</v>
+      </c>
+      <c r="F240">
+        <v>262</v>
+      </c>
+      <c r="G240" t="s">
+        <v>615</v>
+      </c>
+      <c r="H240" s="1">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>803</v>
+      </c>
+      <c r="B241" t="s">
+        <v>804</v>
+      </c>
+      <c r="C241" t="s">
+        <v>805</v>
+      </c>
+      <c r="D241" t="s">
+        <v>710</v>
+      </c>
+      <c r="E241" t="s">
+        <v>50</v>
+      </c>
+      <c r="F241">
+        <v>263</v>
+      </c>
+      <c r="G241" t="s">
+        <v>615</v>
+      </c>
+      <c r="H241" s="1">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>806</v>
+      </c>
+      <c r="B242" t="s">
+        <v>807</v>
+      </c>
+      <c r="C242" t="s">
+        <v>808</v>
+      </c>
+      <c r="D242" t="s">
+        <v>710</v>
+      </c>
+      <c r="E242" t="s">
+        <v>50</v>
+      </c>
+      <c r="F242">
+        <v>264</v>
+      </c>
+      <c r="G242" t="s">
+        <v>615</v>
+      </c>
+      <c r="H242" s="1">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>809</v>
+      </c>
+      <c r="B243" t="s">
+        <v>810</v>
+      </c>
+      <c r="C243" t="s">
+        <v>811</v>
+      </c>
+      <c r="D243" t="s">
+        <v>710</v>
+      </c>
+      <c r="E243" t="s">
+        <v>50</v>
+      </c>
+      <c r="F243">
+        <v>265</v>
+      </c>
+      <c r="G243" t="s">
+        <v>615</v>
+      </c>
+      <c r="H243" s="1">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>812</v>
+      </c>
+      <c r="B244" t="s">
+        <v>813</v>
+      </c>
+      <c r="C244" t="s">
+        <v>814</v>
+      </c>
+      <c r="D244" t="s">
+        <v>710</v>
+      </c>
+      <c r="E244" t="s">
+        <v>50</v>
+      </c>
+      <c r="F244">
+        <v>266</v>
+      </c>
+      <c r="G244" t="s">
+        <v>615</v>
+      </c>
+      <c r="H244" s="1">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>815</v>
+      </c>
+      <c r="B245" t="s">
+        <v>816</v>
+      </c>
+      <c r="C245" t="s">
+        <v>817</v>
+      </c>
+      <c r="D245" t="s">
+        <v>710</v>
+      </c>
+      <c r="E245" t="s">
+        <v>50</v>
+      </c>
+      <c r="F245">
+        <v>267</v>
+      </c>
+      <c r="G245" t="s">
+        <v>615</v>
+      </c>
+      <c r="H245" s="1">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>818</v>
+      </c>
+      <c r="B246" t="s">
+        <v>819</v>
+      </c>
+      <c r="C246" t="s">
+        <v>820</v>
+      </c>
+      <c r="D246" t="s">
+        <v>821</v>
+      </c>
+      <c r="E246" t="s">
+        <v>23</v>
+      </c>
+      <c r="F246">
+        <v>268</v>
+      </c>
+      <c r="G246" t="s">
+        <v>615</v>
+      </c>
+      <c r="H246" s="1">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>822</v>
+      </c>
+      <c r="B247" t="s">
+        <v>823</v>
+      </c>
+      <c r="C247" t="s">
+        <v>824</v>
+      </c>
+      <c r="D247" t="s">
+        <v>825</v>
+      </c>
+      <c r="E247" t="s">
+        <v>23</v>
+      </c>
+      <c r="F247">
+        <v>269</v>
+      </c>
+      <c r="G247" t="s">
+        <v>615</v>
+      </c>
+      <c r="H247" s="1">
+        <v>44663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="20" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="19" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0D7EB78-1A57-44AD-8EF2-D9D212F8023D}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC23B65-7026-449C-BDDC-CE63038E5ABF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WEB cvx list" sheetId="48" r:id="rId1"/>
+    <sheet name="Web_cvx" sheetId="52" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">'WEB cvx list'!$A$1:$H$247</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$250</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{ED0B1E6E-28B3-4E4A-ABD9-3F47F544470F}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes111111111111111111111111111" type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{A63DE44A-9760-4C34-A3AF-2F5B6F04394B}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes1111111111111111111111111111111" type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="838">
   <si>
     <t>CVX Code</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Diphtheria and Tetanus Toxoids and Acellular Pertussis Adsorbed, Inactivated Poliovirus, Haemophilus b Conjugate (Meningococcal Protein Conjugate), and Hepatitis B (Recombinant) Vaccine.</t>
   </si>
   <si>
-    <t>Note that this vaccine is different from CVX 132.</t>
-  </si>
-  <si>
     <t>170</t>
   </si>
   <si>
@@ -1974,9 +1971,6 @@
     <t>This CVX code allows reporting of a historic vaccination when the formulation is unknown (for example, when recording a Td vaccination when noted on a vaccination card)</t>
   </si>
   <si>
-    <t>Applies to dengue tetravalent product (e.g. DENGVAXIA)</t>
-  </si>
-  <si>
     <t>197</t>
   </si>
   <si>
@@ -2064,12 +2058,6 @@
     <t>206</t>
   </si>
   <si>
-    <t>Smallpox monkeypox vaccine (National Stockpile)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Stockpile Only. FDA US Licensed products JYNNEOS (also brandnames IMVAMUNE, IMVANEX) </t>
-  </si>
-  <si>
     <t>207</t>
   </si>
   <si>
@@ -2271,15 +2259,6 @@
     <t>Pneumococcal conjugate vaccine 20-valent (PCV20), polysaccharide CRM197 conjugate, adjuvant, preservative free</t>
   </si>
   <si>
-    <t>FDA EUA 12/18/2020, 2-dose vaccine.  Used to record Moderna vaccines administered in the US and in non-US locations (includes tradename Spikevax)</t>
-  </si>
-  <si>
-    <t>FDA BLA 08/23/2021 for adult dose (16+ years). Still under EUA for adolescent doses and presentations. EUA 12/11/2020, 2-dose vaccine. Used to record Pfizer vaccines administered in the US and in non-US locations (includes tradename Comirnaty)</t>
-  </si>
-  <si>
-    <t>Potential FDA EUA, 2-dose vaccine. AstraZeneca vaccine is authorized by the WHO and recognized towards immunity in the US. Non-US WHO authorized tradenames/identifiers include VAXZEVRIA, AZD1222, ChAdOx1 nCoV-19, COVISHIELD</t>
-  </si>
-  <si>
     <t>219</t>
   </si>
   <si>
@@ -2322,9 +2301,6 @@
     <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 100 mcg/0.5mL dose or 50 mcg/0.25mL dose</t>
   </si>
   <si>
-    <t>Potential FDA EUA, Pfizer tris-sucrose vaccine for 6 mo through 4 years of age</t>
-  </si>
-  <si>
     <t>HepB recombinant, 3-antigen, Al(OH)3</t>
   </si>
   <si>
@@ -2340,18 +2316,12 @@
     <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, 50 mcg/0.5 mL dose</t>
   </si>
   <si>
-    <t>EUA 12+ yrs, BLA 16+ yrs Pfizer tris-sucrose formulation vaccine for ages 12 and older</t>
-  </si>
-  <si>
     <t>Tick-borne encephalitis vaccine (non-US)</t>
   </si>
   <si>
     <t>Non-US vaccine</t>
   </si>
   <si>
-    <t>Vaccinia, smallpox monkeypox vaccine, live attenuated, preservative free (National Stockpile)</t>
-  </si>
-  <si>
     <t>FDA EUA 02/27/2021, 1-dose vaccine. Used to record Janssen/J&amp;J vaccines administered in the US and in non-US locations</t>
   </si>
   <si>
@@ -2361,9 +2331,6 @@
     <t>SARS-COV-2 (COVID-19) vaccine, subunit, recombinant spike protein-nanoparticle+Matrix-M1 Adjuvant, preservative free, 0.5mL dose</t>
   </si>
   <si>
-    <t>Pre-EUA Authorization - Novavax Primary Series dose</t>
-  </si>
-  <si>
     <t>222</t>
   </si>
   <si>
@@ -2424,12 +2391,6 @@
     <t>Tick-borne encephalitis vaccine, unspecified</t>
   </si>
   <si>
-    <t>FDA EUA 01/03/2022, Pfizer tris-sucrose vaccine for 5 through 11 years of age</t>
-  </si>
-  <si>
-    <t>FDA EUA 03/29/2022, Moderna booster dose 2.5mL vial presentation only</t>
-  </si>
-  <si>
     <t>512</t>
   </si>
   <si>
@@ -2496,9 +2457,6 @@
     <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, pediatric 50 mcg/0.5 mL dose</t>
   </si>
   <si>
-    <t>Pre-EUA Moderna Pediatric 6yr to&lt;12 yr vaccine 2.5 mL vial, 50 mcg/0.5 mL dose</t>
-  </si>
-  <si>
     <t>228</t>
   </si>
   <si>
@@ -2508,7 +2466,85 @@
     <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, preservative free, pediatric 25 mcg/0.25 mL dose</t>
   </si>
   <si>
-    <t>Pre-EUA Moderna Pediatric 6mo to&lt;6yr 2.5 mL vial, 25 mcg/0.25 mL dose</t>
+    <t>Applies to tetravalent product (e.g. DENGVAXIA)</t>
+  </si>
+  <si>
+    <t>Temporarily inactivated -  Use CVX code 221 for EUA Moderna Pediatric 6yr to&lt;12 yr vaccine 2.5 mL vial, 50 mcg/0.5 mL dose</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>This vaccine is different from CVX 132. Code may be used to document non-US vaccines (e.g. Hexamin) of the same component formulation</t>
+  </si>
+  <si>
+    <t>Vaccinia, smallpox monkeypox vaccine live, PF, SQ or ID injection</t>
+  </si>
+  <si>
+    <t>Vaccinia, smallpox monkeypox vaccine, live attenuated, preservative free, subcutaneous or intradermal injection</t>
+  </si>
+  <si>
+    <t>Associated to FDA US Licensed product JYNNEOS, non-US tradenames IMVANEX, IMVAMUNE. Review CDC &amp; FDA guidance for updates regarding administration</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, bivalent booster, PF, 50 mcg/0.5 mL or 25mcg/0.25 mL dose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent booster, preservative free, 50 mcg/0.5 mL or 25 mcg/0.25 mL dose</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, bivalent booster, PF, 10 mcg/0.2 mL dose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent booster, preservative free, 10 mcg/0.2 mL dose, tris-sucrose formulation</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, bivalent booster, PF, 30 mcg/0.3 mL dose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent booster, preservative free, 30 mcg/0.3 mL dose, tris-sucrose formulation</t>
+  </si>
+  <si>
+    <t>FDA EUA and BLA (18+ yrs), Moderna adult primary series and IC dose. EUA 8/31/2022 rescinded monovalent booster dose. Used to record Moderna vaccines administered in the US and in non-US locations (includes tradename Spikevax)</t>
+  </si>
+  <si>
+    <t>FDA EUA (12+ yrs) and BLA (16+ yrs), Pfizer adult primary series and IC dose original formulation. EUA 8/31/2022 rescinded monovalent booster dose. Used to record Pfizer vaccines administered in the US and in non-US locations (includes tradename Comirnaty)</t>
+  </si>
+  <si>
+    <t>Submission for FDA EUA withdrawn, 2-dose vaccine. AstraZeneca vaccine is authorized by the WHO and recognized towards immunity in the US. Non-US WHO authorized tradenames/identifiers include VAXZEVRIA, AZD1222, ChAdOx1 nCoV-19, COVISHIELD</t>
+  </si>
+  <si>
+    <t>FDA EUA Authorized, Novavax primary series adult dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDA EUA (6 mo through 4 yrs), Pfizer tris-sucrose pediatric primary series </t>
+  </si>
+  <si>
+    <t>FDA EUA (12+ yrs) and BLA (16+ yrs), Pfizer adult primary series and IC dose tris-sucrose formulation. EUA 8/31/2022 rescinded monovalent booster dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDA EUA (5 yrs through 11 yrs), Pfizer tris-sucrose pediatric primary series, IC, and booster </t>
+  </si>
+  <si>
+    <t>FDA EUA Moderna, EUA 8/31/2022 rescinded use of this product for adult monovalent booster dose.  Vaccine now only authorized for 6 yrs through 11 primary series and IC doses</t>
+  </si>
+  <si>
+    <t>FDA EUA Authorized (6 mo through 5 yrs), Moderna pediatric primary series and IC dose</t>
+  </si>
+  <si>
+    <t>FDA EUA 8/31/2022 (18+ yrs) Moderna bivalent booster, EUA pending for ages 6 yrs through 11 yrs, original strain + omicron BA.4/BA.5</t>
+  </si>
+  <si>
+    <t>Pre-EUA (5 yrs through 11 yrs) Pfizer bivalent booster, original strain + omicron BA.4/BA.5</t>
+  </si>
+  <si>
+    <t>FDA EUA 08/31/2022 (12+ yrs) Pfizer adult bivalent booster, original strain + omicron BA.4/BA.5</t>
   </si>
 </sst>
 </file>
@@ -2572,7 +2608,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{9F851C33-44E3-421E-8029-DB537F28EAFA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{F9F2C638-DDA4-4C27-99DF-DE3068B51934}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
@@ -2592,16 +2628,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BCA8BF2C-20C2-4C01-A9A1-E26E0C7CD2B0}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H247" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BAE7DBAD-138F-4C11-8EF5-5679FEEE3055}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H250" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{F2654376-AF8E-4C2A-BDA2-4C8E6A9F52CF}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{DF8A440B-53A7-4B06-97E4-FCB436AE01B8}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{4A00DA9F-1F34-45A9-A9F1-36CB98A0A39F}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{1105948F-93AC-4B5B-8B9A-CE8C8D74B959}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{14D5DC58-669F-414B-B5A6-D56A7FBBEE1F}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{6241FCBF-E936-468C-81AB-A0363389F43B}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{B9F4AD64-E9E6-429F-8FBB-BFDFA7DA7819}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{BFAF6871-50AB-4D2E-8406-219495F631BB}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0B18EB4D-5406-44BC-9597-2303E0F1DDA9}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{64663404-49DE-4C8B-A55C-EE2DE4D9E96F}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{62C236DC-6981-4022-AE0C-1DA9F19127ED}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{733A126D-D182-4CE5-B6EC-E054C989A51F}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{944A6A55-1C71-42AD-A02B-4DF8FCF4A490}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{893050A3-819E-4ED6-9EEF-350A9EA5125D}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{64006BB4-A10C-4160-9585-BAEA5E60107F}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{A1701059-78D7-431A-B2CC-979BDC1FB6DF}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2927,24 +2963,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90FE9E-F67E-49C9-9B0E-08DFB6E83501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DB2153-E53C-46D7-AE0F-B8BDF4FA0A98}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2994,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H2" s="1">
         <v>40326</v>
@@ -3020,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H3" s="1">
         <v>40326</v>
@@ -3046,7 +3082,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H4" s="1">
         <v>40451</v>
@@ -3072,7 +3108,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H5" s="1">
         <v>43627</v>
@@ -3098,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H6" s="1">
         <v>40326</v>
@@ -3124,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H7" s="1">
         <v>44078</v>
@@ -3150,7 +3186,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H8" s="1">
         <v>42538</v>
@@ -3176,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H9" s="1">
         <v>44078</v>
@@ -3193,7 +3229,7 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>647</v>
+        <v>811</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -3202,10 +3238,10 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H10" s="1">
-        <v>43732</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -3228,7 +3264,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H11" s="1">
         <v>44078</v>
@@ -3254,7 +3290,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H12" s="1">
         <v>40326</v>
@@ -3280,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H13" s="1">
         <v>40326</v>
@@ -3306,7 +3342,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H14" s="1">
         <v>40326</v>
@@ -3332,7 +3368,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H15" s="1">
         <v>40451</v>
@@ -3340,13 +3376,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>89</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -3358,7 +3394,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H16" s="1">
         <v>40326</v>
@@ -3366,13 +3402,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
         <v>91</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -3384,7 +3420,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H17" s="1">
         <v>42814</v>
@@ -3392,13 +3428,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -3410,7 +3446,7 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H18" s="1">
         <v>40326</v>
@@ -3418,13 +3454,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>99</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -3436,7 +3472,7 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H19" s="1">
         <v>40326</v>
@@ -3444,13 +3480,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
         <v>103</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -3462,7 +3498,7 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H20" s="1">
         <v>40326</v>
@@ -3470,13 +3506,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
         <v>106</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -3488,7 +3524,7 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H21" s="1">
         <v>42817</v>
@@ -3496,16 +3532,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>110</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
       </c>
       <c r="E22" t="s">
         <v>50</v>
@@ -3514,7 +3550,7 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H22" s="1">
         <v>42510</v>
@@ -3522,13 +3558,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
         <v>113</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>114</v>
-      </c>
-      <c r="C23" t="s">
-        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -3540,7 +3576,7 @@
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H23" s="1">
         <v>44083</v>
@@ -3548,13 +3584,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>120</v>
-      </c>
-      <c r="C24" t="s">
-        <v>121</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -3566,7 +3602,7 @@
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H24" s="1">
         <v>40326</v>
@@ -3574,13 +3610,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
         <v>130</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>131</v>
-      </c>
-      <c r="C25" t="s">
-        <v>132</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -3592,7 +3628,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H25" s="1">
         <v>40326</v>
@@ -3600,16 +3636,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
         <v>133</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>134</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>135</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -3618,7 +3654,7 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H26" s="1">
         <v>40326</v>
@@ -3626,16 +3662,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
         <v>137</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>139</v>
-      </c>
-      <c r="D27" t="s">
-        <v>140</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -3644,7 +3680,7 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H27" s="1">
         <v>40451</v>
@@ -3652,16 +3688,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
         <v>141</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>142</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>144</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -3670,7 +3706,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H28" s="1">
         <v>40451</v>
@@ -3678,13 +3714,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
         <v>145</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>146</v>
-      </c>
-      <c r="C29" t="s">
-        <v>147</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -3696,7 +3732,7 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H29" s="1">
         <v>40326</v>
@@ -3704,13 +3740,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
         <v>116</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>117</v>
-      </c>
-      <c r="C30" t="s">
-        <v>118</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
@@ -3722,7 +3758,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H30" s="1">
         <v>44078</v>
@@ -3730,16 +3766,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
         <v>149</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>150</v>
       </c>
-      <c r="C31" t="s">
-        <v>151</v>
-      </c>
       <c r="D31" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -3748,7 +3784,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H31" s="1">
         <v>43230</v>
@@ -3756,16 +3792,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" t="s">
         <v>152</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>153</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>154</v>
-      </c>
-      <c r="D32" t="s">
-        <v>155</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -3774,7 +3810,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H32" s="1">
         <v>40326</v>
@@ -3782,16 +3818,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
         <v>156</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>157</v>
       </c>
-      <c r="C33" t="s">
-        <v>158</v>
-      </c>
       <c r="D33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
@@ -3800,7 +3836,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H33" s="1">
         <v>43230</v>
@@ -3808,16 +3844,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
         <v>159</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>160</v>
       </c>
-      <c r="C34" t="s">
-        <v>161</v>
-      </c>
       <c r="D34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -3826,7 +3862,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H34" s="1">
         <v>43593</v>
@@ -3834,16 +3870,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
         <v>162</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>163</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>164</v>
-      </c>
-      <c r="D35" t="s">
-        <v>165</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -3852,7 +3888,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H35" s="1">
         <v>40451</v>
@@ -3860,13 +3896,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" t="s">
         <v>166</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>167</v>
-      </c>
-      <c r="C36" t="s">
-        <v>168</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
@@ -3878,7 +3914,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H36" s="1">
         <v>44083</v>
@@ -3886,13 +3922,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" t="s">
         <v>169</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>170</v>
-      </c>
-      <c r="C37" t="s">
-        <v>171</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -3904,7 +3940,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H37" s="1">
         <v>44083</v>
@@ -3912,13 +3948,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" t="s">
         <v>172</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>173</v>
-      </c>
-      <c r="C38" t="s">
-        <v>174</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -3930,7 +3966,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H38" s="1">
         <v>44083</v>
@@ -3938,13 +3974,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" t="s">
         <v>178</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>179</v>
-      </c>
-      <c r="C39" t="s">
-        <v>180</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -3956,7 +3992,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H39" s="1">
         <v>40326</v>
@@ -3964,13 +4000,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" t="s">
         <v>175</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>176</v>
-      </c>
-      <c r="C40" t="s">
-        <v>177</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -3982,7 +4018,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H40" s="1">
         <v>40326</v>
@@ -3990,13 +4026,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
         <v>184</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>185</v>
-      </c>
-      <c r="C41" t="s">
-        <v>186</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -4008,7 +4044,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H41" s="1">
         <v>40326</v>
@@ -4016,13 +4052,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s">
         <v>181</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>182</v>
-      </c>
-      <c r="C42" t="s">
-        <v>183</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
@@ -4034,7 +4070,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H42" s="1">
         <v>40326</v>
@@ -4042,13 +4078,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" t="s">
         <v>187</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>188</v>
-      </c>
-      <c r="C43" t="s">
-        <v>189</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -4060,7 +4096,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H43" s="1">
         <v>40451</v>
@@ -4068,16 +4104,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" t="s">
         <v>190</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>191</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>192</v>
-      </c>
-      <c r="D44" t="s">
-        <v>193</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -4086,7 +4122,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H44" s="1">
         <v>42440</v>
@@ -4094,13 +4130,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" t="s">
         <v>194</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>195</v>
-      </c>
-      <c r="C45" t="s">
-        <v>196</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
@@ -4112,7 +4148,7 @@
         <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H45" s="1">
         <v>44083</v>
@@ -4120,13 +4156,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" t="s">
         <v>197</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>198</v>
-      </c>
-      <c r="C46" t="s">
-        <v>199</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
@@ -4138,7 +4174,7 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H46" s="1">
         <v>40326</v>
@@ -4146,13 +4182,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" t="s">
         <v>200</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>201</v>
-      </c>
-      <c r="C47" t="s">
-        <v>202</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
@@ -4164,7 +4200,7 @@
         <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H47" s="1">
         <v>43984</v>
@@ -4172,13 +4208,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" t="s">
         <v>209</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>210</v>
-      </c>
-      <c r="C48" t="s">
-        <v>211</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
@@ -4190,7 +4226,7 @@
         <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H48" s="1">
         <v>44078</v>
@@ -4198,13 +4234,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
         <v>215</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>216</v>
-      </c>
-      <c r="C49" t="s">
-        <v>217</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -4216,7 +4252,7 @@
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H49" s="1">
         <v>44078</v>
@@ -4224,13 +4260,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" t="s">
         <v>212</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>213</v>
-      </c>
-      <c r="C50" t="s">
-        <v>214</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
@@ -4242,7 +4278,7 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H50" s="1">
         <v>44078</v>
@@ -4250,16 +4286,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" t="s">
         <v>254</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>255</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>256</v>
-      </c>
-      <c r="D51" t="s">
-        <v>257</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -4268,7 +4304,7 @@
         <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H51" s="1">
         <v>41904</v>
@@ -4276,16 +4312,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" t="s">
         <v>278</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>279</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>280</v>
-      </c>
-      <c r="D52" t="s">
-        <v>281</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -4294,7 +4330,7 @@
         <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H52" s="1">
         <v>40451</v>
@@ -4302,13 +4338,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" t="s">
         <v>289</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>290</v>
-      </c>
-      <c r="C53" t="s">
-        <v>291</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
@@ -4320,7 +4356,7 @@
         <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H53" s="1">
         <v>40326</v>
@@ -4328,16 +4364,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" t="s">
         <v>285</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>286</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>287</v>
-      </c>
-      <c r="D54" t="s">
-        <v>288</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -4346,7 +4382,7 @@
         <v>57</v>
       </c>
       <c r="G54" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H54" s="1">
         <v>40451</v>
@@ -4354,13 +4390,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
         <v>225</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>226</v>
-      </c>
-      <c r="C55" t="s">
-        <v>227</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
@@ -4372,7 +4408,7 @@
         <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H55" s="1">
         <v>40326</v>
@@ -4380,13 +4416,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" t="s">
         <v>292</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>293</v>
-      </c>
-      <c r="C56" t="s">
-        <v>294</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
@@ -4398,7 +4434,7 @@
         <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H56" s="1">
         <v>40326</v>
@@ -4406,16 +4442,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>386</v>
+      </c>
+      <c r="B57" t="s">
         <v>387</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>388</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>389</v>
-      </c>
-      <c r="D57" t="s">
-        <v>390</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -4424,7 +4460,7 @@
         <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H57" s="1">
         <v>42776</v>
@@ -4432,16 +4468,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" t="s">
         <v>432</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>433</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>434</v>
-      </c>
-      <c r="D58" t="s">
-        <v>435</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -4450,7 +4486,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H58" s="1">
         <v>40451</v>
@@ -4458,13 +4494,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" t="s">
         <v>298</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>299</v>
-      </c>
-      <c r="C59" t="s">
-        <v>300</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
@@ -4476,7 +4512,7 @@
         <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H59" s="1">
         <v>42271</v>
@@ -4484,13 +4520,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60" t="s">
         <v>305</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>306</v>
-      </c>
-      <c r="C60" t="s">
-        <v>307</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
@@ -4502,7 +4538,7 @@
         <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H60" s="1">
         <v>44083</v>
@@ -4510,13 +4546,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>307</v>
+      </c>
+      <c r="B61" t="s">
         <v>308</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>309</v>
-      </c>
-      <c r="C61" t="s">
-        <v>310</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
@@ -4528,7 +4564,7 @@
         <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H61" s="1">
         <v>44083</v>
@@ -4536,13 +4572,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B62" t="s">
         <v>311</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>312</v>
-      </c>
-      <c r="C62" t="s">
-        <v>313</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
@@ -4554,7 +4590,7 @@
         <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H62" s="1">
         <v>44083</v>
@@ -4562,13 +4598,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" t="s">
         <v>314</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>315</v>
-      </c>
-      <c r="C63" t="s">
-        <v>316</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
@@ -4580,7 +4616,7 @@
         <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H63" s="1">
         <v>40326</v>
@@ -4588,13 +4624,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>364</v>
+      </c>
+      <c r="B64" t="s">
         <v>365</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>366</v>
-      </c>
-      <c r="C64" t="s">
-        <v>367</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
@@ -4606,7 +4642,7 @@
         <v>68</v>
       </c>
       <c r="G64" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H64" s="1">
         <v>40326</v>
@@ -4614,13 +4650,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" t="s">
         <v>317</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>318</v>
-      </c>
-      <c r="C65" t="s">
-        <v>319</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
@@ -4632,7 +4668,7 @@
         <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H65" s="1">
         <v>40326</v>
@@ -4640,13 +4676,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>367</v>
+      </c>
+      <c r="B66" t="s">
         <v>368</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>369</v>
-      </c>
-      <c r="C66" t="s">
-        <v>370</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
@@ -4658,7 +4694,7 @@
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H66" s="1">
         <v>40326</v>
@@ -4666,13 +4702,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>319</v>
+      </c>
+      <c r="B67" t="s">
         <v>320</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>321</v>
-      </c>
-      <c r="C67" t="s">
-        <v>322</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
@@ -4684,7 +4720,7 @@
         <v>71</v>
       </c>
       <c r="G67" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H67" s="1">
         <v>44083</v>
@@ -4692,13 +4728,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>322</v>
+      </c>
+      <c r="B68" t="s">
         <v>323</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>324</v>
-      </c>
-      <c r="C68" t="s">
-        <v>325</v>
       </c>
       <c r="D68" t="s">
         <v>27</v>
@@ -4710,7 +4746,7 @@
         <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H68" s="1">
         <v>40421</v>
@@ -4718,13 +4754,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" t="s">
         <v>326</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>327</v>
-      </c>
-      <c r="C69" t="s">
-        <v>328</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
@@ -4736,7 +4772,7 @@
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H69" s="1">
         <v>44083</v>
@@ -4744,13 +4780,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>357</v>
+      </c>
+      <c r="B70" t="s">
         <v>358</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>359</v>
-      </c>
-      <c r="C70" t="s">
-        <v>360</v>
       </c>
       <c r="D70" t="s">
         <v>27</v>
@@ -4762,7 +4798,7 @@
         <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H70" s="1">
         <v>43035</v>
@@ -4770,13 +4806,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>341</v>
+      </c>
+      <c r="B71" t="s">
         <v>342</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>343</v>
-      </c>
-      <c r="C71" t="s">
-        <v>344</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
@@ -4788,7 +4824,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H71" s="1">
         <v>40326</v>
@@ -4796,13 +4832,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>354</v>
+      </c>
+      <c r="B72" t="s">
         <v>355</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>356</v>
-      </c>
-      <c r="C72" t="s">
-        <v>357</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
@@ -4814,7 +4850,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H72" s="1">
         <v>40326</v>
@@ -4822,16 +4858,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>328</v>
+      </c>
+      <c r="B73" t="s">
         <v>329</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>330</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>331</v>
-      </c>
-      <c r="D73" t="s">
-        <v>332</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -4840,7 +4876,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H73" s="1">
         <v>42339</v>
@@ -4848,13 +4884,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>370</v>
+      </c>
+      <c r="B74" t="s">
         <v>371</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>372</v>
-      </c>
-      <c r="C74" t="s">
-        <v>373</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
@@ -4866,7 +4902,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H74" s="1">
         <v>42173</v>
@@ -4874,13 +4910,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>402</v>
+      </c>
+      <c r="B75" t="s">
         <v>403</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>404</v>
-      </c>
-      <c r="C75" t="s">
-        <v>405</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
@@ -4892,7 +4928,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H75" s="1">
         <v>40326</v>
@@ -4900,13 +4936,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>409</v>
+      </c>
+      <c r="B76" t="s">
         <v>410</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>411</v>
-      </c>
-      <c r="C76" t="s">
-        <v>412</v>
       </c>
       <c r="D76" t="s">
         <v>27</v>
@@ -4918,7 +4954,7 @@
         <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H76" s="1">
         <v>40326</v>
@@ -4926,13 +4962,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77" t="s">
         <v>413</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>414</v>
-      </c>
-      <c r="C77" t="s">
-        <v>415</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
@@ -4944,7 +4980,7 @@
         <v>82</v>
       </c>
       <c r="G77" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H77" s="1">
         <v>43237</v>
@@ -4952,13 +4988,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" t="s">
         <v>425</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>426</v>
-      </c>
-      <c r="C78" t="s">
-        <v>427</v>
       </c>
       <c r="D78" t="s">
         <v>27</v>
@@ -4970,7 +5006,7 @@
         <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H78" s="1">
         <v>40326</v>
@@ -4978,13 +5014,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>418</v>
+      </c>
+      <c r="B79" t="s">
         <v>419</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>420</v>
-      </c>
-      <c r="C79" t="s">
-        <v>421</v>
       </c>
       <c r="D79" t="s">
         <v>27</v>
@@ -4996,7 +5032,7 @@
         <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H79" s="1">
         <v>41816</v>
@@ -5004,16 +5040,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>427</v>
+      </c>
+      <c r="B80" t="s">
         <v>428</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>429</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>430</v>
-      </c>
-      <c r="D80" t="s">
-        <v>431</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -5022,7 +5058,7 @@
         <v>85</v>
       </c>
       <c r="G80" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H80" s="1">
         <v>40451</v>
@@ -5030,13 +5066,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>435</v>
+      </c>
+      <c r="B81" t="s">
         <v>436</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>437</v>
-      </c>
-      <c r="C81" t="s">
-        <v>438</v>
       </c>
       <c r="D81" t="s">
         <v>27</v>
@@ -5048,7 +5084,7 @@
         <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H81" s="1">
         <v>44083</v>
@@ -5056,16 +5092,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>447</v>
+      </c>
+      <c r="B82" t="s">
         <v>448</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>449</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>450</v>
-      </c>
-      <c r="D82" t="s">
-        <v>451</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -5074,7 +5110,7 @@
         <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H82" s="1">
         <v>42661</v>
@@ -5082,13 +5118,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>444</v>
+      </c>
+      <c r="B83" t="s">
         <v>445</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>446</v>
-      </c>
-      <c r="C83" t="s">
-        <v>447</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
@@ -5100,7 +5136,7 @@
         <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H83" s="1">
         <v>42173</v>
@@ -5108,16 +5144,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>451</v>
+      </c>
+      <c r="B84" t="s">
         <v>452</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>453</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>454</v>
-      </c>
-      <c r="D84" t="s">
-        <v>455</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -5126,7 +5162,7 @@
         <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H84" s="1">
         <v>40451</v>
@@ -5134,13 +5170,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85" t="s">
         <v>456</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>457</v>
-      </c>
-      <c r="C85" t="s">
-        <v>458</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
@@ -5152,7 +5188,7 @@
         <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H85" s="1">
         <v>44083</v>
@@ -5160,13 +5196,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>469</v>
+      </c>
+      <c r="B86" t="s">
         <v>470</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>471</v>
-      </c>
-      <c r="C86" t="s">
-        <v>472</v>
       </c>
       <c r="D86" t="s">
         <v>27</v>
@@ -5178,7 +5214,7 @@
         <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H86" s="1">
         <v>44083</v>
@@ -5186,13 +5222,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>472</v>
+      </c>
+      <c r="B87" t="s">
         <v>473</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>474</v>
-      </c>
-      <c r="C87" t="s">
-        <v>475</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
@@ -5204,7 +5240,7 @@
         <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H87" s="1">
         <v>44078</v>
@@ -5212,13 +5248,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>475</v>
+      </c>
+      <c r="B88" t="s">
         <v>476</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>477</v>
-      </c>
-      <c r="C88" t="s">
-        <v>478</v>
       </c>
       <c r="D88" t="s">
         <v>27</v>
@@ -5230,7 +5266,7 @@
         <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H88" s="1">
         <v>40326</v>
@@ -5238,13 +5274,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>484</v>
+      </c>
+      <c r="B89" t="s">
         <v>485</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>486</v>
-      </c>
-      <c r="C89" t="s">
-        <v>487</v>
       </c>
       <c r="D89" t="s">
         <v>27</v>
@@ -5256,7 +5292,7 @@
         <v>95</v>
       </c>
       <c r="G89" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H89" s="1">
         <v>40451</v>
@@ -5264,13 +5300,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>478</v>
+      </c>
+      <c r="B90" t="s">
         <v>479</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>480</v>
-      </c>
-      <c r="C90" t="s">
-        <v>481</v>
       </c>
       <c r="D90" t="s">
         <v>27</v>
@@ -5282,7 +5318,7 @@
         <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H90" s="1">
         <v>40326</v>
@@ -5290,13 +5326,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>481</v>
+      </c>
+      <c r="B91" t="s">
         <v>482</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>483</v>
-      </c>
-      <c r="C91" t="s">
-        <v>484</v>
       </c>
       <c r="D91" t="s">
         <v>27</v>
@@ -5308,7 +5344,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H91" s="1">
         <v>40326</v>
@@ -5316,13 +5352,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>487</v>
+      </c>
+      <c r="B92" t="s">
         <v>488</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>489</v>
-      </c>
-      <c r="C92" t="s">
-        <v>490</v>
       </c>
       <c r="D92" t="s">
         <v>27</v>
@@ -5334,7 +5370,7 @@
         <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H92" s="1">
         <v>44078</v>
@@ -5342,13 +5378,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>490</v>
+      </c>
+      <c r="B93" t="s">
         <v>491</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>492</v>
-      </c>
-      <c r="C93" t="s">
-        <v>493</v>
       </c>
       <c r="D93" t="s">
         <v>27</v>
@@ -5360,7 +5396,7 @@
         <v>102</v>
       </c>
       <c r="G93" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H93" s="1">
         <v>44078</v>
@@ -5368,13 +5404,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" t="s">
         <v>497</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>498</v>
-      </c>
-      <c r="C94" t="s">
-        <v>499</v>
       </c>
       <c r="D94" t="s">
         <v>27</v>
@@ -5386,7 +5422,7 @@
         <v>103</v>
       </c>
       <c r="G94" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H94" s="1">
         <v>42173</v>
@@ -5394,13 +5430,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>499</v>
+      </c>
+      <c r="B95" t="s">
         <v>500</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>501</v>
-      </c>
-      <c r="C95" t="s">
-        <v>502</v>
       </c>
       <c r="D95" t="s">
         <v>27</v>
@@ -5412,7 +5448,7 @@
         <v>104</v>
       </c>
       <c r="G95" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H95" s="1">
         <v>40326</v>
@@ -5420,13 +5456,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>502</v>
+      </c>
+      <c r="B96" t="s">
         <v>503</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>504</v>
-      </c>
-      <c r="C96" t="s">
-        <v>505</v>
       </c>
       <c r="D96" t="s">
         <v>27</v>
@@ -5438,7 +5474,7 @@
         <v>105</v>
       </c>
       <c r="G96" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H96" s="1">
         <v>44078</v>
@@ -5446,13 +5482,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>512</v>
+      </c>
+      <c r="B97" t="s">
         <v>513</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>514</v>
-      </c>
-      <c r="C97" t="s">
-        <v>515</v>
       </c>
       <c r="D97" t="s">
         <v>27</v>
@@ -5464,7 +5500,7 @@
         <v>106</v>
       </c>
       <c r="G97" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H97" s="1">
         <v>43035</v>
@@ -5472,13 +5508,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>509</v>
+      </c>
+      <c r="B98" t="s">
         <v>510</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>511</v>
-      </c>
-      <c r="C98" t="s">
-        <v>512</v>
       </c>
       <c r="D98" t="s">
         <v>27</v>
@@ -5490,7 +5526,7 @@
         <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H98" s="1">
         <v>43035</v>
@@ -5498,13 +5534,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>517</v>
+      </c>
+      <c r="B99" t="s">
         <v>518</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>519</v>
-      </c>
-      <c r="C99" t="s">
-        <v>520</v>
       </c>
       <c r="D99" t="s">
         <v>27</v>
@@ -5516,7 +5552,7 @@
         <v>108</v>
       </c>
       <c r="G99" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H99" s="1">
         <v>40326</v>
@@ -5524,13 +5560,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>523</v>
+      </c>
+      <c r="B100" t="s">
         <v>524</v>
       </c>
-      <c r="B100" t="s">
-        <v>525</v>
-      </c>
       <c r="C100" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D100" t="s">
         <v>27</v>
@@ -5542,7 +5578,7 @@
         <v>110</v>
       </c>
       <c r="G100" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H100" s="1">
         <v>42230</v>
@@ -5550,13 +5586,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>527</v>
+      </c>
+      <c r="B101" t="s">
         <v>528</v>
       </c>
-      <c r="B101" t="s">
-        <v>529</v>
-      </c>
       <c r="C101" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D101" t="s">
         <v>27</v>
@@ -5568,7 +5604,7 @@
         <v>111</v>
       </c>
       <c r="G101" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H101" s="1">
         <v>40451</v>
@@ -5576,16 +5612,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B102" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C102" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D102" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E102" t="s">
         <v>50</v>
@@ -5594,7 +5630,7 @@
         <v>112</v>
       </c>
       <c r="G102" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H102" s="1">
         <v>44624</v>
@@ -5602,13 +5638,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>530</v>
+      </c>
+      <c r="B103" t="s">
         <v>531</v>
       </c>
-      <c r="B103" t="s">
-        <v>532</v>
-      </c>
       <c r="C103" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D103" t="s">
         <v>27</v>
@@ -5620,7 +5656,7 @@
         <v>113</v>
       </c>
       <c r="G103" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H103" s="1">
         <v>44078</v>
@@ -5628,16 +5664,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>536</v>
+      </c>
+      <c r="B104" t="s">
         <v>537</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>538</v>
       </c>
-      <c r="C104" t="s">
-        <v>539</v>
-      </c>
       <c r="D104" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -5646,7 +5682,7 @@
         <v>114</v>
       </c>
       <c r="G104" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H104" s="1">
         <v>44078</v>
@@ -5654,16 +5690,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>539</v>
+      </c>
+      <c r="B105" t="s">
         <v>540</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>541</v>
       </c>
-      <c r="C105" t="s">
-        <v>542</v>
-      </c>
       <c r="D105" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -5672,7 +5708,7 @@
         <v>115</v>
       </c>
       <c r="G105" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H105" s="1">
         <v>44078</v>
@@ -5680,16 +5716,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>542</v>
+      </c>
+      <c r="B106" t="s">
         <v>543</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>544</v>
       </c>
-      <c r="C106" t="s">
-        <v>545</v>
-      </c>
       <c r="D106" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -5698,7 +5734,7 @@
         <v>116</v>
       </c>
       <c r="G106" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H106" s="1">
         <v>44078</v>
@@ -5706,16 +5742,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>532</v>
+      </c>
+      <c r="B107" t="s">
         <v>533</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>534</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>535</v>
-      </c>
-      <c r="D107" t="s">
-        <v>536</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -5724,7 +5760,7 @@
         <v>117</v>
       </c>
       <c r="G107" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H107" s="1">
         <v>44078</v>
@@ -5732,13 +5768,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>545</v>
+      </c>
+      <c r="B108" t="s">
         <v>546</v>
       </c>
-      <c r="B108" t="s">
-        <v>547</v>
-      </c>
       <c r="C108" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D108" t="s">
         <v>27</v>
@@ -5750,7 +5786,7 @@
         <v>118</v>
       </c>
       <c r="G108" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H108" s="1">
         <v>40326</v>
@@ -5758,16 +5794,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>556</v>
+      </c>
+      <c r="B109" t="s">
         <v>557</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>558</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>559</v>
-      </c>
-      <c r="D109" t="s">
-        <v>560</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -5776,7 +5812,7 @@
         <v>119</v>
       </c>
       <c r="G109" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H109" s="1">
         <v>40451</v>
@@ -5784,13 +5820,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>547</v>
+      </c>
+      <c r="B110" t="s">
         <v>548</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>549</v>
-      </c>
-      <c r="C110" t="s">
-        <v>550</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
@@ -5802,7 +5838,7 @@
         <v>120</v>
       </c>
       <c r="G110" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H110" s="1">
         <v>40326</v>
@@ -5810,13 +5846,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>550</v>
+      </c>
+      <c r="B111" t="s">
         <v>551</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>552</v>
-      </c>
-      <c r="C111" t="s">
-        <v>553</v>
       </c>
       <c r="D111" t="s">
         <v>27</v>
@@ -5828,7 +5864,7 @@
         <v>121</v>
       </c>
       <c r="G111" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H111" s="1">
         <v>42229</v>
@@ -5836,13 +5872,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>553</v>
+      </c>
+      <c r="B112" t="s">
         <v>554</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>555</v>
-      </c>
-      <c r="C112" t="s">
-        <v>556</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
@@ -5854,7 +5890,7 @@
         <v>122</v>
       </c>
       <c r="G112" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H112" s="1">
         <v>42173</v>
@@ -5862,13 +5898,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>560</v>
+      </c>
+      <c r="B113" t="s">
         <v>561</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>562</v>
-      </c>
-      <c r="C113" t="s">
-        <v>563</v>
       </c>
       <c r="D113" t="s">
         <v>27</v>
@@ -5880,7 +5916,7 @@
         <v>123</v>
       </c>
       <c r="G113" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H113" s="1">
         <v>40326</v>
@@ -5888,13 +5924,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>566</v>
+      </c>
+      <c r="B114" t="s">
         <v>567</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>568</v>
-      </c>
-      <c r="C114" t="s">
-        <v>569</v>
       </c>
       <c r="D114" t="s">
         <v>27</v>
@@ -5906,7 +5942,7 @@
         <v>124</v>
       </c>
       <c r="G114" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H114" s="1">
         <v>40326</v>
@@ -5914,13 +5950,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>569</v>
+      </c>
+      <c r="B115" t="s">
         <v>570</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>571</v>
-      </c>
-      <c r="C115" t="s">
-        <v>572</v>
       </c>
       <c r="D115" t="s">
         <v>27</v>
@@ -5932,7 +5968,7 @@
         <v>125</v>
       </c>
       <c r="G115" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H115" s="1">
         <v>40326</v>
@@ -5940,13 +5976,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>572</v>
+      </c>
+      <c r="B116" t="s">
         <v>573</v>
       </c>
-      <c r="B116" t="s">
-        <v>574</v>
-      </c>
       <c r="C116" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
@@ -5958,7 +5994,7 @@
         <v>126</v>
       </c>
       <c r="G116" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H116" s="1">
         <v>44078</v>
@@ -5966,13 +6002,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>574</v>
+      </c>
+      <c r="B117" t="s">
         <v>575</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>576</v>
-      </c>
-      <c r="C117" t="s">
-        <v>577</v>
       </c>
       <c r="D117" t="s">
         <v>27</v>
@@ -5984,7 +6020,7 @@
         <v>127</v>
       </c>
       <c r="G117" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H117" s="1">
         <v>40326</v>
@@ -5992,13 +6028,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>577</v>
+      </c>
+      <c r="B118" t="s">
         <v>578</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>579</v>
-      </c>
-      <c r="C118" t="s">
-        <v>580</v>
       </c>
       <c r="D118" t="s">
         <v>27</v>
@@ -6010,7 +6046,7 @@
         <v>128</v>
       </c>
       <c r="G118" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H118" s="1">
         <v>40326</v>
@@ -6018,13 +6054,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>580</v>
+      </c>
+      <c r="B119" t="s">
         <v>581</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>582</v>
-      </c>
-      <c r="C119" t="s">
-        <v>583</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
@@ -6036,7 +6072,7 @@
         <v>129</v>
       </c>
       <c r="G119" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H119" s="1">
         <v>40326</v>
@@ -6044,16 +6080,16 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>583</v>
+      </c>
+      <c r="B120" t="s">
         <v>584</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>585</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>586</v>
-      </c>
-      <c r="D120" t="s">
-        <v>587</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -6062,7 +6098,7 @@
         <v>130</v>
       </c>
       <c r="G120" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H120" s="1">
         <v>40451</v>
@@ -6070,13 +6106,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>587</v>
+      </c>
+      <c r="B121" t="s">
         <v>588</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>589</v>
-      </c>
-      <c r="C121" t="s">
-        <v>590</v>
       </c>
       <c r="D121" t="s">
         <v>27</v>
@@ -6088,7 +6124,7 @@
         <v>131</v>
       </c>
       <c r="G121" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H121" s="1">
         <v>44078</v>
@@ -6096,13 +6132,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>590</v>
+      </c>
+      <c r="B122" t="s">
         <v>591</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>592</v>
-      </c>
-      <c r="C122" t="s">
-        <v>593</v>
       </c>
       <c r="D122" t="s">
         <v>27</v>
@@ -6114,7 +6150,7 @@
         <v>132</v>
       </c>
       <c r="G122" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H122" s="1">
         <v>44083</v>
@@ -6122,16 +6158,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>593</v>
+      </c>
+      <c r="B123" t="s">
         <v>594</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>595</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>596</v>
-      </c>
-      <c r="D123" t="s">
-        <v>597</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
@@ -6140,7 +6176,7 @@
         <v>134</v>
       </c>
       <c r="G123" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H123" s="1">
         <v>42796</v>
@@ -6148,13 +6184,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>604</v>
+      </c>
+      <c r="B124" t="s">
         <v>605</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>606</v>
-      </c>
-      <c r="C124" t="s">
-        <v>607</v>
       </c>
       <c r="D124" t="s">
         <v>27</v>
@@ -6166,7 +6202,7 @@
         <v>135</v>
       </c>
       <c r="G124" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H124" s="1">
         <v>40326</v>
@@ -6192,7 +6228,7 @@
         <v>137</v>
       </c>
       <c r="G125" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H125" s="1">
         <v>40326</v>
@@ -6218,7 +6254,7 @@
         <v>138</v>
       </c>
       <c r="G126" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H126" s="1">
         <v>44131</v>
@@ -6244,7 +6280,7 @@
         <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H127" s="1">
         <v>44083</v>
@@ -6252,13 +6288,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>415</v>
+      </c>
+      <c r="B128" t="s">
         <v>416</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>417</v>
-      </c>
-      <c r="C128" t="s">
-        <v>418</v>
       </c>
       <c r="D128" t="s">
         <v>27</v>
@@ -6270,7 +6306,7 @@
         <v>141</v>
       </c>
       <c r="G128" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H128" s="1">
         <v>40326</v>
@@ -6278,13 +6314,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>294</v>
+      </c>
+      <c r="B129" t="s">
         <v>295</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>296</v>
-      </c>
-      <c r="C129" t="s">
-        <v>297</v>
       </c>
       <c r="D129" t="s">
         <v>27</v>
@@ -6296,7 +6332,7 @@
         <v>142</v>
       </c>
       <c r="G129" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H129" s="1">
         <v>40326</v>
@@ -6304,16 +6340,16 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>202</v>
+      </c>
+      <c r="B130" t="s">
         <v>203</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>203</v>
+      </c>
+      <c r="D130" t="s">
         <v>204</v>
-      </c>
-      <c r="C130" t="s">
-        <v>204</v>
-      </c>
-      <c r="D130" t="s">
-        <v>205</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -6322,7 +6358,7 @@
         <v>144</v>
       </c>
       <c r="G130" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H130" s="1">
         <v>40451</v>
@@ -6330,13 +6366,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>351</v>
+      </c>
+      <c r="B131" t="s">
         <v>352</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>353</v>
-      </c>
-      <c r="C131" t="s">
-        <v>354</v>
       </c>
       <c r="D131" t="s">
         <v>27</v>
@@ -6348,7 +6384,7 @@
         <v>145</v>
       </c>
       <c r="G131" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H131" s="1">
         <v>40326</v>
@@ -6356,13 +6392,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>227</v>
+      </c>
+      <c r="B132" t="s">
         <v>228</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>229</v>
-      </c>
-      <c r="C132" t="s">
-        <v>230</v>
       </c>
       <c r="D132" t="s">
         <v>27</v>
@@ -6374,7 +6410,7 @@
         <v>146</v>
       </c>
       <c r="G132" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H132" s="1">
         <v>40326</v>
@@ -6382,13 +6418,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>563</v>
+      </c>
+      <c r="B133" t="s">
         <v>564</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>565</v>
-      </c>
-      <c r="C133" t="s">
-        <v>566</v>
       </c>
       <c r="D133" t="s">
         <v>27</v>
@@ -6400,7 +6436,7 @@
         <v>147</v>
       </c>
       <c r="G133" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H133" s="1">
         <v>40326</v>
@@ -6408,16 +6444,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>99</v>
+      </c>
+      <c r="B134" t="s">
         <v>100</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>618</v>
+      </c>
+      <c r="D134" t="s">
         <v>101</v>
-      </c>
-      <c r="C134" t="s">
-        <v>619</v>
-      </c>
-      <c r="D134" t="s">
-        <v>102</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -6426,7 +6462,7 @@
         <v>148</v>
       </c>
       <c r="G134" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H134" s="1">
         <v>43230</v>
@@ -6434,16 +6470,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>376</v>
+      </c>
+      <c r="B135" t="s">
         <v>377</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>378</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>379</v>
-      </c>
-      <c r="D135" t="s">
-        <v>380</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -6452,7 +6488,7 @@
         <v>149</v>
       </c>
       <c r="G135" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H135" s="1">
         <v>40418</v>
@@ -6460,13 +6496,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>380</v>
+      </c>
+      <c r="B136" t="s">
         <v>381</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>382</v>
-      </c>
-      <c r="C136" t="s">
-        <v>383</v>
       </c>
       <c r="D136" t="s">
         <v>27</v>
@@ -6478,7 +6514,7 @@
         <v>150</v>
       </c>
       <c r="G136" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H136" s="1">
         <v>40418</v>
@@ -6486,13 +6522,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>383</v>
+      </c>
+      <c r="B137" t="s">
         <v>384</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>385</v>
-      </c>
-      <c r="C137" t="s">
-        <v>386</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
@@ -6504,7 +6540,7 @@
         <v>151</v>
       </c>
       <c r="G137" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H137" s="1">
         <v>40418</v>
@@ -6512,13 +6548,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>373</v>
+      </c>
+      <c r="B138" t="s">
         <v>374</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>375</v>
-      </c>
-      <c r="C138" t="s">
-        <v>376</v>
       </c>
       <c r="D138" t="s">
         <v>27</v>
@@ -6530,7 +6566,7 @@
         <v>152</v>
       </c>
       <c r="G138" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H138" s="1">
         <v>40418</v>
@@ -6538,16 +6574,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>505</v>
+      </c>
+      <c r="B139" t="s">
         <v>506</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>507</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>508</v>
-      </c>
-      <c r="D139" t="s">
-        <v>509</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -6556,7 +6592,7 @@
         <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H139" s="1">
         <v>40451</v>
@@ -6564,16 +6600,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>515</v>
+      </c>
+      <c r="B140" t="s">
         <v>516</v>
       </c>
-      <c r="B140" t="s">
-        <v>517</v>
-      </c>
       <c r="C140" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D140" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -6582,7 +6618,7 @@
         <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H140" s="1">
         <v>43704</v>
@@ -6590,16 +6626,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" t="s">
         <v>271</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
+        <v>271</v>
+      </c>
+      <c r="D141" t="s">
         <v>272</v>
-      </c>
-      <c r="C141" t="s">
-        <v>272</v>
-      </c>
-      <c r="D141" t="s">
-        <v>273</v>
       </c>
       <c r="E141" t="s">
         <v>23</v>
@@ -6608,7 +6644,7 @@
         <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H141" s="1">
         <v>41472</v>
@@ -6616,16 +6652,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>300</v>
+      </c>
+      <c r="B142" t="s">
         <v>301</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>302</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>303</v>
-      </c>
-      <c r="D142" t="s">
-        <v>304</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -6634,7 +6670,7 @@
         <v>157</v>
       </c>
       <c r="G142" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H142" s="1">
         <v>40451</v>
@@ -6642,16 +6678,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" t="s">
         <v>268</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
+        <v>268</v>
+      </c>
+      <c r="D143" t="s">
         <v>269</v>
-      </c>
-      <c r="C143" t="s">
-        <v>269</v>
-      </c>
-      <c r="D143" t="s">
-        <v>270</v>
       </c>
       <c r="E143" t="s">
         <v>23</v>
@@ -6660,7 +6696,7 @@
         <v>159</v>
       </c>
       <c r="G143" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H143" s="1">
         <v>41472</v>
@@ -6668,13 +6704,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>525</v>
+      </c>
+      <c r="B144" t="s">
         <v>526</v>
       </c>
-      <c r="B144" t="s">
-        <v>527</v>
-      </c>
       <c r="C144" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D144" t="s">
         <v>27</v>
@@ -6686,7 +6722,7 @@
         <v>160</v>
       </c>
       <c r="G144" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H144" s="1">
         <v>42230</v>
@@ -6712,7 +6748,7 @@
         <v>161</v>
       </c>
       <c r="G145" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H145" s="1">
         <v>40622</v>
@@ -6720,16 +6756,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>273</v>
+      </c>
+      <c r="B146" t="s">
         <v>274</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>275</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>276</v>
-      </c>
-      <c r="D146" t="s">
-        <v>277</v>
       </c>
       <c r="E146" t="s">
         <v>23</v>
@@ -6738,7 +6774,7 @@
         <v>162</v>
       </c>
       <c r="G146" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H146" s="1">
         <v>41472</v>
@@ -6746,13 +6782,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>493</v>
+      </c>
+      <c r="B147" t="s">
         <v>494</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>495</v>
-      </c>
-      <c r="C147" t="s">
-        <v>496</v>
       </c>
       <c r="D147" t="s">
         <v>27</v>
@@ -6764,7 +6800,7 @@
         <v>163</v>
       </c>
       <c r="G147" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H147" s="1">
         <v>44083</v>
@@ -6781,7 +6817,7 @@
         <v>82</v>
       </c>
       <c r="D148" t="s">
-        <v>83</v>
+        <v>814</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
@@ -6790,24 +6826,24 @@
         <v>164</v>
       </c>
       <c r="G148" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H148" s="1">
-        <v>43587</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>347</v>
+      </c>
+      <c r="B149" t="s">
         <v>348</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>349</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>350</v>
-      </c>
-      <c r="D149" t="s">
-        <v>351</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -6816,7 +6852,7 @@
         <v>165</v>
       </c>
       <c r="G149" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H149" s="1">
         <v>40947</v>
@@ -6824,13 +6860,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>344</v>
+      </c>
+      <c r="B150" t="s">
         <v>345</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>346</v>
-      </c>
-      <c r="C150" t="s">
-        <v>347</v>
       </c>
       <c r="D150" t="s">
         <v>27</v>
@@ -6842,7 +6878,7 @@
         <v>166</v>
       </c>
       <c r="G150" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H150" s="1">
         <v>43231</v>
@@ -6850,16 +6886,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>257</v>
+      </c>
+      <c r="B151" t="s">
         <v>258</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
+        <v>258</v>
+      </c>
+      <c r="D151" t="s">
         <v>259</v>
-      </c>
-      <c r="C151" t="s">
-        <v>259</v>
-      </c>
-      <c r="D151" t="s">
-        <v>260</v>
       </c>
       <c r="E151" t="s">
         <v>23</v>
@@ -6868,7 +6904,7 @@
         <v>167</v>
       </c>
       <c r="G151" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H151" s="1">
         <v>41472</v>
@@ -6876,16 +6912,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>244</v>
+      </c>
+      <c r="B152" t="s">
         <v>245</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>246</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>247</v>
-      </c>
-      <c r="D152" t="s">
-        <v>248</v>
       </c>
       <c r="E152" t="s">
         <v>23</v>
@@ -6894,7 +6930,7 @@
         <v>168</v>
       </c>
       <c r="G152" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H152" s="1">
         <v>41472</v>
@@ -6902,16 +6938,16 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>221</v>
+      </c>
+      <c r="B153" t="s">
         <v>222</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
+        <v>222</v>
+      </c>
+      <c r="D153" t="s">
         <v>223</v>
-      </c>
-      <c r="C153" t="s">
-        <v>223</v>
-      </c>
-      <c r="D153" t="s">
-        <v>224</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
@@ -6920,7 +6956,7 @@
         <v>169</v>
       </c>
       <c r="G153" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H153" s="1">
         <v>41302</v>
@@ -6928,16 +6964,16 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>421</v>
+      </c>
+      <c r="B154" t="s">
         <v>422</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
+        <v>422</v>
+      </c>
+      <c r="D154" t="s">
         <v>423</v>
-      </c>
-      <c r="C154" t="s">
-        <v>423</v>
-      </c>
-      <c r="D154" t="s">
-        <v>424</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -6946,7 +6982,7 @@
         <v>170</v>
       </c>
       <c r="G154" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H154" s="1">
         <v>41302</v>
@@ -6954,16 +6990,16 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" t="s">
         <v>231</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>232</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>233</v>
-      </c>
-      <c r="D155" t="s">
-        <v>234</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -6972,7 +7008,7 @@
         <v>171</v>
       </c>
       <c r="G155" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H155" s="1">
         <v>42545</v>
@@ -6980,16 +7016,16 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>121</v>
+      </c>
+      <c r="B156" t="s">
         <v>122</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>123</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>124</v>
-      </c>
-      <c r="D156" t="s">
-        <v>125</v>
       </c>
       <c r="E156" t="s">
         <v>64</v>
@@ -6998,7 +7034,7 @@
         <v>172</v>
       </c>
       <c r="G156" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H156" s="1">
         <v>44083</v>
@@ -7006,16 +7042,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>260</v>
+      </c>
+      <c r="B157" t="s">
         <v>261</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>262</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>263</v>
-      </c>
-      <c r="D157" t="s">
-        <v>264</v>
       </c>
       <c r="E157" t="s">
         <v>23</v>
@@ -7024,7 +7060,7 @@
         <v>173</v>
       </c>
       <c r="G157" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H157" s="1">
         <v>41472</v>
@@ -7032,16 +7068,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>465</v>
+      </c>
+      <c r="B158" t="s">
         <v>466</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>467</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>468</v>
-      </c>
-      <c r="D158" t="s">
-        <v>469</v>
       </c>
       <c r="E158" t="s">
         <v>23</v>
@@ -7050,7 +7086,7 @@
         <v>174</v>
       </c>
       <c r="G158" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H158" s="1">
         <v>44078</v>
@@ -7058,16 +7094,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>461</v>
+      </c>
+      <c r="B159" t="s">
         <v>462</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>463</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>464</v>
-      </c>
-      <c r="D159" t="s">
-        <v>465</v>
       </c>
       <c r="E159" t="s">
         <v>23</v>
@@ -7076,7 +7112,7 @@
         <v>175</v>
       </c>
       <c r="G159" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H159" s="1">
         <v>44078</v>
@@ -7084,16 +7120,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>240</v>
+      </c>
+      <c r="B160" t="s">
         <v>241</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>242</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>243</v>
-      </c>
-      <c r="D160" t="s">
-        <v>244</v>
       </c>
       <c r="E160" t="s">
         <v>23</v>
@@ -7102,7 +7138,7 @@
         <v>176</v>
       </c>
       <c r="G160" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H160" s="1">
         <v>41506</v>
@@ -7110,13 +7146,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>458</v>
+      </c>
+      <c r="B161" t="s">
         <v>459</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>460</v>
-      </c>
-      <c r="C161" t="s">
-        <v>461</v>
       </c>
       <c r="D161" t="s">
         <v>27</v>
@@ -7128,7 +7164,7 @@
         <v>177</v>
       </c>
       <c r="G161" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H161" s="1">
         <v>44078</v>
@@ -7136,16 +7172,16 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>217</v>
+      </c>
+      <c r="B162" t="s">
         <v>218</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>219</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>220</v>
-      </c>
-      <c r="D162" t="s">
-        <v>221</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
@@ -7154,7 +7190,7 @@
         <v>178</v>
       </c>
       <c r="G162" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H162" s="1">
         <v>41786</v>
@@ -7180,7 +7216,7 @@
         <v>179</v>
       </c>
       <c r="G163" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H163" s="1">
         <v>44131</v>
@@ -7188,13 +7224,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>248</v>
+      </c>
+      <c r="B164" t="s">
         <v>249</v>
       </c>
-      <c r="B164" t="s">
-        <v>250</v>
-      </c>
       <c r="C164" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D164" t="s">
         <v>27</v>
@@ -7206,7 +7242,7 @@
         <v>180</v>
       </c>
       <c r="G164" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H164" s="1">
         <v>41843</v>
@@ -7214,13 +7250,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>335</v>
+      </c>
+      <c r="B165" t="s">
         <v>336</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>337</v>
-      </c>
-      <c r="C165" t="s">
-        <v>338</v>
       </c>
       <c r="D165" t="s">
         <v>27</v>
@@ -7232,7 +7268,7 @@
         <v>181</v>
       </c>
       <c r="G165" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H165" s="1">
         <v>41946</v>
@@ -7240,13 +7276,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166" t="s">
         <v>333</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>334</v>
-      </c>
-      <c r="C166" t="s">
-        <v>335</v>
       </c>
       <c r="D166" t="s">
         <v>27</v>
@@ -7258,7 +7294,7 @@
         <v>182</v>
       </c>
       <c r="G166" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H166" s="1">
         <v>42037</v>
@@ -7266,13 +7302,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>338</v>
+      </c>
+      <c r="B167" t="s">
         <v>339</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>340</v>
-      </c>
-      <c r="C167" t="s">
-        <v>341</v>
       </c>
       <c r="D167" t="s">
         <v>27</v>
@@ -7284,7 +7320,7 @@
         <v>183</v>
       </c>
       <c r="G167" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H167" s="1">
         <v>41946</v>
@@ -7292,13 +7328,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>205</v>
+      </c>
+      <c r="B168" t="s">
         <v>206</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>207</v>
-      </c>
-      <c r="C168" t="s">
-        <v>208</v>
       </c>
       <c r="D168" t="s">
         <v>27</v>
@@ -7310,7 +7346,7 @@
         <v>184</v>
       </c>
       <c r="G168" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H168" s="1">
         <v>41984</v>
@@ -7318,13 +7354,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>250</v>
+      </c>
+      <c r="B169" t="s">
         <v>251</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>252</v>
-      </c>
-      <c r="C169" t="s">
-        <v>253</v>
       </c>
       <c r="D169" t="s">
         <v>27</v>
@@ -7336,7 +7372,7 @@
         <v>185</v>
       </c>
       <c r="G169" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H169" s="1">
         <v>41988</v>
@@ -7344,16 +7380,16 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>360</v>
+      </c>
+      <c r="B170" t="s">
         <v>361</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>362</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>363</v>
-      </c>
-      <c r="D170" t="s">
-        <v>364</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -7362,7 +7398,7 @@
         <v>188</v>
       </c>
       <c r="G170" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H170" s="1">
         <v>42339</v>
@@ -7370,13 +7406,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>281</v>
+      </c>
+      <c r="B171" t="s">
         <v>282</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>283</v>
-      </c>
-      <c r="C171" t="s">
-        <v>284</v>
       </c>
       <c r="D171" t="s">
         <v>27</v>
@@ -7388,7 +7424,7 @@
         <v>189</v>
       </c>
       <c r="G171" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H171" s="1">
         <v>42348</v>
@@ -7396,16 +7432,16 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>125</v>
+      </c>
+      <c r="B172" t="s">
         <v>126</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>127</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>128</v>
-      </c>
-      <c r="D172" t="s">
-        <v>129</v>
       </c>
       <c r="E172" t="s">
         <v>50</v>
@@ -7414,7 +7450,7 @@
         <v>190</v>
       </c>
       <c r="G172" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H172" s="1">
         <v>42500</v>
@@ -7422,16 +7458,16 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" t="s">
         <v>84</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>85</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>86</v>
-      </c>
-      <c r="D173" t="s">
-        <v>87</v>
       </c>
       <c r="E173" t="s">
         <v>50</v>
@@ -7440,7 +7476,7 @@
         <v>191</v>
       </c>
       <c r="G173" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H173" s="1">
         <v>42510</v>
@@ -7448,13 +7484,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>234</v>
+      </c>
+      <c r="B174" t="s">
         <v>235</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>236</v>
-      </c>
-      <c r="C174" t="s">
-        <v>237</v>
       </c>
       <c r="D174" t="s">
         <v>27</v>
@@ -7466,7 +7502,7 @@
         <v>192</v>
       </c>
       <c r="G174" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H174" s="1">
         <v>42537</v>
@@ -7492,7 +7528,7 @@
         <v>193</v>
       </c>
       <c r="G175" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H175" s="1">
         <v>42538</v>
@@ -7518,7 +7554,7 @@
         <v>194</v>
       </c>
       <c r="G176" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H176" s="1">
         <v>42538</v>
@@ -7544,7 +7580,7 @@
         <v>195</v>
       </c>
       <c r="G177" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H177" s="1">
         <v>42538</v>
@@ -7552,13 +7588,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>438</v>
+      </c>
+      <c r="B178" t="s">
         <v>439</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>440</v>
-      </c>
-      <c r="C178" t="s">
-        <v>441</v>
       </c>
       <c r="D178" t="s">
         <v>27</v>
@@ -7570,7 +7606,7 @@
         <v>196</v>
       </c>
       <c r="G178" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H178" s="1">
         <v>42661</v>
@@ -7578,13 +7614,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>441</v>
+      </c>
+      <c r="B179" t="s">
         <v>442</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>443</v>
-      </c>
-      <c r="C179" t="s">
-        <v>444</v>
       </c>
       <c r="D179" t="s">
         <v>27</v>
@@ -7596,7 +7632,7 @@
         <v>197</v>
       </c>
       <c r="G179" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H179" s="1">
         <v>42661</v>
@@ -7604,16 +7640,16 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>405</v>
+      </c>
+      <c r="B180" t="s">
         <v>406</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>407</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>408</v>
-      </c>
-      <c r="D180" t="s">
-        <v>409</v>
       </c>
       <c r="E180" t="s">
         <v>50</v>
@@ -7622,7 +7658,7 @@
         <v>201</v>
       </c>
       <c r="G180" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H180" s="1">
         <v>42723</v>
@@ -7630,16 +7666,16 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>394</v>
+      </c>
+      <c r="B181" t="s">
         <v>395</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>396</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>397</v>
-      </c>
-      <c r="D181" t="s">
-        <v>398</v>
       </c>
       <c r="E181" t="s">
         <v>50</v>
@@ -7648,7 +7684,7 @@
         <v>202</v>
       </c>
       <c r="G181" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H181" s="1">
         <v>42752</v>
@@ -7656,16 +7692,16 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>390</v>
+      </c>
+      <c r="B182" t="s">
         <v>391</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>392</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>393</v>
-      </c>
-      <c r="D182" t="s">
-        <v>394</v>
       </c>
       <c r="E182" t="s">
         <v>50</v>
@@ -7674,7 +7710,7 @@
         <v>203</v>
       </c>
       <c r="G182" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H182" s="1">
         <v>42752</v>
@@ -7682,16 +7718,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>520</v>
+      </c>
+      <c r="B183" t="s">
         <v>521</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
+        <v>521</v>
+      </c>
+      <c r="D183" t="s">
         <v>522</v>
-      </c>
-      <c r="C183" t="s">
-        <v>522</v>
-      </c>
-      <c r="D183" t="s">
-        <v>523</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -7700,7 +7736,7 @@
         <v>204</v>
       </c>
       <c r="G183" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H183" s="1">
         <v>44083</v>
@@ -7726,7 +7762,7 @@
         <v>205</v>
       </c>
       <c r="G184" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H184" s="1">
         <v>44078</v>
@@ -7734,16 +7770,16 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>398</v>
+      </c>
+      <c r="B185" t="s">
         <v>399</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>400</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>401</v>
-      </c>
-      <c r="D185" t="s">
-        <v>402</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
@@ -7752,7 +7788,7 @@
         <v>206</v>
       </c>
       <c r="G185" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H185" s="1">
         <v>42752</v>
@@ -7760,16 +7796,16 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>597</v>
+      </c>
+      <c r="B186" t="s">
         <v>598</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>599</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>600</v>
-      </c>
-      <c r="D186" t="s">
-        <v>601</v>
       </c>
       <c r="E186" t="s">
         <v>23</v>
@@ -7778,7 +7814,7 @@
         <v>207</v>
       </c>
       <c r="G186" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H186" s="1">
         <v>42796</v>
@@ -7786,13 +7822,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>601</v>
+      </c>
+      <c r="B187" t="s">
         <v>602</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>603</v>
-      </c>
-      <c r="C187" t="s">
-        <v>604</v>
       </c>
       <c r="D187" t="s">
         <v>27</v>
@@ -7804,7 +7840,7 @@
         <v>208</v>
       </c>
       <c r="G187" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H187" s="1">
         <v>42796</v>
@@ -7812,13 +7848,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>264</v>
+      </c>
+      <c r="B188" t="s">
         <v>265</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>266</v>
-      </c>
-      <c r="C188" t="s">
-        <v>267</v>
       </c>
       <c r="D188" t="s">
         <v>27</v>
@@ -7830,7 +7866,7 @@
         <v>209</v>
       </c>
       <c r="G188" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H188" s="1">
         <v>42846</v>
@@ -7838,13 +7874,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>237</v>
+      </c>
+      <c r="B189" t="s">
         <v>238</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>239</v>
-      </c>
-      <c r="C189" t="s">
-        <v>240</v>
       </c>
       <c r="D189" t="s">
         <v>27</v>
@@ -7856,7 +7892,7 @@
         <v>210</v>
       </c>
       <c r="G189" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H189" s="1">
         <v>42913</v>
@@ -7864,13 +7900,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>607</v>
+      </c>
+      <c r="B190" t="s">
         <v>608</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>609</v>
-      </c>
-      <c r="C190" t="s">
-        <v>610</v>
       </c>
       <c r="D190" t="s">
         <v>27</v>
@@ -7882,7 +7918,7 @@
         <v>211</v>
       </c>
       <c r="G190" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H190" s="1">
         <v>43035</v>
@@ -7890,16 +7926,16 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>610</v>
+      </c>
+      <c r="B191" t="s">
         <v>611</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>612</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>613</v>
-      </c>
-      <c r="D191" t="s">
-        <v>614</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
@@ -7908,7 +7944,7 @@
         <v>212</v>
       </c>
       <c r="G191" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H191" s="1">
         <v>43035</v>
@@ -7916,13 +7952,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B192" t="s">
+        <v>619</v>
+      </c>
+      <c r="C192" t="s">
         <v>620</v>
-      </c>
-      <c r="C192" t="s">
-        <v>621</v>
       </c>
       <c r="D192" t="s">
         <v>27</v>
@@ -7934,7 +7970,7 @@
         <v>213</v>
       </c>
       <c r="G192" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H192" s="1">
         <v>43230</v>
@@ -7942,13 +7978,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>621</v>
+      </c>
+      <c r="B193" t="s">
         <v>622</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>623</v>
-      </c>
-      <c r="C193" t="s">
-        <v>624</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
@@ -7960,7 +7996,7 @@
         <v>214</v>
       </c>
       <c r="G193" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H193" s="1">
         <v>44400</v>
@@ -7968,13 +8004,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>624</v>
+      </c>
+      <c r="B194" t="s">
         <v>625</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>626</v>
-      </c>
-      <c r="C194" t="s">
-        <v>627</v>
       </c>
       <c r="D194" t="s">
         <v>27</v>
@@ -7986,7 +8022,7 @@
         <v>215</v>
       </c>
       <c r="G194" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H194" s="1">
         <v>43230</v>
@@ -7994,13 +8030,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>627</v>
+      </c>
+      <c r="B195" t="s">
         <v>628</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>629</v>
-      </c>
-      <c r="C195" t="s">
-        <v>630</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
@@ -8012,7 +8048,7 @@
         <v>216</v>
       </c>
       <c r="G195" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H195" s="1">
         <v>43230</v>
@@ -8020,16 +8056,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>630</v>
+      </c>
+      <c r="B196" t="s">
         <v>631</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>632</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>633</v>
-      </c>
-      <c r="D196" t="s">
-        <v>634</v>
       </c>
       <c r="E196" t="s">
         <v>50</v>
@@ -8038,7 +8074,7 @@
         <v>217</v>
       </c>
       <c r="G196" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H196" s="1">
         <v>43333</v>
@@ -8046,16 +8082,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>634</v>
+      </c>
+      <c r="B197" t="s">
         <v>635</v>
       </c>
-      <c r="B197" t="s">
-        <v>636</v>
-      </c>
       <c r="C197" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D197" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -8064,7 +8100,7 @@
         <v>218</v>
       </c>
       <c r="G197" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H197" s="1">
         <v>44028</v>
@@ -8072,16 +8108,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>637</v>
+      </c>
+      <c r="B198" t="s">
         <v>638</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
+        <v>640</v>
+      </c>
+      <c r="D198" t="s">
         <v>639</v>
-      </c>
-      <c r="C198" t="s">
-        <v>641</v>
-      </c>
-      <c r="D198" t="s">
-        <v>640</v>
       </c>
       <c r="E198" t="s">
         <v>50</v>
@@ -8090,7 +8126,7 @@
         <v>219</v>
       </c>
       <c r="G198" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H198" s="1">
         <v>43676</v>
@@ -8098,16 +8134,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>641</v>
+      </c>
+      <c r="B199" t="s">
         <v>642</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>643</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>644</v>
-      </c>
-      <c r="D199" t="s">
-        <v>645</v>
       </c>
       <c r="E199" t="s">
         <v>23</v>
@@ -8116,7 +8152,7 @@
         <v>220</v>
       </c>
       <c r="G199" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H199" s="1">
         <v>43692</v>
@@ -8124,16 +8160,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B200" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C200" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D200" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E200" t="s">
         <v>23</v>
@@ -8142,7 +8178,7 @@
         <v>221</v>
       </c>
       <c r="G200" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H200" s="1">
         <v>44034</v>
@@ -8150,16 +8186,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>648</v>
+      </c>
+      <c r="B201" t="s">
+        <v>649</v>
+      </c>
+      <c r="C201" t="s">
         <v>650</v>
       </c>
-      <c r="B201" t="s">
+      <c r="D201" t="s">
         <v>651</v>
-      </c>
-      <c r="C201" t="s">
-        <v>652</v>
-      </c>
-      <c r="D201" t="s">
-        <v>653</v>
       </c>
       <c r="E201" t="s">
         <v>23</v>
@@ -8168,7 +8204,7 @@
         <v>222</v>
       </c>
       <c r="G201" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H201" s="1">
         <v>43957</v>
@@ -8176,16 +8212,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>652</v>
+      </c>
+      <c r="B202" t="s">
+        <v>653</v>
+      </c>
+      <c r="C202" t="s">
         <v>654</v>
       </c>
-      <c r="B202" t="s">
+      <c r="D202" t="s">
         <v>655</v>
-      </c>
-      <c r="C202" t="s">
-        <v>656</v>
-      </c>
-      <c r="D202" t="s">
-        <v>657</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -8194,7 +8230,7 @@
         <v>223</v>
       </c>
       <c r="G202" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H202" s="1">
         <v>43957</v>
@@ -8202,16 +8238,16 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>656</v>
+      </c>
+      <c r="B203" t="s">
+        <v>657</v>
+      </c>
+      <c r="C203" t="s">
         <v>658</v>
       </c>
-      <c r="B203" t="s">
+      <c r="D203" t="s">
         <v>659</v>
-      </c>
-      <c r="C203" t="s">
-        <v>660</v>
-      </c>
-      <c r="D203" t="s">
-        <v>661</v>
       </c>
       <c r="E203" t="s">
         <v>23</v>
@@ -8220,7 +8256,7 @@
         <v>224</v>
       </c>
       <c r="G203" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H203" s="1">
         <v>43957</v>
@@ -8228,16 +8264,16 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>660</v>
+      </c>
+      <c r="B204" t="s">
+        <v>661</v>
+      </c>
+      <c r="C204" t="s">
         <v>662</v>
       </c>
-      <c r="B204" t="s">
+      <c r="D204" t="s">
         <v>663</v>
-      </c>
-      <c r="C204" t="s">
-        <v>664</v>
-      </c>
-      <c r="D204" t="s">
-        <v>665</v>
       </c>
       <c r="E204" t="s">
         <v>50</v>
@@ -8246,7 +8282,7 @@
         <v>225</v>
       </c>
       <c r="G204" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H204" s="1">
         <v>43943</v>
@@ -8254,13 +8290,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>668</v>
+      </c>
+      <c r="B205" t="s">
+        <v>669</v>
+      </c>
+      <c r="C205" t="s">
         <v>670</v>
-      </c>
-      <c r="B205" t="s">
-        <v>671</v>
-      </c>
-      <c r="C205" t="s">
-        <v>672</v>
       </c>
       <c r="D205" t="s">
         <v>27</v>
@@ -8272,7 +8308,7 @@
         <v>226</v>
       </c>
       <c r="G205" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H205" s="1">
         <v>43978</v>
@@ -8280,13 +8316,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>671</v>
+      </c>
+      <c r="B206" t="s">
+        <v>672</v>
+      </c>
+      <c r="C206" t="s">
         <v>673</v>
-      </c>
-      <c r="B206" t="s">
-        <v>674</v>
-      </c>
-      <c r="C206" t="s">
-        <v>675</v>
       </c>
       <c r="D206" t="s">
         <v>27</v>
@@ -8298,7 +8334,7 @@
         <v>228</v>
       </c>
       <c r="G206" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H206" s="1">
         <v>44034</v>
@@ -8306,16 +8342,16 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B207" t="s">
-        <v>677</v>
+        <v>815</v>
       </c>
       <c r="C207" t="s">
-        <v>772</v>
+        <v>816</v>
       </c>
       <c r="D207" t="s">
-        <v>678</v>
+        <v>817</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8324,24 +8360,24 @@
         <v>229</v>
       </c>
       <c r="G207" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H207" s="1">
-        <v>44624</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B208" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C208" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D208" t="s">
-        <v>746</v>
+        <v>826</v>
       </c>
       <c r="E208" t="s">
         <v>23</v>
@@ -8350,24 +8386,24 @@
         <v>230</v>
       </c>
       <c r="G208" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H208" s="1">
-        <v>44601</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B209" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C209" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D209" t="s">
-        <v>747</v>
+        <v>827</v>
       </c>
       <c r="E209" t="s">
         <v>23</v>
@@ -8376,24 +8412,24 @@
         <v>231</v>
       </c>
       <c r="G209" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H209" s="1">
-        <v>44449</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B210" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C210" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D210" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E210" t="s">
         <v>11</v>
@@ -8402,7 +8438,7 @@
         <v>232</v>
       </c>
       <c r="G210" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H210" s="1">
         <v>44408</v>
@@ -8410,16 +8446,16 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B211" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C211" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D211" t="s">
-        <v>748</v>
+        <v>828</v>
       </c>
       <c r="E211" t="s">
         <v>50</v>
@@ -8428,24 +8464,24 @@
         <v>233</v>
       </c>
       <c r="G211" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H211" s="1">
-        <v>44447</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B212" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C212" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D212" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="E212" t="s">
         <v>23</v>
@@ -8454,7 +8490,7 @@
         <v>234</v>
       </c>
       <c r="G212" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H212" s="1">
         <v>44447</v>
@@ -8462,16 +8498,16 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B213" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C213" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D213" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -8480,7 +8516,7 @@
         <v>235</v>
       </c>
       <c r="G213" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H213" s="1">
         <v>44292</v>
@@ -8488,13 +8524,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B214" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C214" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D214" t="s">
         <v>27</v>
@@ -8506,7 +8542,7 @@
         <v>236</v>
       </c>
       <c r="G214" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H214" s="1">
         <v>44292</v>
@@ -8514,16 +8550,16 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B215" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="C215" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="D215" t="s">
-        <v>776</v>
+        <v>829</v>
       </c>
       <c r="E215" t="s">
         <v>23</v>
@@ -8532,24 +8568,24 @@
         <v>237</v>
       </c>
       <c r="G215" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H215" s="1">
-        <v>44630</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B216" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C216" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D216" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E216" t="s">
         <v>50</v>
@@ -8558,7 +8594,7 @@
         <v>238</v>
       </c>
       <c r="G216" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H216" s="1">
         <v>44392</v>
@@ -8566,16 +8602,16 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B217" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C217" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D217" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E217" t="s">
         <v>50</v>
@@ -8584,7 +8620,7 @@
         <v>239</v>
       </c>
       <c r="G217" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H217" s="1">
         <v>44392</v>
@@ -8592,16 +8628,16 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B218" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C218" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D218" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="E218" t="s">
         <v>50</v>
@@ -8610,7 +8646,7 @@
         <v>240</v>
       </c>
       <c r="G218" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H218" s="1">
         <v>44519</v>
@@ -8618,16 +8654,16 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B219" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C219" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D219" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E219" t="s">
         <v>50</v>
@@ -8636,7 +8672,7 @@
         <v>241</v>
       </c>
       <c r="G219" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H219" s="1">
         <v>44392</v>
@@ -8644,16 +8680,16 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B220" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C220" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D220" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E220" t="s">
         <v>50</v>
@@ -8662,7 +8698,7 @@
         <v>242</v>
       </c>
       <c r="G220" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H220" s="1">
         <v>44392</v>
@@ -8670,16 +8706,16 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B221" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C221" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D221" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E221" t="s">
         <v>50</v>
@@ -8688,7 +8724,7 @@
         <v>243</v>
       </c>
       <c r="G221" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H221" s="1">
         <v>44392</v>
@@ -8696,16 +8732,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B222" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C222" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D222" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E222" t="s">
         <v>50</v>
@@ -8714,7 +8750,7 @@
         <v>244</v>
       </c>
       <c r="G222" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H222" s="1">
         <v>44392</v>
@@ -8722,16 +8758,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B223" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C223" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D223" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E223" t="s">
         <v>50</v>
@@ -8740,7 +8776,7 @@
         <v>245</v>
       </c>
       <c r="G223" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H223" s="1">
         <v>44426</v>
@@ -8748,16 +8784,16 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B224" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C224" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D224" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E224" t="s">
         <v>50</v>
@@ -8766,7 +8802,7 @@
         <v>246</v>
       </c>
       <c r="G224" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H224" s="1">
         <v>44392</v>
@@ -8774,16 +8810,16 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B225" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C225" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D225" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E225" t="s">
         <v>50</v>
@@ -8792,7 +8828,7 @@
         <v>247</v>
       </c>
       <c r="G225" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H225" s="1">
         <v>44392</v>
@@ -8800,16 +8836,16 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B226" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C226" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D226" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E226" t="s">
         <v>50</v>
@@ -8818,7 +8854,7 @@
         <v>248</v>
       </c>
       <c r="G226" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H226" s="1">
         <v>44392</v>
@@ -8826,16 +8862,16 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B227" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C227" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D227" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E227" t="s">
         <v>50</v>
@@ -8844,7 +8880,7 @@
         <v>249</v>
       </c>
       <c r="G227" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H227" s="1">
         <v>44392</v>
@@ -8852,13 +8888,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B228" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C228" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D228" t="s">
         <v>27</v>
@@ -8870,7 +8906,7 @@
         <v>250</v>
       </c>
       <c r="G228" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H228" s="1">
         <v>44426</v>
@@ -8878,13 +8914,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B229" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C229" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D229" t="s">
         <v>27</v>
@@ -8896,7 +8932,7 @@
         <v>251</v>
       </c>
       <c r="G229" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H229" s="1">
         <v>44426</v>
@@ -8904,16 +8940,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B230" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C230" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="D230" t="s">
-        <v>763</v>
+        <v>830</v>
       </c>
       <c r="E230" t="s">
         <v>23</v>
@@ -8922,24 +8958,24 @@
         <v>252</v>
       </c>
       <c r="G230" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H230" s="1">
-        <v>44602</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B231" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C231" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D231" t="s">
-        <v>769</v>
+        <v>831</v>
       </c>
       <c r="E231" t="s">
         <v>23</v>
@@ -8948,24 +8984,24 @@
         <v>253</v>
       </c>
       <c r="G231" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H231" s="1">
-        <v>44606</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B232" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C232" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D232" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="E232" t="s">
         <v>23</v>
@@ -8974,24 +9010,24 @@
         <v>254</v>
       </c>
       <c r="G232" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H232" s="1">
-        <v>44649</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="B233" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C233" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D233" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -9000,7 +9036,7 @@
         <v>255</v>
       </c>
       <c r="G233" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H233" s="1">
         <v>44606</v>
@@ -9008,16 +9044,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="B234" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C234" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D234" t="s">
-        <v>798</v>
+        <v>833</v>
       </c>
       <c r="E234" t="s">
         <v>23</v>
@@ -9026,24 +9062,24 @@
         <v>256</v>
       </c>
       <c r="G234" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H234" s="1">
-        <v>44649</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="B235" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="C235" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="D235" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="E235" t="s">
         <v>11</v>
@@ -9052,7 +9088,7 @@
         <v>257</v>
       </c>
       <c r="G235" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H235" s="1">
         <v>44636</v>
@@ -9060,16 +9096,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B236" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="C236" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="D236" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="E236" t="s">
         <v>23</v>
@@ -9078,7 +9114,7 @@
         <v>258</v>
       </c>
       <c r="G236" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H236" s="1">
         <v>44623</v>
@@ -9086,16 +9122,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="B237" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="C237" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="D237" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="E237" t="s">
         <v>23</v>
@@ -9104,7 +9140,7 @@
         <v>259</v>
       </c>
       <c r="G237" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H237" s="1">
         <v>44624</v>
@@ -9112,16 +9148,16 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B238" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="C238" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="D238" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="E238" t="s">
         <v>23</v>
@@ -9130,7 +9166,7 @@
         <v>260</v>
       </c>
       <c r="G238" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H238" s="1">
         <v>44630</v>
@@ -9138,25 +9174,25 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B239" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="C239" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D239" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="E239" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F239">
         <v>261</v>
       </c>
       <c r="G239" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H239" s="1">
         <v>44630</v>
@@ -9164,16 +9200,16 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="B240" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="C240" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="D240" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="E240" t="s">
         <v>50</v>
@@ -9182,7 +9218,7 @@
         <v>262</v>
       </c>
       <c r="G240" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H240" s="1">
         <v>44663</v>
@@ -9190,16 +9226,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="B241" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="C241" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="D241" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E241" t="s">
         <v>50</v>
@@ -9208,7 +9244,7 @@
         <v>263</v>
       </c>
       <c r="G241" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H241" s="1">
         <v>44663</v>
@@ -9216,16 +9252,16 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="B242" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="C242" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="D242" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E242" t="s">
         <v>50</v>
@@ -9234,7 +9270,7 @@
         <v>264</v>
       </c>
       <c r="G242" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H242" s="1">
         <v>44663</v>
@@ -9242,16 +9278,16 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="B243" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="C243" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="D243" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E243" t="s">
         <v>50</v>
@@ -9260,7 +9296,7 @@
         <v>265</v>
       </c>
       <c r="G243" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H243" s="1">
         <v>44663</v>
@@ -9268,16 +9304,16 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B244" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="C244" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="D244" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E244" t="s">
         <v>50</v>
@@ -9286,7 +9322,7 @@
         <v>266</v>
       </c>
       <c r="G244" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H244" s="1">
         <v>44663</v>
@@ -9294,16 +9330,16 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B245" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="C245" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="D245" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E245" t="s">
         <v>50</v>
@@ -9312,7 +9348,7 @@
         <v>267</v>
       </c>
       <c r="G245" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H245" s="1">
         <v>44663</v>
@@ -9320,42 +9356,42 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="B246" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="C246" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D246" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="E246" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F246">
         <v>268</v>
       </c>
       <c r="G246" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H246" s="1">
-        <v>44663</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="B247" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="C247" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="D247" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="E247" t="s">
         <v>23</v>
@@ -9364,10 +9400,88 @@
         <v>269</v>
       </c>
       <c r="G247" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H247" s="1">
-        <v>44663</v>
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>813</v>
+      </c>
+      <c r="B248" t="s">
+        <v>818</v>
+      </c>
+      <c r="C248" t="s">
+        <v>819</v>
+      </c>
+      <c r="D248" t="s">
+        <v>835</v>
+      </c>
+      <c r="E248" t="s">
+        <v>23</v>
+      </c>
+      <c r="F248">
+        <v>270</v>
+      </c>
+      <c r="G248" t="s">
+        <v>614</v>
+      </c>
+      <c r="H248" s="1">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>820</v>
+      </c>
+      <c r="B249" t="s">
+        <v>821</v>
+      </c>
+      <c r="C249" t="s">
+        <v>822</v>
+      </c>
+      <c r="D249" t="s">
+        <v>836</v>
+      </c>
+      <c r="E249" t="s">
+        <v>23</v>
+      </c>
+      <c r="F249">
+        <v>271</v>
+      </c>
+      <c r="G249" t="s">
+        <v>614</v>
+      </c>
+      <c r="H249" s="1">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>823</v>
+      </c>
+      <c r="B250" t="s">
+        <v>824</v>
+      </c>
+      <c r="C250" t="s">
+        <v>825</v>
+      </c>
+      <c r="D250" t="s">
+        <v>837</v>
+      </c>
+      <c r="E250" t="s">
+        <v>23</v>
+      </c>
+      <c r="F250">
+        <v>272</v>
+      </c>
+      <c r="G250" t="s">
+        <v>614</v>
+      </c>
+      <c r="H250" s="1">
+        <v>44810</v>
       </c>
     </row>
   </sheetData>

--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC23B65-7026-449C-BDDC-CE63038E5ABF}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A79EF3DC-398B-41F7-A344-5ACA4AE065E1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Web_cvx" sheetId="52" r:id="rId1"/>
+    <sheet name="Web_cvx" sheetId="53" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$250</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$252</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A63DE44A-9760-4C34-A3AF-2F5B6F04394B}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes1111111111111111111111111111111" type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{9E6B7B36-1D28-4EEE-BFAF-E920ECF9D719}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes11111111111111111111111111111111" type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="844">
   <si>
     <t>CVX Code</t>
   </si>
@@ -2235,9 +2235,6 @@
     <t>SARS-COV-2 COVID-19 Inactivated Virus Non-US Vaccine Product (CoronaVac, Sinovac)</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>COVID-19 PS Non-US Vaccine (Anhui Zhifei Longcom Biopharm + Inst of Micro, Chinese Acad of Sciences)</t>
   </si>
   <si>
@@ -2370,9 +2367,6 @@
     <t>SARS-COV-2 (COVID-19) vaccine, D614, prefusion spike recombinant protein subunit (CoV2 preS dTM), AS03 adjuvant added, preservative free, 5mcg/0.5mL dose</t>
   </si>
   <si>
-    <t>Pre-EUA Authorization, Sanofi Booster dose - requires addition of AS03 adjuvant</t>
-  </si>
-  <si>
     <t>226</t>
   </si>
   <si>
@@ -2382,9 +2376,6 @@
     <t>SARS-COV-2 (COVID-19) vaccine, D614, prefusion spike recombinant protein subunit (CoV2 preS dTM), AS03 adjuvant added, preservative free, 10mcg/0.5mL dose</t>
   </si>
   <si>
-    <t>Pre-EUA Authorization, Sanofi Primary Series dose - requires addition of AS03 adjuvant</t>
-  </si>
-  <si>
     <t>Tick-borne encephalitis, unspecified</t>
   </si>
   <si>
@@ -2538,13 +2529,40 @@
     <t>FDA EUA Authorized (6 mo through 5 yrs), Moderna pediatric primary series and IC dose</t>
   </si>
   <si>
-    <t>FDA EUA 8/31/2022 (18+ yrs) Moderna bivalent booster, EUA pending for ages 6 yrs through 11 yrs, original strain + omicron BA.4/BA.5</t>
-  </si>
-  <si>
-    <t>Pre-EUA (5 yrs through 11 yrs) Pfizer bivalent booster, original strain + omicron BA.4/BA.5</t>
-  </si>
-  <si>
-    <t>FDA EUA 08/31/2022 (12+ yrs) Pfizer adult bivalent booster, original strain + omicron BA.4/BA.5</t>
+    <t>EUA submission withdrawn by Sanofi</t>
+  </si>
+  <si>
+    <t>EUA authorized Moderna bivalent booster 2 dose levels: ages 6 yrs thru 11 yrs 0.25mL dose; 12 years and older 0.5mL dose</t>
+  </si>
+  <si>
+    <t>EUA authorized (5 yrs through 11 yrs) Pfizer bivalent booster, original strain + omicron BA.4/BA.5</t>
+  </si>
+  <si>
+    <t>EUA authorized Pfizer adult bivalent booster ages 12+ yrs, original strain + omicron BA.4/BA.5</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, bivalent booster, PF, 10 mcg/0.2 mL</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent booster, preservative free, 10 mcg/0.2 mL dose</t>
+  </si>
+  <si>
+    <t>Pre-EUA Moderna bivalent booster (ages 6 mo through 5 yrs), original strain + omicron BA.4/BA.5</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>COVID-19, mRNA, LNP-S, bivalent, PF, 3 mcg/0.2 mL dose</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent, preservative free, 3 mcg/0.2 mL dose, tris-sucrose formulation</t>
+  </si>
+  <si>
+    <t>Pre-EUA Pfizer bivalent (ages 6 mo through 4 yrs), original strain + omicron BA.4/BA.5</t>
   </si>
 </sst>
 </file>
@@ -2608,7 +2626,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{F9F2C638-DDA4-4C27-99DF-DE3068B51934}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes_1" connectionId="1" xr16:uid="{2748B42A-9A5F-4875-BA63-6DA09BBC18B3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
@@ -2628,16 +2646,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BAE7DBAD-138F-4C11-8EF5-5679FEEE3055}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H250" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40966C7D-93AA-4F8D-AC27-BAD650ADCFA9}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" ref="A1:H252" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{0B18EB4D-5406-44BC-9597-2303E0F1DDA9}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{64663404-49DE-4C8B-A55C-EE2DE4D9E96F}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{62C236DC-6981-4022-AE0C-1DA9F19127ED}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{733A126D-D182-4CE5-B6EC-E054C989A51F}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{944A6A55-1C71-42AD-A02B-4DF8FCF4A490}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{893050A3-819E-4ED6-9EEF-350A9EA5125D}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{64006BB4-A10C-4160-9585-BAEA5E60107F}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{A1701059-78D7-431A-B2CC-979BDC1FB6DF}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{32B3977C-C89F-4547-AB51-0B710626B547}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{D0BAE63F-C725-4567-9C64-D1564FC33AA2}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{7CE7C3EC-6611-4F35-A986-5DA7601FD017}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{2511BC02-1007-4AA7-9793-878C5450CA2D}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{21D16AEE-AC51-46E7-B47D-1DEEACBCBD93}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{612E583A-3086-4384-9164-E165F2F42055}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{1C4BDB27-0530-46FD-933D-DAB0FA9E7351}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{DE5DCCA4-3D13-4707-BE5A-7BB24CB1B827}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2963,24 +2981,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DB2153-E53C-46D7-AE0F-B8BDF4FA0A98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C9CA71-4BCC-4D3C-BE14-8971C4F53536}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3229,7 +3247,7 @@
         <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -5615,13 +5633,13 @@
         <v>529</v>
       </c>
       <c r="B102" t="s">
+        <v>760</v>
+      </c>
+      <c r="C102" t="s">
+        <v>760</v>
+      </c>
+      <c r="D102" t="s">
         <v>761</v>
-      </c>
-      <c r="C102" t="s">
-        <v>761</v>
-      </c>
-      <c r="D102" t="s">
-        <v>762</v>
       </c>
       <c r="E102" t="s">
         <v>50</v>
@@ -6817,7 +6835,7 @@
         <v>82</v>
       </c>
       <c r="D148" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
@@ -8345,13 +8363,13 @@
         <v>674</v>
       </c>
       <c r="B207" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C207" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D207" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8371,13 +8389,13 @@
         <v>675</v>
       </c>
       <c r="B208" t="s">
+        <v>753</v>
+      </c>
+      <c r="C208" t="s">
         <v>754</v>
       </c>
-      <c r="C208" t="s">
-        <v>755</v>
-      </c>
       <c r="D208" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E208" t="s">
         <v>23</v>
@@ -8403,7 +8421,7 @@
         <v>678</v>
       </c>
       <c r="D209" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E209" t="s">
         <v>23</v>
@@ -8455,7 +8473,7 @@
         <v>683</v>
       </c>
       <c r="D211" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E211" t="s">
         <v>50</v>
@@ -8481,7 +8499,7 @@
         <v>686</v>
       </c>
       <c r="D212" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E212" t="s">
         <v>23</v>
@@ -8553,13 +8571,13 @@
         <v>693</v>
       </c>
       <c r="B215" t="s">
+        <v>763</v>
+      </c>
+      <c r="C215" t="s">
         <v>764</v>
       </c>
-      <c r="C215" t="s">
-        <v>765</v>
-      </c>
       <c r="D215" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E215" t="s">
         <v>23</v>
@@ -8637,7 +8655,7 @@
         <v>705</v>
       </c>
       <c r="D218" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E218" t="s">
         <v>50</v>
@@ -8761,7 +8779,7 @@
         <v>719</v>
       </c>
       <c r="B223" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C223" t="s">
         <v>720</v>
@@ -8888,13 +8906,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>735</v>
+      </c>
+      <c r="B228" t="s">
         <v>736</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>737</v>
-      </c>
-      <c r="C228" t="s">
-        <v>738</v>
       </c>
       <c r="D228" t="s">
         <v>27</v>
@@ -8914,13 +8932,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
+        <v>738</v>
+      </c>
+      <c r="B229" t="s">
         <v>739</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>740</v>
-      </c>
-      <c r="C229" t="s">
-        <v>741</v>
       </c>
       <c r="D229" t="s">
         <v>27</v>
@@ -8940,16 +8958,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>741</v>
+      </c>
+      <c r="B230" t="s">
         <v>742</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>743</v>
       </c>
-      <c r="C230" t="s">
-        <v>744</v>
-      </c>
       <c r="D230" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E230" t="s">
         <v>23</v>
@@ -8966,16 +8984,16 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>744</v>
+      </c>
+      <c r="B231" t="s">
         <v>745</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>746</v>
       </c>
-      <c r="C231" t="s">
-        <v>747</v>
-      </c>
       <c r="D231" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E231" t="s">
         <v>23</v>
@@ -8992,16 +9010,16 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
+        <v>747</v>
+      </c>
+      <c r="B232" t="s">
         <v>748</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>749</v>
       </c>
-      <c r="C232" t="s">
-        <v>750</v>
-      </c>
       <c r="D232" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E232" t="s">
         <v>23</v>
@@ -9018,16 +9036,16 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>751</v>
+      </c>
+      <c r="B233" t="s">
+        <v>755</v>
+      </c>
+      <c r="C233" t="s">
+        <v>756</v>
+      </c>
+      <c r="D233" t="s">
         <v>752</v>
-      </c>
-      <c r="B233" t="s">
-        <v>756</v>
-      </c>
-      <c r="C233" t="s">
-        <v>757</v>
-      </c>
-      <c r="D233" t="s">
-        <v>753</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -9044,16 +9062,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>757</v>
+      </c>
+      <c r="B234" t="s">
         <v>758</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>759</v>
       </c>
-      <c r="C234" t="s">
-        <v>760</v>
-      </c>
       <c r="D234" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E234" t="s">
         <v>23</v>
@@ -9070,16 +9088,16 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>765</v>
+      </c>
+      <c r="B235" t="s">
+        <v>781</v>
+      </c>
+      <c r="C235" t="s">
+        <v>782</v>
+      </c>
+      <c r="D235" t="s">
         <v>766</v>
-      </c>
-      <c r="B235" t="s">
-        <v>784</v>
-      </c>
-      <c r="C235" t="s">
-        <v>785</v>
-      </c>
-      <c r="D235" t="s">
-        <v>767</v>
       </c>
       <c r="E235" t="s">
         <v>11</v>
@@ -9096,16 +9114,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>767</v>
+      </c>
+      <c r="B236" t="s">
         <v>768</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>769</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>770</v>
-      </c>
-      <c r="D236" t="s">
-        <v>771</v>
       </c>
       <c r="E236" t="s">
         <v>23</v>
@@ -9122,16 +9140,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
+        <v>771</v>
+      </c>
+      <c r="B237" t="s">
         <v>772</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>773</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>774</v>
-      </c>
-      <c r="D237" t="s">
-        <v>775</v>
       </c>
       <c r="E237" t="s">
         <v>23</v>
@@ -9148,19 +9166,19 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>775</v>
+      </c>
+      <c r="B238" t="s">
         <v>776</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>777</v>
       </c>
-      <c r="C238" t="s">
-        <v>778</v>
-      </c>
       <c r="D238" t="s">
-        <v>779</v>
+        <v>832</v>
       </c>
       <c r="E238" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F238">
         <v>260</v>
@@ -9169,24 +9187,24 @@
         <v>614</v>
       </c>
       <c r="H238" s="1">
-        <v>44630</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
+        <v>778</v>
+      </c>
+      <c r="B239" t="s">
+        <v>779</v>
+      </c>
+      <c r="C239" t="s">
         <v>780</v>
       </c>
-      <c r="B239" t="s">
-        <v>781</v>
-      </c>
-      <c r="C239" t="s">
-        <v>782</v>
-      </c>
       <c r="D239" t="s">
-        <v>783</v>
+        <v>832</v>
       </c>
       <c r="E239" t="s">
-        <v>734</v>
+        <v>64</v>
       </c>
       <c r="F239">
         <v>261</v>
@@ -9195,21 +9213,21 @@
         <v>614</v>
       </c>
       <c r="H239" s="1">
-        <v>44630</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>783</v>
+      </c>
+      <c r="B240" t="s">
+        <v>784</v>
+      </c>
+      <c r="C240" t="s">
+        <v>785</v>
+      </c>
+      <c r="D240" t="s">
         <v>786</v>
-      </c>
-      <c r="B240" t="s">
-        <v>787</v>
-      </c>
-      <c r="C240" t="s">
-        <v>788</v>
-      </c>
-      <c r="D240" t="s">
-        <v>789</v>
       </c>
       <c r="E240" t="s">
         <v>50</v>
@@ -9226,13 +9244,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B241" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C241" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D241" t="s">
         <v>706</v>
@@ -9252,13 +9270,13 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B242" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C242" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D242" t="s">
         <v>706</v>
@@ -9278,13 +9296,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B243" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C243" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D243" t="s">
         <v>706</v>
@@ -9304,13 +9322,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B244" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C244" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D244" t="s">
         <v>706</v>
@@ -9330,13 +9348,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B245" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C245" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D245" t="s">
         <v>706</v>
@@ -9356,16 +9374,16 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B246" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C246" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D246" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -9382,16 +9400,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B247" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C247" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D247" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E247" t="s">
         <v>23</v>
@@ -9408,16 +9426,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B248" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C248" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D248" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E248" t="s">
         <v>23</v>
@@ -9429,21 +9447,21 @@
         <v>614</v>
       </c>
       <c r="H248" s="1">
-        <v>44811</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B249" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C249" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D249" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E249" t="s">
         <v>23</v>
@@ -9455,21 +9473,21 @@
         <v>614</v>
       </c>
       <c r="H249" s="1">
-        <v>44810</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B250" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C250" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D250" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E250" t="s">
         <v>23</v>
@@ -9481,7 +9499,59 @@
         <v>614</v>
       </c>
       <c r="H250" s="1">
-        <v>44810</v>
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>836</v>
+      </c>
+      <c r="B251" t="s">
+        <v>837</v>
+      </c>
+      <c r="C251" t="s">
+        <v>838</v>
+      </c>
+      <c r="D251" t="s">
+        <v>839</v>
+      </c>
+      <c r="E251" t="s">
+        <v>23</v>
+      </c>
+      <c r="F251">
+        <v>273</v>
+      </c>
+      <c r="G251" t="s">
+        <v>614</v>
+      </c>
+      <c r="H251" s="1">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>840</v>
+      </c>
+      <c r="B252" t="s">
+        <v>841</v>
+      </c>
+      <c r="C252" t="s">
+        <v>842</v>
+      </c>
+      <c r="D252" t="s">
+        <v>843</v>
+      </c>
+      <c r="E252" t="s">
+        <v>23</v>
+      </c>
+      <c r="F252">
+        <v>274</v>
+      </c>
+      <c r="G252" t="s">
+        <v>614</v>
+      </c>
+      <c r="H252" s="1">
+        <v>44853</v>
       </c>
     </row>
   </sheetData>

--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A79EF3DC-398B-41F7-A344-5ACA4AE065E1}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6146C56-F9F7-4F97-BD6C-00213A747437}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3876" yWindow="1140" windowWidth="19164" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Web_cvx" sheetId="53" r:id="rId1"/>
+    <sheet name="Web_cvx" sheetId="58" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$252</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$257</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{9E6B7B36-1D28-4EEE-BFAF-E920ECF9D719}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes11111111111111111111111111111111" type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{63E83EEA-4576-48BE-987C-7B21A9D53889}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes1111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="864">
   <si>
     <t>CVX Code</t>
   </si>
@@ -219,12 +219,6 @@
     <t>56</t>
   </si>
   <si>
-    <t>dengue fever</t>
-  </si>
-  <si>
-    <t>dengue fever vaccine</t>
-  </si>
-  <si>
     <t>Never Active</t>
   </si>
   <si>
@@ -849,9 +843,6 @@
     <t>Influenza, seasonal, injectable, preservative free</t>
   </si>
   <si>
-    <t>IIV3. This vaccine code is one of two which replace CVX 15, influenza, split virus.</t>
-  </si>
-  <si>
     <t>144</t>
   </si>
   <si>
@@ -861,9 +852,6 @@
     <t>seasonal influenza, intradermal, preservative free</t>
   </si>
   <si>
-    <t>IIV3</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -2031,30 +2019,18 @@
     <t>This CVX code should be used to record administration of Southern Hemisphere influenza vaccine where formulation is unknown</t>
   </si>
   <si>
-    <t>influenza, high-dose seasonal, quadrivalent, .7mL dose, preservative free</t>
-  </si>
-  <si>
     <t>Target population 65 and older, starting season 2020/2021</t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
-    <t>meningococcal polysaccharide (groups A, C, Y, W-135) TT conjugate</t>
-  </si>
-  <si>
-    <t>meningococcal polysaccharide (groups A, C, Y, W-135) tetanus toxoid conjugate vaccine .5mL dose, preservative free</t>
-  </si>
-  <si>
     <t>205</t>
   </si>
   <si>
     <t>Influenza vaccine, quadrivalent, adjuvanted</t>
   </si>
   <si>
-    <t>influenza, seasonal vaccine, quadrivalent, adjuvanted, .5mL dose, preservative free</t>
-  </si>
-  <si>
     <t>206</t>
   </si>
   <si>
@@ -2103,9 +2079,6 @@
     <t xml:space="preserve">Ebola Zaire vaccine, live, recombinant, 1mL dose </t>
   </si>
   <si>
-    <t>FDA Approval Pending</t>
-  </si>
-  <si>
     <t>214</t>
   </si>
   <si>
@@ -2184,12 +2157,6 @@
     <t>506</t>
   </si>
   <si>
-    <t>COVID-19 VVnr Non-US Vaccine (CanSino Biological Inc./Beijing Institute of Biotechnology)</t>
-  </si>
-  <si>
-    <t>SARS-COV-2 COVID-19 Viral Vector Non-replicating Non-US Vaccine Product (CanSino Biological Inc./Beijing Institute of Biotechnology)</t>
-  </si>
-  <si>
     <t>507</t>
   </si>
   <si>
@@ -2223,9 +2190,6 @@
     <t>SARS-COV-2 COVID-19 Inactivated Virus Non-US Vaccine Product (BIBP, Sinopharm)</t>
   </si>
   <si>
-    <t>WHO authorized pandemic vaccine.  Recognized towards immunity in US</t>
-  </si>
-  <si>
     <t>511</t>
   </si>
   <si>
@@ -2469,9 +2433,6 @@
     <t>This vaccine is different from CVX 132. Code may be used to document non-US vaccines (e.g. Hexamin) of the same component formulation</t>
   </si>
   <si>
-    <t>Vaccinia, smallpox monkeypox vaccine live, PF, SQ or ID injection</t>
-  </si>
-  <si>
     <t>Vaccinia, smallpox monkeypox vaccine, live attenuated, preservative free, subcutaneous or intradermal injection</t>
   </si>
   <si>
@@ -2508,12 +2469,6 @@
     <t>FDA EUA (12+ yrs) and BLA (16+ yrs), Pfizer adult primary series and IC dose original formulation. EUA 8/31/2022 rescinded monovalent booster dose. Used to record Pfizer vaccines administered in the US and in non-US locations (includes tradename Comirnaty)</t>
   </si>
   <si>
-    <t>Submission for FDA EUA withdrawn, 2-dose vaccine. AstraZeneca vaccine is authorized by the WHO and recognized towards immunity in the US. Non-US WHO authorized tradenames/identifiers include VAXZEVRIA, AZD1222, ChAdOx1 nCoV-19, COVISHIELD</t>
-  </si>
-  <si>
-    <t>FDA EUA Authorized, Novavax primary series adult dose</t>
-  </si>
-  <si>
     <t xml:space="preserve">FDA EUA (6 mo through 4 yrs), Pfizer tris-sucrose pediatric primary series </t>
   </si>
   <si>
@@ -2532,15 +2487,9 @@
     <t>EUA submission withdrawn by Sanofi</t>
   </si>
   <si>
-    <t>EUA authorized Moderna bivalent booster 2 dose levels: ages 6 yrs thru 11 yrs 0.25mL dose; 12 years and older 0.5mL dose</t>
-  </si>
-  <si>
     <t>EUA authorized (5 yrs through 11 yrs) Pfizer bivalent booster, original strain + omicron BA.4/BA.5</t>
   </si>
   <si>
-    <t>EUA authorized Pfizer adult bivalent booster ages 12+ yrs, original strain + omicron BA.4/BA.5</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
@@ -2550,9 +2499,6 @@
     <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent booster, preservative free, 10 mcg/0.2 mL dose</t>
   </si>
   <si>
-    <t>Pre-EUA Moderna bivalent booster (ages 6 mo through 5 yrs), original strain + omicron BA.4/BA.5</t>
-  </si>
-  <si>
     <t>302</t>
   </si>
   <si>
@@ -2562,7 +2508,121 @@
     <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent, preservative free, 3 mcg/0.2 mL dose, tris-sucrose formulation</t>
   </si>
   <si>
-    <t>Pre-EUA Pfizer bivalent (ages 6 mo through 4 yrs), original strain + omicron BA.4/BA.5</t>
+    <t>WHO authorized pandemic vaccine.  Recognized towards immunity in US.  AstraZeneca vaccine non-US WHO authorized tradenames/identifiers include VAXZEVRIA, AZD1222, ChAdOx1 nCoV-19, COVISHIELD</t>
+  </si>
+  <si>
+    <t>EUA 07/13/2022, 2-dose vaccine. Used to record Novavax vaccines administered in the US and in non-US locations (includes tradenames NUVAXOVID, COVOVAX)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Viral Vector Non-replicating Non-US Vaccine Product (CONVIDECIA), CanSino Biological Inc./Beijing Institute of Biotechnology</t>
+  </si>
+  <si>
+    <t>Pandemic Non-US Vaccine. Authorized by WHO 5/19/2022 - Counted toward immunity in US</t>
+  </si>
+  <si>
+    <t>Pandemic Non-US Vaccine. Authorized by WHO - Counted toward immunity in US</t>
+  </si>
+  <si>
+    <t>EUA authorized Moderna bivalent booster original strain + omicron BA.4/BA.5 2 dose levels: ages 6 yrs thru 11 yrs 0.25mL dose; 12 years and older 0.5mL dose. Non-US Tradename for same formulation (Spikevax Bivalent) - not authorized by WHO - is authorized by EU and counted toward US immunity</t>
+  </si>
+  <si>
+    <t>Pre-EUA Moderna bivalent booster original strain + omicron BA.4/BA.5 (ages 6 mo through 5 yrs), original strain + omicron BA.4/BA.5</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>COVID-19 Inactivated, Non-US Vaccine (VLA2001, Valneva)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Inactivated, Non-US Vaccine (VLA2001, Valneva)</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>COVID-19 mRNA, bivalent, original/Omicron BA.1, Non-US Vaccine (Spikevax Bivalent), Moderna</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 mRNA, bivalent, original/Omicron BA.1, Non-US Vaccine (Spikevax Bivalent), Moderna</t>
+  </si>
+  <si>
+    <t>Pandemic Non-US Vaccine not Authorized by WHO - Is authorized by EU and counted toward immunity in US</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 mRNA, bivalent, original/Omicron BA.1, Non-US Vaccine Product (Comirnaty Bivalent), Pfizer-BioNTech</t>
+  </si>
+  <si>
+    <t>EUA authorized Pfizer adult bivalent booster ages 12+ yrs, original strain + omicron BA.4/BA.5.  Not Authorized by WHO.  Non-US Tradename for same formulation (Comirnaty Bivalent) counted toward immunity in US</t>
+  </si>
+  <si>
+    <t>Pre-EUA Pfizer bivalent original + omicron BA.4/BA.5 (ages 6 mo through 4 yrs), original strain + omicron BA.4/BA.5</t>
+  </si>
+  <si>
+    <t>IIV3. No US product available since 2018/2019 flu season. This vaccine code is one of two which replace CVX 15, influenza, split virus.</t>
+  </si>
+  <si>
+    <t>IIV3. No US product available since 2014/2015 flu season</t>
+  </si>
+  <si>
+    <t>No US product available since 2017/2018 flu season</t>
+  </si>
+  <si>
+    <t>COVID-19 VVnr Non-US Vaccine (CanSino Biological Inc./Beijing Institute of Biotechnology</t>
+  </si>
+  <si>
+    <t>COVID-19 mRNA, bivalent, original/Omicron BA.1, Non-US Vaccine Product, Pfizer-BioNTech</t>
+  </si>
+  <si>
+    <t>Pandemic Non-US Vaccine. Authorized by WHO 10/19/2022 - Counted toward immunity in US</t>
+  </si>
+  <si>
+    <t>influenza, high-dose seasonal, quadrivalent, 0.7mL dose, preservative free</t>
+  </si>
+  <si>
+    <t>meningococcal polysaccharide (groups A, C, Y, W-135) tetanus toxoid conjugate vaccine 0.5mL dose, preservative free</t>
+  </si>
+  <si>
+    <t>influenza, seasonal vaccine, quadrivalent, adjuvanted, 0.5mL dose, preservative free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDA Approved ERVEBO Vaccine. </t>
+  </si>
+  <si>
+    <t>dengue fever tetravalent</t>
+  </si>
+  <si>
+    <t>dengue fever vaccine, tetravalent</t>
+  </si>
+  <si>
+    <t>meningococcal conjugate quadrivalent, MenACWY-TT (MCV4)</t>
+  </si>
+  <si>
+    <t>Vaccinia, smallpox Mpox vaccine live, PF, SQ or ID injection</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>COVID-19 SP, protein-based, adjuvanted (VidPrevtyn Beta), Sanofi-GSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARS-COV-2 (COVID-19) vaccine SP, protein-based, adjuvanted, B.1.351 strain (VidPrevtyn Beta), Sanofi-GSK </t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>influenza, Southern Hemisphere, high-dose, quadrivalent</t>
+  </si>
+  <si>
+    <t>influenza, seasonal, Southern Hemisphere, high-dose, quadrivalent, 0.7mL dose, preservative free</t>
+  </si>
+  <si>
+    <t>Target population 65 and older, starting Southern Hemisphere season 2023</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2686,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes_1" connectionId="1" xr16:uid="{2748B42A-9A5F-4875-BA63-6DA09BBC18B3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{BA1792B7-F394-4EC1-9674-7AA6EE0EC438}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
@@ -2646,16 +2706,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40966C7D-93AA-4F8D-AC27-BAD650ADCFA9}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" ref="A1:H252" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{235748ED-FB82-463A-8521-CA557A211B7F}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H257" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{32B3977C-C89F-4547-AB51-0B710626B547}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{D0BAE63F-C725-4567-9C64-D1564FC33AA2}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7CE7C3EC-6611-4F35-A986-5DA7601FD017}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{2511BC02-1007-4AA7-9793-878C5450CA2D}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{21D16AEE-AC51-46E7-B47D-1DEEACBCBD93}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{612E583A-3086-4384-9164-E165F2F42055}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{1C4BDB27-0530-46FD-933D-DAB0FA9E7351}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{DE5DCCA4-3D13-4707-BE5A-7BB24CB1B827}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{DF0B2481-0041-4381-A874-CC6F59438D7F}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{64C81B9C-1CFE-4667-9F38-A7BCD4669C15}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{22359B3C-CD2C-4DE3-9987-77B29DDAAF75}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{B751EB4B-0132-46EF-AD80-B0FD04F825BD}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{0B4520D6-4521-4A15-A5C3-F5792ACA3BCA}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{97D3B976-E2FA-411B-A6DC-50B24943528C}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{B7315734-72E3-4D36-87CB-B602C771AB83}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{ABA7A063-83F9-4EAD-AC07-6A77F6EBFF06}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2981,24 +3041,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C9CA71-4BCC-4D3C-BE14-8971C4F53536}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C18C25E-EB5B-4BD1-B460-55FB65F4ADB0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3048,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H2" s="1">
         <v>40326</v>
@@ -3074,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H3" s="1">
         <v>40326</v>
@@ -3100,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H4" s="1">
         <v>40451</v>
@@ -3126,7 +3187,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H5" s="1">
         <v>43627</v>
@@ -3152,7 +3213,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H6" s="1">
         <v>40326</v>
@@ -3178,7 +3239,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H7" s="1">
         <v>44078</v>
@@ -3204,7 +3265,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H8" s="1">
         <v>42538</v>
@@ -3230,7 +3291,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H9" s="1">
         <v>44078</v>
@@ -3241,13 +3302,13 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>853</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>854</v>
       </c>
       <c r="D10" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -3256,21 +3317,21 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H10" s="1">
-        <v>44700</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -3282,7 +3343,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H11" s="1">
         <v>44078</v>
@@ -3290,13 +3351,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -3308,7 +3369,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H12" s="1">
         <v>40326</v>
@@ -3316,13 +3377,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
         <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -3334,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H13" s="1">
         <v>40326</v>
@@ -3342,13 +3403,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
         <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
@@ -3360,7 +3421,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H14" s="1">
         <v>40326</v>
@@ -3368,16 +3429,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -3386,7 +3447,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H15" s="1">
         <v>40451</v>
@@ -3394,13 +3455,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
         <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -3412,7 +3473,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H16" s="1">
         <v>40326</v>
@@ -3420,13 +3481,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
         <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -3438,7 +3499,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H17" s="1">
         <v>42814</v>
@@ -3446,13 +3507,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
         <v>93</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -3464,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H18" s="1">
         <v>40326</v>
@@ -3472,13 +3533,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
         <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -3490,7 +3551,7 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H19" s="1">
         <v>40326</v>
@@ -3498,13 +3559,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
         <v>102</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -3516,7 +3577,7 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H20" s="1">
         <v>40326</v>
@@ -3524,13 +3585,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
         <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -3542,7 +3603,7 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H21" s="1">
         <v>42817</v>
@@ -3550,16 +3611,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
         <v>108</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>109</v>
-      </c>
-      <c r="C22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" t="s">
-        <v>111</v>
       </c>
       <c r="E22" t="s">
         <v>50</v>
@@ -3568,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H22" s="1">
         <v>42510</v>
@@ -3576,25 +3637,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
         <v>112</v>
       </c>
-      <c r="B23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H23" s="1">
         <v>44083</v>
@@ -3602,13 +3663,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
         <v>118</v>
-      </c>
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
@@ -3620,7 +3681,7 @@
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H24" s="1">
         <v>40326</v>
@@ -3628,13 +3689,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
         <v>129</v>
-      </c>
-      <c r="B25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -3646,7 +3707,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H25" s="1">
         <v>40326</v>
@@ -3654,16 +3715,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>133</v>
-      </c>
-      <c r="C26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" t="s">
-        <v>135</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -3672,7 +3733,7 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H26" s="1">
         <v>40326</v>
@@ -3680,16 +3741,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
         <v>136</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>137</v>
-      </c>
-      <c r="C27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" t="s">
-        <v>139</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -3698,7 +3759,7 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H27" s="1">
         <v>40451</v>
@@ -3706,16 +3767,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
         <v>140</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>141</v>
-      </c>
-      <c r="C28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" t="s">
-        <v>143</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -3724,7 +3785,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H28" s="1">
         <v>40451</v>
@@ -3732,13 +3793,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" t="s">
         <v>144</v>
-      </c>
-      <c r="B29" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
@@ -3750,7 +3811,7 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H29" s="1">
         <v>40326</v>
@@ -3758,13 +3819,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
         <v>115</v>
-      </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
@@ -3776,7 +3837,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H30" s="1">
         <v>44078</v>
@@ -3784,16 +3845,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
         <v>148</v>
       </c>
-      <c r="B31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" t="s">
-        <v>150</v>
-      </c>
       <c r="D31" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -3802,7 +3863,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H31" s="1">
         <v>43230</v>
@@ -3810,16 +3871,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" t="s">
         <v>151</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>152</v>
-      </c>
-      <c r="C32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" t="s">
-        <v>154</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -3828,7 +3889,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H32" s="1">
         <v>40326</v>
@@ -3836,16 +3897,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s">
         <v>155</v>
       </c>
-      <c r="B33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" t="s">
-        <v>157</v>
-      </c>
       <c r="D33" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
@@ -3854,7 +3915,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H33" s="1">
         <v>43230</v>
@@ -3862,16 +3923,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
         <v>158</v>
       </c>
-      <c r="B34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" t="s">
-        <v>160</v>
-      </c>
       <c r="D34" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -3880,7 +3941,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H34" s="1">
         <v>43593</v>
@@ -3888,16 +3949,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
         <v>161</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>162</v>
-      </c>
-      <c r="C35" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" t="s">
-        <v>164</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -3906,7 +3967,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H35" s="1">
         <v>40451</v>
@@ -3914,25 +3975,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
         <v>165</v>
       </c>
-      <c r="B36" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" t="s">
-        <v>167</v>
-      </c>
       <c r="D36" t="s">
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F36">
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H36" s="1">
         <v>44083</v>
@@ -3940,25 +4001,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
         <v>168</v>
       </c>
-      <c r="B37" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
       <c r="D37" t="s">
         <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F37">
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H37" s="1">
         <v>44083</v>
@@ -3966,25 +4027,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
         <v>171</v>
       </c>
-      <c r="B38" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" t="s">
-        <v>173</v>
-      </c>
       <c r="D38" t="s">
         <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F38">
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H38" s="1">
         <v>44083</v>
@@ -3992,13 +4053,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" t="s">
         <v>177</v>
-      </c>
-      <c r="B39" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" t="s">
-        <v>179</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -4010,7 +4071,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H39" s="1">
         <v>40326</v>
@@ -4018,13 +4079,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
         <v>174</v>
-      </c>
-      <c r="B40" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" t="s">
-        <v>176</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -4036,7 +4097,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H40" s="1">
         <v>40326</v>
@@ -4044,13 +4105,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" t="s">
         <v>183</v>
-      </c>
-      <c r="B41" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" t="s">
-        <v>185</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
@@ -4062,7 +4123,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H41" s="1">
         <v>40326</v>
@@ -4070,13 +4131,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" t="s">
         <v>180</v>
-      </c>
-      <c r="B42" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" t="s">
-        <v>182</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
@@ -4088,7 +4149,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H42" s="1">
         <v>40326</v>
@@ -4096,13 +4157,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" t="s">
         <v>186</v>
-      </c>
-      <c r="B43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" t="s">
-        <v>188</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -4114,7 +4175,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H43" s="1">
         <v>40451</v>
@@ -4122,16 +4183,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" t="s">
         <v>189</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>190</v>
-      </c>
-      <c r="C44" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" t="s">
-        <v>192</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -4140,7 +4201,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H44" s="1">
         <v>42440</v>
@@ -4148,25 +4209,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" t="s">
         <v>193</v>
       </c>
-      <c r="B45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C45" t="s">
-        <v>195</v>
-      </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F45">
         <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H45" s="1">
         <v>44083</v>
@@ -4174,13 +4235,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" t="s">
         <v>196</v>
-      </c>
-      <c r="B46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" t="s">
-        <v>198</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
@@ -4192,7 +4253,7 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H46" s="1">
         <v>40326</v>
@@ -4200,13 +4261,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
         <v>199</v>
-      </c>
-      <c r="B47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" t="s">
-        <v>201</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
@@ -4218,7 +4279,7 @@
         <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H47" s="1">
         <v>43984</v>
@@ -4226,13 +4287,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" t="s">
         <v>208</v>
-      </c>
-      <c r="B48" t="s">
-        <v>209</v>
-      </c>
-      <c r="C48" t="s">
-        <v>210</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
@@ -4244,7 +4305,7 @@
         <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H48" s="1">
         <v>44078</v>
@@ -4252,13 +4313,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
         <v>214</v>
-      </c>
-      <c r="B49" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" t="s">
-        <v>216</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -4270,7 +4331,7 @@
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H49" s="1">
         <v>44078</v>
@@ -4278,13 +4339,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" t="s">
         <v>211</v>
-      </c>
-      <c r="B50" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" t="s">
-        <v>213</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
@@ -4296,24 +4357,24 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H50" s="1">
-        <v>44078</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" t="s">
         <v>253</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>254</v>
-      </c>
-      <c r="C51" t="s">
-        <v>255</v>
-      </c>
-      <c r="D51" t="s">
-        <v>256</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -4322,7 +4383,7 @@
         <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H51" s="1">
         <v>41904</v>
@@ -4330,16 +4391,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C52" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -4348,7 +4409,7 @@
         <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H52" s="1">
         <v>40451</v>
@@ -4356,13 +4417,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
@@ -4374,7 +4435,7 @@
         <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H53" s="1">
         <v>40326</v>
@@ -4382,16 +4443,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -4400,7 +4461,7 @@
         <v>57</v>
       </c>
       <c r="G54" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H54" s="1">
         <v>40451</v>
@@ -4408,13 +4469,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" t="s">
         <v>224</v>
-      </c>
-      <c r="B55" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" t="s">
-        <v>226</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
@@ -4426,7 +4487,7 @@
         <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H55" s="1">
         <v>40326</v>
@@ -4434,13 +4495,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B56" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
@@ -4452,7 +4513,7 @@
         <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H56" s="1">
         <v>40326</v>
@@ -4460,16 +4521,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B57" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C57" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D57" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -4478,7 +4539,7 @@
         <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H57" s="1">
         <v>42776</v>
@@ -4486,16 +4547,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B58" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C58" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D58" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -4504,7 +4565,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H58" s="1">
         <v>40451</v>
@@ -4512,13 +4573,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C59" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
@@ -4530,7 +4591,7 @@
         <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H59" s="1">
         <v>42271</v>
@@ -4538,25 +4599,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D60" t="s">
         <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F60">
         <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H60" s="1">
         <v>44083</v>
@@ -4564,25 +4625,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C61" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F61">
         <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H61" s="1">
         <v>44083</v>
@@ -4590,25 +4651,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B62" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C62" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F62">
         <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H62" s="1">
         <v>44083</v>
@@ -4616,13 +4677,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C63" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
@@ -4634,7 +4695,7 @@
         <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H63" s="1">
         <v>40326</v>
@@ -4642,13 +4703,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C64" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
@@ -4660,7 +4721,7 @@
         <v>68</v>
       </c>
       <c r="G64" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H64" s="1">
         <v>40326</v>
@@ -4668,13 +4729,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B65" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C65" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
@@ -4686,7 +4747,7 @@
         <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H65" s="1">
         <v>40326</v>
@@ -4694,13 +4755,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B66" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C66" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
@@ -4712,7 +4773,7 @@
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H66" s="1">
         <v>40326</v>
@@ -4720,25 +4781,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B67" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C67" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D67" t="s">
         <v>27</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F67">
         <v>71</v>
       </c>
       <c r="G67" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H67" s="1">
         <v>44083</v>
@@ -4746,13 +4807,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C68" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D68" t="s">
         <v>27</v>
@@ -4764,7 +4825,7 @@
         <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H68" s="1">
         <v>40421</v>
@@ -4772,25 +4833,25 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B69" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C69" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D69" t="s">
         <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F69">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H69" s="1">
         <v>44083</v>
@@ -4798,13 +4859,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B70" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C70" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D70" t="s">
         <v>27</v>
@@ -4816,7 +4877,7 @@
         <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H70" s="1">
         <v>43035</v>
@@ -4824,13 +4885,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C71" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
@@ -4842,7 +4903,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H71" s="1">
         <v>40326</v>
@@ -4850,13 +4911,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B72" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C72" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
@@ -4868,7 +4929,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H72" s="1">
         <v>40326</v>
@@ -4876,16 +4937,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B73" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C73" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D73" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -4894,7 +4955,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H73" s="1">
         <v>42339</v>
@@ -4902,13 +4963,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B74" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C74" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
@@ -4920,7 +4981,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H74" s="1">
         <v>42173</v>
@@ -4928,13 +4989,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B75" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C75" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
@@ -4946,7 +5007,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H75" s="1">
         <v>40326</v>
@@ -4954,13 +5015,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C76" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D76" t="s">
         <v>27</v>
@@ -4972,7 +5033,7 @@
         <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H76" s="1">
         <v>40326</v>
@@ -4980,13 +5041,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B77" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C77" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D77" t="s">
         <v>27</v>
@@ -4998,7 +5059,7 @@
         <v>82</v>
       </c>
       <c r="G77" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H77" s="1">
         <v>43237</v>
@@ -5006,13 +5067,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B78" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C78" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D78" t="s">
         <v>27</v>
@@ -5024,7 +5085,7 @@
         <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H78" s="1">
         <v>40326</v>
@@ -5032,13 +5093,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B79" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C79" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D79" t="s">
         <v>27</v>
@@ -5050,7 +5111,7 @@
         <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H79" s="1">
         <v>41816</v>
@@ -5058,16 +5119,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B80" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C80" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D80" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -5076,7 +5137,7 @@
         <v>85</v>
       </c>
       <c r="G80" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H80" s="1">
         <v>40451</v>
@@ -5084,25 +5145,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B81" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C81" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D81" t="s">
         <v>27</v>
       </c>
       <c r="E81" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F81">
         <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H81" s="1">
         <v>44083</v>
@@ -5110,16 +5171,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B82" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C82" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D82" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -5128,7 +5189,7 @@
         <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H82" s="1">
         <v>42661</v>
@@ -5136,13 +5197,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B83" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C83" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
@@ -5154,7 +5215,7 @@
         <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H83" s="1">
         <v>42173</v>
@@ -5162,16 +5223,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B84" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C84" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D84" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -5180,7 +5241,7 @@
         <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H84" s="1">
         <v>40451</v>
@@ -5188,25 +5249,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B85" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C85" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D85" t="s">
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F85">
         <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H85" s="1">
         <v>44083</v>
@@ -5214,25 +5275,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B86" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C86" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D86" t="s">
         <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F86">
         <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H86" s="1">
         <v>44083</v>
@@ -5240,13 +5301,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B87" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C87" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D87" t="s">
         <v>27</v>
@@ -5258,7 +5319,7 @@
         <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H87" s="1">
         <v>44078</v>
@@ -5266,13 +5327,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B88" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C88" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D88" t="s">
         <v>27</v>
@@ -5284,7 +5345,7 @@
         <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H88" s="1">
         <v>40326</v>
@@ -5292,13 +5353,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B89" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C89" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D89" t="s">
         <v>27</v>
@@ -5310,7 +5371,7 @@
         <v>95</v>
       </c>
       <c r="G89" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H89" s="1">
         <v>40451</v>
@@ -5318,13 +5379,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B90" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C90" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D90" t="s">
         <v>27</v>
@@ -5336,7 +5397,7 @@
         <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H90" s="1">
         <v>40326</v>
@@ -5344,13 +5405,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B91" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C91" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D91" t="s">
         <v>27</v>
@@ -5362,7 +5423,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H91" s="1">
         <v>40326</v>
@@ -5370,13 +5431,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B92" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C92" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D92" t="s">
         <v>27</v>
@@ -5388,7 +5449,7 @@
         <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H92" s="1">
         <v>44078</v>
@@ -5396,13 +5457,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B93" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C93" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D93" t="s">
         <v>27</v>
@@ -5414,7 +5475,7 @@
         <v>102</v>
       </c>
       <c r="G93" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H93" s="1">
         <v>44078</v>
@@ -5422,13 +5483,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B94" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C94" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D94" t="s">
         <v>27</v>
@@ -5440,7 +5501,7 @@
         <v>103</v>
       </c>
       <c r="G94" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H94" s="1">
         <v>42173</v>
@@ -5448,13 +5509,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B95" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C95" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D95" t="s">
         <v>27</v>
@@ -5466,7 +5527,7 @@
         <v>104</v>
       </c>
       <c r="G95" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H95" s="1">
         <v>40326</v>
@@ -5474,13 +5535,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B96" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C96" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D96" t="s">
         <v>27</v>
@@ -5492,21 +5553,21 @@
         <v>105</v>
       </c>
       <c r="G96" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H96" s="1">
-        <v>44078</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B97" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C97" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D97" t="s">
         <v>27</v>
@@ -5518,7 +5579,7 @@
         <v>106</v>
       </c>
       <c r="G97" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H97" s="1">
         <v>43035</v>
@@ -5526,13 +5587,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B98" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C98" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D98" t="s">
         <v>27</v>
@@ -5544,7 +5605,7 @@
         <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H98" s="1">
         <v>43035</v>
@@ -5552,13 +5613,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B99" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C99" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D99" t="s">
         <v>27</v>
@@ -5570,7 +5631,7 @@
         <v>108</v>
       </c>
       <c r="G99" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H99" s="1">
         <v>40326</v>
@@ -5578,13 +5639,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B100" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C100" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D100" t="s">
         <v>27</v>
@@ -5596,7 +5657,7 @@
         <v>110</v>
       </c>
       <c r="G100" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H100" s="1">
         <v>42230</v>
@@ -5604,13 +5665,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B101" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C101" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D101" t="s">
         <v>27</v>
@@ -5622,7 +5683,7 @@
         <v>111</v>
       </c>
       <c r="G101" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H101" s="1">
         <v>40451</v>
@@ -5630,16 +5691,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B102" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="C102" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D102" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="E102" t="s">
         <v>50</v>
@@ -5648,7 +5709,7 @@
         <v>112</v>
       </c>
       <c r="G102" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H102" s="1">
         <v>44624</v>
@@ -5656,13 +5717,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B103" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C103" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D103" t="s">
         <v>27</v>
@@ -5674,7 +5735,7 @@
         <v>113</v>
       </c>
       <c r="G103" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H103" s="1">
         <v>44078</v>
@@ -5682,16 +5743,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B104" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C104" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D104" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -5700,24 +5761,24 @@
         <v>114</v>
       </c>
       <c r="G104" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H104" s="1">
-        <v>44078</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B105" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C105" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D105" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -5726,24 +5787,24 @@
         <v>115</v>
       </c>
       <c r="G105" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H105" s="1">
-        <v>44078</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B106" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C106" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D106" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -5752,24 +5813,24 @@
         <v>116</v>
       </c>
       <c r="G106" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H106" s="1">
-        <v>44078</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B107" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C107" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D107" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -5778,21 +5839,21 @@
         <v>117</v>
       </c>
       <c r="G107" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H107" s="1">
-        <v>44078</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B108" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C108" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D108" t="s">
         <v>27</v>
@@ -5804,7 +5865,7 @@
         <v>118</v>
       </c>
       <c r="G108" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H108" s="1">
         <v>40326</v>
@@ -5812,16 +5873,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B109" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C109" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D109" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -5830,7 +5891,7 @@
         <v>119</v>
       </c>
       <c r="G109" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H109" s="1">
         <v>40451</v>
@@ -5838,13 +5899,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B110" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C110" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D110" t="s">
         <v>27</v>
@@ -5856,7 +5917,7 @@
         <v>120</v>
       </c>
       <c r="G110" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H110" s="1">
         <v>40326</v>
@@ -5864,13 +5925,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B111" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C111" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D111" t="s">
         <v>27</v>
@@ -5882,7 +5943,7 @@
         <v>121</v>
       </c>
       <c r="G111" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H111" s="1">
         <v>42229</v>
@@ -5890,13 +5951,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B112" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C112" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D112" t="s">
         <v>27</v>
@@ -5908,7 +5969,7 @@
         <v>122</v>
       </c>
       <c r="G112" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H112" s="1">
         <v>42173</v>
@@ -5916,13 +5977,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B113" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C113" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D113" t="s">
         <v>27</v>
@@ -5934,7 +5995,7 @@
         <v>123</v>
       </c>
       <c r="G113" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H113" s="1">
         <v>40326</v>
@@ -5942,13 +6003,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B114" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C114" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D114" t="s">
         <v>27</v>
@@ -5960,7 +6021,7 @@
         <v>124</v>
       </c>
       <c r="G114" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H114" s="1">
         <v>40326</v>
@@ -5968,13 +6029,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B115" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C115" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D115" t="s">
         <v>27</v>
@@ -5986,7 +6047,7 @@
         <v>125</v>
       </c>
       <c r="G115" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H115" s="1">
         <v>40326</v>
@@ -5994,13 +6055,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B116" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C116" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
@@ -6012,7 +6073,7 @@
         <v>126</v>
       </c>
       <c r="G116" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H116" s="1">
         <v>44078</v>
@@ -6020,13 +6081,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B117" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C117" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D117" t="s">
         <v>27</v>
@@ -6038,7 +6099,7 @@
         <v>127</v>
       </c>
       <c r="G117" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H117" s="1">
         <v>40326</v>
@@ -6046,13 +6107,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B118" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C118" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D118" t="s">
         <v>27</v>
@@ -6064,7 +6125,7 @@
         <v>128</v>
       </c>
       <c r="G118" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H118" s="1">
         <v>40326</v>
@@ -6072,13 +6133,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B119" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C119" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
@@ -6090,7 +6151,7 @@
         <v>129</v>
       </c>
       <c r="G119" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H119" s="1">
         <v>40326</v>
@@ -6098,16 +6159,16 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B120" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C120" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D120" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -6116,7 +6177,7 @@
         <v>130</v>
       </c>
       <c r="G120" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H120" s="1">
         <v>40451</v>
@@ -6124,13 +6185,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B121" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C121" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D121" t="s">
         <v>27</v>
@@ -6142,7 +6203,7 @@
         <v>131</v>
       </c>
       <c r="G121" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H121" s="1">
         <v>44078</v>
@@ -6150,25 +6211,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B122" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C122" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D122" t="s">
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F122">
         <v>132</v>
       </c>
       <c r="G122" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H122" s="1">
         <v>44083</v>
@@ -6176,16 +6237,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B123" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C123" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D123" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
@@ -6194,7 +6255,7 @@
         <v>134</v>
       </c>
       <c r="G123" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H123" s="1">
         <v>42796</v>
@@ -6202,13 +6263,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B124" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C124" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D124" t="s">
         <v>27</v>
@@ -6220,7 +6281,7 @@
         <v>135</v>
       </c>
       <c r="G124" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H124" s="1">
         <v>40326</v>
@@ -6246,10 +6307,10 @@
         <v>137</v>
       </c>
       <c r="G125" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H125" s="1">
-        <v>40326</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -6272,7 +6333,7 @@
         <v>138</v>
       </c>
       <c r="G126" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H126" s="1">
         <v>44131</v>
@@ -6298,7 +6359,7 @@
         <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H127" s="1">
         <v>44083</v>
@@ -6306,13 +6367,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B128" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C128" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D128" t="s">
         <v>27</v>
@@ -6324,7 +6385,7 @@
         <v>141</v>
       </c>
       <c r="G128" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H128" s="1">
         <v>40326</v>
@@ -6332,13 +6393,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B129" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C129" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D129" t="s">
         <v>27</v>
@@ -6350,7 +6411,7 @@
         <v>142</v>
       </c>
       <c r="G129" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H129" s="1">
         <v>40326</v>
@@ -6358,16 +6419,16 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" t="s">
+        <v>201</v>
+      </c>
+      <c r="D130" t="s">
         <v>202</v>
-      </c>
-      <c r="B130" t="s">
-        <v>203</v>
-      </c>
-      <c r="C130" t="s">
-        <v>203</v>
-      </c>
-      <c r="D130" t="s">
-        <v>204</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -6376,7 +6437,7 @@
         <v>144</v>
       </c>
       <c r="G130" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H130" s="1">
         <v>40451</v>
@@ -6384,13 +6445,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B131" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C131" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D131" t="s">
         <v>27</v>
@@ -6402,7 +6463,7 @@
         <v>145</v>
       </c>
       <c r="G131" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H131" s="1">
         <v>40326</v>
@@ -6410,13 +6471,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>225</v>
+      </c>
+      <c r="B132" t="s">
+        <v>226</v>
+      </c>
+      <c r="C132" t="s">
         <v>227</v>
-      </c>
-      <c r="B132" t="s">
-        <v>228</v>
-      </c>
-      <c r="C132" t="s">
-        <v>229</v>
       </c>
       <c r="D132" t="s">
         <v>27</v>
@@ -6428,7 +6489,7 @@
         <v>146</v>
       </c>
       <c r="G132" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H132" s="1">
         <v>40326</v>
@@ -6436,13 +6497,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B133" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C133" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D133" t="s">
         <v>27</v>
@@ -6454,7 +6515,7 @@
         <v>147</v>
       </c>
       <c r="G133" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H133" s="1">
         <v>40326</v>
@@ -6462,16 +6523,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>97</v>
+      </c>
+      <c r="B134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134" t="s">
+        <v>614</v>
+      </c>
+      <c r="D134" t="s">
         <v>99</v>
-      </c>
-      <c r="B134" t="s">
-        <v>100</v>
-      </c>
-      <c r="C134" t="s">
-        <v>618</v>
-      </c>
-      <c r="D134" t="s">
-        <v>101</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -6480,7 +6541,7 @@
         <v>148</v>
       </c>
       <c r="G134" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H134" s="1">
         <v>43230</v>
@@ -6488,16 +6549,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B135" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C135" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D135" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -6506,7 +6567,7 @@
         <v>149</v>
       </c>
       <c r="G135" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H135" s="1">
         <v>40418</v>
@@ -6514,13 +6575,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B136" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C136" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D136" t="s">
         <v>27</v>
@@ -6532,7 +6593,7 @@
         <v>150</v>
       </c>
       <c r="G136" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H136" s="1">
         <v>40418</v>
@@ -6540,13 +6601,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C137" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
@@ -6558,7 +6619,7 @@
         <v>151</v>
       </c>
       <c r="G137" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H137" s="1">
         <v>40418</v>
@@ -6566,13 +6627,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B138" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C138" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D138" t="s">
         <v>27</v>
@@ -6584,7 +6645,7 @@
         <v>152</v>
       </c>
       <c r="G138" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H138" s="1">
         <v>40418</v>
@@ -6592,16 +6653,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B139" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C139" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D139" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -6610,7 +6671,7 @@
         <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H139" s="1">
         <v>40451</v>
@@ -6618,16 +6679,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B140" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C140" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D140" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -6636,7 +6697,7 @@
         <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H140" s="1">
         <v>43704</v>
@@ -6644,42 +6705,42 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D141" t="s">
-        <v>272</v>
+        <v>843</v>
       </c>
       <c r="E141" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F141">
         <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H141" s="1">
-        <v>41472</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B142" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C142" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D142" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -6688,7 +6749,7 @@
         <v>157</v>
       </c>
       <c r="G142" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H142" s="1">
         <v>40451</v>
@@ -6696,16 +6757,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>265</v>
+      </c>
+      <c r="B143" t="s">
+        <v>266</v>
+      </c>
+      <c r="C143" t="s">
+        <v>266</v>
+      </c>
+      <c r="D143" t="s">
         <v>267</v>
-      </c>
-      <c r="B143" t="s">
-        <v>268</v>
-      </c>
-      <c r="C143" t="s">
-        <v>268</v>
-      </c>
-      <c r="D143" t="s">
-        <v>269</v>
       </c>
       <c r="E143" t="s">
         <v>23</v>
@@ -6714,7 +6775,7 @@
         <v>159</v>
       </c>
       <c r="G143" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H143" s="1">
         <v>41472</v>
@@ -6722,13 +6783,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B144" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C144" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D144" t="s">
         <v>27</v>
@@ -6740,7 +6801,7 @@
         <v>160</v>
       </c>
       <c r="G144" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H144" s="1">
         <v>42230</v>
@@ -6766,7 +6827,7 @@
         <v>161</v>
       </c>
       <c r="G145" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H145" s="1">
         <v>40622</v>
@@ -6774,51 +6835,51 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B146" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C146" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D146" t="s">
-        <v>276</v>
+        <v>844</v>
       </c>
       <c r="E146" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F146">
         <v>162</v>
       </c>
       <c r="G146" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H146" s="1">
-        <v>41472</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B147" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C147" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D147" t="s">
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F147">
         <v>163</v>
       </c>
       <c r="G147" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H147" s="1">
         <v>44083</v>
@@ -6826,16 +6887,16 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" t="s">
         <v>80</v>
       </c>
-      <c r="B148" t="s">
-        <v>81</v>
-      </c>
-      <c r="C148" t="s">
-        <v>82</v>
-      </c>
       <c r="D148" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
@@ -6844,7 +6905,7 @@
         <v>164</v>
       </c>
       <c r="G148" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H148" s="1">
         <v>44783</v>
@@ -6852,16 +6913,16 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B149" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C149" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D149" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -6870,7 +6931,7 @@
         <v>165</v>
       </c>
       <c r="G149" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H149" s="1">
         <v>40947</v>
@@ -6878,13 +6939,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B150" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C150" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D150" t="s">
         <v>27</v>
@@ -6896,7 +6957,7 @@
         <v>166</v>
       </c>
       <c r="G150" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H150" s="1">
         <v>43231</v>
@@ -6904,16 +6965,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>255</v>
+      </c>
+      <c r="B151" t="s">
+        <v>256</v>
+      </c>
+      <c r="C151" t="s">
+        <v>256</v>
+      </c>
+      <c r="D151" t="s">
         <v>257</v>
-      </c>
-      <c r="B151" t="s">
-        <v>258</v>
-      </c>
-      <c r="C151" t="s">
-        <v>258</v>
-      </c>
-      <c r="D151" t="s">
-        <v>259</v>
       </c>
       <c r="E151" t="s">
         <v>23</v>
@@ -6922,7 +6983,7 @@
         <v>167</v>
       </c>
       <c r="G151" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H151" s="1">
         <v>41472</v>
@@ -6930,16 +6991,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>242</v>
+      </c>
+      <c r="B152" t="s">
+        <v>243</v>
+      </c>
+      <c r="C152" t="s">
         <v>244</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>245</v>
-      </c>
-      <c r="C152" t="s">
-        <v>246</v>
-      </c>
-      <c r="D152" t="s">
-        <v>247</v>
       </c>
       <c r="E152" t="s">
         <v>23</v>
@@ -6948,7 +7009,7 @@
         <v>168</v>
       </c>
       <c r="G152" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H152" s="1">
         <v>41472</v>
@@ -6956,16 +7017,16 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>219</v>
+      </c>
+      <c r="B153" t="s">
+        <v>220</v>
+      </c>
+      <c r="C153" t="s">
+        <v>220</v>
+      </c>
+      <c r="D153" t="s">
         <v>221</v>
-      </c>
-      <c r="B153" t="s">
-        <v>222</v>
-      </c>
-      <c r="C153" t="s">
-        <v>222</v>
-      </c>
-      <c r="D153" t="s">
-        <v>223</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
@@ -6974,7 +7035,7 @@
         <v>169</v>
       </c>
       <c r="G153" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H153" s="1">
         <v>41302</v>
@@ -6982,16 +7043,16 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B154" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C154" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D154" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -7000,7 +7061,7 @@
         <v>170</v>
       </c>
       <c r="G154" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H154" s="1">
         <v>41302</v>
@@ -7008,16 +7069,16 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>228</v>
+      </c>
+      <c r="B155" t="s">
+        <v>229</v>
+      </c>
+      <c r="C155" t="s">
         <v>230</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
         <v>231</v>
-      </c>
-      <c r="C155" t="s">
-        <v>232</v>
-      </c>
-      <c r="D155" t="s">
-        <v>233</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -7026,7 +7087,7 @@
         <v>171</v>
       </c>
       <c r="G155" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H155" s="1">
         <v>42545</v>
@@ -7034,25 +7095,25 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" t="s">
+        <v>120</v>
+      </c>
+      <c r="C156" t="s">
         <v>121</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>122</v>
       </c>
-      <c r="C156" t="s">
-        <v>123</v>
-      </c>
-      <c r="D156" t="s">
-        <v>124</v>
-      </c>
       <c r="E156" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F156">
         <v>172</v>
       </c>
       <c r="G156" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H156" s="1">
         <v>44083</v>
@@ -7060,16 +7121,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>258</v>
+      </c>
+      <c r="B157" t="s">
+        <v>259</v>
+      </c>
+      <c r="C157" t="s">
         <v>260</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D157" t="s">
         <v>261</v>
-      </c>
-      <c r="C157" t="s">
-        <v>262</v>
-      </c>
-      <c r="D157" t="s">
-        <v>263</v>
       </c>
       <c r="E157" t="s">
         <v>23</v>
@@ -7078,7 +7139,7 @@
         <v>173</v>
       </c>
       <c r="G157" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H157" s="1">
         <v>41472</v>
@@ -7086,16 +7147,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B158" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C158" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D158" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E158" t="s">
         <v>23</v>
@@ -7104,7 +7165,7 @@
         <v>174</v>
       </c>
       <c r="G158" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H158" s="1">
         <v>44078</v>
@@ -7112,16 +7173,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B159" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C159" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D159" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E159" t="s">
         <v>23</v>
@@ -7130,7 +7191,7 @@
         <v>175</v>
       </c>
       <c r="G159" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H159" s="1">
         <v>44078</v>
@@ -7138,16 +7199,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>238</v>
+      </c>
+      <c r="B160" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" t="s">
         <v>240</v>
       </c>
-      <c r="B160" t="s">
+      <c r="D160" t="s">
         <v>241</v>
-      </c>
-      <c r="C160" t="s">
-        <v>242</v>
-      </c>
-      <c r="D160" t="s">
-        <v>243</v>
       </c>
       <c r="E160" t="s">
         <v>23</v>
@@ -7156,7 +7217,7 @@
         <v>176</v>
       </c>
       <c r="G160" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H160" s="1">
         <v>41506</v>
@@ -7164,13 +7225,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B161" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C161" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D161" t="s">
         <v>27</v>
@@ -7182,24 +7243,24 @@
         <v>177</v>
       </c>
       <c r="G161" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H161" s="1">
-        <v>44078</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>215</v>
+      </c>
+      <c r="B162" t="s">
+        <v>216</v>
+      </c>
+      <c r="C162" t="s">
         <v>217</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
         <v>218</v>
-      </c>
-      <c r="C162" t="s">
-        <v>219</v>
-      </c>
-      <c r="D162" t="s">
-        <v>220</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
@@ -7208,7 +7269,7 @@
         <v>178</v>
       </c>
       <c r="G162" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H162" s="1">
         <v>41786</v>
@@ -7234,7 +7295,7 @@
         <v>179</v>
       </c>
       <c r="G163" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H163" s="1">
         <v>44131</v>
@@ -7242,13 +7303,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B164" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C164" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D164" t="s">
         <v>27</v>
@@ -7260,7 +7321,7 @@
         <v>180</v>
       </c>
       <c r="G164" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H164" s="1">
         <v>41843</v>
@@ -7268,13 +7329,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B165" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C165" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D165" t="s">
         <v>27</v>
@@ -7286,7 +7347,7 @@
         <v>181</v>
       </c>
       <c r="G165" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H165" s="1">
         <v>41946</v>
@@ -7294,13 +7355,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B166" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C166" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D166" t="s">
         <v>27</v>
@@ -7312,7 +7373,7 @@
         <v>182</v>
       </c>
       <c r="G166" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H166" s="1">
         <v>42037</v>
@@ -7320,13 +7381,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B167" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C167" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D167" t="s">
         <v>27</v>
@@ -7338,7 +7399,7 @@
         <v>183</v>
       </c>
       <c r="G167" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H167" s="1">
         <v>41946</v>
@@ -7346,13 +7407,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>203</v>
+      </c>
+      <c r="B168" t="s">
+        <v>204</v>
+      </c>
+      <c r="C168" t="s">
         <v>205</v>
-      </c>
-      <c r="B168" t="s">
-        <v>206</v>
-      </c>
-      <c r="C168" t="s">
-        <v>207</v>
       </c>
       <c r="D168" t="s">
         <v>27</v>
@@ -7364,7 +7425,7 @@
         <v>184</v>
       </c>
       <c r="G168" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H168" s="1">
         <v>41984</v>
@@ -7372,42 +7433,42 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>248</v>
+      </c>
+      <c r="B169" t="s">
+        <v>249</v>
+      </c>
+      <c r="C169" t="s">
         <v>250</v>
       </c>
-      <c r="B169" t="s">
-        <v>251</v>
-      </c>
-      <c r="C169" t="s">
-        <v>252</v>
-      </c>
       <c r="D169" t="s">
-        <v>27</v>
+        <v>845</v>
       </c>
       <c r="E169" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F169">
         <v>185</v>
       </c>
       <c r="G169" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H169" s="1">
-        <v>41988</v>
+        <v>44910</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B170" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C170" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D170" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -7416,7 +7477,7 @@
         <v>188</v>
       </c>
       <c r="G170" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H170" s="1">
         <v>42339</v>
@@ -7424,13 +7485,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C171" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D171" t="s">
         <v>27</v>
@@ -7442,7 +7503,7 @@
         <v>189</v>
       </c>
       <c r="G171" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H171" s="1">
         <v>42348</v>
@@ -7450,16 +7511,16 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>123</v>
+      </c>
+      <c r="B172" t="s">
+        <v>124</v>
+      </c>
+      <c r="C172" t="s">
         <v>125</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
         <v>126</v>
-      </c>
-      <c r="C172" t="s">
-        <v>127</v>
-      </c>
-      <c r="D172" t="s">
-        <v>128</v>
       </c>
       <c r="E172" t="s">
         <v>50</v>
@@ -7468,7 +7529,7 @@
         <v>190</v>
       </c>
       <c r="G172" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H172" s="1">
         <v>42500</v>
@@ -7476,16 +7537,16 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>81</v>
+      </c>
+      <c r="B173" t="s">
+        <v>82</v>
+      </c>
+      <c r="C173" t="s">
         <v>83</v>
       </c>
-      <c r="B173" t="s">
+      <c r="D173" t="s">
         <v>84</v>
-      </c>
-      <c r="C173" t="s">
-        <v>85</v>
-      </c>
-      <c r="D173" t="s">
-        <v>86</v>
       </c>
       <c r="E173" t="s">
         <v>50</v>
@@ -7494,7 +7555,7 @@
         <v>191</v>
       </c>
       <c r="G173" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H173" s="1">
         <v>42510</v>
@@ -7502,13 +7563,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>232</v>
+      </c>
+      <c r="B174" t="s">
+        <v>233</v>
+      </c>
+      <c r="C174" t="s">
         <v>234</v>
-      </c>
-      <c r="B174" t="s">
-        <v>235</v>
-      </c>
-      <c r="C174" t="s">
-        <v>236</v>
       </c>
       <c r="D174" t="s">
         <v>27</v>
@@ -7520,7 +7581,7 @@
         <v>192</v>
       </c>
       <c r="G174" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H174" s="1">
         <v>42537</v>
@@ -7546,7 +7607,7 @@
         <v>193</v>
       </c>
       <c r="G175" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H175" s="1">
         <v>42538</v>
@@ -7572,7 +7633,7 @@
         <v>194</v>
       </c>
       <c r="G176" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H176" s="1">
         <v>42538</v>
@@ -7598,7 +7659,7 @@
         <v>195</v>
       </c>
       <c r="G177" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H177" s="1">
         <v>42538</v>
@@ -7606,13 +7667,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B178" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C178" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D178" t="s">
         <v>27</v>
@@ -7624,7 +7685,7 @@
         <v>196</v>
       </c>
       <c r="G178" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H178" s="1">
         <v>42661</v>
@@ -7632,13 +7693,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B179" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C179" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D179" t="s">
         <v>27</v>
@@ -7650,7 +7711,7 @@
         <v>197</v>
       </c>
       <c r="G179" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H179" s="1">
         <v>42661</v>
@@ -7658,16 +7719,16 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B180" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C180" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D180" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E180" t="s">
         <v>50</v>
@@ -7676,7 +7737,7 @@
         <v>201</v>
       </c>
       <c r="G180" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H180" s="1">
         <v>42723</v>
@@ -7684,16 +7745,16 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B181" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C181" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D181" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E181" t="s">
         <v>50</v>
@@ -7702,7 +7763,7 @@
         <v>202</v>
       </c>
       <c r="G181" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H181" s="1">
         <v>42752</v>
@@ -7710,16 +7771,16 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B182" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C182" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D182" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E182" t="s">
         <v>50</v>
@@ -7728,7 +7789,7 @@
         <v>203</v>
       </c>
       <c r="G182" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H182" s="1">
         <v>42752</v>
@@ -7736,16 +7797,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B183" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C183" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D183" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -7754,7 +7815,7 @@
         <v>204</v>
       </c>
       <c r="G183" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H183" s="1">
         <v>44083</v>
@@ -7780,7 +7841,7 @@
         <v>205</v>
       </c>
       <c r="G184" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H184" s="1">
         <v>44078</v>
@@ -7788,16 +7849,16 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B185" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C185" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D185" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
@@ -7806,7 +7867,7 @@
         <v>206</v>
       </c>
       <c r="G185" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H185" s="1">
         <v>42752</v>
@@ -7814,16 +7875,16 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B186" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C186" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D186" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E186" t="s">
         <v>23</v>
@@ -7832,7 +7893,7 @@
         <v>207</v>
       </c>
       <c r="G186" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H186" s="1">
         <v>42796</v>
@@ -7840,13 +7901,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B187" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C187" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D187" t="s">
         <v>27</v>
@@ -7858,7 +7919,7 @@
         <v>208</v>
       </c>
       <c r="G187" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H187" s="1">
         <v>42796</v>
@@ -7866,13 +7927,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>262</v>
+      </c>
+      <c r="B188" t="s">
+        <v>263</v>
+      </c>
+      <c r="C188" t="s">
         <v>264</v>
-      </c>
-      <c r="B188" t="s">
-        <v>265</v>
-      </c>
-      <c r="C188" t="s">
-        <v>266</v>
       </c>
       <c r="D188" t="s">
         <v>27</v>
@@ -7884,7 +7945,7 @@
         <v>209</v>
       </c>
       <c r="G188" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H188" s="1">
         <v>42846</v>
@@ -7892,13 +7953,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>235</v>
+      </c>
+      <c r="B189" t="s">
+        <v>236</v>
+      </c>
+      <c r="C189" t="s">
         <v>237</v>
-      </c>
-      <c r="B189" t="s">
-        <v>238</v>
-      </c>
-      <c r="C189" t="s">
-        <v>239</v>
       </c>
       <c r="D189" t="s">
         <v>27</v>
@@ -7910,7 +7971,7 @@
         <v>210</v>
       </c>
       <c r="G189" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H189" s="1">
         <v>42913</v>
@@ -7918,13 +7979,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B190" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C190" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D190" t="s">
         <v>27</v>
@@ -7936,7 +7997,7 @@
         <v>211</v>
       </c>
       <c r="G190" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H190" s="1">
         <v>43035</v>
@@ -7944,16 +8005,16 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B191" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C191" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D191" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
@@ -7962,7 +8023,7 @@
         <v>212</v>
       </c>
       <c r="G191" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H191" s="1">
         <v>43035</v>
@@ -7970,13 +8031,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B192" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C192" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D192" t="s">
         <v>27</v>
@@ -7988,7 +8049,7 @@
         <v>213</v>
       </c>
       <c r="G192" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H192" s="1">
         <v>43230</v>
@@ -7996,13 +8057,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B193" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C193" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
@@ -8014,21 +8075,21 @@
         <v>214</v>
       </c>
       <c r="G193" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H193" s="1">
-        <v>44400</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B194" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C194" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D194" t="s">
         <v>27</v>
@@ -8040,7 +8101,7 @@
         <v>215</v>
       </c>
       <c r="G194" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H194" s="1">
         <v>43230</v>
@@ -8048,13 +8109,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B195" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C195" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
@@ -8066,7 +8127,7 @@
         <v>216</v>
       </c>
       <c r="G195" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H195" s="1">
         <v>43230</v>
@@ -8074,16 +8135,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B196" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C196" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D196" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E196" t="s">
         <v>50</v>
@@ -8092,7 +8153,7 @@
         <v>217</v>
       </c>
       <c r="G196" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H196" s="1">
         <v>43333</v>
@@ -8100,16 +8161,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B197" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C197" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D197" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -8118,7 +8179,7 @@
         <v>218</v>
       </c>
       <c r="G197" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H197" s="1">
         <v>44028</v>
@@ -8126,16 +8187,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B198" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C198" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D198" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E198" t="s">
         <v>50</v>
@@ -8144,24 +8205,24 @@
         <v>219</v>
       </c>
       <c r="G198" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H198" s="1">
-        <v>43676</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B199" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C199" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D199" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E199" t="s">
         <v>23</v>
@@ -8170,7 +8231,7 @@
         <v>220</v>
       </c>
       <c r="G199" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H199" s="1">
         <v>43692</v>
@@ -8178,16 +8239,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B200" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C200" t="s">
-        <v>666</v>
+        <v>849</v>
       </c>
       <c r="D200" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E200" t="s">
         <v>23</v>
@@ -8196,24 +8257,24 @@
         <v>221</v>
       </c>
       <c r="G200" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H200" s="1">
-        <v>44034</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B201" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C201" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D201" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E201" t="s">
         <v>23</v>
@@ -8222,24 +8283,24 @@
         <v>222</v>
       </c>
       <c r="G201" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H201" s="1">
-        <v>43957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B202" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C202" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D202" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -8248,24 +8309,24 @@
         <v>223</v>
       </c>
       <c r="G202" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H202" s="1">
-        <v>43957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B203" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C203" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D203" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E203" t="s">
         <v>23</v>
@@ -8274,24 +8335,24 @@
         <v>224</v>
       </c>
       <c r="G203" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H203" s="1">
-        <v>43957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B204" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C204" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D204" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E204" t="s">
         <v>50</v>
@@ -8300,21 +8361,21 @@
         <v>225</v>
       </c>
       <c r="G204" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H204" s="1">
-        <v>43943</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B205" t="s">
-        <v>669</v>
+        <v>855</v>
       </c>
       <c r="C205" t="s">
-        <v>670</v>
+        <v>850</v>
       </c>
       <c r="D205" t="s">
         <v>27</v>
@@ -8326,21 +8387,21 @@
         <v>226</v>
       </c>
       <c r="G205" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H205" s="1">
-        <v>43978</v>
+        <v>44952</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B206" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C206" t="s">
-        <v>673</v>
+        <v>851</v>
       </c>
       <c r="D206" t="s">
         <v>27</v>
@@ -8352,24 +8413,24 @@
         <v>228</v>
       </c>
       <c r="G206" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H206" s="1">
-        <v>44034</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B207" t="s">
-        <v>812</v>
+        <v>856</v>
       </c>
       <c r="C207" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="D207" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8378,24 +8439,24 @@
         <v>229</v>
       </c>
       <c r="G207" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H207" s="1">
-        <v>44790</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B208" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="C208" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="D208" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="E208" t="s">
         <v>23</v>
@@ -8404,7 +8465,7 @@
         <v>230</v>
       </c>
       <c r="G208" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H208" s="1">
         <v>44811</v>
@@ -8412,16 +8473,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B209" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="C209" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D209" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="E209" t="s">
         <v>23</v>
@@ -8430,7 +8491,7 @@
         <v>231</v>
       </c>
       <c r="G209" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H209" s="1">
         <v>44811</v>
@@ -8438,16 +8499,16 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="B210" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="C210" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="D210" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E210" t="s">
         <v>11</v>
@@ -8456,7 +8517,7 @@
         <v>232</v>
       </c>
       <c r="G210" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H210" s="1">
         <v>44408</v>
@@ -8464,13 +8525,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B211" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="C211" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D211" t="s">
         <v>825</v>
@@ -8482,24 +8543,24 @@
         <v>233</v>
       </c>
       <c r="G211" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H211" s="1">
-        <v>44810</v>
+        <v>44881</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B212" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C212" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="D212" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="E212" t="s">
         <v>23</v>
@@ -8508,7 +8569,7 @@
         <v>234</v>
       </c>
       <c r="G212" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H212" s="1">
         <v>44447</v>
@@ -8516,16 +8577,16 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B213" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C213" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="D213" t="s">
-        <v>690</v>
+        <v>852</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -8534,21 +8595,21 @@
         <v>235</v>
       </c>
       <c r="G213" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H213" s="1">
-        <v>44292</v>
+        <v>44938</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B214" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="C214" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="D214" t="s">
         <v>27</v>
@@ -8560,7 +8621,7 @@
         <v>236</v>
       </c>
       <c r="G214" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H214" s="1">
         <v>44292</v>
@@ -8568,13 +8629,13 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B215" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="C215" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="D215" t="s">
         <v>826</v>
@@ -8586,24 +8647,24 @@
         <v>237</v>
       </c>
       <c r="G215" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H215" s="1">
-        <v>44810</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="B216" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="C216" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="D216" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="E216" t="s">
         <v>50</v>
@@ -8612,7 +8673,7 @@
         <v>238</v>
       </c>
       <c r="G216" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H216" s="1">
         <v>44392</v>
@@ -8620,16 +8681,16 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B217" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="C217" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="D217" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E217" t="s">
         <v>50</v>
@@ -8638,7 +8699,7 @@
         <v>239</v>
       </c>
       <c r="G217" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H217" s="1">
         <v>44392</v>
@@ -8646,16 +8707,16 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="B218" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="C218" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D218" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="E218" t="s">
         <v>50</v>
@@ -8664,7 +8725,7 @@
         <v>240</v>
       </c>
       <c r="G218" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H218" s="1">
         <v>44519</v>
@@ -8672,16 +8733,16 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B219" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="C219" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D219" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E219" t="s">
         <v>50</v>
@@ -8690,7 +8751,7 @@
         <v>241</v>
       </c>
       <c r="G219" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H219" s="1">
         <v>44392</v>
@@ -8698,16 +8759,16 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B220" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C220" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D220" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E220" t="s">
         <v>50</v>
@@ -8716,7 +8777,7 @@
         <v>242</v>
       </c>
       <c r="G220" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H220" s="1">
         <v>44392</v>
@@ -8724,16 +8785,16 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B221" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C221" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D221" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E221" t="s">
         <v>50</v>
@@ -8742,7 +8803,7 @@
         <v>243</v>
       </c>
       <c r="G221" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H221" s="1">
         <v>44392</v>
@@ -8750,16 +8811,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B222" t="s">
-        <v>717</v>
+        <v>846</v>
       </c>
       <c r="C222" t="s">
-        <v>718</v>
+        <v>827</v>
       </c>
       <c r="D222" t="s">
-        <v>702</v>
+        <v>828</v>
       </c>
       <c r="E222" t="s">
         <v>50</v>
@@ -8768,24 +8829,24 @@
         <v>244</v>
       </c>
       <c r="G222" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H222" s="1">
-        <v>44392</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="B223" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="C223" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="D223" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E223" t="s">
         <v>50</v>
@@ -8794,7 +8855,7 @@
         <v>245</v>
       </c>
       <c r="G223" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H223" s="1">
         <v>44426</v>
@@ -8802,16 +8863,16 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B224" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="C224" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="D224" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E224" t="s">
         <v>50</v>
@@ -8820,7 +8881,7 @@
         <v>246</v>
       </c>
       <c r="G224" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H224" s="1">
         <v>44392</v>
@@ -8828,16 +8889,16 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="B225" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="C225" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="D225" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E225" t="s">
         <v>50</v>
@@ -8846,7 +8907,7 @@
         <v>247</v>
       </c>
       <c r="G225" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H225" s="1">
         <v>44392</v>
@@ -8854,16 +8915,16 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="B226" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="C226" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="D226" t="s">
-        <v>730</v>
+        <v>829</v>
       </c>
       <c r="E226" t="s">
         <v>50</v>
@@ -8872,24 +8933,24 @@
         <v>248</v>
       </c>
       <c r="G226" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H226" s="1">
-        <v>44392</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="B227" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="C227" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D227" t="s">
-        <v>730</v>
+        <v>829</v>
       </c>
       <c r="E227" t="s">
         <v>50</v>
@@ -8898,21 +8959,21 @@
         <v>249</v>
       </c>
       <c r="G227" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H227" s="1">
-        <v>44392</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="B228" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="C228" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D228" t="s">
         <v>27</v>
@@ -8924,7 +8985,7 @@
         <v>250</v>
       </c>
       <c r="G228" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H228" s="1">
         <v>44426</v>
@@ -8932,13 +8993,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="B229" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="C229" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="D229" t="s">
         <v>27</v>
@@ -8950,24 +9011,24 @@
         <v>251</v>
       </c>
       <c r="G229" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H229" s="1">
-        <v>44426</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="B230" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="C230" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="D230" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="E230" t="s">
         <v>23</v>
@@ -8976,7 +9037,7 @@
         <v>252</v>
       </c>
       <c r="G230" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H230" s="1">
         <v>44810</v>
@@ -8984,16 +9045,16 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="B231" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="C231" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="D231" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="E231" t="s">
         <v>23</v>
@@ -9002,24 +9063,24 @@
         <v>253</v>
       </c>
       <c r="G231" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H231" s="1">
-        <v>44810</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="B232" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C232" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="D232" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="E232" t="s">
         <v>23</v>
@@ -9028,24 +9089,24 @@
         <v>254</v>
       </c>
       <c r="G232" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H232" s="1">
-        <v>44810</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="B233" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="C233" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="D233" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -9054,7 +9115,7 @@
         <v>255</v>
       </c>
       <c r="G233" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H233" s="1">
         <v>44606</v>
@@ -9062,16 +9123,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B234" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="C234" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="D234" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="E234" t="s">
         <v>23</v>
@@ -9080,7 +9141,7 @@
         <v>256</v>
       </c>
       <c r="G234" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H234" s="1">
         <v>44811</v>
@@ -9088,16 +9149,16 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="B235" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="C235" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="D235" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="E235" t="s">
         <v>11</v>
@@ -9106,7 +9167,7 @@
         <v>257</v>
       </c>
       <c r="G235" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H235" s="1">
         <v>44636</v>
@@ -9114,16 +9175,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="B236" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="C236" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="D236" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="E236" t="s">
         <v>23</v>
@@ -9132,7 +9193,7 @@
         <v>258</v>
       </c>
       <c r="G236" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H236" s="1">
         <v>44623</v>
@@ -9140,16 +9201,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="B237" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="C237" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="D237" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="E237" t="s">
         <v>23</v>
@@ -9158,7 +9219,7 @@
         <v>259</v>
       </c>
       <c r="G237" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H237" s="1">
         <v>44624</v>
@@ -9166,68 +9227,68 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="B238" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="C238" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D238" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="E238" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F238">
         <v>260</v>
       </c>
       <c r="G238" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H238" s="1">
-        <v>44852</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="B239" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="C239" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="D239" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="E239" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F239">
         <v>261</v>
       </c>
       <c r="G239" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H239" s="1">
-        <v>44852</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="B240" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="C240" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="D240" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="E240" t="s">
         <v>50</v>
@@ -9236,7 +9297,7 @@
         <v>262</v>
       </c>
       <c r="G240" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H240" s="1">
         <v>44663</v>
@@ -9244,16 +9305,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="B241" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="C241" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="D241" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E241" t="s">
         <v>50</v>
@@ -9262,7 +9323,7 @@
         <v>263</v>
       </c>
       <c r="G241" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H241" s="1">
         <v>44663</v>
@@ -9270,16 +9331,16 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="B242" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="C242" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="D242" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E242" t="s">
         <v>50</v>
@@ -9288,7 +9349,7 @@
         <v>264</v>
       </c>
       <c r="G242" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H242" s="1">
         <v>44663</v>
@@ -9296,16 +9357,16 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="B243" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="C243" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="D243" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E243" t="s">
         <v>50</v>
@@ -9314,7 +9375,7 @@
         <v>265</v>
       </c>
       <c r="G243" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H243" s="1">
         <v>44663</v>
@@ -9322,16 +9383,16 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="B244" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="C244" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="D244" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E244" t="s">
         <v>50</v>
@@ -9340,7 +9401,7 @@
         <v>266</v>
       </c>
       <c r="G244" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H244" s="1">
         <v>44663</v>
@@ -9348,16 +9409,16 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B245" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="C245" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="D245" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E245" t="s">
         <v>50</v>
@@ -9366,7 +9427,7 @@
         <v>267</v>
       </c>
       <c r="G245" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H245" s="1">
         <v>44663</v>
@@ -9374,16 +9435,16 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="B246" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="C246" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="D246" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -9392,7 +9453,7 @@
         <v>268</v>
       </c>
       <c r="G246" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H246" s="1">
         <v>44727</v>
@@ -9400,16 +9461,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="B247" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="C247" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="D247" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="E247" t="s">
         <v>23</v>
@@ -9418,7 +9479,7 @@
         <v>269</v>
       </c>
       <c r="G247" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H247" s="1">
         <v>44810</v>
@@ -9426,16 +9487,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="B248" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="C248" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D248" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E248" t="s">
         <v>23</v>
@@ -9444,24 +9505,24 @@
         <v>270</v>
       </c>
       <c r="G248" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H248" s="1">
-        <v>44848</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="B249" t="s">
+        <v>805</v>
+      </c>
+      <c r="C249" t="s">
+        <v>806</v>
+      </c>
+      <c r="D249" t="s">
         <v>818</v>
-      </c>
-      <c r="C249" t="s">
-        <v>819</v>
-      </c>
-      <c r="D249" t="s">
-        <v>834</v>
       </c>
       <c r="E249" t="s">
         <v>23</v>
@@ -9470,7 +9531,7 @@
         <v>271</v>
       </c>
       <c r="G249" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H249" s="1">
         <v>44847</v>
@@ -9478,16 +9539,16 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="B250" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="C250" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="D250" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="E250" t="s">
         <v>23</v>
@@ -9496,24 +9557,24 @@
         <v>272</v>
       </c>
       <c r="G250" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H250" s="1">
-        <v>44848</v>
+        <v>44895</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="B251" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="C251" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
       <c r="D251" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E251" t="s">
         <v>23</v>
@@ -9522,41 +9583,171 @@
         <v>273</v>
       </c>
       <c r="G251" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H251" s="1">
-        <v>44848</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="B252" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C252" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D252" t="s">
-        <v>843</v>
+        <v>697</v>
       </c>
       <c r="E252" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="F252">
         <v>274</v>
       </c>
       <c r="G252" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H252" s="1">
-        <v>44853</v>
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>835</v>
+      </c>
+      <c r="B253" t="s">
+        <v>836</v>
+      </c>
+      <c r="C253" t="s">
+        <v>837</v>
+      </c>
+      <c r="D253" t="s">
+        <v>838</v>
+      </c>
+      <c r="E253" t="s">
+        <v>50</v>
+      </c>
+      <c r="F253">
+        <v>275</v>
+      </c>
+      <c r="G253" t="s">
+        <v>610</v>
+      </c>
+      <c r="H253" s="1">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>839</v>
+      </c>
+      <c r="B254" t="s">
+        <v>847</v>
+      </c>
+      <c r="C254" t="s">
+        <v>840</v>
+      </c>
+      <c r="D254" t="s">
+        <v>848</v>
+      </c>
+      <c r="E254" t="s">
+        <v>50</v>
+      </c>
+      <c r="F254">
+        <v>276</v>
+      </c>
+      <c r="G254" t="s">
+        <v>610</v>
+      </c>
+      <c r="H254" s="1">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>857</v>
+      </c>
+      <c r="B255" t="s">
+        <v>858</v>
+      </c>
+      <c r="C255" t="s">
+        <v>859</v>
+      </c>
+      <c r="D255" t="s">
+        <v>697</v>
+      </c>
+      <c r="E255" t="s">
+        <v>50</v>
+      </c>
+      <c r="F255">
+        <v>277</v>
+      </c>
+      <c r="G255" t="s">
+        <v>610</v>
+      </c>
+      <c r="H255" s="1">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>860</v>
+      </c>
+      <c r="B256" t="s">
+        <v>861</v>
+      </c>
+      <c r="C256" t="s">
+        <v>862</v>
+      </c>
+      <c r="D256" t="s">
+        <v>863</v>
+      </c>
+      <c r="E256" t="s">
+        <v>23</v>
+      </c>
+      <c r="F256">
+        <v>278</v>
+      </c>
+      <c r="G256" t="s">
+        <v>610</v>
+      </c>
+      <c r="H256" s="1">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>822</v>
+      </c>
+      <c r="B257" t="s">
+        <v>823</v>
+      </c>
+      <c r="C257" t="s">
+        <v>824</v>
+      </c>
+      <c r="D257" t="s">
+        <v>842</v>
+      </c>
+      <c r="E257" t="s">
+        <v>23</v>
+      </c>
+      <c r="F257">
+        <v>279</v>
+      </c>
+      <c r="G257" t="s">
+        <v>610</v>
+      </c>
+      <c r="H257" s="1">
+        <v>44882</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="19" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="18" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="494" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19085CB5-7C95-4410-BC0B-51D5F4892C2A}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279E5923-5567-4697-A4F3-8BA19322578E}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="792" windowWidth="21252" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="444" windowWidth="21252" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Web_cvx" sheetId="64" r:id="rId1"/>
+    <sheet name="Web_cvx" sheetId="66" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$268</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$271</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{6794FB14-FE8E-4BC3-845A-C22290BC57B2}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes1111111111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{AF79F891-6952-46A0-889A-A4420FC1CBF5}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes111111111111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="916">
   <si>
     <t>CVX Code</t>
   </si>
@@ -2280,9 +2280,6 @@
     <t>Non-US vaccine</t>
   </si>
   <si>
-    <t>FDA EUA 02/27/2021, 1-dose vaccine. Used to record Janssen/J&amp;J vaccines administered in the US and in non-US locations</t>
-  </si>
-  <si>
     <t>COVID-19, subunit, rS-nanoparticle+Matrix-M1 Adjuvant, PF, 0.5 mL</t>
   </si>
   <si>
@@ -2421,9 +2418,6 @@
     <t>Applies to tetravalent product (e.g. DENGVAXIA)</t>
   </si>
   <si>
-    <t>Temporarily inactivated -  Use CVX code 221 for EUA Moderna Pediatric 6yr to&lt;12 yr vaccine 2.5 mL vial, 50 mcg/0.5 mL dose</t>
-  </si>
-  <si>
     <t>229</t>
   </si>
   <si>
@@ -2442,27 +2436,6 @@
     <t>300</t>
   </si>
   <si>
-    <t>FDA EUA and BLA (18+ yrs), Moderna adult primary series and IC dose. EUA 8/31/2022 rescinded monovalent booster dose. Used to record Moderna vaccines administered in the US and in non-US locations (includes tradename Spikevax)</t>
-  </si>
-  <si>
-    <t>FDA EUA (12+ yrs) and BLA (16+ yrs), Pfizer adult primary series and IC dose original formulation. EUA 8/31/2022 rescinded monovalent booster dose. Used to record Pfizer vaccines administered in the US and in non-US locations (includes tradename Comirnaty)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDA EUA (6 mo through 4 yrs), Pfizer tris-sucrose pediatric primary series </t>
-  </si>
-  <si>
-    <t>FDA EUA (12+ yrs) and BLA (16+ yrs), Pfizer adult primary series and IC dose tris-sucrose formulation. EUA 8/31/2022 rescinded monovalent booster dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDA EUA (5 yrs through 11 yrs), Pfizer tris-sucrose pediatric primary series, IC, and booster </t>
-  </si>
-  <si>
-    <t>FDA EUA Moderna, EUA 8/31/2022 rescinded use of this product for adult monovalent booster dose.  Vaccine now only authorized for 6 yrs through 11 primary series and IC doses</t>
-  </si>
-  <si>
-    <t>FDA EUA Authorized (6 mo through 5 yrs), Moderna pediatric primary series and IC dose</t>
-  </si>
-  <si>
     <t>EUA submission withdrawn by Sanofi</t>
   </si>
   <si>
@@ -2481,9 +2454,6 @@
     <t>WHO authorized pandemic vaccine.  Recognized towards immunity in US.  AstraZeneca vaccine non-US WHO authorized tradenames/identifiers include VAXZEVRIA, AZD1222, ChAdOx1 nCoV-19, COVISHIELD</t>
   </si>
   <si>
-    <t>EUA 07/13/2022, 2-dose vaccine. Used to record Novavax vaccines administered in the US and in non-US locations (includes tradenames NUVAXOVID, COVOVAX)</t>
-  </si>
-  <si>
     <t>SARS-COV-2 COVID-19 Viral Vector Non-replicating Non-US Vaccine Product (CONVIDECIA), CanSino Biological Inc./Beijing Institute of Biotechnology</t>
   </si>
   <si>
@@ -2589,39 +2559,24 @@
     <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent, preservative free, 50 mcg/0.5 mL or 25 mcg/0.25 mL dose</t>
   </si>
   <si>
-    <t>EUA updated 04/18/2023 Moderna bivalent dosing (original strain + omicron BA.4/BA.5).  Ages 6 mo and older- dose schedule and dose volume may vary by age and criteria.  Non-US Tradename for same formulation (Spikevax Bivalent) - not authorized by WHO - is authorized by EU and counted toward US immunity</t>
-  </si>
-  <si>
     <t>COVID-19, mRNA, LNP-S, bivalent, PF, 10 mcg/0.2 mL dose</t>
   </si>
   <si>
     <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent, preservative free, 10 mcg/0.2 mL dose, tris-sucrose formulation</t>
   </si>
   <si>
-    <t>EUA updated 4/18/2023 Pfizer bivalent dosing, original strain + omicron BA.4/BA.5. Ages 5 yrs through 11 yrs.</t>
-  </si>
-  <si>
     <t>COVID-19, mRNA, LNP-S, bivalent, PF, 30 mcg/0.3 mL dose</t>
   </si>
   <si>
     <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent, preservative free, 30 mcg/0.3 mL dose, tris-sucrose formulation</t>
   </si>
   <si>
-    <t>EUA updated 4/18/2023 Pfizer bivalent dosing, original strain + omicron BA.4/BA.5. Ages 12 yrs and older. Not Authorized by WHO.  Non-US Tradename for same formulation (Comirnaty Bivalent) counted toward immunity in US</t>
-  </si>
-  <si>
     <t>COVID-19, mRNA, LNP-S, bivalent, PF, 10 mcg/0.2 mL</t>
   </si>
   <si>
     <t>SARS-COV-2 (COVID-19) vaccine, mRNA, spike protein, LNP, bivalent, preservative free, 10 mcg/0.2 mL dose</t>
   </si>
   <si>
-    <t>EUA updated 04/18/2023 Moderna bivalent dosing (original strain + omicron BA.4/BA.5). Ages 6 mo through 5 yrs.</t>
-  </si>
-  <si>
-    <t>EUA updated 4/18/2023 Pfizer bivalent dosing, original + omicron BA.4/BA.5. Ages 6 mo through 4 yrs.</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
@@ -2670,12 +2625,6 @@
     <t>RSV, mAb, nirsevimab-alip, 1 mL, neonate to 24 months</t>
   </si>
   <si>
-    <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1Îº, (nirsevimab-alip), 0.5 mL, neonates and children to 24 months</t>
-  </si>
-  <si>
-    <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1Îº, (nirsevimab-alip), 1 mL, neonates and children to 24 months</t>
-  </si>
-  <si>
     <t>313</t>
   </si>
   <si>
@@ -2743,6 +2692,93 @@
   </si>
   <si>
     <t>Moderna Fall 2023 6 months through 11 years of age</t>
+  </si>
+  <si>
+    <t>Unspecified, for historic records where it is not known if RSV vaccine or RSV MAB was administered</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus (RSV) MAB, unspecified</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus (RSV) monoclonal antibody (MAB), unspecified</t>
+  </si>
+  <si>
+    <t>Unspecified, for historic records where the specific RSV MAB administered is not known</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus (RSV) vaccine, unspecified</t>
+  </si>
+  <si>
+    <t>Unspecified, for historic records where the specific vaccine administered is not known</t>
+  </si>
+  <si>
+    <t>Original monovalent Moderna adult vaccine. FDA rescinded all doses for US use 4/18/2023. Continue to used to record historic US Moderna vaccines and those administered in non-US locations (includes tradename Spikevax)</t>
+  </si>
+  <si>
+    <t>Original monovalent Moderna adult vaccine (12+ yrs). FDA rescinded all doses for US use 4/18/2023.  Continue to use to record historic US Pfizer vaccines and Non-US vaccines administered (includes tradename Comirnaty)</t>
+  </si>
+  <si>
+    <t>Original monovalent Janssen/J&amp;J adult vaccine. All NDCs expired 6/20/2023, not reauthorized by FDA for Fall 2023 US doses. Continue to use to record Jansses/J&amp;J Non-US vaccines administered vaccines administered</t>
+  </si>
+  <si>
+    <t>Original monovalent Novavax vaccine (12+ years), FDA rescinded for US doses 10/03/2023. Continue to use to record Novavax Non-US vaccines administered (includes tradenames NUVAXOVID, COVOVAX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original monovalent Pfizer tris-sucrose formulation (6 mo through 4 yrs), FDA rescinded 4/18/2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original monovalent Pfizer tris-sucrose formulation FDA EUA (12+ yrs) and BLA (16+ yrs), FDA rescinded monovalent use 08/31/2022, BLA NDCs not retired until 09/11/2023. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original monovalent Pfizer tris-sucrose formulation (5 yrs through 11 yrs), FDA rescinded 4/18/2023 </t>
+  </si>
+  <si>
+    <t>Original monovalent Moderna, (Adult) FDA rescinded 4/18/2023, (6 yrs through 11 yrs) FDA rescinded 04/18/2023</t>
+  </si>
+  <si>
+    <t>Original monovalent Moderna pediatric vaccine (FDA rescinded 4/18/2023). Inactivated 6/14/2022 to use CVX code 221 product instead</t>
+  </si>
+  <si>
+    <t>Original monovalent Moderna pediatric vaccine (6 mo through 5 yrs), FDA rescinded 4/18/2023</t>
+  </si>
+  <si>
+    <t>Original strain + omicron BA.4/BA.5 bivalent Moderna vaccine (6 mo and older), FDA rescinded 9/11/2023.  Continue to use to record Non-US vaccines administered (tradename Spikevax Bivalent)</t>
+  </si>
+  <si>
+    <t>Original strain + omicron BA.4/BA.5 bivalent Pfizer vaccine (5 yrs through 11 yrs), FDA rescinded 9/11/2023</t>
+  </si>
+  <si>
+    <t>Original strain + omicron BA.4/BA.5 bivalent Pfizer vaccine (12 yrs and older). FDA rescinded 09/11/2023.  Continue to use to record Non-US vaccines administered (tradename Comirnaty Bivalent)</t>
+  </si>
+  <si>
+    <t>Original strain + omicron BA.4/BA.5 bivalent Moderna vaccine (6 mo through 5 yrs), FDA rescinded 9/11/2023</t>
+  </si>
+  <si>
+    <t>Original strain + omicron BA.4/BA.5 bivalent Pfizer vaccine (6 mo through 4 yrs), FDA rescinded 09/11/2023</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>meningococcal polysaccharide (MenACWY-TT conjugate), (MenB), PF</t>
+  </si>
+  <si>
+    <t>meningococcal polysaccharide (groups A, C, Y, W) tetanus toxoid conjugate, meningococcal B recombinant vaccine, 0.5mL, preservative free</t>
+  </si>
+  <si>
+    <t>Meningococcal pentavalent vaccine strains ABCW and Y</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1κ, (nirsevimab-alip), 0.5 mL, neonates and children to 24 months</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1κ, (nirsevimab-alip), 1 mL, neonates and children to 24 months</t>
   </si>
 </sst>
 </file>
@@ -2750,7 +2786,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -2790,7 +2826,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2806,7 +2842,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{7455F197-04B9-4AB9-B953-3A9507690ED2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{1631132F-F130-4F3E-9A14-10A24EE86F20}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
@@ -2826,16 +2862,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B42541ED-67DA-419F-AA84-58FD1A874578}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H268" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98AB1904-6AD0-4F39-9CEB-2386DBCF86D7}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H271" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{07012976-7D71-4EC3-B12C-0091E8B93AAD}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{AE701F1F-6A61-43A4-B24F-67C320BAD2C8}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{F223D56E-6E01-42EA-A411-B574FD16D207}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{3922617F-B752-4F2E-A275-DADD6577F14D}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{276E4040-437B-4557-A0D9-0A050FC4F705}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{52A2E10B-438F-48E1-96AF-099BC8CAB394}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{D6671A33-3BF9-424A-92A1-B80CC3BA2A98}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{4F498A0D-2AAD-4873-BDF2-11F0C8098940}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BCFD0EF8-F19E-4ACF-B2A4-EC3F597C9FDC}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{087CB5D1-4EBF-47C1-8404-15771BB5BF6F}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{715A646E-8E43-433D-A550-5DCFAC5712B5}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{1F0FF025-D7EB-43CF-8BF7-E30C39B36CF5}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{88D9561C-EDFF-4270-A7FB-BEB35292F7B0}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{102E658A-B8E0-48DD-B652-2FF46C0FA57E}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{BBF6F04F-460E-468D-A0E9-E9F7BF48F1F8}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{F6769F51-B80B-40B3-90B8-44566B8E9953}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3161,29 +3197,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E393B1-1569-412A-AC22-BA5922F95C61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B64273-AC27-48DB-AAE5-059443B1AA84}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:H271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="3" max="3" width="82" customWidth="1"/>
     <col min="4" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3208,11 +3244,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -3235,9 +3270,8 @@
       <c r="H2" s="1">
         <v>40326</v>
       </c>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -3262,9 +3296,8 @@
       <c r="H3" s="1">
         <v>40326</v>
       </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3289,9 +3322,8 @@
       <c r="H4" s="1">
         <v>40451</v>
       </c>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3316,9 +3348,8 @@
       <c r="H5" s="1">
         <v>43627</v>
       </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3343,9 +3374,8 @@
       <c r="H6" s="1">
         <v>40326</v>
       </c>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -3370,9 +3400,8 @@
       <c r="H7" s="1">
         <v>44078</v>
       </c>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -3397,9 +3426,8 @@
       <c r="H8" s="1">
         <v>42538</v>
       </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -3424,20 +3452,19 @@
       <c r="H9" s="1">
         <v>44078</v>
       </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="C10" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="D10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -3451,9 +3478,8 @@
       <c r="H10" s="1">
         <v>44973</v>
       </c>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -3478,9 +3504,8 @@
       <c r="H11" s="1">
         <v>44078</v>
       </c>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -3505,9 +3530,8 @@
       <c r="H12" s="1">
         <v>40326</v>
       </c>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3532,9 +3556,8 @@
       <c r="H13" s="1">
         <v>40326</v>
       </c>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3559,9 +3582,8 @@
       <c r="H14" s="1">
         <v>40326</v>
       </c>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -3586,9 +3608,8 @@
       <c r="H15" s="1">
         <v>40451</v>
       </c>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -3613,9 +3634,8 @@
       <c r="H16" s="1">
         <v>40326</v>
       </c>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -3640,9 +3660,8 @@
       <c r="H17" s="1">
         <v>42814</v>
       </c>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -3667,9 +3686,8 @@
       <c r="H18" s="1">
         <v>40326</v>
       </c>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>93</v>
       </c>
@@ -3694,9 +3712,8 @@
       <c r="H19" s="1">
         <v>40326</v>
       </c>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -3721,9 +3738,8 @@
       <c r="H20" s="1">
         <v>40326</v>
       </c>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -3748,9 +3764,8 @@
       <c r="H21" s="1">
         <v>42817</v>
       </c>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -3775,9 +3790,8 @@
       <c r="H22" s="1">
         <v>42510</v>
       </c>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -3802,9 +3816,8 @@
       <c r="H23" s="1">
         <v>44083</v>
       </c>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>115</v>
       </c>
@@ -3829,9 +3842,8 @@
       <c r="H24" s="1">
         <v>40326</v>
       </c>
-      <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -3856,9 +3868,8 @@
       <c r="H25" s="1">
         <v>40326</v>
       </c>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -3883,9 +3894,8 @@
       <c r="H26" s="1">
         <v>40326</v>
       </c>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -3910,9 +3920,8 @@
       <c r="H27" s="1">
         <v>40451</v>
       </c>
-      <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -3937,9 +3946,8 @@
       <c r="H28" s="1">
         <v>40451</v>
       </c>
-      <c r="I28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -3964,9 +3972,8 @@
       <c r="H29" s="1">
         <v>40326</v>
       </c>
-      <c r="I29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>112</v>
       </c>
@@ -3991,9 +3998,8 @@
       <c r="H30" s="1">
         <v>44078</v>
       </c>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -4018,9 +4024,8 @@
       <c r="H31" s="1">
         <v>43230</v>
       </c>
-      <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -4045,9 +4050,8 @@
       <c r="H32" s="1">
         <v>40326</v>
       </c>
-      <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -4072,9 +4076,8 @@
       <c r="H33" s="1">
         <v>43230</v>
       </c>
-      <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>155</v>
       </c>
@@ -4099,9 +4102,8 @@
       <c r="H34" s="1">
         <v>43593</v>
       </c>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -4126,9 +4128,8 @@
       <c r="H35" s="1">
         <v>40451</v>
       </c>
-      <c r="I35"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -4153,9 +4154,8 @@
       <c r="H36" s="1">
         <v>44083</v>
       </c>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -4180,9 +4180,8 @@
       <c r="H37" s="1">
         <v>44083</v>
       </c>
-      <c r="I37"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -4207,9 +4206,8 @@
       <c r="H38" s="1">
         <v>44083</v>
       </c>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>174</v>
       </c>
@@ -4234,9 +4232,8 @@
       <c r="H39" s="1">
         <v>40326</v>
       </c>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>171</v>
       </c>
@@ -4261,9 +4258,8 @@
       <c r="H40" s="1">
         <v>40326</v>
       </c>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>180</v>
       </c>
@@ -4288,9 +4284,8 @@
       <c r="H41" s="1">
         <v>40326</v>
       </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>177</v>
       </c>
@@ -4315,9 +4310,8 @@
       <c r="H42" s="1">
         <v>40326</v>
       </c>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>183</v>
       </c>
@@ -4342,9 +4336,8 @@
       <c r="H43" s="1">
         <v>40451</v>
       </c>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -4369,9 +4362,8 @@
       <c r="H44" s="1">
         <v>42440</v>
       </c>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>190</v>
       </c>
@@ -4396,9 +4388,8 @@
       <c r="H45" s="1">
         <v>44083</v>
       </c>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>193</v>
       </c>
@@ -4423,9 +4414,8 @@
       <c r="H46" s="1">
         <v>40326</v>
       </c>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>196</v>
       </c>
@@ -4450,9 +4440,8 @@
       <c r="H47" s="1">
         <v>43984</v>
       </c>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -4477,9 +4466,8 @@
       <c r="H48" s="1">
         <v>44078</v>
       </c>
-      <c r="I48"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>211</v>
       </c>
@@ -4504,9 +4492,8 @@
       <c r="H49" s="1">
         <v>44078</v>
       </c>
-      <c r="I49"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>208</v>
       </c>
@@ -4531,9 +4518,8 @@
       <c r="H50" s="1">
         <v>44994</v>
       </c>
-      <c r="I50"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>250</v>
       </c>
@@ -4558,9 +4544,8 @@
       <c r="H51" s="1">
         <v>41904</v>
       </c>
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>272</v>
       </c>
@@ -4585,9 +4570,8 @@
       <c r="H52" s="1">
         <v>40451</v>
       </c>
-      <c r="I52"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>283</v>
       </c>
@@ -4612,9 +4596,8 @@
       <c r="H53" s="1">
         <v>40326</v>
       </c>
-      <c r="I53"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -4639,9 +4622,8 @@
       <c r="H54" s="1">
         <v>40451</v>
       </c>
-      <c r="I54"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -4666,9 +4648,8 @@
       <c r="H55" s="1">
         <v>40326</v>
       </c>
-      <c r="I55"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>286</v>
       </c>
@@ -4693,9 +4674,8 @@
       <c r="H56" s="1">
         <v>40326</v>
       </c>
-      <c r="I56"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>381</v>
       </c>
@@ -4720,9 +4700,8 @@
       <c r="H57" s="1">
         <v>42776</v>
       </c>
-      <c r="I57"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>426</v>
       </c>
@@ -4747,9 +4726,8 @@
       <c r="H58" s="1">
         <v>40451</v>
       </c>
-      <c r="I58"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>292</v>
       </c>
@@ -4774,9 +4752,8 @@
       <c r="H59" s="1">
         <v>42271</v>
       </c>
-      <c r="I59"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>299</v>
       </c>
@@ -4801,9 +4778,8 @@
       <c r="H60" s="1">
         <v>44083</v>
       </c>
-      <c r="I60"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>302</v>
       </c>
@@ -4828,9 +4804,8 @@
       <c r="H61" s="1">
         <v>44083</v>
       </c>
-      <c r="I61"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>305</v>
       </c>
@@ -4855,9 +4830,8 @@
       <c r="H62" s="1">
         <v>44083</v>
       </c>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>308</v>
       </c>
@@ -4882,9 +4856,8 @@
       <c r="H63" s="1">
         <v>40326</v>
       </c>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>359</v>
       </c>
@@ -4909,9 +4882,8 @@
       <c r="H64" s="1">
         <v>40326</v>
       </c>
-      <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>311</v>
       </c>
@@ -4936,9 +4908,8 @@
       <c r="H65" s="1">
         <v>40326</v>
       </c>
-      <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>362</v>
       </c>
@@ -4963,9 +4934,8 @@
       <c r="H66" s="1">
         <v>40326</v>
       </c>
-      <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>314</v>
       </c>
@@ -4990,9 +4960,8 @@
       <c r="H67" s="1">
         <v>44083</v>
       </c>
-      <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>317</v>
       </c>
@@ -5017,9 +4986,8 @@
       <c r="H68" s="1">
         <v>40421</v>
       </c>
-      <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>320</v>
       </c>
@@ -5044,9 +5012,8 @@
       <c r="H69" s="1">
         <v>44083</v>
       </c>
-      <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>352</v>
       </c>
@@ -5071,9 +5038,8 @@
       <c r="H70" s="1">
         <v>43035</v>
       </c>
-      <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>336</v>
       </c>
@@ -5098,9 +5064,8 @@
       <c r="H71" s="1">
         <v>40326</v>
       </c>
-      <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>349</v>
       </c>
@@ -5125,9 +5090,8 @@
       <c r="H72" s="1">
         <v>40326</v>
       </c>
-      <c r="I72"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>323</v>
       </c>
@@ -5152,9 +5116,8 @@
       <c r="H73" s="1">
         <v>42339</v>
       </c>
-      <c r="I73"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>365</v>
       </c>
@@ -5179,9 +5142,8 @@
       <c r="H74" s="1">
         <v>42173</v>
       </c>
-      <c r="I74"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>397</v>
       </c>
@@ -5206,9 +5168,8 @@
       <c r="H75" s="1">
         <v>40326</v>
       </c>
-      <c r="I75"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>404</v>
       </c>
@@ -5233,9 +5194,8 @@
       <c r="H76" s="1">
         <v>40326</v>
       </c>
-      <c r="I76"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>407</v>
       </c>
@@ -5260,9 +5220,8 @@
       <c r="H77" s="1">
         <v>43237</v>
       </c>
-      <c r="I77"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>419</v>
       </c>
@@ -5287,9 +5246,8 @@
       <c r="H78" s="1">
         <v>40326</v>
       </c>
-      <c r="I78"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>413</v>
       </c>
@@ -5314,9 +5272,8 @@
       <c r="H79" s="1">
         <v>41816</v>
       </c>
-      <c r="I79"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>422</v>
       </c>
@@ -5341,9 +5298,8 @@
       <c r="H80" s="1">
         <v>40451</v>
       </c>
-      <c r="I80"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>430</v>
       </c>
@@ -5368,9 +5324,8 @@
       <c r="H81" s="1">
         <v>44083</v>
       </c>
-      <c r="I81"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>442</v>
       </c>
@@ -5395,9 +5350,8 @@
       <c r="H82" s="1">
         <v>42661</v>
       </c>
-      <c r="I82"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>439</v>
       </c>
@@ -5422,9 +5376,8 @@
       <c r="H83" s="1">
         <v>42173</v>
       </c>
-      <c r="I83"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>446</v>
       </c>
@@ -5449,9 +5402,8 @@
       <c r="H84" s="1">
         <v>40451</v>
       </c>
-      <c r="I84"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>450</v>
       </c>
@@ -5476,9 +5428,8 @@
       <c r="H85" s="1">
         <v>44083</v>
       </c>
-      <c r="I85"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>464</v>
       </c>
@@ -5503,9 +5454,8 @@
       <c r="H86" s="1">
         <v>44083</v>
       </c>
-      <c r="I86"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>467</v>
       </c>
@@ -5530,9 +5480,8 @@
       <c r="H87" s="1">
         <v>44078</v>
       </c>
-      <c r="I87"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>470</v>
       </c>
@@ -5557,9 +5506,8 @@
       <c r="H88" s="1">
         <v>40326</v>
       </c>
-      <c r="I88"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>479</v>
       </c>
@@ -5584,9 +5532,8 @@
       <c r="H89" s="1">
         <v>40451</v>
       </c>
-      <c r="I89"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>473</v>
       </c>
@@ -5611,9 +5558,8 @@
       <c r="H90" s="1">
         <v>40326</v>
       </c>
-      <c r="I90"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>476</v>
       </c>
@@ -5638,9 +5584,8 @@
       <c r="H91" s="1">
         <v>40326</v>
       </c>
-      <c r="I91"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>482</v>
       </c>
@@ -5651,7 +5596,7 @@
         <v>484</v>
       </c>
       <c r="D92" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -5665,9 +5610,8 @@
       <c r="H92" s="1">
         <v>45126</v>
       </c>
-      <c r="I92"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>485</v>
       </c>
@@ -5692,9 +5636,8 @@
       <c r="H93" s="1">
         <v>44078</v>
       </c>
-      <c r="I93"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>491</v>
       </c>
@@ -5719,9 +5662,8 @@
       <c r="H94" s="1">
         <v>42173</v>
       </c>
-      <c r="I94"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>494</v>
       </c>
@@ -5746,9 +5688,8 @@
       <c r="H95" s="1">
         <v>40326</v>
       </c>
-      <c r="I95"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>497</v>
       </c>
@@ -5773,9 +5714,8 @@
       <c r="H96" s="1">
         <v>44994</v>
       </c>
-      <c r="I96"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>507</v>
       </c>
@@ -5800,9 +5740,8 @@
       <c r="H97" s="1">
         <v>43035</v>
       </c>
-      <c r="I97"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>504</v>
       </c>
@@ -5827,9 +5766,8 @@
       <c r="H98" s="1">
         <v>43035</v>
       </c>
-      <c r="I98"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>512</v>
       </c>
@@ -5854,9 +5792,8 @@
       <c r="H99" s="1">
         <v>40326</v>
       </c>
-      <c r="I99"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>518</v>
       </c>
@@ -5881,9 +5818,8 @@
       <c r="H100" s="1">
         <v>42230</v>
       </c>
-      <c r="I100"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>522</v>
       </c>
@@ -5908,9 +5844,8 @@
       <c r="H101" s="1">
         <v>40451</v>
       </c>
-      <c r="I101"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>524</v>
       </c>
@@ -5935,9 +5870,8 @@
       <c r="H102" s="1">
         <v>44624</v>
       </c>
-      <c r="I102"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>525</v>
       </c>
@@ -5962,9 +5896,8 @@
       <c r="H103" s="1">
         <v>44078</v>
       </c>
-      <c r="I103"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>531</v>
       </c>
@@ -5989,9 +5922,8 @@
       <c r="H104" s="1">
         <v>44994</v>
       </c>
-      <c r="I104"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>534</v>
       </c>
@@ -6016,9 +5948,8 @@
       <c r="H105" s="1">
         <v>44994</v>
       </c>
-      <c r="I105"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>537</v>
       </c>
@@ -6043,9 +5974,8 @@
       <c r="H106" s="1">
         <v>44994</v>
       </c>
-      <c r="I106"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>527</v>
       </c>
@@ -6070,9 +6000,8 @@
       <c r="H107" s="1">
         <v>44994</v>
       </c>
-      <c r="I107"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>540</v>
       </c>
@@ -6097,9 +6026,8 @@
       <c r="H108" s="1">
         <v>40326</v>
       </c>
-      <c r="I108"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>551</v>
       </c>
@@ -6124,9 +6052,8 @@
       <c r="H109" s="1">
         <v>40451</v>
       </c>
-      <c r="I109"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>542</v>
       </c>
@@ -6151,9 +6078,8 @@
       <c r="H110" s="1">
         <v>40326</v>
       </c>
-      <c r="I110"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>545</v>
       </c>
@@ -6178,9 +6104,8 @@
       <c r="H111" s="1">
         <v>42229</v>
       </c>
-      <c r="I111"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>548</v>
       </c>
@@ -6205,9 +6130,8 @@
       <c r="H112" s="1">
         <v>42173</v>
       </c>
-      <c r="I112"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>555</v>
       </c>
@@ -6232,9 +6156,8 @@
       <c r="H113" s="1">
         <v>40326</v>
       </c>
-      <c r="I113"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>561</v>
       </c>
@@ -6259,9 +6182,8 @@
       <c r="H114" s="1">
         <v>40326</v>
       </c>
-      <c r="I114"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>564</v>
       </c>
@@ -6286,9 +6208,8 @@
       <c r="H115" s="1">
         <v>40326</v>
       </c>
-      <c r="I115"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>567</v>
       </c>
@@ -6313,9 +6234,8 @@
       <c r="H116" s="1">
         <v>44078</v>
       </c>
-      <c r="I116"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>569</v>
       </c>
@@ -6340,9 +6260,8 @@
       <c r="H117" s="1">
         <v>40326</v>
       </c>
-      <c r="I117"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>572</v>
       </c>
@@ -6367,9 +6286,8 @@
       <c r="H118" s="1">
         <v>40326</v>
       </c>
-      <c r="I118"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>575</v>
       </c>
@@ -6394,9 +6312,8 @@
       <c r="H119" s="1">
         <v>40326</v>
       </c>
-      <c r="I119"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>578</v>
       </c>
@@ -6421,9 +6338,8 @@
       <c r="H120" s="1">
         <v>40451</v>
       </c>
-      <c r="I120"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>582</v>
       </c>
@@ -6448,9 +6364,8 @@
       <c r="H121" s="1">
         <v>44078</v>
       </c>
-      <c r="I121"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>585</v>
       </c>
@@ -6475,9 +6390,8 @@
       <c r="H122" s="1">
         <v>44083</v>
       </c>
-      <c r="I122"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>588</v>
       </c>
@@ -6502,9 +6416,8 @@
       <c r="H123" s="1">
         <v>42796</v>
       </c>
-      <c r="I123"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>599</v>
       </c>
@@ -6529,9 +6442,8 @@
       <c r="H124" s="1">
         <v>40326</v>
       </c>
-      <c r="I124"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -6556,9 +6468,8 @@
       <c r="H125" s="1">
         <v>44994</v>
       </c>
-      <c r="I125"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -6583,9 +6494,8 @@
       <c r="H126" s="1">
         <v>44131</v>
       </c>
-      <c r="I126"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -6610,9 +6520,8 @@
       <c r="H127" s="1">
         <v>44083</v>
       </c>
-      <c r="I127"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>410</v>
       </c>
@@ -6637,9 +6546,8 @@
       <c r="H128" s="1">
         <v>40326</v>
       </c>
-      <c r="I128"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -6664,9 +6572,8 @@
       <c r="H129" s="1">
         <v>40326</v>
       </c>
-      <c r="I129"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>199</v>
       </c>
@@ -6691,9 +6598,8 @@
       <c r="H130" s="1">
         <v>40451</v>
       </c>
-      <c r="I130"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>346</v>
       </c>
@@ -6718,9 +6624,8 @@
       <c r="H131" s="1">
         <v>40326</v>
       </c>
-      <c r="I131"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>224</v>
       </c>
@@ -6745,9 +6650,8 @@
       <c r="H132" s="1">
         <v>40326</v>
       </c>
-      <c r="I132"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>558</v>
       </c>
@@ -6772,9 +6676,8 @@
       <c r="H133" s="1">
         <v>40326</v>
       </c>
-      <c r="I133"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>96</v>
       </c>
@@ -6799,9 +6702,8 @@
       <c r="H134" s="1">
         <v>43230</v>
       </c>
-      <c r="I134"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>371</v>
       </c>
@@ -6826,9 +6728,8 @@
       <c r="H135" s="1">
         <v>40418</v>
       </c>
-      <c r="I135"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>375</v>
       </c>
@@ -6853,9 +6754,8 @@
       <c r="H136" s="1">
         <v>40418</v>
       </c>
-      <c r="I136"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>378</v>
       </c>
@@ -6880,9 +6780,8 @@
       <c r="H137" s="1">
         <v>40418</v>
       </c>
-      <c r="I137"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>368</v>
       </c>
@@ -6907,9 +6806,8 @@
       <c r="H138" s="1">
         <v>40418</v>
       </c>
-      <c r="I138"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>500</v>
       </c>
@@ -6934,9 +6832,8 @@
       <c r="H139" s="1">
         <v>40451</v>
       </c>
-      <c r="I139"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>510</v>
       </c>
@@ -6961,9 +6858,8 @@
       <c r="H140" s="1">
         <v>43704</v>
       </c>
-      <c r="I140"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>267</v>
       </c>
@@ -6974,7 +6870,7 @@
         <v>268</v>
       </c>
       <c r="D141" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -6988,9 +6884,8 @@
       <c r="H141" s="1">
         <v>44910</v>
       </c>
-      <c r="I141"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>295</v>
       </c>
@@ -7015,9 +6910,8 @@
       <c r="H142" s="1">
         <v>40451</v>
       </c>
-      <c r="I142"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>264</v>
       </c>
@@ -7042,9 +6936,8 @@
       <c r="H143" s="1">
         <v>41472</v>
       </c>
-      <c r="I143"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>520</v>
       </c>
@@ -7069,9 +6962,8 @@
       <c r="H144" s="1">
         <v>42230</v>
       </c>
-      <c r="I144"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -7096,9 +6988,8 @@
       <c r="H145" s="1">
         <v>40622</v>
       </c>
-      <c r="I145"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -7109,7 +7000,7 @@
         <v>271</v>
       </c>
       <c r="D146" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -7123,9 +7014,8 @@
       <c r="H146" s="1">
         <v>44910</v>
       </c>
-      <c r="I146"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>488</v>
       </c>
@@ -7150,9 +7040,8 @@
       <c r="H147" s="1">
         <v>44083</v>
       </c>
-      <c r="I147"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>77</v>
       </c>
@@ -7163,7 +7052,7 @@
         <v>79</v>
       </c>
       <c r="D148" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
@@ -7177,9 +7066,8 @@
       <c r="H148" s="1">
         <v>44783</v>
       </c>
-      <c r="I148"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>342</v>
       </c>
@@ -7204,9 +7092,8 @@
       <c r="H149" s="1">
         <v>40947</v>
       </c>
-      <c r="I149"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>339</v>
       </c>
@@ -7231,9 +7118,8 @@
       <c r="H150" s="1">
         <v>43231</v>
       </c>
-      <c r="I150"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>254</v>
       </c>
@@ -7258,9 +7144,8 @@
       <c r="H151" s="1">
         <v>41472</v>
       </c>
-      <c r="I151"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>241</v>
       </c>
@@ -7285,9 +7170,8 @@
       <c r="H152" s="1">
         <v>41472</v>
       </c>
-      <c r="I152"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>218</v>
       </c>
@@ -7312,9 +7196,8 @@
       <c r="H153" s="1">
         <v>41302</v>
       </c>
-      <c r="I153"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>416</v>
       </c>
@@ -7339,9 +7222,8 @@
       <c r="H154" s="1">
         <v>41302</v>
       </c>
-      <c r="I154"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>227</v>
       </c>
@@ -7366,9 +7248,8 @@
       <c r="H155" s="1">
         <v>42545</v>
       </c>
-      <c r="I155"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>118</v>
       </c>
@@ -7393,9 +7274,8 @@
       <c r="H156" s="1">
         <v>44083</v>
       </c>
-      <c r="I156"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>257</v>
       </c>
@@ -7420,9 +7300,8 @@
       <c r="H157" s="1">
         <v>41472</v>
       </c>
-      <c r="I157"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>460</v>
       </c>
@@ -7447,9 +7326,8 @@
       <c r="H158" s="1">
         <v>44078</v>
       </c>
-      <c r="I158"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>456</v>
       </c>
@@ -7474,9 +7352,8 @@
       <c r="H159" s="1">
         <v>44078</v>
       </c>
-      <c r="I159"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>237</v>
       </c>
@@ -7501,9 +7378,8 @@
       <c r="H160" s="1">
         <v>41506</v>
       </c>
-      <c r="I160"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>453</v>
       </c>
@@ -7528,9 +7404,8 @@
       <c r="H161" s="1">
         <v>44994</v>
       </c>
-      <c r="I161"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>214</v>
       </c>
@@ -7555,9 +7430,8 @@
       <c r="H162" s="1">
         <v>41786</v>
       </c>
-      <c r="I162"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>39</v>
       </c>
@@ -7582,9 +7456,8 @@
       <c r="H163" s="1">
         <v>44131</v>
       </c>
-      <c r="I163"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -7609,9 +7482,8 @@
       <c r="H164" s="1">
         <v>41843</v>
       </c>
-      <c r="I164"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>330</v>
       </c>
@@ -7636,9 +7508,8 @@
       <c r="H165" s="1">
         <v>41946</v>
       </c>
-      <c r="I165"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>327</v>
       </c>
@@ -7663,9 +7534,8 @@
       <c r="H166" s="1">
         <v>42037</v>
       </c>
-      <c r="I166"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -7690,9 +7560,8 @@
       <c r="H167" s="1">
         <v>41946</v>
       </c>
-      <c r="I167"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>202</v>
       </c>
@@ -7717,9 +7586,8 @@
       <c r="H168" s="1">
         <v>41984</v>
       </c>
-      <c r="I168"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>247</v>
       </c>
@@ -7730,7 +7598,7 @@
         <v>249</v>
       </c>
       <c r="D169" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -7744,9 +7612,8 @@
       <c r="H169" s="1">
         <v>44910</v>
       </c>
-      <c r="I169"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>355</v>
       </c>
@@ -7771,9 +7638,8 @@
       <c r="H170" s="1">
         <v>42339</v>
       </c>
-      <c r="I170"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>276</v>
       </c>
@@ -7798,9 +7664,8 @@
       <c r="H171" s="1">
         <v>42348</v>
       </c>
-      <c r="I171"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>122</v>
       </c>
@@ -7825,9 +7690,8 @@
       <c r="H172" s="1">
         <v>42500</v>
       </c>
-      <c r="I172"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>80</v>
       </c>
@@ -7852,9 +7716,8 @@
       <c r="H173" s="1">
         <v>42510</v>
       </c>
-      <c r="I173"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>231</v>
       </c>
@@ -7879,9 +7742,8 @@
       <c r="H174" s="1">
         <v>42537</v>
       </c>
-      <c r="I174"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>55</v>
       </c>
@@ -7906,9 +7768,8 @@
       <c r="H175" s="1">
         <v>42538</v>
       </c>
-      <c r="I175"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>47</v>
       </c>
@@ -7933,9 +7794,8 @@
       <c r="H176" s="1">
         <v>42538</v>
       </c>
-      <c r="I176"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>50</v>
       </c>
@@ -7960,9 +7820,8 @@
       <c r="H177" s="1">
         <v>42538</v>
       </c>
-      <c r="I177"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>433</v>
       </c>
@@ -7987,9 +7846,8 @@
       <c r="H178" s="1">
         <v>42661</v>
       </c>
-      <c r="I178"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>436</v>
       </c>
@@ -8014,9 +7872,8 @@
       <c r="H179" s="1">
         <v>42661</v>
       </c>
-      <c r="I179"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>400</v>
       </c>
@@ -8041,9 +7898,8 @@
       <c r="H180" s="1">
         <v>42723</v>
       </c>
-      <c r="I180"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>389</v>
       </c>
@@ -8068,9 +7924,8 @@
       <c r="H181" s="1">
         <v>42752</v>
       </c>
-      <c r="I181"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>385</v>
       </c>
@@ -8095,9 +7950,8 @@
       <c r="H182" s="1">
         <v>42752</v>
       </c>
-      <c r="I182"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>515</v>
       </c>
@@ -8122,9 +7976,8 @@
       <c r="H183" s="1">
         <v>44083</v>
       </c>
-      <c r="I183"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>37</v>
       </c>
@@ -8149,9 +8002,8 @@
       <c r="H184" s="1">
         <v>44078</v>
       </c>
-      <c r="I184"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>393</v>
       </c>
@@ -8176,9 +8028,8 @@
       <c r="H185" s="1">
         <v>42752</v>
       </c>
-      <c r="I185"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>592</v>
       </c>
@@ -8203,9 +8054,8 @@
       <c r="H186" s="1">
         <v>42796</v>
       </c>
-      <c r="I186"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>596</v>
       </c>
@@ -8230,9 +8080,8 @@
       <c r="H187" s="1">
         <v>42796</v>
       </c>
-      <c r="I187"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>261</v>
       </c>
@@ -8257,9 +8106,8 @@
       <c r="H188" s="1">
         <v>42846</v>
       </c>
-      <c r="I188"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>234</v>
       </c>
@@ -8284,9 +8132,8 @@
       <c r="H189" s="1">
         <v>42913</v>
       </c>
-      <c r="I189"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>602</v>
       </c>
@@ -8311,9 +8158,8 @@
       <c r="H190" s="1">
         <v>43035</v>
       </c>
-      <c r="I190"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>605</v>
       </c>
@@ -8338,9 +8184,8 @@
       <c r="H191" s="1">
         <v>43035</v>
       </c>
-      <c r="I191"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>144</v>
       </c>
@@ -8365,9 +8210,8 @@
       <c r="H192" s="1">
         <v>43230</v>
       </c>
-      <c r="I192"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>616</v>
       </c>
@@ -8392,9 +8236,8 @@
       <c r="H193" s="1">
         <v>44943</v>
       </c>
-      <c r="I193"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>619</v>
       </c>
@@ -8419,9 +8262,8 @@
       <c r="H194" s="1">
         <v>43230</v>
       </c>
-      <c r="I194"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>622</v>
       </c>
@@ -8446,9 +8288,8 @@
       <c r="H195" s="1">
         <v>43230</v>
       </c>
-      <c r="I195"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>625</v>
       </c>
@@ -8473,9 +8314,8 @@
       <c r="H196" s="1">
         <v>43333</v>
       </c>
-      <c r="I196"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>629</v>
       </c>
@@ -8500,9 +8340,8 @@
       <c r="H197" s="1">
         <v>44028</v>
       </c>
-      <c r="I197"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>632</v>
       </c>
@@ -8527,9 +8366,8 @@
       <c r="H198" s="1">
         <v>44943</v>
       </c>
-      <c r="I198"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>636</v>
       </c>
@@ -8554,9 +8392,8 @@
       <c r="H199" s="1">
         <v>43692</v>
       </c>
-      <c r="I199"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>641</v>
       </c>
@@ -8564,7 +8401,7 @@
         <v>642</v>
       </c>
       <c r="C200" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="D200" t="s">
         <v>661</v>
@@ -8581,9 +8418,8 @@
       <c r="H200" s="1">
         <v>44943</v>
       </c>
-      <c r="I200"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>643</v>
       </c>
@@ -8608,9 +8444,8 @@
       <c r="H201" s="1">
         <v>44943</v>
       </c>
-      <c r="I201"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>647</v>
       </c>
@@ -8635,9 +8470,8 @@
       <c r="H202" s="1">
         <v>44943</v>
       </c>
-      <c r="I202"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>651</v>
       </c>
@@ -8662,9 +8496,8 @@
       <c r="H203" s="1">
         <v>44943</v>
       </c>
-      <c r="I203"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>655</v>
       </c>
@@ -8689,17 +8522,16 @@
       <c r="H204" s="1">
         <v>44943</v>
       </c>
-      <c r="I204"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>662</v>
       </c>
       <c r="B205" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C205" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D205" t="s">
         <v>26</v>
@@ -8716,9 +8548,8 @@
       <c r="H205" s="1">
         <v>44952</v>
       </c>
-      <c r="I205"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>663</v>
       </c>
@@ -8726,7 +8557,7 @@
         <v>664</v>
       </c>
       <c r="C206" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="D206" t="s">
         <v>26</v>
@@ -8743,20 +8574,19 @@
       <c r="H206" s="1">
         <v>44943</v>
       </c>
-      <c r="I206"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>665</v>
       </c>
       <c r="B207" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C207" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D207" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8770,9 +8600,8 @@
       <c r="H207" s="1">
         <v>44971</v>
       </c>
-      <c r="I207"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>666</v>
       </c>
@@ -8783,10 +8612,10 @@
         <v>741</v>
       </c>
       <c r="D208" t="s">
-        <v>803</v>
+        <v>895</v>
       </c>
       <c r="E208" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F208">
         <v>230</v>
@@ -8795,11 +8624,10 @@
         <v>609</v>
       </c>
       <c r="H208" s="1">
-        <v>44811</v>
-      </c>
-      <c r="I208"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>667</v>
       </c>
@@ -8810,10 +8638,10 @@
         <v>669</v>
       </c>
       <c r="D209" t="s">
-        <v>804</v>
+        <v>896</v>
       </c>
       <c r="E209" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F209">
         <v>231</v>
@@ -8822,11 +8650,10 @@
         <v>609</v>
       </c>
       <c r="H209" s="1">
-        <v>44811</v>
-      </c>
-      <c r="I209"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>671</v>
       </c>
@@ -8851,9 +8678,8 @@
       <c r="H210" s="1">
         <v>44408</v>
       </c>
-      <c r="I210"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>672</v>
       </c>
@@ -8864,7 +8690,7 @@
         <v>674</v>
       </c>
       <c r="D211" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="E211" t="s">
         <v>49</v>
@@ -8878,9 +8704,8 @@
       <c r="H211" s="1">
         <v>44881</v>
       </c>
-      <c r="I211"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>675</v>
       </c>
@@ -8891,10 +8716,10 @@
         <v>677</v>
       </c>
       <c r="D212" t="s">
-        <v>749</v>
+        <v>897</v>
       </c>
       <c r="E212" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F212">
         <v>234</v>
@@ -8903,11 +8728,10 @@
         <v>609</v>
       </c>
       <c r="H212" s="1">
-        <v>44447</v>
-      </c>
-      <c r="I212"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>678</v>
       </c>
@@ -8918,7 +8742,7 @@
         <v>680</v>
       </c>
       <c r="D213" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -8932,9 +8756,8 @@
       <c r="H213" s="1">
         <v>44938</v>
       </c>
-      <c r="I213"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>681</v>
       </c>
@@ -8959,23 +8782,22 @@
       <c r="H214" s="1">
         <v>44292</v>
       </c>
-      <c r="I214"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>683</v>
       </c>
       <c r="B215" t="s">
+        <v>749</v>
+      </c>
+      <c r="C215" t="s">
         <v>750</v>
       </c>
-      <c r="C215" t="s">
-        <v>751</v>
-      </c>
       <c r="D215" t="s">
-        <v>816</v>
+        <v>898</v>
       </c>
       <c r="E215" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F215">
         <v>237</v>
@@ -8984,11 +8806,10 @@
         <v>609</v>
       </c>
       <c r="H215" s="1">
-        <v>44894</v>
-      </c>
-      <c r="I215"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>685</v>
       </c>
@@ -9013,9 +8834,8 @@
       <c r="H216" s="1">
         <v>44392</v>
       </c>
-      <c r="I216"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>689</v>
       </c>
@@ -9040,9 +8860,8 @@
       <c r="H217" s="1">
         <v>44392</v>
       </c>
-      <c r="I217"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>693</v>
       </c>
@@ -9067,9 +8886,8 @@
       <c r="H218" s="1">
         <v>44519</v>
       </c>
-      <c r="I218"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>697</v>
       </c>
@@ -9094,9 +8912,8 @@
       <c r="H219" s="1">
         <v>44392</v>
       </c>
-      <c r="I219"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>700</v>
       </c>
@@ -9121,9 +8938,8 @@
       <c r="H220" s="1">
         <v>44392</v>
       </c>
-      <c r="I220"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>703</v>
       </c>
@@ -9148,20 +8964,19 @@
       <c r="H221" s="1">
         <v>44392</v>
       </c>
-      <c r="I221"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>706</v>
       </c>
       <c r="B222" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="C222" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="D222" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="E222" t="s">
         <v>49</v>
@@ -9175,9 +8990,8 @@
       <c r="H222" s="1">
         <v>44911</v>
       </c>
-      <c r="I222"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>707</v>
       </c>
@@ -9202,9 +9016,8 @@
       <c r="H223" s="1">
         <v>44426</v>
       </c>
-      <c r="I223"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>709</v>
       </c>
@@ -9229,9 +9042,8 @@
       <c r="H224" s="1">
         <v>44392</v>
       </c>
-      <c r="I224"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>712</v>
       </c>
@@ -9256,9 +9068,8 @@
       <c r="H225" s="1">
         <v>44392</v>
       </c>
-      <c r="I225"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>715</v>
       </c>
@@ -9269,7 +9080,7 @@
         <v>717</v>
       </c>
       <c r="D226" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="E226" t="s">
         <v>49</v>
@@ -9283,9 +9094,8 @@
       <c r="H226" s="1">
         <v>44880</v>
       </c>
-      <c r="I226"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>718</v>
       </c>
@@ -9296,7 +9106,7 @@
         <v>720</v>
       </c>
       <c r="D227" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="E227" t="s">
         <v>49</v>
@@ -9310,9 +9120,8 @@
       <c r="H227" s="1">
         <v>44880</v>
       </c>
-      <c r="I227"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>722</v>
       </c>
@@ -9337,9 +9146,8 @@
       <c r="H228" s="1">
         <v>44426</v>
       </c>
-      <c r="I228"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>725</v>
       </c>
@@ -9364,9 +9172,8 @@
       <c r="H229" s="1">
         <v>44994</v>
       </c>
-      <c r="I229"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>728</v>
       </c>
@@ -9377,10 +9184,10 @@
         <v>730</v>
       </c>
       <c r="D230" t="s">
-        <v>805</v>
+        <v>899</v>
       </c>
       <c r="E230" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F230">
         <v>252</v>
@@ -9389,11 +9196,10 @@
         <v>609</v>
       </c>
       <c r="H230" s="1">
-        <v>44810</v>
-      </c>
-      <c r="I230"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>731</v>
       </c>
@@ -9404,10 +9210,10 @@
         <v>733</v>
       </c>
       <c r="D231" t="s">
-        <v>806</v>
+        <v>900</v>
       </c>
       <c r="E231" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F231">
         <v>253</v>
@@ -9416,11 +9222,10 @@
         <v>609</v>
       </c>
       <c r="H231" s="1">
-        <v>44943</v>
-      </c>
-      <c r="I231"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>734</v>
       </c>
@@ -9431,10 +9236,10 @@
         <v>736</v>
       </c>
       <c r="D232" t="s">
-        <v>807</v>
+        <v>901</v>
       </c>
       <c r="E232" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F232">
         <v>254</v>
@@ -9443,11 +9248,10 @@
         <v>609</v>
       </c>
       <c r="H232" s="1">
-        <v>44943</v>
-      </c>
-      <c r="I232"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>738</v>
       </c>
@@ -9472,9 +9276,8 @@
       <c r="H233" s="1">
         <v>44606</v>
       </c>
-      <c r="I233"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>744</v>
       </c>
@@ -9485,10 +9288,10 @@
         <v>746</v>
       </c>
       <c r="D234" t="s">
-        <v>808</v>
+        <v>902</v>
       </c>
       <c r="E234" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F234">
         <v>256</v>
@@ -9497,22 +9300,21 @@
         <v>609</v>
       </c>
       <c r="H234" s="1">
-        <v>44811</v>
-      </c>
-      <c r="I234"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45224</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>751</v>
+      </c>
+      <c r="B235" t="s">
+        <v>767</v>
+      </c>
+      <c r="C235" t="s">
+        <v>768</v>
+      </c>
+      <c r="D235" t="s">
         <v>752</v>
-      </c>
-      <c r="B235" t="s">
-        <v>768</v>
-      </c>
-      <c r="C235" t="s">
-        <v>769</v>
-      </c>
-      <c r="D235" t="s">
-        <v>753</v>
       </c>
       <c r="E235" t="s">
         <v>11</v>
@@ -9526,20 +9328,19 @@
       <c r="H235" s="1">
         <v>44636</v>
       </c>
-      <c r="I235"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>753</v>
+      </c>
+      <c r="B236" t="s">
         <v>754</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>755</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>756</v>
-      </c>
-      <c r="D236" t="s">
-        <v>757</v>
       </c>
       <c r="E236" t="s">
         <v>23</v>
@@ -9553,20 +9354,19 @@
       <c r="H236" s="1">
         <v>44623</v>
       </c>
-      <c r="I236"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
+        <v>757</v>
+      </c>
+      <c r="B237" t="s">
         <v>758</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>759</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>760</v>
-      </c>
-      <c r="D237" t="s">
-        <v>761</v>
       </c>
       <c r="E237" t="s">
         <v>23</v>
@@ -9580,20 +9380,19 @@
       <c r="H237" s="1">
         <v>44624</v>
       </c>
-      <c r="I237"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>761</v>
+      </c>
+      <c r="B238" t="s">
         <v>762</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>763</v>
       </c>
-      <c r="C238" t="s">
-        <v>764</v>
-      </c>
       <c r="D238" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="E238" t="s">
         <v>61</v>
@@ -9607,20 +9406,19 @@
       <c r="H238" s="1">
         <v>44994</v>
       </c>
-      <c r="I238"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
+        <v>764</v>
+      </c>
+      <c r="B239" t="s">
         <v>765</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>766</v>
       </c>
-      <c r="C239" t="s">
-        <v>767</v>
-      </c>
       <c r="D239" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="E239" t="s">
         <v>61</v>
@@ -9634,20 +9432,19 @@
       <c r="H239" s="1">
         <v>44994</v>
       </c>
-      <c r="I239"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>769</v>
+      </c>
+      <c r="B240" t="s">
         <v>770</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>771</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>772</v>
-      </c>
-      <c r="D240" t="s">
-        <v>773</v>
       </c>
       <c r="E240" t="s">
         <v>49</v>
@@ -9661,17 +9458,16 @@
       <c r="H240" s="1">
         <v>44663</v>
       </c>
-      <c r="I240"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
+        <v>773</v>
+      </c>
+      <c r="B241" t="s">
         <v>774</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>775</v>
-      </c>
-      <c r="C241" t="s">
-        <v>776</v>
       </c>
       <c r="D241" t="s">
         <v>696</v>
@@ -9688,17 +9484,16 @@
       <c r="H241" s="1">
         <v>44663</v>
       </c>
-      <c r="I241"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>776</v>
+      </c>
+      <c r="B242" t="s">
         <v>777</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>778</v>
-      </c>
-      <c r="C242" t="s">
-        <v>779</v>
       </c>
       <c r="D242" t="s">
         <v>696</v>
@@ -9715,17 +9510,16 @@
       <c r="H242" s="1">
         <v>44663</v>
       </c>
-      <c r="I242"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
+        <v>779</v>
+      </c>
+      <c r="B243" t="s">
         <v>780</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>781</v>
-      </c>
-      <c r="C243" t="s">
-        <v>782</v>
       </c>
       <c r="D243" t="s">
         <v>696</v>
@@ -9742,17 +9536,16 @@
       <c r="H243" s="1">
         <v>44663</v>
       </c>
-      <c r="I243"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>782</v>
+      </c>
+      <c r="B244" t="s">
         <v>783</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>784</v>
-      </c>
-      <c r="C244" t="s">
-        <v>785</v>
       </c>
       <c r="D244" t="s">
         <v>696</v>
@@ -9769,17 +9562,16 @@
       <c r="H244" s="1">
         <v>44663</v>
       </c>
-      <c r="I244"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
+        <v>785</v>
+      </c>
+      <c r="B245" t="s">
         <v>786</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>787</v>
-      </c>
-      <c r="C245" t="s">
-        <v>788</v>
       </c>
       <c r="D245" t="s">
         <v>696</v>
@@ -9796,20 +9588,19 @@
       <c r="H245" s="1">
         <v>44663</v>
       </c>
-      <c r="I245"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>788</v>
+      </c>
+      <c r="B246" t="s">
         <v>789</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>790</v>
       </c>
-      <c r="C246" t="s">
-        <v>791</v>
-      </c>
       <c r="D246" t="s">
-        <v>796</v>
+        <v>903</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -9821,25 +9612,24 @@
         <v>609</v>
       </c>
       <c r="H246" s="1">
-        <v>44727</v>
-      </c>
-      <c r="I246"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>791</v>
+      </c>
+      <c r="B247" t="s">
         <v>792</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>793</v>
       </c>
-      <c r="C247" t="s">
-        <v>794</v>
-      </c>
       <c r="D247" t="s">
-        <v>809</v>
+        <v>904</v>
       </c>
       <c r="E247" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F247">
         <v>269</v>
@@ -9848,25 +9638,24 @@
         <v>609</v>
       </c>
       <c r="H247" s="1">
-        <v>44810</v>
-      </c>
-      <c r="I247"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B248" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="C248" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="D248" t="s">
-        <v>852</v>
+        <v>905</v>
       </c>
       <c r="E248" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F248">
         <v>270</v>
@@ -9875,25 +9664,24 @@
         <v>609</v>
       </c>
       <c r="H248" s="1">
-        <v>45034</v>
-      </c>
-      <c r="I248"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B249" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="C249" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="D249" t="s">
-        <v>855</v>
+        <v>906</v>
       </c>
       <c r="E249" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F249">
         <v>271</v>
@@ -9902,25 +9690,24 @@
         <v>609</v>
       </c>
       <c r="H249" s="1">
-        <v>45034</v>
-      </c>
-      <c r="I249"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B250" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="C250" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="D250" t="s">
-        <v>858</v>
+        <v>907</v>
       </c>
       <c r="E250" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F250">
         <v>272</v>
@@ -9929,25 +9716,24 @@
         <v>609</v>
       </c>
       <c r="H250" s="1">
-        <v>45034</v>
-      </c>
-      <c r="I250"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="B251" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="C251" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="D251" t="s">
-        <v>861</v>
+        <v>908</v>
       </c>
       <c r="E251" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F251">
         <v>273</v>
@@ -9956,19 +9742,18 @@
         <v>609</v>
       </c>
       <c r="H251" s="1">
-        <v>45034</v>
-      </c>
-      <c r="I251"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B252" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="C252" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="D252" t="s">
         <v>696</v>
@@ -9985,20 +9770,19 @@
       <c r="H252" s="1">
         <v>44882</v>
       </c>
-      <c r="I252"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B253" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="C253" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="D253" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="E253" t="s">
         <v>49</v>
@@ -10012,20 +9796,19 @@
       <c r="H253" s="1">
         <v>44882</v>
       </c>
-      <c r="I253"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B254" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="C254" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="D254" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="E254" t="s">
         <v>49</v>
@@ -10039,17 +9822,16 @@
       <c r="H254" s="1">
         <v>44914</v>
       </c>
-      <c r="I254"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B255" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C255" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="D255" t="s">
         <v>696</v>
@@ -10066,20 +9848,19 @@
       <c r="H255" s="1">
         <v>44979</v>
       </c>
-      <c r="I255"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B256" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C256" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="D256" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E256" t="s">
         <v>23</v>
@@ -10093,20 +9874,19 @@
       <c r="H256" s="1">
         <v>44999</v>
       </c>
-      <c r="I256"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="B257" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="C257" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="D257" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="E257" t="s">
         <v>23</v>
@@ -10120,20 +9900,19 @@
       <c r="H257" s="1">
         <v>45083</v>
       </c>
-      <c r="I257"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="B258" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="C258" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="D258" t="s">
-        <v>26</v>
+        <v>887</v>
       </c>
       <c r="E258" t="s">
         <v>11</v>
@@ -10145,22 +9924,21 @@
         <v>609</v>
       </c>
       <c r="H258" s="1">
-        <v>45083</v>
-      </c>
-      <c r="I258"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="B259" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="C259" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="D259" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="E259" t="s">
         <v>23</v>
@@ -10174,20 +9952,19 @@
       <c r="H259" s="1">
         <v>45120</v>
       </c>
-      <c r="I259"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="B260" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="C260" t="s">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="D260" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="E260" t="s">
         <v>23</v>
@@ -10201,20 +9978,19 @@
       <c r="H260" s="1">
         <v>45132</v>
       </c>
-      <c r="I260"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="B261" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="C261" t="s">
-        <v>880</v>
+        <v>915</v>
       </c>
       <c r="D261" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="E261" t="s">
         <v>23</v>
@@ -10228,20 +10004,19 @@
       <c r="H261" s="1">
         <v>45147</v>
       </c>
-      <c r="I261"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="B262" t="s">
-        <v>882</v>
+        <v>865</v>
       </c>
       <c r="C262" t="s">
-        <v>883</v>
+        <v>866</v>
       </c>
       <c r="D262" t="s">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="E262" t="s">
         <v>23</v>
@@ -10255,20 +10030,19 @@
       <c r="H262" s="1">
         <v>45170</v>
       </c>
-      <c r="I262"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="B263" t="s">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="C263" t="s">
-        <v>887</v>
+        <v>870</v>
       </c>
       <c r="D263" t="s">
-        <v>888</v>
+        <v>871</v>
       </c>
       <c r="E263" t="s">
         <v>23</v>
@@ -10282,20 +10056,19 @@
       <c r="H263" s="1">
         <v>45182</v>
       </c>
-      <c r="I263"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>889</v>
+        <v>872</v>
       </c>
       <c r="B264" t="s">
-        <v>890</v>
+        <v>873</v>
       </c>
       <c r="C264" t="s">
-        <v>891</v>
+        <v>874</v>
       </c>
       <c r="D264" t="s">
-        <v>892</v>
+        <v>875</v>
       </c>
       <c r="E264" t="s">
         <v>23</v>
@@ -10309,20 +10082,19 @@
       <c r="H264" s="1">
         <v>45182</v>
       </c>
-      <c r="I264"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="B265" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="C265" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="D265" t="s">
-        <v>896</v>
+        <v>879</v>
       </c>
       <c r="E265" t="s">
         <v>23</v>
@@ -10336,20 +10108,19 @@
       <c r="H265" s="1">
         <v>45182</v>
       </c>
-      <c r="I265"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="B266" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="C266" t="s">
         <v>746</v>
       </c>
       <c r="D266" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="E266" t="s">
         <v>23</v>
@@ -10363,20 +10134,19 @@
       <c r="H266" s="1">
         <v>45182</v>
       </c>
-      <c r="I266"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="B267" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="C267" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="D267" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="E267" t="s">
         <v>23</v>
@@ -10390,23 +10160,22 @@
       <c r="H267" s="1">
         <v>45182</v>
       </c>
-      <c r="I267"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>812</v>
+        <v>888</v>
       </c>
       <c r="B268" t="s">
-        <v>813</v>
+        <v>889</v>
       </c>
       <c r="C268" t="s">
-        <v>814</v>
+        <v>890</v>
       </c>
       <c r="D268" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="E268" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F268">
         <v>290</v>
@@ -10415,9 +10184,86 @@
         <v>609</v>
       </c>
       <c r="H268" s="1">
-        <v>45034</v>
-      </c>
-      <c r="I268"/>
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>892</v>
+      </c>
+      <c r="B269" t="s">
+        <v>893</v>
+      </c>
+      <c r="C269" t="s">
+        <v>893</v>
+      </c>
+      <c r="D269" t="s">
+        <v>894</v>
+      </c>
+      <c r="E269" t="s">
+        <v>11</v>
+      </c>
+      <c r="F269">
+        <v>291</v>
+      </c>
+      <c r="G269" t="s">
+        <v>609</v>
+      </c>
+      <c r="H269" s="1">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>803</v>
+      </c>
+      <c r="B270" t="s">
+        <v>804</v>
+      </c>
+      <c r="C270" t="s">
+        <v>805</v>
+      </c>
+      <c r="D270" t="s">
+        <v>909</v>
+      </c>
+      <c r="E270" t="s">
+        <v>11</v>
+      </c>
+      <c r="F270">
+        <v>292</v>
+      </c>
+      <c r="G270" t="s">
+        <v>609</v>
+      </c>
+      <c r="H270" s="1">
+        <v>45225</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>910</v>
+      </c>
+      <c r="B271" t="s">
+        <v>911</v>
+      </c>
+      <c r="C271" t="s">
+        <v>912</v>
+      </c>
+      <c r="D271" t="s">
+        <v>913</v>
+      </c>
+      <c r="E271" t="s">
+        <v>23</v>
+      </c>
+      <c r="F271">
+        <v>293</v>
+      </c>
+      <c r="G271" t="s">
+        <v>609</v>
+      </c>
+      <c r="H271" s="1">
+        <v>45232</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279E5923-5567-4697-A4F3-8BA19322578E}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA720D03-471C-4BB3-8D10-EED2ED08E9F9}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="444" windowWidth="21252" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Web_cvx" sheetId="66" r:id="rId1"/>
+    <sheet name="Web_cvx" sheetId="68" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$271</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$273</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{AF79F891-6952-46A0-889A-A4420FC1CBF5}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes111111111111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{6504600D-7A5F-4081-9D0B-AC21A5046F78}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes11111111111111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="923">
   <si>
     <t>CVX Code</t>
   </si>
@@ -138,12 +138,6 @@
     <t>24</t>
   </si>
   <si>
-    <t>anthrax</t>
-  </si>
-  <si>
-    <t>anthrax vaccine</t>
-  </si>
-  <si>
     <t>181</t>
   </si>
   <si>
@@ -741,9 +735,6 @@
     <t>Influenza, injectable, MDCK, quadrivalent, preservative</t>
   </si>
   <si>
-    <t>Influenza, injectable, Madin Darby Canine Kidney,  quadrivalent with preservative</t>
-  </si>
-  <si>
     <t>158</t>
   </si>
   <si>
@@ -2052,12 +2043,6 @@
     <t>210</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID-19 vaccine, vector-nr, rS-ChAdOx1, PF, 0.5 mL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARS-COV-2 (COVID-19) vaccine, vector non-replicating, recombinant spike protein-ChAdOx1, preservative free, 0.5 mL </t>
-  </si>
-  <si>
     <t>212</t>
   </si>
   <si>
@@ -2073,9 +2058,6 @@
     <t>Ebola Zaire vaccine, live, recombinant, 1mL dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Ebola Zaire vaccine, live, recombinant, 1mL dose </t>
-  </si>
-  <si>
     <t>214</t>
   </si>
   <si>
@@ -2130,9 +2112,6 @@
     <t>COVID-19 LAV Non-US Vaccine (COVIVAC)</t>
   </si>
   <si>
-    <t>SARS-COV-2 COVID-19  Live Attenuated Virus Non-US Vaccine Product (COVIVAC)</t>
-  </si>
-  <si>
     <t>504</t>
   </si>
   <si>
@@ -2166,9 +2145,6 @@
     <t>COVID-19 PS Non-US Vaccine (Jiangsu Province Centers for Disease Control and Prevention)</t>
   </si>
   <si>
-    <t>SARS-COV-2 COVID-19 Protein Subunit Non-US Vaccine Product  (Jiangsu Province Centers for Disease Control and Prevention)</t>
-  </si>
-  <si>
     <t>509</t>
   </si>
   <si>
@@ -2538,9 +2514,6 @@
     <t>COVID-19 SP, protein-based, adjuvanted (VidPrevtyn Beta), Sanofi-GSK</t>
   </si>
   <si>
-    <t xml:space="preserve">SARS-COV-2 (COVID-19) vaccine SP, protein-based, adjuvanted, B.1.351 strain (VidPrevtyn Beta), Sanofi-GSK </t>
-  </si>
-  <si>
     <t>231</t>
   </si>
   <si>
@@ -2595,9 +2568,6 @@
     <t>304</t>
   </si>
   <si>
-    <t xml:space="preserve">Respiratory syncytial virus (RSV), unspecified </t>
-  </si>
-  <si>
     <t>No active NDCs or CPT codes associated to this CVX</t>
   </si>
   <si>
@@ -2721,9 +2691,6 @@
     <t>Original monovalent Moderna adult vaccine. FDA rescinded all doses for US use 4/18/2023. Continue to used to record historic US Moderna vaccines and those administered in non-US locations (includes tradename Spikevax)</t>
   </si>
   <si>
-    <t>Original monovalent Moderna adult vaccine (12+ yrs). FDA rescinded all doses for US use 4/18/2023.  Continue to use to record historic US Pfizer vaccines and Non-US vaccines administered (includes tradename Comirnaty)</t>
-  </si>
-  <si>
     <t>Original monovalent Janssen/J&amp;J adult vaccine. All NDCs expired 6/20/2023, not reauthorized by FDA for Fall 2023 US doses. Continue to use to record Jansses/J&amp;J Non-US vaccines administered vaccines administered</t>
   </si>
   <si>
@@ -2766,13 +2733,67 @@
     <t>316</t>
   </si>
   <si>
-    <t>meningococcal polysaccharide (MenACWY-TT conjugate), (MenB), PF</t>
-  </si>
-  <si>
-    <t>meningococcal polysaccharide (groups A, C, Y, W) tetanus toxoid conjugate, meningococcal B recombinant vaccine, 0.5mL, preservative free</t>
-  </si>
-  <si>
     <t>Meningococcal pentavalent vaccine strains ABCW and Y</t>
+  </si>
+  <si>
+    <t>Original monovalent Pfizer adult vaccine (12+ yrs). FDA rescinded all doses for US use 4/18/2023.  Continue to use to record historic US Pfizer vaccines and Non-US vaccines administered (includes tradename Comirnaty)</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>Chikungunya, live attenuated vaccine, 0.5 mL, preservative free</t>
+  </si>
+  <si>
+    <t>Chikungunya Vaccine</t>
+  </si>
+  <si>
+    <t>Chikungunya live attenuated vaccine, 0.5 mL, PF</t>
+  </si>
+  <si>
+    <t>Anthrax, pre-exposure prophylaxis, post-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Anthrax vaccine, adsorbed, pre-exposure and post-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Influenza, injectable, Madin Darby Canine Kidney, quadrivalent with preservative</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccine, vector-nr, rS-ChAdOx1, PF, 0.5 mL</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine, vector non-replicating, recombinant spike protein-ChAdOx1, preservative free, 0.5 mL</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Live Attenuated Virus Non-US Vaccine Product (COVIVAC)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 COVID-19 Protein Subunit Non-US Vaccine Product (Jiangsu Province Centers for Disease Control and Prevention)</t>
+  </si>
+  <si>
+    <t>SARS-COV-2 (COVID-19) vaccine SP, protein-based, adjuvanted, B.1.351 strain (VidPrevtyn Beta), Sanofi-GSK</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus (RSV), unspecified</t>
+  </si>
+  <si>
+    <t>Meningococcal polysaccharide (MenACWY-TT conjugate), (MenB), PF</t>
+  </si>
+  <si>
+    <t>Meningococcal polysaccharide (groups A, C, Y, W) tetanus toxoid conjugate, meningococcal B recombinant vaccine, 0.5mL, preservative free</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>Anthrax, post-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>Anthrax vaccine, adsorbed, adjuvanted, post-exposure prophylaxis</t>
+  </si>
+  <si>
+    <t>National stockpile vaccine (Cyfendus)</t>
   </si>
   <si>
     <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1κ, (nirsevimab-alip), 0.5 mL, neonates and children to 24 months</t>
@@ -2786,7 +2807,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -2826,7 +2847,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2842,7 +2863,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{1631132F-F130-4F3E-9A14-10A24EE86F20}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{A5BDA0E7-6107-4A65-B0AE-77D317BEC162}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
@@ -2862,25 +2883,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98AB1904-6AD0-4F39-9CEB-2386DBCF86D7}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H271" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4227F0BB-1E04-4A56-8010-DCB5E7510EFC}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H273" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{BCFD0EF8-F19E-4ACF-B2A4-EC3F597C9FDC}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{087CB5D1-4EBF-47C1-8404-15771BB5BF6F}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{715A646E-8E43-433D-A550-5DCFAC5712B5}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{1F0FF025-D7EB-43CF-8BF7-E30C39B36CF5}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{88D9561C-EDFF-4270-A7FB-BEB35292F7B0}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{102E658A-B8E0-48DD-B652-2FF46C0FA57E}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{BBF6F04F-460E-468D-A0E9-E9F7BF48F1F8}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{F6769F51-B80B-40B3-90B8-44566B8E9953}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{45364DD6-CDD1-4289-B07F-5499C77575C1}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{B1E37F9F-03F7-49DE-B415-FB09DAB8C5E6}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{C6FD4DF8-2FA3-45F2-86F6-2BBD76618FFD}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{FD72A10A-855D-4437-8315-3E7C5BD51AAD}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{71AE3AF8-BF3E-4885-B700-73DDA500E7D2}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{E096AF81-BD99-4BBF-980A-FF0B3F04900B}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{D46DC246-6A6E-4C5A-83F8-CB51543CD8DF}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{AE74171D-8627-41A4-930E-F8D96919F1F9}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2918,9 +2939,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2953,26 +2974,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3005,26 +3009,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3197,25 +3184,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B64273-AC27-48DB-AAE5-059443B1AA84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57439980-945F-4441-8EB4-7690A6B4EF0D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H271"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="C261" sqref="C261"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82" customWidth="1"/>
-    <col min="4" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="3" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3247,7 +3233,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -3265,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H2" s="1">
         <v>40326</v>
@@ -3291,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H3" s="1">
         <v>40326</v>
@@ -3317,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H4" s="1">
         <v>40451</v>
@@ -3328,10 +3314,10 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>906</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>907</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -3343,21 +3329,21 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H5" s="1">
-        <v>43627</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -3369,7 +3355,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H6" s="1">
         <v>40326</v>
@@ -3377,13 +3363,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -3395,7 +3381,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H7" s="1">
         <v>44078</v>
@@ -3403,13 +3389,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -3421,7 +3407,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H8" s="1">
         <v>42538</v>
@@ -3429,13 +3415,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -3447,7 +3433,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H9" s="1">
         <v>44078</v>
@@ -3455,16 +3441,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="C10" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="D10" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -3473,7 +3459,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H10" s="1">
         <v>44973</v>
@@ -3481,13 +3467,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -3499,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H11" s="1">
         <v>44078</v>
@@ -3507,13 +3493,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
         <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -3525,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H12" s="1">
         <v>40326</v>
@@ -3533,13 +3519,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
         <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -3551,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H13" s="1">
         <v>40326</v>
@@ -3559,13 +3545,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -3577,7 +3563,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H14" s="1">
         <v>40326</v>
@@ -3585,16 +3571,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>76</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -3603,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H15" s="1">
         <v>40451</v>
@@ -3611,13 +3597,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
         <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -3629,7 +3615,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H16" s="1">
         <v>40326</v>
@@ -3637,13 +3623,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
         <v>87</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -3655,7 +3641,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H17" s="1">
         <v>42814</v>
@@ -3663,13 +3649,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
         <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -3681,7 +3667,7 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H18" s="1">
         <v>40326</v>
@@ -3689,13 +3675,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
         <v>93</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -3707,7 +3693,7 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H19" s="1">
         <v>40326</v>
@@ -3715,13 +3701,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
         <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s">
-        <v>101</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -3733,7 +3719,7 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H20" s="1">
         <v>40326</v>
@@ -3741,13 +3727,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
         <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -3759,7 +3745,7 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H21" s="1">
         <v>42817</v>
@@ -3767,25 +3753,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
         <v>105</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>106</v>
       </c>
-      <c r="C22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H22" s="1">
         <v>42510</v>
@@ -3793,25 +3779,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23">
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H23" s="1">
         <v>44083</v>
@@ -3819,13 +3805,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
         <v>115</v>
-      </c>
-      <c r="B24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>117</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -3837,7 +3823,7 @@
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H24" s="1">
         <v>40326</v>
@@ -3845,13 +3831,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
         <v>126</v>
-      </c>
-      <c r="B25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" t="s">
-        <v>128</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -3863,7 +3849,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H25" s="1">
         <v>40326</v>
@@ -3871,16 +3857,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
         <v>129</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>130</v>
-      </c>
-      <c r="C26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" t="s">
-        <v>132</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -3889,7 +3875,7 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H26" s="1">
         <v>40326</v>
@@ -3897,16 +3883,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" t="s">
-        <v>136</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -3915,7 +3901,7 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H27" s="1">
         <v>40451</v>
@@ -3923,16 +3909,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
         <v>137</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>138</v>
-      </c>
-      <c r="C28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" t="s">
-        <v>140</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -3941,7 +3927,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H28" s="1">
         <v>40451</v>
@@ -3949,13 +3935,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
         <v>141</v>
-      </c>
-      <c r="B29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" t="s">
-        <v>143</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
@@ -3967,7 +3953,7 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H29" s="1">
         <v>40326</v>
@@ -3975,13 +3961,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
         <v>112</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>114</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -3993,7 +3979,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H30" s="1">
         <v>44078</v>
@@ -4001,16 +3987,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
         <v>145</v>
       </c>
-      <c r="B31" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" t="s">
-        <v>147</v>
-      </c>
       <c r="D31" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -4019,7 +4005,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H31" s="1">
         <v>43230</v>
@@ -4027,16 +4013,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" t="s">
         <v>148</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>149</v>
-      </c>
-      <c r="C32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" t="s">
-        <v>151</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -4045,7 +4031,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H32" s="1">
         <v>40326</v>
@@ -4053,16 +4039,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" t="s">
         <v>152</v>
       </c>
-      <c r="B33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" t="s">
-        <v>154</v>
-      </c>
       <c r="D33" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
@@ -4071,7 +4057,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H33" s="1">
         <v>43230</v>
@@ -4079,16 +4065,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
         <v>155</v>
       </c>
-      <c r="B34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" t="s">
-        <v>157</v>
-      </c>
       <c r="D34" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -4097,7 +4083,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H34" s="1">
         <v>43593</v>
@@ -4105,16 +4091,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
         <v>158</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>159</v>
-      </c>
-      <c r="C35" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" t="s">
-        <v>161</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -4123,7 +4109,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H35" s="1">
         <v>40451</v>
@@ -4131,25 +4117,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
         <v>162</v>
       </c>
-      <c r="B36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" t="s">
-        <v>164</v>
-      </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F36">
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H36" s="1">
         <v>44083</v>
@@ -4157,25 +4143,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
         <v>165</v>
       </c>
-      <c r="B37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" t="s">
-        <v>167</v>
-      </c>
       <c r="D37" t="s">
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F37">
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H37" s="1">
         <v>44083</v>
@@ -4183,25 +4169,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
         <v>168</v>
       </c>
-      <c r="B38" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" t="s">
-        <v>170</v>
-      </c>
       <c r="D38" t="s">
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F38">
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H38" s="1">
         <v>44083</v>
@@ -4209,13 +4195,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" t="s">
         <v>174</v>
-      </c>
-      <c r="B39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" t="s">
-        <v>176</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
@@ -4227,7 +4213,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H39" s="1">
         <v>40326</v>
@@ -4235,13 +4221,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" t="s">
         <v>171</v>
-      </c>
-      <c r="B40" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" t="s">
-        <v>173</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -4253,7 +4239,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H40" s="1">
         <v>40326</v>
@@ -4261,13 +4247,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
         <v>180</v>
-      </c>
-      <c r="B41" t="s">
-        <v>181</v>
-      </c>
-      <c r="C41" t="s">
-        <v>182</v>
       </c>
       <c r="D41" t="s">
         <v>26</v>
@@ -4279,7 +4265,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H41" s="1">
         <v>40326</v>
@@ -4287,13 +4273,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
         <v>177</v>
-      </c>
-      <c r="B42" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" t="s">
-        <v>179</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
@@ -4305,7 +4291,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H42" s="1">
         <v>40326</v>
@@ -4313,13 +4299,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
         <v>183</v>
-      </c>
-      <c r="B43" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" t="s">
-        <v>185</v>
       </c>
       <c r="D43" t="s">
         <v>26</v>
@@ -4331,7 +4317,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H43" s="1">
         <v>40451</v>
@@ -4339,16 +4325,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" t="s">
         <v>186</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>187</v>
-      </c>
-      <c r="C44" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" t="s">
-        <v>189</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -4357,7 +4343,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H44" s="1">
         <v>42440</v>
@@ -4365,25 +4351,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" t="s">
         <v>190</v>
       </c>
-      <c r="B45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C45" t="s">
-        <v>192</v>
-      </c>
       <c r="D45" t="s">
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H45" s="1">
         <v>44083</v>
@@ -4391,13 +4377,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
         <v>193</v>
-      </c>
-      <c r="B46" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" t="s">
-        <v>195</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
@@ -4409,7 +4395,7 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H46" s="1">
         <v>40326</v>
@@ -4417,13 +4403,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" t="s">
         <v>196</v>
-      </c>
-      <c r="B47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" t="s">
-        <v>198</v>
       </c>
       <c r="D47" t="s">
         <v>26</v>
@@ -4435,7 +4421,7 @@
         <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H47" s="1">
         <v>43984</v>
@@ -4443,13 +4429,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" t="s">
         <v>205</v>
-      </c>
-      <c r="B48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48" t="s">
-        <v>207</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
@@ -4461,7 +4447,7 @@
         <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H48" s="1">
         <v>44078</v>
@@ -4469,13 +4455,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C49" t="s">
         <v>211</v>
-      </c>
-      <c r="B49" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" t="s">
-        <v>213</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
@@ -4487,7 +4473,7 @@
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H49" s="1">
         <v>44078</v>
@@ -4495,13 +4481,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" t="s">
         <v>208</v>
-      </c>
-      <c r="B50" t="s">
-        <v>209</v>
-      </c>
-      <c r="C50" t="s">
-        <v>210</v>
       </c>
       <c r="D50" t="s">
         <v>26</v>
@@ -4513,7 +4499,7 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H50" s="1">
         <v>44994</v>
@@ -4521,16 +4507,16 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" t="s">
         <v>250</v>
-      </c>
-      <c r="B51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C51" t="s">
-        <v>252</v>
-      </c>
-      <c r="D51" t="s">
-        <v>253</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -4539,7 +4525,7 @@
         <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H51" s="1">
         <v>41904</v>
@@ -4547,16 +4533,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" t="s">
         <v>272</v>
-      </c>
-      <c r="B52" t="s">
-        <v>273</v>
-      </c>
-      <c r="C52" t="s">
-        <v>274</v>
-      </c>
-      <c r="D52" t="s">
-        <v>275</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -4565,7 +4551,7 @@
         <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H52" s="1">
         <v>40451</v>
@@ -4573,13 +4559,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C53" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D53" t="s">
         <v>26</v>
@@ -4591,7 +4577,7 @@
         <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H53" s="1">
         <v>40326</v>
@@ -4599,16 +4585,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>276</v>
+      </c>
+      <c r="B54" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" t="s">
         <v>279</v>
-      </c>
-      <c r="B54" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" t="s">
-        <v>282</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -4617,7 +4603,7 @@
         <v>57</v>
       </c>
       <c r="G54" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H54" s="1">
         <v>40451</v>
@@ -4625,13 +4611,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="s">
         <v>221</v>
-      </c>
-      <c r="B55" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" t="s">
-        <v>223</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -4643,7 +4629,7 @@
         <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H55" s="1">
         <v>40326</v>
@@ -4651,13 +4637,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B56" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C56" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -4669,7 +4655,7 @@
         <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H56" s="1">
         <v>40326</v>
@@ -4677,16 +4663,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>378</v>
+      </c>
+      <c r="B57" t="s">
+        <v>379</v>
+      </c>
+      <c r="C57" t="s">
+        <v>380</v>
+      </c>
+      <c r="D57" t="s">
         <v>381</v>
-      </c>
-      <c r="B57" t="s">
-        <v>382</v>
-      </c>
-      <c r="C57" t="s">
-        <v>383</v>
-      </c>
-      <c r="D57" t="s">
-        <v>384</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -4695,7 +4681,7 @@
         <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H57" s="1">
         <v>42776</v>
@@ -4703,16 +4689,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>423</v>
+      </c>
+      <c r="B58" t="s">
+        <v>424</v>
+      </c>
+      <c r="C58" t="s">
+        <v>425</v>
+      </c>
+      <c r="D58" t="s">
         <v>426</v>
-      </c>
-      <c r="B58" t="s">
-        <v>427</v>
-      </c>
-      <c r="C58" t="s">
-        <v>428</v>
-      </c>
-      <c r="D58" t="s">
-        <v>429</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -4721,7 +4707,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H58" s="1">
         <v>40451</v>
@@ -4729,13 +4715,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C59" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D59" t="s">
         <v>26</v>
@@ -4747,7 +4733,7 @@
         <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H59" s="1">
         <v>42271</v>
@@ -4755,25 +4741,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C60" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D60" t="s">
         <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F60">
         <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H60" s="1">
         <v>44083</v>
@@ -4781,25 +4767,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C61" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D61" t="s">
         <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F61">
         <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H61" s="1">
         <v>44083</v>
@@ -4807,25 +4793,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B62" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F62">
         <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H62" s="1">
         <v>44083</v>
@@ -4833,13 +4819,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B63" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C63" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
@@ -4851,7 +4837,7 @@
         <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H63" s="1">
         <v>40326</v>
@@ -4859,13 +4845,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C64" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -4877,7 +4863,7 @@
         <v>68</v>
       </c>
       <c r="G64" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H64" s="1">
         <v>40326</v>
@@ -4885,13 +4871,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C65" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D65" t="s">
         <v>26</v>
@@ -4903,7 +4889,7 @@
         <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H65" s="1">
         <v>40326</v>
@@ -4911,13 +4897,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B66" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C66" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D66" t="s">
         <v>26</v>
@@ -4929,7 +4915,7 @@
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H66" s="1">
         <v>40326</v>
@@ -4937,25 +4923,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B67" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C67" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F67">
         <v>71</v>
       </c>
       <c r="G67" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H67" s="1">
         <v>44083</v>
@@ -4963,13 +4949,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C68" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D68" t="s">
         <v>26</v>
@@ -4981,7 +4967,7 @@
         <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H68" s="1">
         <v>40421</v>
@@ -4989,25 +4975,25 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B69" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C69" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D69" t="s">
         <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F69">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H69" s="1">
         <v>44083</v>
@@ -5015,13 +5001,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B70" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C70" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D70" t="s">
         <v>26</v>
@@ -5033,7 +5019,7 @@
         <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H70" s="1">
         <v>43035</v>
@@ -5041,13 +5027,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B71" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C71" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D71" t="s">
         <v>26</v>
@@ -5059,7 +5045,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H71" s="1">
         <v>40326</v>
@@ -5067,13 +5053,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B72" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C72" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D72" t="s">
         <v>26</v>
@@ -5085,7 +5071,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H72" s="1">
         <v>40326</v>
@@ -5093,16 +5079,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" t="s">
         <v>323</v>
-      </c>
-      <c r="B73" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" t="s">
-        <v>325</v>
-      </c>
-      <c r="D73" t="s">
-        <v>326</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -5111,7 +5097,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H73" s="1">
         <v>42339</v>
@@ -5119,13 +5105,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B74" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C74" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
@@ -5137,7 +5123,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H74" s="1">
         <v>42173</v>
@@ -5145,13 +5131,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B75" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C75" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D75" t="s">
         <v>26</v>
@@ -5163,7 +5149,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H75" s="1">
         <v>40326</v>
@@ -5171,13 +5157,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B76" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C76" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D76" t="s">
         <v>26</v>
@@ -5189,7 +5175,7 @@
         <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H76" s="1">
         <v>40326</v>
@@ -5197,13 +5183,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B77" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C77" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D77" t="s">
         <v>26</v>
@@ -5215,7 +5201,7 @@
         <v>82</v>
       </c>
       <c r="G77" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H77" s="1">
         <v>43237</v>
@@ -5223,13 +5209,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B78" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C78" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D78" t="s">
         <v>26</v>
@@ -5241,7 +5227,7 @@
         <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H78" s="1">
         <v>40326</v>
@@ -5249,13 +5235,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B79" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C79" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D79" t="s">
         <v>26</v>
@@ -5267,7 +5253,7 @@
         <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H79" s="1">
         <v>41816</v>
@@ -5275,16 +5261,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>419</v>
+      </c>
+      <c r="B80" t="s">
+        <v>420</v>
+      </c>
+      <c r="C80" t="s">
+        <v>421</v>
+      </c>
+      <c r="D80" t="s">
         <v>422</v>
-      </c>
-      <c r="B80" t="s">
-        <v>423</v>
-      </c>
-      <c r="C80" t="s">
-        <v>424</v>
-      </c>
-      <c r="D80" t="s">
-        <v>425</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -5293,7 +5279,7 @@
         <v>85</v>
       </c>
       <c r="G80" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H80" s="1">
         <v>40451</v>
@@ -5301,25 +5287,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B81" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C81" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D81" t="s">
         <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F81">
         <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H81" s="1">
         <v>44083</v>
@@ -5327,16 +5313,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>439</v>
+      </c>
+      <c r="B82" t="s">
+        <v>440</v>
+      </c>
+      <c r="C82" t="s">
+        <v>441</v>
+      </c>
+      <c r="D82" t="s">
         <v>442</v>
-      </c>
-      <c r="B82" t="s">
-        <v>443</v>
-      </c>
-      <c r="C82" t="s">
-        <v>444</v>
-      </c>
-      <c r="D82" t="s">
-        <v>445</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -5345,7 +5331,7 @@
         <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H82" s="1">
         <v>42661</v>
@@ -5353,13 +5339,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B83" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C83" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D83" t="s">
         <v>26</v>
@@ -5371,7 +5357,7 @@
         <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H83" s="1">
         <v>42173</v>
@@ -5379,16 +5365,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>443</v>
+      </c>
+      <c r="B84" t="s">
+        <v>444</v>
+      </c>
+      <c r="C84" t="s">
+        <v>445</v>
+      </c>
+      <c r="D84" t="s">
         <v>446</v>
-      </c>
-      <c r="B84" t="s">
-        <v>447</v>
-      </c>
-      <c r="C84" t="s">
-        <v>448</v>
-      </c>
-      <c r="D84" t="s">
-        <v>449</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -5397,7 +5383,7 @@
         <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H84" s="1">
         <v>40451</v>
@@ -5405,25 +5391,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B85" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C85" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D85" t="s">
         <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F85">
         <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H85" s="1">
         <v>44083</v>
@@ -5431,25 +5417,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B86" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C86" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D86" t="s">
         <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F86">
         <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H86" s="1">
         <v>44083</v>
@@ -5457,13 +5443,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B87" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C87" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D87" t="s">
         <v>26</v>
@@ -5475,7 +5461,7 @@
         <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H87" s="1">
         <v>44078</v>
@@ -5483,13 +5469,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B88" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C88" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
@@ -5501,7 +5487,7 @@
         <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H88" s="1">
         <v>40326</v>
@@ -5509,13 +5495,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B89" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C89" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D89" t="s">
         <v>26</v>
@@ -5527,7 +5513,7 @@
         <v>95</v>
       </c>
       <c r="G89" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H89" s="1">
         <v>40451</v>
@@ -5535,13 +5521,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B90" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C90" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
@@ -5553,7 +5539,7 @@
         <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H90" s="1">
         <v>40326</v>
@@ -5561,13 +5547,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B91" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C91" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
@@ -5579,7 +5565,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H91" s="1">
         <v>40326</v>
@@ -5587,16 +5573,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B92" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C92" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D92" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -5605,7 +5591,7 @@
         <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H92" s="1">
         <v>45126</v>
@@ -5613,13 +5599,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B93" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C93" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D93" t="s">
         <v>26</v>
@@ -5631,7 +5617,7 @@
         <v>102</v>
       </c>
       <c r="G93" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H93" s="1">
         <v>44078</v>
@@ -5639,13 +5625,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B94" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C94" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D94" t="s">
         <v>26</v>
@@ -5657,7 +5643,7 @@
         <v>103</v>
       </c>
       <c r="G94" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H94" s="1">
         <v>42173</v>
@@ -5665,13 +5651,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B95" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C95" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D95" t="s">
         <v>26</v>
@@ -5683,7 +5669,7 @@
         <v>104</v>
       </c>
       <c r="G95" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H95" s="1">
         <v>40326</v>
@@ -5691,13 +5677,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B96" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C96" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D96" t="s">
         <v>26</v>
@@ -5709,7 +5695,7 @@
         <v>105</v>
       </c>
       <c r="G96" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H96" s="1">
         <v>44994</v>
@@ -5717,13 +5703,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B97" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C97" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D97" t="s">
         <v>26</v>
@@ -5735,21 +5721,21 @@
         <v>106</v>
       </c>
       <c r="G97" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H97" s="1">
-        <v>43035</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B98" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C98" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D98" t="s">
         <v>26</v>
@@ -5761,7 +5747,7 @@
         <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H98" s="1">
         <v>43035</v>
@@ -5769,13 +5755,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B99" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C99" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D99" t="s">
         <v>26</v>
@@ -5787,7 +5773,7 @@
         <v>108</v>
       </c>
       <c r="G99" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H99" s="1">
         <v>40326</v>
@@ -5795,13 +5781,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B100" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C100" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
@@ -5813,7 +5799,7 @@
         <v>110</v>
       </c>
       <c r="G100" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H100" s="1">
         <v>42230</v>
@@ -5821,13 +5807,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B101" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C101" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D101" t="s">
         <v>26</v>
@@ -5839,7 +5825,7 @@
         <v>111</v>
       </c>
       <c r="G101" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H101" s="1">
         <v>40451</v>
@@ -5847,25 +5833,25 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B102" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C102" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="D102" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F102">
         <v>112</v>
       </c>
       <c r="G102" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H102" s="1">
         <v>44624</v>
@@ -5873,13 +5859,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B103" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C103" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D103" t="s">
         <v>26</v>
@@ -5891,7 +5877,7 @@
         <v>113</v>
       </c>
       <c r="G103" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H103" s="1">
         <v>44078</v>
@@ -5899,16 +5885,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B104" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C104" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D104" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -5917,7 +5903,7 @@
         <v>114</v>
       </c>
       <c r="G104" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H104" s="1">
         <v>44994</v>
@@ -5925,16 +5911,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B105" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C105" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D105" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -5943,7 +5929,7 @@
         <v>115</v>
       </c>
       <c r="G105" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H105" s="1">
         <v>44994</v>
@@ -5951,16 +5937,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B106" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C106" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D106" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -5969,7 +5955,7 @@
         <v>116</v>
       </c>
       <c r="G106" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H106" s="1">
         <v>44994</v>
@@ -5977,16 +5963,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>524</v>
+      </c>
+      <c r="B107" t="s">
+        <v>525</v>
+      </c>
+      <c r="C107" t="s">
+        <v>526</v>
+      </c>
+      <c r="D107" t="s">
         <v>527</v>
-      </c>
-      <c r="B107" t="s">
-        <v>528</v>
-      </c>
-      <c r="C107" t="s">
-        <v>529</v>
-      </c>
-      <c r="D107" t="s">
-        <v>530</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -5995,7 +5981,7 @@
         <v>117</v>
       </c>
       <c r="G107" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H107" s="1">
         <v>44994</v>
@@ -6003,13 +5989,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B108" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C108" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D108" t="s">
         <v>26</v>
@@ -6021,7 +6007,7 @@
         <v>118</v>
       </c>
       <c r="G108" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H108" s="1">
         <v>40326</v>
@@ -6029,16 +6015,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>548</v>
+      </c>
+      <c r="B109" t="s">
+        <v>549</v>
+      </c>
+      <c r="C109" t="s">
+        <v>550</v>
+      </c>
+      <c r="D109" t="s">
         <v>551</v>
-      </c>
-      <c r="B109" t="s">
-        <v>552</v>
-      </c>
-      <c r="C109" t="s">
-        <v>553</v>
-      </c>
-      <c r="D109" t="s">
-        <v>554</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -6047,7 +6033,7 @@
         <v>119</v>
       </c>
       <c r="G109" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H109" s="1">
         <v>40451</v>
@@ -6055,13 +6041,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B110" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C110" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D110" t="s">
         <v>26</v>
@@ -6073,7 +6059,7 @@
         <v>120</v>
       </c>
       <c r="G110" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H110" s="1">
         <v>40326</v>
@@ -6081,13 +6067,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B111" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C111" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -6099,7 +6085,7 @@
         <v>121</v>
       </c>
       <c r="G111" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H111" s="1">
         <v>42229</v>
@@ -6107,13 +6093,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B112" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C112" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -6125,7 +6111,7 @@
         <v>122</v>
       </c>
       <c r="G112" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H112" s="1">
         <v>42173</v>
@@ -6133,13 +6119,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B113" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C113" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D113" t="s">
         <v>26</v>
@@ -6151,7 +6137,7 @@
         <v>123</v>
       </c>
       <c r="G113" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H113" s="1">
         <v>40326</v>
@@ -6159,13 +6145,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B114" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C114" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D114" t="s">
         <v>26</v>
@@ -6177,7 +6163,7 @@
         <v>124</v>
       </c>
       <c r="G114" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H114" s="1">
         <v>40326</v>
@@ -6185,13 +6171,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B115" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C115" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D115" t="s">
         <v>26</v>
@@ -6203,7 +6189,7 @@
         <v>125</v>
       </c>
       <c r="G115" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H115" s="1">
         <v>40326</v>
@@ -6211,13 +6197,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B116" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C116" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D116" t="s">
         <v>26</v>
@@ -6229,7 +6215,7 @@
         <v>126</v>
       </c>
       <c r="G116" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H116" s="1">
         <v>44078</v>
@@ -6237,13 +6223,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B117" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C117" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D117" t="s">
         <v>26</v>
@@ -6255,7 +6241,7 @@
         <v>127</v>
       </c>
       <c r="G117" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H117" s="1">
         <v>40326</v>
@@ -6263,13 +6249,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B118" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C118" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D118" t="s">
         <v>26</v>
@@ -6281,7 +6267,7 @@
         <v>128</v>
       </c>
       <c r="G118" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H118" s="1">
         <v>40326</v>
@@ -6289,13 +6275,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B119" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C119" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D119" t="s">
         <v>26</v>
@@ -6307,7 +6293,7 @@
         <v>129</v>
       </c>
       <c r="G119" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H119" s="1">
         <v>40326</v>
@@ -6315,16 +6301,16 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>575</v>
+      </c>
+      <c r="B120" t="s">
+        <v>576</v>
+      </c>
+      <c r="C120" t="s">
+        <v>577</v>
+      </c>
+      <c r="D120" t="s">
         <v>578</v>
-      </c>
-      <c r="B120" t="s">
-        <v>579</v>
-      </c>
-      <c r="C120" t="s">
-        <v>580</v>
-      </c>
-      <c r="D120" t="s">
-        <v>581</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -6333,7 +6319,7 @@
         <v>130</v>
       </c>
       <c r="G120" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H120" s="1">
         <v>40451</v>
@@ -6341,13 +6327,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B121" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C121" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D121" t="s">
         <v>26</v>
@@ -6359,7 +6345,7 @@
         <v>131</v>
       </c>
       <c r="G121" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H121" s="1">
         <v>44078</v>
@@ -6367,25 +6353,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B122" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C122" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D122" t="s">
         <v>26</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F122">
         <v>132</v>
       </c>
       <c r="G122" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H122" s="1">
         <v>44083</v>
@@ -6393,16 +6379,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>585</v>
+      </c>
+      <c r="B123" t="s">
+        <v>586</v>
+      </c>
+      <c r="C123" t="s">
+        <v>587</v>
+      </c>
+      <c r="D123" t="s">
         <v>588</v>
-      </c>
-      <c r="B123" t="s">
-        <v>589</v>
-      </c>
-      <c r="C123" t="s">
-        <v>590</v>
-      </c>
-      <c r="D123" t="s">
-        <v>591</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
@@ -6411,7 +6397,7 @@
         <v>134</v>
       </c>
       <c r="G123" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H123" s="1">
         <v>42796</v>
@@ -6419,13 +6405,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B124" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C124" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D124" t="s">
         <v>26</v>
@@ -6437,7 +6423,7 @@
         <v>135</v>
       </c>
       <c r="G124" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H124" s="1">
         <v>40326</v>
@@ -6463,7 +6449,7 @@
         <v>137</v>
       </c>
       <c r="G125" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H125" s="1">
         <v>44994</v>
@@ -6489,7 +6475,7 @@
         <v>138</v>
       </c>
       <c r="G126" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H126" s="1">
         <v>44131</v>
@@ -6515,7 +6501,7 @@
         <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H127" s="1">
         <v>44083</v>
@@ -6523,13 +6509,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B128" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C128" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D128" t="s">
         <v>26</v>
@@ -6541,7 +6527,7 @@
         <v>141</v>
       </c>
       <c r="G128" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H128" s="1">
         <v>40326</v>
@@ -6549,13 +6535,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B129" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C129" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D129" t="s">
         <v>26</v>
@@ -6567,7 +6553,7 @@
         <v>142</v>
       </c>
       <c r="G129" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H129" s="1">
         <v>40326</v>
@@ -6575,16 +6561,16 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>197</v>
+      </c>
+      <c r="B130" t="s">
+        <v>198</v>
+      </c>
+      <c r="C130" t="s">
+        <v>198</v>
+      </c>
+      <c r="D130" t="s">
         <v>199</v>
-      </c>
-      <c r="B130" t="s">
-        <v>200</v>
-      </c>
-      <c r="C130" t="s">
-        <v>200</v>
-      </c>
-      <c r="D130" t="s">
-        <v>201</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -6593,7 +6579,7 @@
         <v>144</v>
       </c>
       <c r="G130" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H130" s="1">
         <v>40451</v>
@@ -6601,13 +6587,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B131" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C131" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D131" t="s">
         <v>26</v>
@@ -6619,7 +6605,7 @@
         <v>145</v>
       </c>
       <c r="G131" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H131" s="1">
         <v>40326</v>
@@ -6627,13 +6613,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132" t="s">
+        <v>223</v>
+      </c>
+      <c r="C132" t="s">
         <v>224</v>
-      </c>
-      <c r="B132" t="s">
-        <v>225</v>
-      </c>
-      <c r="C132" t="s">
-        <v>226</v>
       </c>
       <c r="D132" t="s">
         <v>26</v>
@@ -6645,7 +6631,7 @@
         <v>146</v>
       </c>
       <c r="G132" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H132" s="1">
         <v>40326</v>
@@ -6653,13 +6639,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B133" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C133" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D133" t="s">
         <v>26</v>
@@ -6671,7 +6657,7 @@
         <v>147</v>
       </c>
       <c r="G133" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H133" s="1">
         <v>40326</v>
@@ -6679,16 +6665,16 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" t="s">
+        <v>95</v>
+      </c>
+      <c r="C134" t="s">
+        <v>610</v>
+      </c>
+      <c r="D134" t="s">
         <v>96</v>
-      </c>
-      <c r="B134" t="s">
-        <v>97</v>
-      </c>
-      <c r="C134" t="s">
-        <v>613</v>
-      </c>
-      <c r="D134" t="s">
-        <v>98</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -6697,7 +6683,7 @@
         <v>148</v>
       </c>
       <c r="G134" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H134" s="1">
         <v>43230</v>
@@ -6705,16 +6691,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>368</v>
+      </c>
+      <c r="B135" t="s">
+        <v>369</v>
+      </c>
+      <c r="C135" t="s">
+        <v>370</v>
+      </c>
+      <c r="D135" t="s">
         <v>371</v>
-      </c>
-      <c r="B135" t="s">
-        <v>372</v>
-      </c>
-      <c r="C135" t="s">
-        <v>373</v>
-      </c>
-      <c r="D135" t="s">
-        <v>374</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -6723,7 +6709,7 @@
         <v>149</v>
       </c>
       <c r="G135" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H135" s="1">
         <v>40418</v>
@@ -6731,13 +6717,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B136" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C136" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D136" t="s">
         <v>26</v>
@@ -6749,7 +6735,7 @@
         <v>150</v>
       </c>
       <c r="G136" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H136" s="1">
         <v>40418</v>
@@ -6757,13 +6743,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B137" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C137" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D137" t="s">
         <v>26</v>
@@ -6775,7 +6761,7 @@
         <v>151</v>
       </c>
       <c r="G137" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H137" s="1">
         <v>40418</v>
@@ -6783,13 +6769,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B138" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C138" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D138" t="s">
         <v>26</v>
@@ -6801,7 +6787,7 @@
         <v>152</v>
       </c>
       <c r="G138" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H138" s="1">
         <v>40418</v>
@@ -6809,16 +6795,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>497</v>
+      </c>
+      <c r="B139" t="s">
+        <v>498</v>
+      </c>
+      <c r="C139" t="s">
+        <v>499</v>
+      </c>
+      <c r="D139" t="s">
         <v>500</v>
-      </c>
-      <c r="B139" t="s">
-        <v>501</v>
-      </c>
-      <c r="C139" t="s">
-        <v>502</v>
-      </c>
-      <c r="D139" t="s">
-        <v>503</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -6827,7 +6813,7 @@
         <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H139" s="1">
         <v>40451</v>
@@ -6835,16 +6821,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B140" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C140" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D140" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -6853,7 +6839,7 @@
         <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H140" s="1">
         <v>43704</v>
@@ -6861,16 +6847,16 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D141" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -6879,7 +6865,7 @@
         <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H141" s="1">
         <v>44910</v>
@@ -6887,16 +6873,16 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>292</v>
+      </c>
+      <c r="B142" t="s">
+        <v>293</v>
+      </c>
+      <c r="C142" t="s">
+        <v>294</v>
+      </c>
+      <c r="D142" t="s">
         <v>295</v>
-      </c>
-      <c r="B142" t="s">
-        <v>296</v>
-      </c>
-      <c r="C142" t="s">
-        <v>297</v>
-      </c>
-      <c r="D142" t="s">
-        <v>298</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -6905,7 +6891,7 @@
         <v>157</v>
       </c>
       <c r="G142" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H142" s="1">
         <v>40451</v>
@@ -6913,16 +6899,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B143" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C143" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D143" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E143" t="s">
         <v>23</v>
@@ -6931,7 +6917,7 @@
         <v>159</v>
       </c>
       <c r="G143" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H143" s="1">
         <v>41472</v>
@@ -6939,13 +6925,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B144" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C144" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D144" t="s">
         <v>26</v>
@@ -6957,7 +6943,7 @@
         <v>160</v>
       </c>
       <c r="G144" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H144" s="1">
         <v>42230</v>
@@ -6983,7 +6969,7 @@
         <v>161</v>
       </c>
       <c r="G145" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H145" s="1">
         <v>40622</v>
@@ -6991,16 +6977,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B146" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C146" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D146" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -7009,7 +6995,7 @@
         <v>162</v>
       </c>
       <c r="G146" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H146" s="1">
         <v>44910</v>
@@ -7017,25 +7003,25 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B147" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C147" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D147" t="s">
         <v>26</v>
       </c>
       <c r="E147" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F147">
         <v>163</v>
       </c>
       <c r="G147" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H147" s="1">
         <v>44083</v>
@@ -7043,16 +7029,16 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" t="s">
+        <v>76</v>
+      </c>
+      <c r="C148" t="s">
         <v>77</v>
       </c>
-      <c r="B148" t="s">
-        <v>78</v>
-      </c>
-      <c r="C148" t="s">
-        <v>79</v>
-      </c>
       <c r="D148" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
@@ -7061,7 +7047,7 @@
         <v>164</v>
       </c>
       <c r="G148" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H148" s="1">
         <v>44783</v>
@@ -7069,16 +7055,16 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>339</v>
+      </c>
+      <c r="B149" t="s">
+        <v>340</v>
+      </c>
+      <c r="C149" t="s">
+        <v>341</v>
+      </c>
+      <c r="D149" t="s">
         <v>342</v>
-      </c>
-      <c r="B149" t="s">
-        <v>343</v>
-      </c>
-      <c r="C149" t="s">
-        <v>344</v>
-      </c>
-      <c r="D149" t="s">
-        <v>345</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -7087,7 +7073,7 @@
         <v>165</v>
       </c>
       <c r="G149" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H149" s="1">
         <v>40947</v>
@@ -7095,13 +7081,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B150" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C150" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D150" t="s">
         <v>26</v>
@@ -7113,7 +7099,7 @@
         <v>166</v>
       </c>
       <c r="G150" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H150" s="1">
         <v>43231</v>
@@ -7121,16 +7107,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B151" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C151" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D151" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E151" t="s">
         <v>23</v>
@@ -7139,7 +7125,7 @@
         <v>167</v>
       </c>
       <c r="G151" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H151" s="1">
         <v>41472</v>
@@ -7147,16 +7133,16 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>238</v>
+      </c>
+      <c r="B152" t="s">
+        <v>239</v>
+      </c>
+      <c r="C152" t="s">
+        <v>240</v>
+      </c>
+      <c r="D152" t="s">
         <v>241</v>
-      </c>
-      <c r="B152" t="s">
-        <v>242</v>
-      </c>
-      <c r="C152" t="s">
-        <v>243</v>
-      </c>
-      <c r="D152" t="s">
-        <v>244</v>
       </c>
       <c r="E152" t="s">
         <v>23</v>
@@ -7165,7 +7151,7 @@
         <v>168</v>
       </c>
       <c r="G152" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H152" s="1">
         <v>41472</v>
@@ -7173,16 +7159,16 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>216</v>
+      </c>
+      <c r="B153" t="s">
+        <v>217</v>
+      </c>
+      <c r="C153" t="s">
+        <v>217</v>
+      </c>
+      <c r="D153" t="s">
         <v>218</v>
-      </c>
-      <c r="B153" t="s">
-        <v>219</v>
-      </c>
-      <c r="C153" t="s">
-        <v>219</v>
-      </c>
-      <c r="D153" t="s">
-        <v>220</v>
       </c>
       <c r="E153" t="s">
         <v>11</v>
@@ -7191,7 +7177,7 @@
         <v>169</v>
       </c>
       <c r="G153" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H153" s="1">
         <v>41302</v>
@@ -7199,16 +7185,16 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B154" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C154" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D154" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -7217,7 +7203,7 @@
         <v>170</v>
       </c>
       <c r="G154" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H154" s="1">
         <v>41302</v>
@@ -7225,16 +7211,16 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>225</v>
+      </c>
+      <c r="B155" t="s">
+        <v>226</v>
+      </c>
+      <c r="C155" t="s">
         <v>227</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
         <v>228</v>
-      </c>
-      <c r="C155" t="s">
-        <v>229</v>
-      </c>
-      <c r="D155" t="s">
-        <v>230</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -7243,7 +7229,7 @@
         <v>171</v>
       </c>
       <c r="G155" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H155" s="1">
         <v>42545</v>
@@ -7251,25 +7237,25 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156" t="s">
+        <v>117</v>
+      </c>
+      <c r="C156" t="s">
         <v>118</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>119</v>
       </c>
-      <c r="C156" t="s">
-        <v>120</v>
-      </c>
-      <c r="D156" t="s">
-        <v>121</v>
-      </c>
       <c r="E156" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F156">
         <v>172</v>
       </c>
       <c r="G156" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H156" s="1">
         <v>44083</v>
@@ -7277,16 +7263,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>254</v>
+      </c>
+      <c r="B157" t="s">
+        <v>255</v>
+      </c>
+      <c r="C157" t="s">
+        <v>256</v>
+      </c>
+      <c r="D157" t="s">
         <v>257</v>
-      </c>
-      <c r="B157" t="s">
-        <v>258</v>
-      </c>
-      <c r="C157" t="s">
-        <v>259</v>
-      </c>
-      <c r="D157" t="s">
-        <v>260</v>
       </c>
       <c r="E157" t="s">
         <v>23</v>
@@ -7295,7 +7281,7 @@
         <v>173</v>
       </c>
       <c r="G157" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H157" s="1">
         <v>41472</v>
@@ -7303,16 +7289,16 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>457</v>
+      </c>
+      <c r="B158" t="s">
+        <v>458</v>
+      </c>
+      <c r="C158" t="s">
+        <v>459</v>
+      </c>
+      <c r="D158" t="s">
         <v>460</v>
-      </c>
-      <c r="B158" t="s">
-        <v>461</v>
-      </c>
-      <c r="C158" t="s">
-        <v>462</v>
-      </c>
-      <c r="D158" t="s">
-        <v>463</v>
       </c>
       <c r="E158" t="s">
         <v>23</v>
@@ -7321,7 +7307,7 @@
         <v>174</v>
       </c>
       <c r="G158" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H158" s="1">
         <v>44078</v>
@@ -7329,16 +7315,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>453</v>
+      </c>
+      <c r="B159" t="s">
+        <v>454</v>
+      </c>
+      <c r="C159" t="s">
+        <v>455</v>
+      </c>
+      <c r="D159" t="s">
         <v>456</v>
-      </c>
-      <c r="B159" t="s">
-        <v>457</v>
-      </c>
-      <c r="C159" t="s">
-        <v>458</v>
-      </c>
-      <c r="D159" t="s">
-        <v>459</v>
       </c>
       <c r="E159" t="s">
         <v>23</v>
@@ -7347,7 +7333,7 @@
         <v>175</v>
       </c>
       <c r="G159" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H159" s="1">
         <v>44078</v>
@@ -7355,16 +7341,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>234</v>
+      </c>
+      <c r="B160" t="s">
+        <v>235</v>
+      </c>
+      <c r="C160" t="s">
+        <v>236</v>
+      </c>
+      <c r="D160" t="s">
         <v>237</v>
-      </c>
-      <c r="B160" t="s">
-        <v>238</v>
-      </c>
-      <c r="C160" t="s">
-        <v>239</v>
-      </c>
-      <c r="D160" t="s">
-        <v>240</v>
       </c>
       <c r="E160" t="s">
         <v>23</v>
@@ -7373,7 +7359,7 @@
         <v>176</v>
       </c>
       <c r="G160" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H160" s="1">
         <v>41506</v>
@@ -7381,13 +7367,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B161" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C161" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D161" t="s">
         <v>26</v>
@@ -7399,7 +7385,7 @@
         <v>177</v>
       </c>
       <c r="G161" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H161" s="1">
         <v>44994</v>
@@ -7407,16 +7393,16 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>212</v>
+      </c>
+      <c r="B162" t="s">
+        <v>213</v>
+      </c>
+      <c r="C162" t="s">
         <v>214</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
         <v>215</v>
-      </c>
-      <c r="C162" t="s">
-        <v>216</v>
-      </c>
-      <c r="D162" t="s">
-        <v>217</v>
       </c>
       <c r="E162" t="s">
         <v>23</v>
@@ -7425,7 +7411,7 @@
         <v>178</v>
       </c>
       <c r="G162" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H162" s="1">
         <v>41786</v>
@@ -7433,16 +7419,16 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>37</v>
+      </c>
+      <c r="B163" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163" t="s">
         <v>39</v>
-      </c>
-      <c r="B163" t="s">
-        <v>40</v>
-      </c>
-      <c r="C163" t="s">
-        <v>40</v>
-      </c>
-      <c r="D163" t="s">
-        <v>41</v>
       </c>
       <c r="E163" t="s">
         <v>23</v>
@@ -7451,7 +7437,7 @@
         <v>179</v>
       </c>
       <c r="G163" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H163" s="1">
         <v>44131</v>
@@ -7459,13 +7445,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B164" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C164" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D164" t="s">
         <v>26</v>
@@ -7477,7 +7463,7 @@
         <v>180</v>
       </c>
       <c r="G164" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H164" s="1">
         <v>41843</v>
@@ -7485,13 +7471,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B165" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C165" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D165" t="s">
         <v>26</v>
@@ -7503,7 +7489,7 @@
         <v>181</v>
       </c>
       <c r="G165" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H165" s="1">
         <v>41946</v>
@@ -7511,13 +7497,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D166" t="s">
         <v>26</v>
@@ -7529,7 +7515,7 @@
         <v>182</v>
       </c>
       <c r="G166" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H166" s="1">
         <v>42037</v>
@@ -7537,13 +7523,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B167" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C167" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D167" t="s">
         <v>26</v>
@@ -7555,7 +7541,7 @@
         <v>183</v>
       </c>
       <c r="G167" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H167" s="1">
         <v>41946</v>
@@ -7563,13 +7549,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" t="s">
+        <v>201</v>
+      </c>
+      <c r="C168" t="s">
         <v>202</v>
-      </c>
-      <c r="B168" t="s">
-        <v>203</v>
-      </c>
-      <c r="C168" t="s">
-        <v>204</v>
       </c>
       <c r="D168" t="s">
         <v>26</v>
@@ -7581,7 +7567,7 @@
         <v>184</v>
       </c>
       <c r="G168" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H168" s="1">
         <v>41984</v>
@@ -7589,16 +7575,16 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C169" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D169" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -7607,7 +7593,7 @@
         <v>185</v>
       </c>
       <c r="G169" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H169" s="1">
         <v>44910</v>
@@ -7615,16 +7601,16 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>352</v>
+      </c>
+      <c r="B170" t="s">
+        <v>353</v>
+      </c>
+      <c r="C170" t="s">
+        <v>354</v>
+      </c>
+      <c r="D170" t="s">
         <v>355</v>
-      </c>
-      <c r="B170" t="s">
-        <v>356</v>
-      </c>
-      <c r="C170" t="s">
-        <v>357</v>
-      </c>
-      <c r="D170" t="s">
-        <v>358</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -7633,7 +7619,7 @@
         <v>188</v>
       </c>
       <c r="G170" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H170" s="1">
         <v>42339</v>
@@ -7641,13 +7627,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B171" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C171" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D171" t="s">
         <v>26</v>
@@ -7659,7 +7645,7 @@
         <v>189</v>
       </c>
       <c r="G171" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H171" s="1">
         <v>42348</v>
@@ -7667,25 +7653,25 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>120</v>
+      </c>
+      <c r="B172" t="s">
+        <v>121</v>
+      </c>
+      <c r="C172" t="s">
         <v>122</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
         <v>123</v>
       </c>
-      <c r="C172" t="s">
-        <v>124</v>
-      </c>
-      <c r="D172" t="s">
-        <v>125</v>
-      </c>
       <c r="E172" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F172">
         <v>190</v>
       </c>
       <c r="G172" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H172" s="1">
         <v>42500</v>
@@ -7693,25 +7679,25 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>78</v>
+      </c>
+      <c r="B173" t="s">
+        <v>79</v>
+      </c>
+      <c r="C173" t="s">
         <v>80</v>
       </c>
-      <c r="B173" t="s">
+      <c r="D173" t="s">
         <v>81</v>
       </c>
-      <c r="C173" t="s">
-        <v>82</v>
-      </c>
-      <c r="D173" t="s">
-        <v>83</v>
-      </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F173">
         <v>191</v>
       </c>
       <c r="G173" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H173" s="1">
         <v>42510</v>
@@ -7719,13 +7705,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>229</v>
+      </c>
+      <c r="B174" t="s">
+        <v>230</v>
+      </c>
+      <c r="C174" t="s">
         <v>231</v>
-      </c>
-      <c r="B174" t="s">
-        <v>232</v>
-      </c>
-      <c r="C174" t="s">
-        <v>233</v>
       </c>
       <c r="D174" t="s">
         <v>26</v>
@@ -7737,33 +7723,33 @@
         <v>192</v>
       </c>
       <c r="G174" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H174" s="1">
-        <v>42537</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B175" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C175" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D175" t="s">
         <v>26</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F175">
         <v>193</v>
       </c>
       <c r="G175" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H175" s="1">
         <v>42538</v>
@@ -7771,25 +7757,25 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>45</v>
+      </c>
+      <c r="B176" t="s">
+        <v>46</v>
+      </c>
+      <c r="C176" t="s">
+        <v>46</v>
+      </c>
+      <c r="D176" t="s">
+        <v>26</v>
+      </c>
+      <c r="E176" t="s">
         <v>47</v>
-      </c>
-      <c r="B176" t="s">
-        <v>48</v>
-      </c>
-      <c r="C176" t="s">
-        <v>48</v>
-      </c>
-      <c r="D176" t="s">
-        <v>26</v>
-      </c>
-      <c r="E176" t="s">
-        <v>49</v>
       </c>
       <c r="F176">
         <v>194</v>
       </c>
       <c r="G176" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H176" s="1">
         <v>42538</v>
@@ -7797,13 +7783,13 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B177" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C177" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D177" t="s">
         <v>26</v>
@@ -7815,7 +7801,7 @@
         <v>195</v>
       </c>
       <c r="G177" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H177" s="1">
         <v>42538</v>
@@ -7823,13 +7809,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B178" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C178" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D178" t="s">
         <v>26</v>
@@ -7841,7 +7827,7 @@
         <v>196</v>
       </c>
       <c r="G178" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H178" s="1">
         <v>42661</v>
@@ -7849,13 +7835,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B179" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C179" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D179" t="s">
         <v>26</v>
@@ -7867,7 +7853,7 @@
         <v>197</v>
       </c>
       <c r="G179" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H179" s="1">
         <v>42661</v>
@@ -7875,25 +7861,25 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>397</v>
+      </c>
+      <c r="B180" t="s">
+        <v>398</v>
+      </c>
+      <c r="C180" t="s">
+        <v>399</v>
+      </c>
+      <c r="D180" t="s">
         <v>400</v>
       </c>
-      <c r="B180" t="s">
-        <v>401</v>
-      </c>
-      <c r="C180" t="s">
-        <v>402</v>
-      </c>
-      <c r="D180" t="s">
-        <v>403</v>
-      </c>
       <c r="E180" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F180">
         <v>201</v>
       </c>
       <c r="G180" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H180" s="1">
         <v>42723</v>
@@ -7901,25 +7887,25 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>386</v>
+      </c>
+      <c r="B181" t="s">
+        <v>387</v>
+      </c>
+      <c r="C181" t="s">
+        <v>388</v>
+      </c>
+      <c r="D181" t="s">
         <v>389</v>
       </c>
-      <c r="B181" t="s">
-        <v>390</v>
-      </c>
-      <c r="C181" t="s">
-        <v>391</v>
-      </c>
-      <c r="D181" t="s">
-        <v>392</v>
-      </c>
       <c r="E181" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F181">
         <v>202</v>
       </c>
       <c r="G181" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H181" s="1">
         <v>42752</v>
@@ -7927,25 +7913,25 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>382</v>
+      </c>
+      <c r="B182" t="s">
+        <v>383</v>
+      </c>
+      <c r="C182" t="s">
+        <v>384</v>
+      </c>
+      <c r="D182" t="s">
         <v>385</v>
       </c>
-      <c r="B182" t="s">
-        <v>386</v>
-      </c>
-      <c r="C182" t="s">
-        <v>387</v>
-      </c>
-      <c r="D182" t="s">
-        <v>388</v>
-      </c>
       <c r="E182" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F182">
         <v>203</v>
       </c>
       <c r="G182" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H182" s="1">
         <v>42752</v>
@@ -7953,16 +7939,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B183" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C183" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D183" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -7971,7 +7957,7 @@
         <v>204</v>
       </c>
       <c r="G183" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H183" s="1">
         <v>44083</v>
@@ -7979,13 +7965,13 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B184" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C184" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D184" t="s">
         <v>26</v>
@@ -7997,7 +7983,7 @@
         <v>205</v>
       </c>
       <c r="G184" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H184" s="1">
         <v>44078</v>
@@ -8005,16 +7991,16 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>390</v>
+      </c>
+      <c r="B185" t="s">
+        <v>391</v>
+      </c>
+      <c r="C185" t="s">
+        <v>392</v>
+      </c>
+      <c r="D185" t="s">
         <v>393</v>
-      </c>
-      <c r="B185" t="s">
-        <v>394</v>
-      </c>
-      <c r="C185" t="s">
-        <v>395</v>
-      </c>
-      <c r="D185" t="s">
-        <v>396</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
@@ -8023,7 +8009,7 @@
         <v>206</v>
       </c>
       <c r="G185" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H185" s="1">
         <v>42752</v>
@@ -8031,16 +8017,16 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>589</v>
+      </c>
+      <c r="B186" t="s">
+        <v>590</v>
+      </c>
+      <c r="C186" t="s">
+        <v>591</v>
+      </c>
+      <c r="D186" t="s">
         <v>592</v>
-      </c>
-      <c r="B186" t="s">
-        <v>593</v>
-      </c>
-      <c r="C186" t="s">
-        <v>594</v>
-      </c>
-      <c r="D186" t="s">
-        <v>595</v>
       </c>
       <c r="E186" t="s">
         <v>23</v>
@@ -8049,7 +8035,7 @@
         <v>207</v>
       </c>
       <c r="G186" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H186" s="1">
         <v>42796</v>
@@ -8057,13 +8043,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B187" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C187" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D187" t="s">
         <v>26</v>
@@ -8075,7 +8061,7 @@
         <v>208</v>
       </c>
       <c r="G187" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H187" s="1">
         <v>42796</v>
@@ -8083,13 +8069,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B188" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C188" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D188" t="s">
         <v>26</v>
@@ -8101,7 +8087,7 @@
         <v>209</v>
       </c>
       <c r="G188" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H188" s="1">
         <v>42846</v>
@@ -8109,13 +8095,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B189" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C189" t="s">
-        <v>236</v>
+        <v>908</v>
       </c>
       <c r="D189" t="s">
         <v>26</v>
@@ -8127,21 +8113,21 @@
         <v>210</v>
       </c>
       <c r="G189" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H189" s="1">
-        <v>42913</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B190" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C190" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D190" t="s">
         <v>26</v>
@@ -8153,7 +8139,7 @@
         <v>211</v>
       </c>
       <c r="G190" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H190" s="1">
         <v>43035</v>
@@ -8161,16 +8147,16 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>602</v>
+      </c>
+      <c r="B191" t="s">
+        <v>603</v>
+      </c>
+      <c r="C191" t="s">
+        <v>604</v>
+      </c>
+      <c r="D191" t="s">
         <v>605</v>
-      </c>
-      <c r="B191" t="s">
-        <v>606</v>
-      </c>
-      <c r="C191" t="s">
-        <v>607</v>
-      </c>
-      <c r="D191" t="s">
-        <v>608</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
@@ -8179,7 +8165,7 @@
         <v>212</v>
       </c>
       <c r="G191" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H191" s="1">
         <v>43035</v>
@@ -8187,13 +8173,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B192" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C192" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D192" t="s">
         <v>26</v>
@@ -8205,7 +8191,7 @@
         <v>213</v>
       </c>
       <c r="G192" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H192" s="1">
         <v>43230</v>
@@ -8213,25 +8199,25 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B193" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C193" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D193" t="s">
         <v>26</v>
       </c>
       <c r="E193" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F193">
         <v>214</v>
       </c>
       <c r="G193" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H193" s="1">
         <v>44943</v>
@@ -8239,25 +8225,25 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B194" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C194" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D194" t="s">
         <v>26</v>
       </c>
       <c r="E194" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F194">
         <v>215</v>
       </c>
       <c r="G194" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H194" s="1">
         <v>43230</v>
@@ -8265,25 +8251,25 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B195" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C195" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D195" t="s">
         <v>26</v>
       </c>
       <c r="E195" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F195">
         <v>216</v>
       </c>
       <c r="G195" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H195" s="1">
         <v>43230</v>
@@ -8291,25 +8277,25 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>622</v>
+      </c>
+      <c r="B196" t="s">
+        <v>623</v>
+      </c>
+      <c r="C196" t="s">
+        <v>624</v>
+      </c>
+      <c r="D196" t="s">
         <v>625</v>
       </c>
-      <c r="B196" t="s">
-        <v>626</v>
-      </c>
-      <c r="C196" t="s">
-        <v>627</v>
-      </c>
-      <c r="D196" t="s">
-        <v>628</v>
-      </c>
       <c r="E196" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F196">
         <v>217</v>
       </c>
       <c r="G196" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H196" s="1">
         <v>43333</v>
@@ -8317,16 +8303,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B197" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C197" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D197" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -8335,7 +8321,7 @@
         <v>218</v>
       </c>
       <c r="G197" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H197" s="1">
         <v>44028</v>
@@ -8343,25 +8329,25 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>629</v>
+      </c>
+      <c r="B198" t="s">
+        <v>630</v>
+      </c>
+      <c r="C198" t="s">
         <v>632</v>
       </c>
-      <c r="B198" t="s">
-        <v>633</v>
-      </c>
-      <c r="C198" t="s">
-        <v>635</v>
-      </c>
       <c r="D198" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E198" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F198">
         <v>219</v>
       </c>
       <c r="G198" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H198" s="1">
         <v>44943</v>
@@ -8369,16 +8355,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>633</v>
+      </c>
+      <c r="B199" t="s">
+        <v>634</v>
+      </c>
+      <c r="C199" t="s">
+        <v>635</v>
+      </c>
+      <c r="D199" t="s">
         <v>636</v>
-      </c>
-      <c r="B199" t="s">
-        <v>637</v>
-      </c>
-      <c r="C199" t="s">
-        <v>638</v>
-      </c>
-      <c r="D199" t="s">
-        <v>639</v>
       </c>
       <c r="E199" t="s">
         <v>23</v>
@@ -8387,7 +8373,7 @@
         <v>220</v>
       </c>
       <c r="G199" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H199" s="1">
         <v>43692</v>
@@ -8395,16 +8381,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B200" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C200" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="D200" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E200" t="s">
         <v>23</v>
@@ -8413,7 +8399,7 @@
         <v>221</v>
       </c>
       <c r="G200" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H200" s="1">
         <v>44943</v>
@@ -8421,16 +8407,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>640</v>
+      </c>
+      <c r="B201" t="s">
+        <v>641</v>
+      </c>
+      <c r="C201" t="s">
+        <v>642</v>
+      </c>
+      <c r="D201" t="s">
         <v>643</v>
-      </c>
-      <c r="B201" t="s">
-        <v>644</v>
-      </c>
-      <c r="C201" t="s">
-        <v>645</v>
-      </c>
-      <c r="D201" t="s">
-        <v>646</v>
       </c>
       <c r="E201" t="s">
         <v>23</v>
@@ -8439,7 +8425,7 @@
         <v>222</v>
       </c>
       <c r="G201" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H201" s="1">
         <v>44943</v>
@@ -8447,16 +8433,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>644</v>
+      </c>
+      <c r="B202" t="s">
+        <v>645</v>
+      </c>
+      <c r="C202" t="s">
+        <v>646</v>
+      </c>
+      <c r="D202" t="s">
         <v>647</v>
-      </c>
-      <c r="B202" t="s">
-        <v>648</v>
-      </c>
-      <c r="C202" t="s">
-        <v>649</v>
-      </c>
-      <c r="D202" t="s">
-        <v>650</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -8465,7 +8451,7 @@
         <v>223</v>
       </c>
       <c r="G202" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H202" s="1">
         <v>44943</v>
@@ -8473,16 +8459,16 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>648</v>
+      </c>
+      <c r="B203" t="s">
+        <v>649</v>
+      </c>
+      <c r="C203" t="s">
+        <v>650</v>
+      </c>
+      <c r="D203" t="s">
         <v>651</v>
-      </c>
-      <c r="B203" t="s">
-        <v>652</v>
-      </c>
-      <c r="C203" t="s">
-        <v>653</v>
-      </c>
-      <c r="D203" t="s">
-        <v>654</v>
       </c>
       <c r="E203" t="s">
         <v>23</v>
@@ -8491,7 +8477,7 @@
         <v>224</v>
       </c>
       <c r="G203" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H203" s="1">
         <v>44943</v>
@@ -8499,25 +8485,25 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>652</v>
+      </c>
+      <c r="B204" t="s">
+        <v>653</v>
+      </c>
+      <c r="C204" t="s">
+        <v>654</v>
+      </c>
+      <c r="D204" t="s">
         <v>655</v>
       </c>
-      <c r="B204" t="s">
-        <v>656</v>
-      </c>
-      <c r="C204" t="s">
-        <v>657</v>
-      </c>
-      <c r="D204" t="s">
-        <v>658</v>
-      </c>
       <c r="E204" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F204">
         <v>225</v>
       </c>
       <c r="G204" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H204" s="1">
         <v>44943</v>
@@ -8525,13 +8511,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B205" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="C205" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="D205" t="s">
         <v>26</v>
@@ -8543,7 +8529,7 @@
         <v>226</v>
       </c>
       <c r="G205" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H205" s="1">
         <v>44952</v>
@@ -8551,13 +8537,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B206" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C206" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D206" t="s">
         <v>26</v>
@@ -8569,7 +8555,7 @@
         <v>228</v>
       </c>
       <c r="G206" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H206" s="1">
         <v>44943</v>
@@ -8577,16 +8563,16 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B207" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="C207" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="D207" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8595,7 +8581,7 @@
         <v>229</v>
       </c>
       <c r="G207" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H207" s="1">
         <v>44971</v>
@@ -8603,16 +8589,16 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B208" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C208" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D208" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="E208" t="s">
         <v>11</v>
@@ -8621,7 +8607,7 @@
         <v>230</v>
       </c>
       <c r="G208" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H208" s="1">
         <v>45223</v>
@@ -8629,16 +8615,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B209" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C209" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D209" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="E209" t="s">
         <v>11</v>
@@ -8647,24 +8633,24 @@
         <v>231</v>
       </c>
       <c r="G209" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H209" s="1">
-        <v>45223</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B210" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C210" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D210" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E210" t="s">
         <v>11</v>
@@ -8673,7 +8659,7 @@
         <v>232</v>
       </c>
       <c r="G210" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H210" s="1">
         <v>44408</v>
@@ -8681,42 +8667,42 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B211" t="s">
-        <v>673</v>
+        <v>909</v>
       </c>
       <c r="C211" t="s">
-        <v>674</v>
+        <v>910</v>
       </c>
       <c r="D211" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="E211" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F211">
         <v>233</v>
       </c>
       <c r="G211" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H211" s="1">
-        <v>44881</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B212" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C212" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D212" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="E212" t="s">
         <v>11</v>
@@ -8725,7 +8711,7 @@
         <v>234</v>
       </c>
       <c r="G212" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H212" s="1">
         <v>45225</v>
@@ -8733,16 +8719,16 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B213" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C213" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D213" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -8751,21 +8737,21 @@
         <v>235</v>
       </c>
       <c r="G213" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H213" s="1">
-        <v>44938</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B214" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C214" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D214" t="s">
         <v>26</v>
@@ -8777,7 +8763,7 @@
         <v>236</v>
       </c>
       <c r="G214" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H214" s="1">
         <v>44292</v>
@@ -8785,16 +8771,16 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B215" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C215" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D215" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="E215" t="s">
         <v>11</v>
@@ -8803,7 +8789,7 @@
         <v>237</v>
       </c>
       <c r="G215" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H215" s="1">
         <v>45223</v>
@@ -8811,25 +8797,25 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B216" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C216" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D216" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E216" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F216">
         <v>238</v>
       </c>
       <c r="G216" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H216" s="1">
         <v>44392</v>
@@ -8837,25 +8823,25 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B217" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C217" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D217" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E217" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F217">
         <v>239</v>
       </c>
       <c r="G217" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H217" s="1">
         <v>44392</v>
@@ -8863,25 +8849,25 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B218" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C218" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D218" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="E218" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F218">
         <v>240</v>
       </c>
       <c r="G218" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H218" s="1">
         <v>44519</v>
@@ -8889,51 +8875,51 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B219" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C219" t="s">
-        <v>699</v>
+        <v>911</v>
       </c>
       <c r="D219" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E219" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F219">
         <v>241</v>
       </c>
       <c r="G219" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H219" s="1">
-        <v>44392</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B220" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="C220" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="D220" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E220" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F220">
         <v>242</v>
       </c>
       <c r="G220" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H220" s="1">
         <v>44392</v>
@@ -8941,25 +8927,25 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B221" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C221" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="D221" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E221" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F221">
         <v>243</v>
       </c>
       <c r="G221" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H221" s="1">
         <v>44392</v>
@@ -8967,25 +8953,25 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B222" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="C222" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D222" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E222" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F222">
         <v>244</v>
       </c>
       <c r="G222" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H222" s="1">
         <v>44911</v>
@@ -8993,25 +8979,25 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B223" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="C223" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D223" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E223" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F223">
         <v>245</v>
       </c>
       <c r="G223" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H223" s="1">
         <v>44426</v>
@@ -9019,51 +9005,51 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B224" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="C224" t="s">
-        <v>711</v>
+        <v>912</v>
       </c>
       <c r="D224" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E224" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F224">
         <v>246</v>
       </c>
       <c r="G224" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H224" s="1">
-        <v>44392</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B225" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C225" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="D225" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E225" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F225">
         <v>247</v>
       </c>
       <c r="G225" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H225" s="1">
         <v>44392</v>
@@ -9071,25 +9057,25 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B226" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C226" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D226" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E226" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F226">
         <v>248</v>
       </c>
       <c r="G226" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H226" s="1">
         <v>44880</v>
@@ -9097,25 +9083,25 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="B227" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C227" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="D227" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E227" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F227">
         <v>249</v>
       </c>
       <c r="G227" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H227" s="1">
         <v>44880</v>
@@ -9123,13 +9109,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B228" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="C228" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="D228" t="s">
         <v>26</v>
@@ -9141,7 +9127,7 @@
         <v>250</v>
       </c>
       <c r="G228" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H228" s="1">
         <v>44426</v>
@@ -9149,13 +9135,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B229" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C229" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="D229" t="s">
         <v>26</v>
@@ -9167,7 +9153,7 @@
         <v>251</v>
       </c>
       <c r="G229" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H229" s="1">
         <v>44994</v>
@@ -9175,16 +9161,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B230" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="C230" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="D230" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="E230" t="s">
         <v>11</v>
@@ -9193,7 +9179,7 @@
         <v>252</v>
       </c>
       <c r="G230" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H230" s="1">
         <v>45225</v>
@@ -9201,16 +9187,16 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B231" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C231" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="D231" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="E231" t="s">
         <v>11</v>
@@ -9219,7 +9205,7 @@
         <v>253</v>
       </c>
       <c r="G231" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H231" s="1">
         <v>45232</v>
@@ -9227,16 +9213,16 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B232" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="C232" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="D232" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -9245,7 +9231,7 @@
         <v>254</v>
       </c>
       <c r="G232" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H232" s="1">
         <v>45224</v>
@@ -9253,16 +9239,16 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B233" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="C233" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="D233" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -9271,7 +9257,7 @@
         <v>255</v>
       </c>
       <c r="G233" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H233" s="1">
         <v>44606</v>
@@ -9279,16 +9265,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B234" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="C234" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="D234" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="E234" t="s">
         <v>11</v>
@@ -9297,7 +9283,7 @@
         <v>256</v>
       </c>
       <c r="G234" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H234" s="1">
         <v>45224</v>
@@ -9305,16 +9291,16 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B235" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C235" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D235" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="E235" t="s">
         <v>11</v>
@@ -9323,7 +9309,7 @@
         <v>257</v>
       </c>
       <c r="G235" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H235" s="1">
         <v>44636</v>
@@ -9331,16 +9317,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B236" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="C236" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D236" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="E236" t="s">
         <v>23</v>
@@ -9349,7 +9335,7 @@
         <v>258</v>
       </c>
       <c r="G236" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H236" s="1">
         <v>44623</v>
@@ -9357,16 +9343,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B237" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C237" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D237" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="E237" t="s">
         <v>23</v>
@@ -9375,7 +9361,7 @@
         <v>259</v>
       </c>
       <c r="G237" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H237" s="1">
         <v>44624</v>
@@ -9383,25 +9369,25 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B238" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="C238" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="D238" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E238" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F238">
         <v>260</v>
       </c>
       <c r="G238" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H238" s="1">
         <v>44994</v>
@@ -9409,25 +9395,25 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B239" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C239" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="D239" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E239" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F239">
         <v>261</v>
       </c>
       <c r="G239" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H239" s="1">
         <v>44994</v>
@@ -9435,25 +9421,25 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B240" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C240" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="D240" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="E240" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F240">
         <v>262</v>
       </c>
       <c r="G240" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H240" s="1">
         <v>44663</v>
@@ -9461,25 +9447,25 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B241" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="C241" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="D241" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E241" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F241">
         <v>263</v>
       </c>
       <c r="G241" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H241" s="1">
         <v>44663</v>
@@ -9487,25 +9473,25 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="B242" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C242" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D242" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E242" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F242">
         <v>264</v>
       </c>
       <c r="G242" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H242" s="1">
         <v>44663</v>
@@ -9513,25 +9499,25 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B243" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C243" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="D243" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E243" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F243">
         <v>265</v>
       </c>
       <c r="G243" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H243" s="1">
         <v>44663</v>
@@ -9539,25 +9525,25 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="B244" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C244" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D244" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E244" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F244">
         <v>266</v>
       </c>
       <c r="G244" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H244" s="1">
         <v>44663</v>
@@ -9565,25 +9551,25 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B245" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C245" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="D245" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E245" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F245">
         <v>267</v>
       </c>
       <c r="G245" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H245" s="1">
         <v>44663</v>
@@ -9591,16 +9577,16 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B246" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C246" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D246" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -9609,7 +9595,7 @@
         <v>268</v>
       </c>
       <c r="G246" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H246" s="1">
         <v>45225</v>
@@ -9617,16 +9603,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B247" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="C247" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="D247" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="E247" t="s">
         <v>11</v>
@@ -9635,7 +9621,7 @@
         <v>269</v>
       </c>
       <c r="G247" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H247" s="1">
         <v>45226</v>
@@ -9643,16 +9629,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B248" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="C248" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="D248" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="E248" t="s">
         <v>11</v>
@@ -9661,7 +9647,7 @@
         <v>270</v>
       </c>
       <c r="G248" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H248" s="1">
         <v>45225</v>
@@ -9669,16 +9655,16 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B249" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C249" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="D249" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="E249" t="s">
         <v>11</v>
@@ -9687,7 +9673,7 @@
         <v>271</v>
       </c>
       <c r="G249" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H249" s="1">
         <v>45225</v>
@@ -9695,16 +9681,16 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="B250" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="C250" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="D250" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E250" t="s">
         <v>11</v>
@@ -9713,7 +9699,7 @@
         <v>272</v>
       </c>
       <c r="G250" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H250" s="1">
         <v>45225</v>
@@ -9721,16 +9707,16 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B251" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C251" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="D251" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="E251" t="s">
         <v>11</v>
@@ -9739,7 +9725,7 @@
         <v>273</v>
       </c>
       <c r="G251" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H251" s="1">
         <v>45225</v>
@@ -9747,25 +9733,25 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B252" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C252" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D252" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E252" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F252">
         <v>274</v>
       </c>
       <c r="G252" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H252" s="1">
         <v>44882</v>
@@ -9773,25 +9759,25 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="B253" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C253" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D253" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E253" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F253">
         <v>275</v>
       </c>
       <c r="G253" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H253" s="1">
         <v>44882</v>
@@ -9799,25 +9785,25 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B254" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C254" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D254" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E254" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F254">
         <v>276</v>
       </c>
       <c r="G254" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H254" s="1">
         <v>44914</v>
@@ -9825,42 +9811,42 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B255" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="C255" t="s">
-        <v>835</v>
+        <v>913</v>
       </c>
       <c r="D255" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E255" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F255">
         <v>277</v>
       </c>
       <c r="G255" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H255" s="1">
-        <v>44979</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="B256" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="C256" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="D256" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="E256" t="s">
         <v>23</v>
@@ -9869,7 +9855,7 @@
         <v>278</v>
       </c>
       <c r="G256" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H256" s="1">
         <v>44999</v>
@@ -9877,16 +9863,16 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="B257" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C257" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D257" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E257" t="s">
         <v>23</v>
@@ -9895,7 +9881,7 @@
         <v>279</v>
       </c>
       <c r="G257" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H257" s="1">
         <v>45083</v>
@@ -9903,16 +9889,16 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="B258" t="s">
-        <v>854</v>
+        <v>914</v>
       </c>
       <c r="C258" t="s">
-        <v>854</v>
+        <v>914</v>
       </c>
       <c r="D258" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="E258" t="s">
         <v>11</v>
@@ -9921,24 +9907,24 @@
         <v>280</v>
       </c>
       <c r="G258" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H258" s="1">
-        <v>45189</v>
+        <v>45294</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="B259" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C259" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D259" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="E259" t="s">
         <v>23</v>
@@ -9947,7 +9933,7 @@
         <v>281</v>
       </c>
       <c r="G259" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H259" s="1">
         <v>45120</v>
@@ -9955,16 +9941,16 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="B260" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="C260" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="D260" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="E260" t="s">
         <v>23</v>
@@ -9973,7 +9959,7 @@
         <v>282</v>
       </c>
       <c r="G260" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H260" s="1">
         <v>45132</v>
@@ -9981,16 +9967,16 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="B261" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C261" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="D261" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="E261" t="s">
         <v>23</v>
@@ -9999,7 +9985,7 @@
         <v>283</v>
       </c>
       <c r="G261" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H261" s="1">
         <v>45147</v>
@@ -10007,16 +9993,16 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B262" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="C262" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="D262" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="E262" t="s">
         <v>23</v>
@@ -10025,7 +10011,7 @@
         <v>284</v>
       </c>
       <c r="G262" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H262" s="1">
         <v>45170</v>
@@ -10033,16 +10019,16 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="B263" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="C263" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="D263" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="E263" t="s">
         <v>23</v>
@@ -10051,7 +10037,7 @@
         <v>285</v>
       </c>
       <c r="G263" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H263" s="1">
         <v>45182</v>
@@ -10059,16 +10045,16 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="B264" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="C264" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="D264" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="E264" t="s">
         <v>23</v>
@@ -10077,7 +10063,7 @@
         <v>286</v>
       </c>
       <c r="G264" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H264" s="1">
         <v>45182</v>
@@ -10085,16 +10071,16 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B265" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="C265" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="D265" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="E265" t="s">
         <v>23</v>
@@ -10103,7 +10089,7 @@
         <v>287</v>
       </c>
       <c r="G265" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H265" s="1">
         <v>45182</v>
@@ -10111,16 +10097,16 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B266" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="C266" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="D266" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="E266" t="s">
         <v>23</v>
@@ -10129,7 +10115,7 @@
         <v>288</v>
       </c>
       <c r="G266" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H266" s="1">
         <v>45182</v>
@@ -10137,16 +10123,16 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="B267" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="C267" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="D267" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="E267" t="s">
         <v>23</v>
@@ -10155,7 +10141,7 @@
         <v>289</v>
       </c>
       <c r="G267" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H267" s="1">
         <v>45182</v>
@@ -10163,16 +10149,16 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B268" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C268" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="D268" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="E268" t="s">
         <v>11</v>
@@ -10181,7 +10167,7 @@
         <v>290</v>
       </c>
       <c r="G268" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H268" s="1">
         <v>45188</v>
@@ -10189,16 +10175,16 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="B269" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="C269" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="D269" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="E269" t="s">
         <v>11</v>
@@ -10207,7 +10193,7 @@
         <v>291</v>
       </c>
       <c r="G269" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H269" s="1">
         <v>45188</v>
@@ -10215,42 +10201,42 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>803</v>
+        <v>899</v>
       </c>
       <c r="B270" t="s">
-        <v>804</v>
+        <v>915</v>
       </c>
       <c r="C270" t="s">
-        <v>805</v>
+        <v>916</v>
       </c>
       <c r="D270" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="E270" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F270">
         <v>292</v>
       </c>
       <c r="G270" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H270" s="1">
-        <v>45225</v>
+        <v>45316</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="B271" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C271" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="D271" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="E271" t="s">
         <v>23</v>
@@ -10259,10 +10245,62 @@
         <v>293</v>
       </c>
       <c r="G271" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="H271" s="1">
-        <v>45232</v>
+        <v>45280</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>917</v>
+      </c>
+      <c r="B272" t="s">
+        <v>918</v>
+      </c>
+      <c r="C272" t="s">
+        <v>919</v>
+      </c>
+      <c r="D272" t="s">
+        <v>920</v>
+      </c>
+      <c r="E272" t="s">
+        <v>23</v>
+      </c>
+      <c r="F272">
+        <v>294</v>
+      </c>
+      <c r="G272" t="s">
+        <v>606</v>
+      </c>
+      <c r="H272" s="1">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>795</v>
+      </c>
+      <c r="B273" t="s">
+        <v>796</v>
+      </c>
+      <c r="C273" t="s">
+        <v>797</v>
+      </c>
+      <c r="D273" t="s">
+        <v>898</v>
+      </c>
+      <c r="E273" t="s">
+        <v>11</v>
+      </c>
+      <c r="F273">
+        <v>295</v>
+      </c>
+      <c r="G273" t="s">
+        <v>606</v>
+      </c>
+      <c r="H273" s="1">
+        <v>45225</v>
       </c>
     </row>
   </sheetData>

--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA720D03-471C-4BB3-8D10-EED2ED08E9F9}"/>
+  <xr:revisionPtr revIDLastSave="613" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{858CFE21-17AB-4EE1-9D61-B22B3715C80D}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="444" windowWidth="21252" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1788" yWindow="936" windowWidth="21252" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Web_cvx" sheetId="68" r:id="rId1"/>
+    <sheet name="Web_cvx" sheetId="69" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$273</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$274</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{6504600D-7A5F-4081-9D0B-AC21A5046F78}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes11111111111111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{CA5EB419-6394-40E2-B334-5262DF4CED34}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes111111111111111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="926">
   <si>
     <t>CVX Code</t>
   </si>
@@ -1791,33 +1791,15 @@
     <t>37</t>
   </si>
   <si>
-    <t>yellow fever</t>
-  </si>
-  <si>
-    <t>yellow fever vaccine</t>
-  </si>
-  <si>
     <t>This is the YF vaccine that has been available in the US for years. It is stabilized with sorbitol and gelatin.</t>
   </si>
   <si>
     <t>183</t>
   </si>
   <si>
-    <t>Yellow fever vaccine - alt</t>
-  </si>
-  <si>
-    <t>Yellow fever vaccine alternative formulation</t>
-  </si>
-  <si>
-    <t>This vaccine is stabilized with sorbitol and lactose and has been used outside the US for some time. It will be made available in the US.</t>
-  </si>
-  <si>
     <t>184</t>
   </si>
   <si>
-    <t>Yellow fever, unspecified formulation</t>
-  </si>
-  <si>
     <t>Yellow fever vaccine, unspecified formulation</t>
   </si>
   <si>
@@ -2800,6 +2782,33 @@
   </si>
   <si>
     <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1κ, (nirsevimab-alip), 1 mL, neonates and children to 24 months</t>
+  </si>
+  <si>
+    <t>yellow fever live</t>
+  </si>
+  <si>
+    <t>yellow fever vaccine live</t>
+  </si>
+  <si>
+    <t>Yellow fever vaccine live - alt</t>
+  </si>
+  <si>
+    <t>Yellow fever vaccine live - alternative formulation for vaccine shortage</t>
+  </si>
+  <si>
+    <t>This CVX is associated to an FDA unapproved drug to be used when there is a drug shortage. Stabilized with sorbitol and lactose and has been used outside the US for some time.</t>
+  </si>
+  <si>
+    <t>Yellow fever, unspecified</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>Anthrax vaccine, unspecified</t>
+  </si>
+  <si>
+    <t>Unspecified code to record historic administration when specific product is unknown</t>
   </si>
 </sst>
 </file>
@@ -2863,7 +2872,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{A5BDA0E7-6107-4A65-B0AE-77D317BEC162}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" connectionId="1" xr16:uid="{D02DEEDB-31D5-426C-B588-3043BA303275}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
@@ -2883,16 +2892,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4227F0BB-1E04-4A56-8010-DCB5E7510EFC}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H273" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8622DAB5-78D5-4996-AC2A-9BE56E619D7D}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" ref="A1:H274" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{45364DD6-CDD1-4289-B07F-5499C77575C1}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{B1E37F9F-03F7-49DE-B415-FB09DAB8C5E6}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C6FD4DF8-2FA3-45F2-86F6-2BBD76618FFD}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FD72A10A-855D-4437-8315-3E7C5BD51AAD}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{71AE3AF8-BF3E-4885-B700-73DDA500E7D2}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{E096AF81-BD99-4BBF-980A-FF0B3F04900B}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{D46DC246-6A6E-4C5A-83F8-CB51543CD8DF}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{AE74171D-8627-41A4-930E-F8D96919F1F9}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2118B836-FCDC-4A04-B87E-E7774FE5052F}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{43D3AD75-8247-4AF4-836B-71EAE5205EF2}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{36A88CFA-E5B9-4FA6-91E8-1F24120E6696}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{D5413BAC-05D2-4D3A-86B6-312F6D0D7553}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{D4171E85-8D94-4A78-8590-12718C519E96}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{6401A5D1-6B09-4DF8-B63C-022C5BCE0E8A}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{CD46FD17-F8D9-4E32-B252-2192943CD905}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{A75629BE-D845-4E9D-AA23-47E8394504D4}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3184,24 +3193,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57439980-945F-4441-8EB4-7690A6B4EF0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB9EA7B-2066-4D27-BF4A-F4B3F6B47552}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C260" sqref="C260"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
-    <col min="3" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3233,7 +3243,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -3251,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H2" s="1">
         <v>40326</v>
@@ -3277,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1">
         <v>40326</v>
@@ -3303,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H4" s="1">
         <v>40451</v>
@@ -3314,10 +3324,10 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C5" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -3329,7 +3339,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H5" s="1">
         <v>45316</v>
@@ -3355,7 +3365,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H6" s="1">
         <v>40326</v>
@@ -3381,7 +3391,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H7" s="1">
         <v>44078</v>
@@ -3407,7 +3417,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H8" s="1">
         <v>42538</v>
@@ -3433,7 +3443,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H9" s="1">
         <v>44078</v>
@@ -3444,13 +3454,13 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C10" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D10" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -3459,7 +3469,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H10" s="1">
         <v>44973</v>
@@ -3485,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H11" s="1">
         <v>44078</v>
@@ -3511,7 +3521,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H12" s="1">
         <v>40326</v>
@@ -3537,7 +3547,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H13" s="1">
         <v>40326</v>
@@ -3563,7 +3573,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H14" s="1">
         <v>40326</v>
@@ -3589,7 +3599,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H15" s="1">
         <v>40451</v>
@@ -3615,7 +3625,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H16" s="1">
         <v>40326</v>
@@ -3641,7 +3651,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H17" s="1">
         <v>42814</v>
@@ -3667,7 +3677,7 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H18" s="1">
         <v>40326</v>
@@ -3693,7 +3703,7 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H19" s="1">
         <v>40326</v>
@@ -3719,7 +3729,7 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H20" s="1">
         <v>40326</v>
@@ -3745,7 +3755,7 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H21" s="1">
         <v>42817</v>
@@ -3771,7 +3781,7 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H22" s="1">
         <v>42510</v>
@@ -3797,7 +3807,7 @@
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H23" s="1">
         <v>44083</v>
@@ -3823,7 +3833,7 @@
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H24" s="1">
         <v>40326</v>
@@ -3849,7 +3859,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H25" s="1">
         <v>40326</v>
@@ -3875,7 +3885,7 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H26" s="1">
         <v>40326</v>
@@ -3901,7 +3911,7 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H27" s="1">
         <v>40451</v>
@@ -3927,7 +3937,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H28" s="1">
         <v>40451</v>
@@ -3953,7 +3963,7 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H29" s="1">
         <v>40326</v>
@@ -3979,7 +3989,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H30" s="1">
         <v>44078</v>
@@ -3996,7 +4006,7 @@
         <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -4005,7 +4015,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H31" s="1">
         <v>43230</v>
@@ -4031,7 +4041,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H32" s="1">
         <v>40326</v>
@@ -4048,7 +4058,7 @@
         <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
@@ -4057,7 +4067,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H33" s="1">
         <v>43230</v>
@@ -4074,7 +4084,7 @@
         <v>155</v>
       </c>
       <c r="D34" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -4083,7 +4093,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H34" s="1">
         <v>43593</v>
@@ -4109,7 +4119,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H35" s="1">
         <v>40451</v>
@@ -4135,7 +4145,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H36" s="1">
         <v>44083</v>
@@ -4161,7 +4171,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H37" s="1">
         <v>44083</v>
@@ -4187,7 +4197,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H38" s="1">
         <v>44083</v>
@@ -4213,7 +4223,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H39" s="1">
         <v>40326</v>
@@ -4239,7 +4249,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H40" s="1">
         <v>40326</v>
@@ -4265,7 +4275,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H41" s="1">
         <v>40326</v>
@@ -4291,7 +4301,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H42" s="1">
         <v>40326</v>
@@ -4317,7 +4327,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H43" s="1">
         <v>40451</v>
@@ -4343,7 +4353,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H44" s="1">
         <v>42440</v>
@@ -4369,7 +4379,7 @@
         <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H45" s="1">
         <v>44083</v>
@@ -4395,7 +4405,7 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H46" s="1">
         <v>40326</v>
@@ -4421,7 +4431,7 @@
         <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H47" s="1">
         <v>43984</v>
@@ -4447,7 +4457,7 @@
         <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H48" s="1">
         <v>44078</v>
@@ -4473,7 +4483,7 @@
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H49" s="1">
         <v>44078</v>
@@ -4499,7 +4509,7 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H50" s="1">
         <v>44994</v>
@@ -4525,7 +4535,7 @@
         <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H51" s="1">
         <v>41904</v>
@@ -4551,7 +4561,7 @@
         <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H52" s="1">
         <v>40451</v>
@@ -4577,7 +4587,7 @@
         <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H53" s="1">
         <v>40326</v>
@@ -4603,7 +4613,7 @@
         <v>57</v>
       </c>
       <c r="G54" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H54" s="1">
         <v>40451</v>
@@ -4629,7 +4639,7 @@
         <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H55" s="1">
         <v>40326</v>
@@ -4655,7 +4665,7 @@
         <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H56" s="1">
         <v>40326</v>
@@ -4681,7 +4691,7 @@
         <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H57" s="1">
         <v>42776</v>
@@ -4707,7 +4717,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H58" s="1">
         <v>40451</v>
@@ -4733,7 +4743,7 @@
         <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H59" s="1">
         <v>42271</v>
@@ -4759,7 +4769,7 @@
         <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H60" s="1">
         <v>44083</v>
@@ -4785,7 +4795,7 @@
         <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H61" s="1">
         <v>44083</v>
@@ -4811,7 +4821,7 @@
         <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H62" s="1">
         <v>44083</v>
@@ -4837,7 +4847,7 @@
         <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H63" s="1">
         <v>40326</v>
@@ -4863,7 +4873,7 @@
         <v>68</v>
       </c>
       <c r="G64" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H64" s="1">
         <v>40326</v>
@@ -4889,7 +4899,7 @@
         <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H65" s="1">
         <v>40326</v>
@@ -4915,7 +4925,7 @@
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H66" s="1">
         <v>40326</v>
@@ -4941,7 +4951,7 @@
         <v>71</v>
       </c>
       <c r="G67" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H67" s="1">
         <v>44083</v>
@@ -4967,7 +4977,7 @@
         <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H68" s="1">
         <v>40421</v>
@@ -4993,7 +5003,7 @@
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H69" s="1">
         <v>44083</v>
@@ -5019,7 +5029,7 @@
         <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H70" s="1">
         <v>43035</v>
@@ -5045,7 +5055,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H71" s="1">
         <v>40326</v>
@@ -5071,7 +5081,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H72" s="1">
         <v>40326</v>
@@ -5097,7 +5107,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H73" s="1">
         <v>42339</v>
@@ -5123,7 +5133,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H74" s="1">
         <v>42173</v>
@@ -5149,7 +5159,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H75" s="1">
         <v>40326</v>
@@ -5175,7 +5185,7 @@
         <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H76" s="1">
         <v>40326</v>
@@ -5201,7 +5211,7 @@
         <v>82</v>
       </c>
       <c r="G77" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H77" s="1">
         <v>43237</v>
@@ -5227,7 +5237,7 @@
         <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H78" s="1">
         <v>40326</v>
@@ -5253,7 +5263,7 @@
         <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H79" s="1">
         <v>41816</v>
@@ -5279,7 +5289,7 @@
         <v>85</v>
       </c>
       <c r="G80" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H80" s="1">
         <v>40451</v>
@@ -5305,7 +5315,7 @@
         <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H81" s="1">
         <v>44083</v>
@@ -5331,7 +5341,7 @@
         <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H82" s="1">
         <v>42661</v>
@@ -5357,7 +5367,7 @@
         <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H83" s="1">
         <v>42173</v>
@@ -5383,7 +5393,7 @@
         <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H84" s="1">
         <v>40451</v>
@@ -5409,7 +5419,7 @@
         <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H85" s="1">
         <v>44083</v>
@@ -5435,7 +5445,7 @@
         <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H86" s="1">
         <v>44083</v>
@@ -5461,7 +5471,7 @@
         <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H87" s="1">
         <v>44078</v>
@@ -5487,7 +5497,7 @@
         <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H88" s="1">
         <v>40326</v>
@@ -5513,7 +5523,7 @@
         <v>95</v>
       </c>
       <c r="G89" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H89" s="1">
         <v>40451</v>
@@ -5539,7 +5549,7 @@
         <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H90" s="1">
         <v>40326</v>
@@ -5565,7 +5575,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H91" s="1">
         <v>40326</v>
@@ -5582,7 +5592,7 @@
         <v>481</v>
       </c>
       <c r="D92" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -5591,7 +5601,7 @@
         <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H92" s="1">
         <v>45126</v>
@@ -5617,7 +5627,7 @@
         <v>102</v>
       </c>
       <c r="G93" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H93" s="1">
         <v>44078</v>
@@ -5643,7 +5653,7 @@
         <v>103</v>
       </c>
       <c r="G94" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H94" s="1">
         <v>42173</v>
@@ -5669,7 +5679,7 @@
         <v>104</v>
       </c>
       <c r="G95" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H95" s="1">
         <v>40326</v>
@@ -5695,7 +5705,7 @@
         <v>105</v>
       </c>
       <c r="G96" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H96" s="1">
         <v>44994</v>
@@ -5721,7 +5731,7 @@
         <v>106</v>
       </c>
       <c r="G97" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H97" s="1">
         <v>45316</v>
@@ -5747,7 +5757,7 @@
         <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H98" s="1">
         <v>43035</v>
@@ -5773,7 +5783,7 @@
         <v>108</v>
       </c>
       <c r="G99" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H99" s="1">
         <v>40326</v>
@@ -5799,7 +5809,7 @@
         <v>110</v>
       </c>
       <c r="G100" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H100" s="1">
         <v>42230</v>
@@ -5825,7 +5835,7 @@
         <v>111</v>
       </c>
       <c r="G101" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H101" s="1">
         <v>40451</v>
@@ -5836,13 +5846,13 @@
         <v>521</v>
       </c>
       <c r="B102" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C102" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D102" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E102" t="s">
         <v>47</v>
@@ -5851,7 +5861,7 @@
         <v>112</v>
       </c>
       <c r="G102" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H102" s="1">
         <v>44624</v>
@@ -5877,7 +5887,7 @@
         <v>113</v>
       </c>
       <c r="G103" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H103" s="1">
         <v>44078</v>
@@ -5903,7 +5913,7 @@
         <v>114</v>
       </c>
       <c r="G104" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H104" s="1">
         <v>44994</v>
@@ -5929,7 +5939,7 @@
         <v>115</v>
       </c>
       <c r="G105" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H105" s="1">
         <v>44994</v>
@@ -5955,7 +5965,7 @@
         <v>116</v>
       </c>
       <c r="G106" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H106" s="1">
         <v>44994</v>
@@ -5981,7 +5991,7 @@
         <v>117</v>
       </c>
       <c r="G107" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H107" s="1">
         <v>44994</v>
@@ -6007,7 +6017,7 @@
         <v>118</v>
       </c>
       <c r="G108" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H108" s="1">
         <v>40326</v>
@@ -6033,7 +6043,7 @@
         <v>119</v>
       </c>
       <c r="G109" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H109" s="1">
         <v>40451</v>
@@ -6059,7 +6069,7 @@
         <v>120</v>
       </c>
       <c r="G110" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H110" s="1">
         <v>40326</v>
@@ -6085,7 +6095,7 @@
         <v>121</v>
       </c>
       <c r="G111" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H111" s="1">
         <v>42229</v>
@@ -6111,7 +6121,7 @@
         <v>122</v>
       </c>
       <c r="G112" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H112" s="1">
         <v>42173</v>
@@ -6137,7 +6147,7 @@
         <v>123</v>
       </c>
       <c r="G113" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H113" s="1">
         <v>40326</v>
@@ -6163,7 +6173,7 @@
         <v>124</v>
       </c>
       <c r="G114" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H114" s="1">
         <v>40326</v>
@@ -6189,7 +6199,7 @@
         <v>125</v>
       </c>
       <c r="G115" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H115" s="1">
         <v>40326</v>
@@ -6215,7 +6225,7 @@
         <v>126</v>
       </c>
       <c r="G116" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H116" s="1">
         <v>44078</v>
@@ -6241,7 +6251,7 @@
         <v>127</v>
       </c>
       <c r="G117" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H117" s="1">
         <v>40326</v>
@@ -6267,7 +6277,7 @@
         <v>128</v>
       </c>
       <c r="G118" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H118" s="1">
         <v>40326</v>
@@ -6293,7 +6303,7 @@
         <v>129</v>
       </c>
       <c r="G119" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H119" s="1">
         <v>40326</v>
@@ -6319,7 +6329,7 @@
         <v>130</v>
       </c>
       <c r="G120" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H120" s="1">
         <v>40451</v>
@@ -6345,7 +6355,7 @@
         <v>131</v>
       </c>
       <c r="G121" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H121" s="1">
         <v>44078</v>
@@ -6371,7 +6381,7 @@
         <v>132</v>
       </c>
       <c r="G122" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H122" s="1">
         <v>44083</v>
@@ -6382,13 +6392,13 @@
         <v>585</v>
       </c>
       <c r="B123" t="s">
+        <v>917</v>
+      </c>
+      <c r="C123" t="s">
+        <v>918</v>
+      </c>
+      <c r="D123" t="s">
         <v>586</v>
-      </c>
-      <c r="C123" t="s">
-        <v>587</v>
-      </c>
-      <c r="D123" t="s">
-        <v>588</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
@@ -6397,21 +6407,21 @@
         <v>134</v>
       </c>
       <c r="G123" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H123" s="1">
-        <v>42796</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B124" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C124" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D124" t="s">
         <v>26</v>
@@ -6423,7 +6433,7 @@
         <v>135</v>
       </c>
       <c r="G124" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H124" s="1">
         <v>40326</v>
@@ -6449,7 +6459,7 @@
         <v>137</v>
       </c>
       <c r="G125" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H125" s="1">
         <v>44994</v>
@@ -6475,7 +6485,7 @@
         <v>138</v>
       </c>
       <c r="G126" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H126" s="1">
         <v>44131</v>
@@ -6501,7 +6511,7 @@
         <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H127" s="1">
         <v>44083</v>
@@ -6527,7 +6537,7 @@
         <v>141</v>
       </c>
       <c r="G128" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H128" s="1">
         <v>40326</v>
@@ -6553,7 +6563,7 @@
         <v>142</v>
       </c>
       <c r="G129" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H129" s="1">
         <v>40326</v>
@@ -6579,7 +6589,7 @@
         <v>144</v>
       </c>
       <c r="G130" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H130" s="1">
         <v>40451</v>
@@ -6605,7 +6615,7 @@
         <v>145</v>
       </c>
       <c r="G131" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H131" s="1">
         <v>40326</v>
@@ -6631,7 +6641,7 @@
         <v>146</v>
       </c>
       <c r="G132" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H132" s="1">
         <v>40326</v>
@@ -6657,7 +6667,7 @@
         <v>147</v>
       </c>
       <c r="G133" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H133" s="1">
         <v>40326</v>
@@ -6671,7 +6681,7 @@
         <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D134" t="s">
         <v>96</v>
@@ -6683,7 +6693,7 @@
         <v>148</v>
       </c>
       <c r="G134" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H134" s="1">
         <v>43230</v>
@@ -6709,7 +6719,7 @@
         <v>149</v>
       </c>
       <c r="G135" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H135" s="1">
         <v>40418</v>
@@ -6735,7 +6745,7 @@
         <v>150</v>
       </c>
       <c r="G136" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H136" s="1">
         <v>40418</v>
@@ -6761,7 +6771,7 @@
         <v>151</v>
       </c>
       <c r="G137" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H137" s="1">
         <v>40418</v>
@@ -6787,7 +6797,7 @@
         <v>152</v>
       </c>
       <c r="G138" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H138" s="1">
         <v>40418</v>
@@ -6813,7 +6823,7 @@
         <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H139" s="1">
         <v>40451</v>
@@ -6830,7 +6840,7 @@
         <v>508</v>
       </c>
       <c r="D140" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -6839,7 +6849,7 @@
         <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H140" s="1">
         <v>43704</v>
@@ -6856,7 +6866,7 @@
         <v>265</v>
       </c>
       <c r="D141" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -6865,7 +6875,7 @@
         <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H141" s="1">
         <v>44910</v>
@@ -6891,7 +6901,7 @@
         <v>157</v>
       </c>
       <c r="G142" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H142" s="1">
         <v>40451</v>
@@ -6917,7 +6927,7 @@
         <v>159</v>
       </c>
       <c r="G143" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H143" s="1">
         <v>41472</v>
@@ -6943,7 +6953,7 @@
         <v>160</v>
       </c>
       <c r="G144" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H144" s="1">
         <v>42230</v>
@@ -6969,7 +6979,7 @@
         <v>161</v>
       </c>
       <c r="G145" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H145" s="1">
         <v>40622</v>
@@ -6986,7 +6996,7 @@
         <v>268</v>
       </c>
       <c r="D146" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -6995,7 +7005,7 @@
         <v>162</v>
       </c>
       <c r="G146" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H146" s="1">
         <v>44910</v>
@@ -7021,7 +7031,7 @@
         <v>163</v>
       </c>
       <c r="G147" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H147" s="1">
         <v>44083</v>
@@ -7038,7 +7048,7 @@
         <v>77</v>
       </c>
       <c r="D148" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
@@ -7047,7 +7057,7 @@
         <v>164</v>
       </c>
       <c r="G148" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H148" s="1">
         <v>44783</v>
@@ -7073,7 +7083,7 @@
         <v>165</v>
       </c>
       <c r="G149" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H149" s="1">
         <v>40947</v>
@@ -7099,7 +7109,7 @@
         <v>166</v>
       </c>
       <c r="G150" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H150" s="1">
         <v>43231</v>
@@ -7125,7 +7135,7 @@
         <v>167</v>
       </c>
       <c r="G151" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H151" s="1">
         <v>41472</v>
@@ -7151,7 +7161,7 @@
         <v>168</v>
       </c>
       <c r="G152" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H152" s="1">
         <v>41472</v>
@@ -7177,7 +7187,7 @@
         <v>169</v>
       </c>
       <c r="G153" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H153" s="1">
         <v>41302</v>
@@ -7203,7 +7213,7 @@
         <v>170</v>
       </c>
       <c r="G154" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H154" s="1">
         <v>41302</v>
@@ -7229,7 +7239,7 @@
         <v>171</v>
       </c>
       <c r="G155" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H155" s="1">
         <v>42545</v>
@@ -7255,7 +7265,7 @@
         <v>172</v>
       </c>
       <c r="G156" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H156" s="1">
         <v>44083</v>
@@ -7281,7 +7291,7 @@
         <v>173</v>
       </c>
       <c r="G157" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H157" s="1">
         <v>41472</v>
@@ -7307,7 +7317,7 @@
         <v>174</v>
       </c>
       <c r="G158" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H158" s="1">
         <v>44078</v>
@@ -7333,7 +7343,7 @@
         <v>175</v>
       </c>
       <c r="G159" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H159" s="1">
         <v>44078</v>
@@ -7359,7 +7369,7 @@
         <v>176</v>
       </c>
       <c r="G160" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H160" s="1">
         <v>41506</v>
@@ -7385,7 +7395,7 @@
         <v>177</v>
       </c>
       <c r="G161" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H161" s="1">
         <v>44994</v>
@@ -7411,7 +7421,7 @@
         <v>178</v>
       </c>
       <c r="G162" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H162" s="1">
         <v>41786</v>
@@ -7437,7 +7447,7 @@
         <v>179</v>
       </c>
       <c r="G163" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H163" s="1">
         <v>44131</v>
@@ -7463,7 +7473,7 @@
         <v>180</v>
       </c>
       <c r="G164" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H164" s="1">
         <v>41843</v>
@@ -7489,7 +7499,7 @@
         <v>181</v>
       </c>
       <c r="G165" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H165" s="1">
         <v>41946</v>
@@ -7515,7 +7525,7 @@
         <v>182</v>
       </c>
       <c r="G166" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H166" s="1">
         <v>42037</v>
@@ -7541,7 +7551,7 @@
         <v>183</v>
       </c>
       <c r="G167" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H167" s="1">
         <v>41946</v>
@@ -7567,7 +7577,7 @@
         <v>184</v>
       </c>
       <c r="G168" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H168" s="1">
         <v>41984</v>
@@ -7584,7 +7594,7 @@
         <v>246</v>
       </c>
       <c r="D169" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -7593,7 +7603,7 @@
         <v>185</v>
       </c>
       <c r="G169" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H169" s="1">
         <v>44910</v>
@@ -7619,7 +7629,7 @@
         <v>188</v>
       </c>
       <c r="G170" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H170" s="1">
         <v>42339</v>
@@ -7645,7 +7655,7 @@
         <v>189</v>
       </c>
       <c r="G171" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H171" s="1">
         <v>42348</v>
@@ -7671,7 +7681,7 @@
         <v>190</v>
       </c>
       <c r="G172" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H172" s="1">
         <v>42500</v>
@@ -7697,7 +7707,7 @@
         <v>191</v>
       </c>
       <c r="G173" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H173" s="1">
         <v>42510</v>
@@ -7723,7 +7733,7 @@
         <v>192</v>
       </c>
       <c r="G174" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H174" s="1">
         <v>45316</v>
@@ -7749,7 +7759,7 @@
         <v>193</v>
       </c>
       <c r="G175" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H175" s="1">
         <v>42538</v>
@@ -7775,7 +7785,7 @@
         <v>194</v>
       </c>
       <c r="G176" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H176" s="1">
         <v>42538</v>
@@ -7801,7 +7811,7 @@
         <v>195</v>
       </c>
       <c r="G177" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H177" s="1">
         <v>42538</v>
@@ -7827,7 +7837,7 @@
         <v>196</v>
       </c>
       <c r="G178" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H178" s="1">
         <v>42661</v>
@@ -7853,7 +7863,7 @@
         <v>197</v>
       </c>
       <c r="G179" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H179" s="1">
         <v>42661</v>
@@ -7879,7 +7889,7 @@
         <v>201</v>
       </c>
       <c r="G180" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H180" s="1">
         <v>42723</v>
@@ -7905,7 +7915,7 @@
         <v>202</v>
       </c>
       <c r="G181" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H181" s="1">
         <v>42752</v>
@@ -7931,7 +7941,7 @@
         <v>203</v>
       </c>
       <c r="G182" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H182" s="1">
         <v>42752</v>
@@ -7957,7 +7967,7 @@
         <v>204</v>
       </c>
       <c r="G183" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H183" s="1">
         <v>44083</v>
@@ -7983,7 +7993,7 @@
         <v>205</v>
       </c>
       <c r="G184" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H184" s="1">
         <v>44078</v>
@@ -8009,7 +8019,7 @@
         <v>206</v>
       </c>
       <c r="G185" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H185" s="1">
         <v>42752</v>
@@ -8017,16 +8027,16 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B186" t="s">
-        <v>590</v>
+        <v>919</v>
       </c>
       <c r="C186" t="s">
-        <v>591</v>
+        <v>920</v>
       </c>
       <c r="D186" t="s">
-        <v>592</v>
+        <v>921</v>
       </c>
       <c r="E186" t="s">
         <v>23</v>
@@ -8035,21 +8045,21 @@
         <v>207</v>
       </c>
       <c r="G186" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H186" s="1">
-        <v>42796</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B187" t="s">
-        <v>594</v>
+        <v>922</v>
       </c>
       <c r="C187" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D187" t="s">
         <v>26</v>
@@ -8061,10 +8071,10 @@
         <v>208</v>
       </c>
       <c r="G187" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H187" s="1">
-        <v>42796</v>
+        <v>45358</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -8087,7 +8097,7 @@
         <v>209</v>
       </c>
       <c r="G188" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H188" s="1">
         <v>42846</v>
@@ -8101,7 +8111,7 @@
         <v>233</v>
       </c>
       <c r="C189" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="D189" t="s">
         <v>26</v>
@@ -8113,7 +8123,7 @@
         <v>210</v>
       </c>
       <c r="G189" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H189" s="1">
         <v>45316</v>
@@ -8121,13 +8131,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B190" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C190" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D190" t="s">
         <v>26</v>
@@ -8139,7 +8149,7 @@
         <v>211</v>
       </c>
       <c r="G190" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H190" s="1">
         <v>43035</v>
@@ -8147,16 +8157,16 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B191" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C191" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D191" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
@@ -8165,7 +8175,7 @@
         <v>212</v>
       </c>
       <c r="G191" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H191" s="1">
         <v>43035</v>
@@ -8176,10 +8186,10 @@
         <v>142</v>
       </c>
       <c r="B192" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C192" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D192" t="s">
         <v>26</v>
@@ -8191,7 +8201,7 @@
         <v>213</v>
       </c>
       <c r="G192" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H192" s="1">
         <v>43230</v>
@@ -8199,13 +8209,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B193" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C193" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D193" t="s">
         <v>26</v>
@@ -8217,7 +8227,7 @@
         <v>214</v>
       </c>
       <c r="G193" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H193" s="1">
         <v>44943</v>
@@ -8225,13 +8235,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B194" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C194" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D194" t="s">
         <v>26</v>
@@ -8243,7 +8253,7 @@
         <v>215</v>
       </c>
       <c r="G194" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H194" s="1">
         <v>43230</v>
@@ -8251,13 +8261,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B195" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="C195" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D195" t="s">
         <v>26</v>
@@ -8269,7 +8279,7 @@
         <v>216</v>
       </c>
       <c r="G195" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H195" s="1">
         <v>43230</v>
@@ -8277,16 +8287,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B196" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C196" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D196" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E196" t="s">
         <v>47</v>
@@ -8295,7 +8305,7 @@
         <v>217</v>
       </c>
       <c r="G196" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H196" s="1">
         <v>43333</v>
@@ -8303,16 +8313,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B197" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C197" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D197" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -8321,7 +8331,7 @@
         <v>218</v>
       </c>
       <c r="G197" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H197" s="1">
         <v>44028</v>
@@ -8329,16 +8339,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B198" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C198" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D198" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E198" t="s">
         <v>47</v>
@@ -8347,7 +8357,7 @@
         <v>219</v>
       </c>
       <c r="G198" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H198" s="1">
         <v>44943</v>
@@ -8355,16 +8365,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B199" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C199" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D199" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E199" t="s">
         <v>23</v>
@@ -8373,7 +8383,7 @@
         <v>220</v>
       </c>
       <c r="G199" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H199" s="1">
         <v>43692</v>
@@ -8381,16 +8391,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B200" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C200" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D200" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E200" t="s">
         <v>23</v>
@@ -8399,7 +8409,7 @@
         <v>221</v>
       </c>
       <c r="G200" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H200" s="1">
         <v>44943</v>
@@ -8407,16 +8417,16 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B201" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C201" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D201" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E201" t="s">
         <v>23</v>
@@ -8425,7 +8435,7 @@
         <v>222</v>
       </c>
       <c r="G201" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H201" s="1">
         <v>44943</v>
@@ -8433,16 +8443,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B202" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C202" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D202" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -8451,7 +8461,7 @@
         <v>223</v>
       </c>
       <c r="G202" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H202" s="1">
         <v>44943</v>
@@ -8459,16 +8469,16 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B203" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C203" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D203" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="E203" t="s">
         <v>23</v>
@@ -8477,7 +8487,7 @@
         <v>224</v>
       </c>
       <c r="G203" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H203" s="1">
         <v>44943</v>
@@ -8485,16 +8495,16 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B204" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C204" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D204" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E204" t="s">
         <v>47</v>
@@ -8503,7 +8513,7 @@
         <v>225</v>
       </c>
       <c r="G204" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H204" s="1">
         <v>44943</v>
@@ -8511,13 +8521,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B205" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C205" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D205" t="s">
         <v>26</v>
@@ -8529,7 +8539,7 @@
         <v>226</v>
       </c>
       <c r="G205" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H205" s="1">
         <v>44952</v>
@@ -8537,13 +8547,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B206" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C206" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D206" t="s">
         <v>26</v>
@@ -8555,7 +8565,7 @@
         <v>228</v>
       </c>
       <c r="G206" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H206" s="1">
         <v>44943</v>
@@ -8563,16 +8573,16 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B207" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C207" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D207" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8581,7 +8591,7 @@
         <v>229</v>
       </c>
       <c r="G207" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H207" s="1">
         <v>44971</v>
@@ -8589,16 +8599,16 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B208" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C208" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D208" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E208" t="s">
         <v>11</v>
@@ -8607,7 +8617,7 @@
         <v>230</v>
       </c>
       <c r="G208" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H208" s="1">
         <v>45223</v>
@@ -8615,16 +8625,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B209" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="C209" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D209" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E209" t="s">
         <v>11</v>
@@ -8633,7 +8643,7 @@
         <v>231</v>
       </c>
       <c r="G209" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H209" s="1">
         <v>45244</v>
@@ -8641,16 +8651,16 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B210" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C210" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D210" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E210" t="s">
         <v>11</v>
@@ -8659,7 +8669,7 @@
         <v>232</v>
       </c>
       <c r="G210" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H210" s="1">
         <v>44408</v>
@@ -8667,16 +8677,16 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B211" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C211" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="D211" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E211" t="s">
         <v>47</v>
@@ -8685,7 +8695,7 @@
         <v>233</v>
       </c>
       <c r="G211" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H211" s="1">
         <v>45294</v>
@@ -8693,16 +8703,16 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B212" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C212" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D212" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E212" t="s">
         <v>11</v>
@@ -8711,7 +8721,7 @@
         <v>234</v>
       </c>
       <c r="G212" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H212" s="1">
         <v>45225</v>
@@ -8719,16 +8729,16 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B213" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C213" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D213" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -8737,7 +8747,7 @@
         <v>235</v>
       </c>
       <c r="G213" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H213" s="1">
         <v>45294</v>
@@ -8745,13 +8755,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B214" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C214" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D214" t="s">
         <v>26</v>
@@ -8763,7 +8773,7 @@
         <v>236</v>
       </c>
       <c r="G214" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H214" s="1">
         <v>44292</v>
@@ -8771,16 +8781,16 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B215" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C215" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D215" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E215" t="s">
         <v>11</v>
@@ -8789,7 +8799,7 @@
         <v>237</v>
       </c>
       <c r="G215" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H215" s="1">
         <v>45223</v>
@@ -8797,16 +8807,16 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B216" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C216" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D216" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E216" t="s">
         <v>47</v>
@@ -8815,7 +8825,7 @@
         <v>238</v>
       </c>
       <c r="G216" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H216" s="1">
         <v>44392</v>
@@ -8823,16 +8833,16 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B217" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C217" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D217" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E217" t="s">
         <v>47</v>
@@ -8841,7 +8851,7 @@
         <v>239</v>
       </c>
       <c r="G217" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H217" s="1">
         <v>44392</v>
@@ -8849,16 +8859,16 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B218" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C218" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D218" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E218" t="s">
         <v>47</v>
@@ -8867,7 +8877,7 @@
         <v>240</v>
       </c>
       <c r="G218" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H218" s="1">
         <v>44519</v>
@@ -8875,16 +8885,16 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B219" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C219" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D219" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E219" t="s">
         <v>47</v>
@@ -8893,7 +8903,7 @@
         <v>241</v>
       </c>
       <c r="G219" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H219" s="1">
         <v>45294</v>
@@ -8901,16 +8911,16 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B220" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C220" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D220" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E220" t="s">
         <v>47</v>
@@ -8919,7 +8929,7 @@
         <v>242</v>
       </c>
       <c r="G220" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H220" s="1">
         <v>44392</v>
@@ -8927,16 +8937,16 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B221" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C221" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D221" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E221" t="s">
         <v>47</v>
@@ -8945,7 +8955,7 @@
         <v>243</v>
       </c>
       <c r="G221" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H221" s="1">
         <v>44392</v>
@@ -8953,16 +8963,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B222" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C222" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D222" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="E222" t="s">
         <v>47</v>
@@ -8971,7 +8981,7 @@
         <v>244</v>
       </c>
       <c r="G222" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H222" s="1">
         <v>44911</v>
@@ -8979,16 +8989,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B223" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C223" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D223" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E223" t="s">
         <v>47</v>
@@ -8997,7 +9007,7 @@
         <v>245</v>
       </c>
       <c r="G223" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H223" s="1">
         <v>44426</v>
@@ -9005,16 +9015,16 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B224" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="C224" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="D224" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E224" t="s">
         <v>47</v>
@@ -9023,7 +9033,7 @@
         <v>246</v>
       </c>
       <c r="G224" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H224" s="1">
         <v>45294</v>
@@ -9031,16 +9041,16 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B225" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C225" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D225" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E225" t="s">
         <v>47</v>
@@ -9049,7 +9059,7 @@
         <v>247</v>
       </c>
       <c r="G225" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H225" s="1">
         <v>44392</v>
@@ -9057,16 +9067,16 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B226" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C226" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D226" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="E226" t="s">
         <v>47</v>
@@ -9075,7 +9085,7 @@
         <v>248</v>
       </c>
       <c r="G226" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H226" s="1">
         <v>44880</v>
@@ -9083,16 +9093,16 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B227" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C227" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D227" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="E227" t="s">
         <v>47</v>
@@ -9101,7 +9111,7 @@
         <v>249</v>
       </c>
       <c r="G227" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H227" s="1">
         <v>44880</v>
@@ -9109,13 +9119,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B228" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C228" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D228" t="s">
         <v>26</v>
@@ -9127,7 +9137,7 @@
         <v>250</v>
       </c>
       <c r="G228" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H228" s="1">
         <v>44426</v>
@@ -9135,13 +9145,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B229" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C229" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D229" t="s">
         <v>26</v>
@@ -9153,7 +9163,7 @@
         <v>251</v>
       </c>
       <c r="G229" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H229" s="1">
         <v>44994</v>
@@ -9161,16 +9171,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B230" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C230" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D230" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E230" t="s">
         <v>11</v>
@@ -9179,7 +9189,7 @@
         <v>252</v>
       </c>
       <c r="G230" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H230" s="1">
         <v>45225</v>
@@ -9187,16 +9197,16 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B231" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C231" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D231" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E231" t="s">
         <v>11</v>
@@ -9205,7 +9215,7 @@
         <v>253</v>
       </c>
       <c r="G231" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H231" s="1">
         <v>45232</v>
@@ -9213,16 +9223,16 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B232" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C232" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D232" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -9231,7 +9241,7 @@
         <v>254</v>
       </c>
       <c r="G232" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H232" s="1">
         <v>45224</v>
@@ -9239,16 +9249,16 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B233" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C233" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D233" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -9257,7 +9267,7 @@
         <v>255</v>
       </c>
       <c r="G233" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H233" s="1">
         <v>44606</v>
@@ -9265,16 +9275,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B234" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C234" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D234" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E234" t="s">
         <v>11</v>
@@ -9283,7 +9293,7 @@
         <v>256</v>
       </c>
       <c r="G234" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H234" s="1">
         <v>45224</v>
@@ -9291,16 +9301,16 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B235" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="C235" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D235" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E235" t="s">
         <v>11</v>
@@ -9309,7 +9319,7 @@
         <v>257</v>
       </c>
       <c r="G235" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H235" s="1">
         <v>44636</v>
@@ -9317,16 +9327,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B236" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C236" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D236" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E236" t="s">
         <v>23</v>
@@ -9335,7 +9345,7 @@
         <v>258</v>
       </c>
       <c r="G236" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H236" s="1">
         <v>44623</v>
@@ -9343,16 +9353,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B237" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C237" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D237" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E237" t="s">
         <v>23</v>
@@ -9361,7 +9371,7 @@
         <v>259</v>
       </c>
       <c r="G237" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H237" s="1">
         <v>44624</v>
@@ -9369,16 +9379,16 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B238" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C238" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D238" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E238" t="s">
         <v>59</v>
@@ -9387,7 +9397,7 @@
         <v>260</v>
       </c>
       <c r="G238" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H238" s="1">
         <v>44994</v>
@@ -9395,16 +9405,16 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B239" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C239" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D239" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E239" t="s">
         <v>59</v>
@@ -9413,7 +9423,7 @@
         <v>261</v>
       </c>
       <c r="G239" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H239" s="1">
         <v>44994</v>
@@ -9421,16 +9431,16 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B240" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C240" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D240" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E240" t="s">
         <v>47</v>
@@ -9439,7 +9449,7 @@
         <v>262</v>
       </c>
       <c r="G240" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H240" s="1">
         <v>44663</v>
@@ -9447,16 +9457,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B241" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C241" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D241" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E241" t="s">
         <v>47</v>
@@ -9465,7 +9475,7 @@
         <v>263</v>
       </c>
       <c r="G241" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H241" s="1">
         <v>44663</v>
@@ -9473,16 +9483,16 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B242" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C242" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D242" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E242" t="s">
         <v>47</v>
@@ -9491,7 +9501,7 @@
         <v>264</v>
       </c>
       <c r="G242" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H242" s="1">
         <v>44663</v>
@@ -9499,16 +9509,16 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B243" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C243" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D243" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E243" t="s">
         <v>47</v>
@@ -9517,7 +9527,7 @@
         <v>265</v>
       </c>
       <c r="G243" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H243" s="1">
         <v>44663</v>
@@ -9525,16 +9535,16 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B244" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C244" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D244" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E244" t="s">
         <v>47</v>
@@ -9543,7 +9553,7 @@
         <v>266</v>
       </c>
       <c r="G244" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H244" s="1">
         <v>44663</v>
@@ -9551,16 +9561,16 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B245" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C245" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D245" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E245" t="s">
         <v>47</v>
@@ -9569,7 +9579,7 @@
         <v>267</v>
       </c>
       <c r="G245" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H245" s="1">
         <v>44663</v>
@@ -9577,16 +9587,16 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B246" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C246" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D246" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -9595,7 +9605,7 @@
         <v>268</v>
       </c>
       <c r="G246" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H246" s="1">
         <v>45225</v>
@@ -9603,16 +9613,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B247" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C247" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D247" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E247" t="s">
         <v>11</v>
@@ -9621,7 +9631,7 @@
         <v>269</v>
       </c>
       <c r="G247" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H247" s="1">
         <v>45226</v>
@@ -9629,16 +9639,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B248" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C248" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D248" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E248" t="s">
         <v>11</v>
@@ -9647,7 +9657,7 @@
         <v>270</v>
       </c>
       <c r="G248" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H248" s="1">
         <v>45225</v>
@@ -9655,16 +9665,16 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B249" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C249" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D249" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E249" t="s">
         <v>11</v>
@@ -9673,7 +9683,7 @@
         <v>271</v>
       </c>
       <c r="G249" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H249" s="1">
         <v>45225</v>
@@ -9681,16 +9691,16 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B250" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C250" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="D250" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E250" t="s">
         <v>11</v>
@@ -9699,7 +9709,7 @@
         <v>272</v>
       </c>
       <c r="G250" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H250" s="1">
         <v>45225</v>
@@ -9707,16 +9717,16 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B251" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C251" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="D251" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E251" t="s">
         <v>11</v>
@@ -9725,7 +9735,7 @@
         <v>273</v>
       </c>
       <c r="G251" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H251" s="1">
         <v>45225</v>
@@ -9733,16 +9743,16 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B252" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="C252" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D252" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E252" t="s">
         <v>47</v>
@@ -9751,7 +9761,7 @@
         <v>274</v>
       </c>
       <c r="G252" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H252" s="1">
         <v>44882</v>
@@ -9759,16 +9769,16 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B253" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C253" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D253" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E253" t="s">
         <v>47</v>
@@ -9777,7 +9787,7 @@
         <v>275</v>
       </c>
       <c r="G253" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H253" s="1">
         <v>44882</v>
@@ -9785,16 +9795,16 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>803</v>
+      </c>
+      <c r="B254" t="s">
         <v>809</v>
       </c>
-      <c r="B254" t="s">
-        <v>815</v>
-      </c>
       <c r="C254" t="s">
+        <v>804</v>
+      </c>
+      <c r="D254" t="s">
         <v>810</v>
-      </c>
-      <c r="D254" t="s">
-        <v>816</v>
       </c>
       <c r="E254" t="s">
         <v>47</v>
@@ -9803,7 +9813,7 @@
         <v>276</v>
       </c>
       <c r="G254" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H254" s="1">
         <v>44914</v>
@@ -9811,16 +9821,16 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B255" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C255" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="D255" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E255" t="s">
         <v>47</v>
@@ -9829,7 +9839,7 @@
         <v>277</v>
       </c>
       <c r="G255" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H255" s="1">
         <v>45294</v>
@@ -9837,16 +9847,16 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B256" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C256" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="D256" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E256" t="s">
         <v>23</v>
@@ -9855,7 +9865,7 @@
         <v>278</v>
       </c>
       <c r="G256" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H256" s="1">
         <v>44999</v>
@@ -9863,16 +9873,16 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B257" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C257" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="D257" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E257" t="s">
         <v>23</v>
@@ -9881,7 +9891,7 @@
         <v>279</v>
       </c>
       <c r="G257" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H257" s="1">
         <v>45083</v>
@@ -9889,16 +9899,16 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B258" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C258" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="D258" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E258" t="s">
         <v>11</v>
@@ -9907,7 +9917,7 @@
         <v>280</v>
       </c>
       <c r="G258" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H258" s="1">
         <v>45294</v>
@@ -9915,16 +9925,16 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B259" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C259" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="D259" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E259" t="s">
         <v>23</v>
@@ -9933,7 +9943,7 @@
         <v>281</v>
       </c>
       <c r="G259" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H259" s="1">
         <v>45120</v>
@@ -9941,16 +9951,16 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B260" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C260" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D260" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E260" t="s">
         <v>23</v>
@@ -9959,7 +9969,7 @@
         <v>282</v>
       </c>
       <c r="G260" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H260" s="1">
         <v>45132</v>
@@ -9967,16 +9977,16 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B261" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C261" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D261" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E261" t="s">
         <v>23</v>
@@ -9985,7 +9995,7 @@
         <v>283</v>
       </c>
       <c r="G261" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H261" s="1">
         <v>45147</v>
@@ -9993,16 +10003,16 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B262" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C262" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D262" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E262" t="s">
         <v>23</v>
@@ -10011,7 +10021,7 @@
         <v>284</v>
       </c>
       <c r="G262" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H262" s="1">
         <v>45170</v>
@@ -10019,16 +10029,16 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B263" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C263" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D263" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E263" t="s">
         <v>23</v>
@@ -10037,7 +10047,7 @@
         <v>285</v>
       </c>
       <c r="G263" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H263" s="1">
         <v>45182</v>
@@ -10045,16 +10055,16 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B264" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C264" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="D264" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E264" t="s">
         <v>23</v>
@@ -10063,7 +10073,7 @@
         <v>286</v>
       </c>
       <c r="G264" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H264" s="1">
         <v>45182</v>
@@ -10071,16 +10081,16 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B265" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C265" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D265" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="E265" t="s">
         <v>23</v>
@@ -10089,7 +10099,7 @@
         <v>287</v>
       </c>
       <c r="G265" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H265" s="1">
         <v>45182</v>
@@ -10097,16 +10107,16 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B266" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C266" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D266" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E266" t="s">
         <v>23</v>
@@ -10115,7 +10125,7 @@
         <v>288</v>
       </c>
       <c r="G266" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H266" s="1">
         <v>45182</v>
@@ -10123,16 +10133,16 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B267" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C267" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D267" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E267" t="s">
         <v>23</v>
@@ -10141,7 +10151,7 @@
         <v>289</v>
       </c>
       <c r="G267" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H267" s="1">
         <v>45182</v>
@@ -10149,16 +10159,16 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B268" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C268" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D268" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E268" t="s">
         <v>11</v>
@@ -10167,7 +10177,7 @@
         <v>290</v>
       </c>
       <c r="G268" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H268" s="1">
         <v>45188</v>
@@ -10175,16 +10185,16 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B269" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C269" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D269" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E269" t="s">
         <v>11</v>
@@ -10193,7 +10203,7 @@
         <v>291</v>
       </c>
       <c r="G269" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H269" s="1">
         <v>45188</v>
@@ -10201,16 +10211,16 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B270" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C270" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D270" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E270" t="s">
         <v>23</v>
@@ -10219,7 +10229,7 @@
         <v>292</v>
       </c>
       <c r="G270" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H270" s="1">
         <v>45316</v>
@@ -10227,16 +10237,16 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="B271" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C271" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D271" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E271" t="s">
         <v>23</v>
@@ -10245,7 +10255,7 @@
         <v>293</v>
       </c>
       <c r="G271" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H271" s="1">
         <v>45280</v>
@@ -10253,16 +10263,16 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B272" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="C272" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D272" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E272" t="s">
         <v>23</v>
@@ -10271,7 +10281,7 @@
         <v>294</v>
       </c>
       <c r="G272" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H272" s="1">
         <v>45316</v>
@@ -10279,16 +10289,16 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>795</v>
+        <v>923</v>
       </c>
       <c r="B273" t="s">
-        <v>796</v>
+        <v>924</v>
       </c>
       <c r="C273" t="s">
-        <v>797</v>
+        <v>924</v>
       </c>
       <c r="D273" t="s">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="E273" t="s">
         <v>11</v>
@@ -10297,9 +10307,35 @@
         <v>295</v>
       </c>
       <c r="G273" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H273" s="1">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>789</v>
+      </c>
+      <c r="B274" t="s">
+        <v>790</v>
+      </c>
+      <c r="C274" t="s">
+        <v>791</v>
+      </c>
+      <c r="D274" t="s">
+        <v>892</v>
+      </c>
+      <c r="E274" t="s">
+        <v>11</v>
+      </c>
+      <c r="F274">
+        <v>296</v>
+      </c>
+      <c r="G274" t="s">
+        <v>600</v>
+      </c>
+      <c r="H274" s="1">
         <v>45225</v>
       </c>
     </row>

--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="613" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{858CFE21-17AB-4EE1-9D61-B22B3715C80D}"/>
+  <xr:revisionPtr revIDLastSave="658" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{799BB4FB-62B2-4662-A90E-A9490E63CE75}"/>
   <bookViews>
     <workbookView xWindow="1788" yWindow="936" windowWidth="21252" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Web_cvx" sheetId="69" r:id="rId1"/>
+    <sheet name="Web_cvx" sheetId="71" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$274</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$280</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{CA5EB419-6394-40E2-B334-5262DF4CED34}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes111111111111111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{F122FED2-8D7A-4D71-8572-501271B3B1D2}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes11111111111111111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="945">
   <si>
     <t>CVX Code</t>
   </si>
@@ -702,63 +702,21 @@
     <t>135</t>
   </si>
   <si>
-    <t>Influenza, high dose seasonal</t>
-  </si>
-  <si>
-    <t>influenza, high dose seasonal, preservative-free</t>
-  </si>
-  <si>
     <t>153</t>
   </si>
   <si>
-    <t>Influenza, injectable, MDCK, preservative free</t>
-  </si>
-  <si>
-    <t>Influenza, injectable, Madin Darby Canine Kidney, preservative free</t>
-  </si>
-  <si>
-    <t>ccIIV3</t>
-  </si>
-  <si>
     <t>171</t>
   </si>
   <si>
-    <t>Influenza, injectable, MDCK, preservative free, quadrivalent</t>
-  </si>
-  <si>
-    <t>Influenza, injectable, Madin Darby Canine Kidney, preservative free, quadrivalent</t>
-  </si>
-  <si>
     <t>186</t>
   </si>
   <si>
-    <t>Influenza, injectable, MDCK, quadrivalent, preservative</t>
-  </si>
-  <si>
     <t>158</t>
   </si>
   <si>
-    <t>influenza, injectable, quadrivalent</t>
-  </si>
-  <si>
-    <t>influenza, injectable, quadrivalent, contains preservative</t>
-  </si>
-  <si>
-    <t>New in 2013.  IIV4</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
-    <t>influenza, injectable, quadrivalent, preservative free</t>
-  </si>
-  <si>
-    <t>Influenza, injectable, quadrivalent, preservative free</t>
-  </si>
-  <si>
-    <t>New in 2012.  IIV4</t>
-  </si>
-  <si>
     <t>161</t>
   </si>
   <si>
@@ -777,60 +735,21 @@
     <t>111</t>
   </si>
   <si>
-    <t>influenza, live, intranasal</t>
-  </si>
-  <si>
-    <t>influenza virus vaccine, live, attenuated, for intranasal use</t>
-  </si>
-  <si>
-    <t>LAIV3</t>
-  </si>
-  <si>
     <t>149</t>
   </si>
   <si>
-    <t>influenza, live, intranasal, quadrivalent</t>
-  </si>
-  <si>
-    <t>new in 2012.  LAIV4</t>
-  </si>
-  <si>
     <t>155</t>
   </si>
   <si>
-    <t>influenza, recombinant, injectable, preservative free</t>
-  </si>
-  <si>
-    <t>Seasonal, trivalent, recombinant, injectable influenza vaccine, preservative free</t>
-  </si>
-  <si>
-    <t>RIV</t>
-  </si>
-  <si>
     <t>185</t>
   </si>
   <si>
-    <t>influenza, recombinant, quadrivalent,injectable, preservative free</t>
-  </si>
-  <si>
-    <t>Seasonal, quadrivalent, recombinant, injectable influenza vaccine, preservative free</t>
-  </si>
-  <si>
     <t>141</t>
   </si>
   <si>
-    <t>Influenza, seasonal, injectable</t>
-  </si>
-  <si>
-    <t>IIV3. This is one of two codes replacing CVX 15, which is being retired.</t>
-  </si>
-  <si>
     <t>140</t>
   </si>
   <si>
-    <t>Influenza, seasonal, injectable, preservative free</t>
-  </si>
-  <si>
     <t>144</t>
   </si>
   <si>
@@ -855,12 +774,6 @@
     <t>168</t>
   </si>
   <si>
-    <t>influenza, trivalent, adjuvanted</t>
-  </si>
-  <si>
-    <t>Seasonal trivalent influenza vaccine, adjuvanted, preservative free</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
@@ -1932,9 +1845,6 @@
     <t>197</t>
   </si>
   <si>
-    <t>influenza, high-dose, quadrivalent</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -1989,18 +1899,12 @@
     <t>This CVX code should be used to record administration of Southern Hemisphere influenza vaccine where formulation is unknown</t>
   </si>
   <si>
-    <t>Target population 65 and older, starting season 2020/2021</t>
-  </si>
-  <si>
     <t>203</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>Influenza vaccine, quadrivalent, adjuvanted</t>
-  </si>
-  <si>
     <t>206</t>
   </si>
   <si>
@@ -2448,9 +2352,6 @@
     <t>SARS-COV-2 COVID-19 mRNA, bivalent, original/Omicron BA.1, Non-US Vaccine Product (Comirnaty Bivalent), Pfizer-BioNTech</t>
   </si>
   <si>
-    <t>IIV3. No US product available since 2018/2019 flu season. This vaccine code is one of two which replace CVX 15, influenza, split virus.</t>
-  </si>
-  <si>
     <t>IIV3. No US product available since 2014/2015 flu season</t>
   </si>
   <si>
@@ -2466,15 +2367,9 @@
     <t>Pandemic Non-US Vaccine. Authorized by WHO 10/19/2022 - Counted toward immunity in US</t>
   </si>
   <si>
-    <t>influenza, high-dose seasonal, quadrivalent, 0.7mL dose, preservative free</t>
-  </si>
-  <si>
     <t>meningococcal polysaccharide (groups A, C, Y, W-135) tetanus toxoid conjugate vaccine 0.5mL dose, preservative free</t>
   </si>
   <si>
-    <t>influenza, seasonal vaccine, quadrivalent, adjuvanted, 0.5mL dose, preservative free</t>
-  </si>
-  <si>
     <t xml:space="preserve">FDA Approved ERVEBO Vaccine. </t>
   </si>
   <si>
@@ -2739,9 +2634,6 @@
     <t>Anthrax vaccine, adsorbed, pre-exposure and post-exposure prophylaxis</t>
   </si>
   <si>
-    <t>Influenza, injectable, Madin Darby Canine Kidney, quadrivalent with preservative</t>
-  </si>
-  <si>
     <t>COVID-19 vaccine, vector-nr, rS-ChAdOx1, PF, 0.5 mL</t>
   </si>
   <si>
@@ -2778,37 +2670,202 @@
     <t>National stockpile vaccine (Cyfendus)</t>
   </si>
   <si>
+    <t>yellow fever live</t>
+  </si>
+  <si>
+    <t>yellow fever vaccine live</t>
+  </si>
+  <si>
+    <t>Yellow fever vaccine live - alt</t>
+  </si>
+  <si>
+    <t>Yellow fever vaccine live - alternative formulation for vaccine shortage</t>
+  </si>
+  <si>
+    <t>This CVX is associated to an FDA unapproved drug to be used when there is a drug shortage. Stabilized with sorbitol and lactose and has been used outside the US for some time.</t>
+  </si>
+  <si>
+    <t>Yellow fever, unspecified</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>Anthrax vaccine, unspecified</t>
+  </si>
+  <si>
+    <t>Unspecified code to record historic administration when specific product is unknown</t>
+  </si>
+  <si>
+    <t>Influenza, live, trivalent, intranasal</t>
+  </si>
+  <si>
+    <t>Trivalent code reactivated for 2024/2025 season</t>
+  </si>
+  <si>
+    <t>Influenza, high-dose, trivalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza, high-dose, split virus, trivalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, split virus, trivalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza, split virus, trivalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, split virus, trivalent, preservative</t>
+  </si>
+  <si>
+    <t>Influenza, split virus, trivalent, injectable, contains preservative</t>
+  </si>
+  <si>
+    <t>Influenza, live, quadrivalent, intranasal</t>
+  </si>
+  <si>
+    <t>Quadrivalent code starting 2013/2014 season</t>
+  </si>
+  <si>
+    <t>Influenza, split virus, quadrivalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza, split virus, quadrivalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, MDCK, trivalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza, Madin Darby Canine Kidney, subunit, trivalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, recombinant, trivalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza, recombinant, trivalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, split virus, quadrivalent, preservative</t>
+  </si>
+  <si>
+    <t>Influenza, split virus, quadrivalent, injectable, contains preservative</t>
+  </si>
+  <si>
+    <t>Influenza, adjuvanted, trivalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza, adjuvanted, inactivated, trivalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, MDCK, quadrivalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza, Madin Darby Canine Kidney, subunit, quadrivalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Quadrivalent code starting 2016/2017 season</t>
+  </si>
+  <si>
+    <t>Influenza, recombinant, quadrivalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza, recombinant, quadrivalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Quadrivalent code starting 2017/2018 season</t>
+  </si>
+  <si>
+    <t>Influenza, MDCK, quadrivalent, preservative</t>
+  </si>
+  <si>
+    <t>Influenza, Madin Darby Canine Kidney, subunit, quadrivalent, injectable, contains preservative</t>
+  </si>
+  <si>
+    <t>Influenza, high-dose, quadrivalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza, high-dose, split virus, quadrivalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Quadrivalent code starting season 2020/2021</t>
+  </si>
+  <si>
+    <t>Influenza, adjuvanted, quadrivalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza, adjuvanted, inactivated, quadrivalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Quadrivalent code starting 2020/2021 season</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>Influenza, MDCK, trivalent, preservative</t>
+  </si>
+  <si>
+    <t>Influenza, Madin Darby Canine Kidney, subunit, trivalent, injectable, contains preservative</t>
+  </si>
+  <si>
+    <t>Trivalent code starting 2024/2025 season</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>Influenza-avian, H5N8, monovalent, PF</t>
+  </si>
+  <si>
+    <t>Influenza-avian, H5N8, viral-vector, monovalent, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Novel Bird Flu H5N8 Vaccine 2024</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>Influenza-avian, H5N8, monovalent, preservative</t>
+  </si>
+  <si>
+    <t>Influenza-avian, H5N8, viral-vector, monovalent, injectable, contains preservative</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>Poliovirus, inactivated, fractional-dose (fIPV)</t>
+  </si>
+  <si>
+    <t>Non-US polio vaccine administered since 2016</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>RSV, mRNA, injectable, PF</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus (RSV), mRNA, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>mRNA RSV vaccine 2024</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>Influenza-avian, H5, unspecified formulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unspecified code H5xx vaccines to be used when specific formulation is unknown - for vaccines administered starting 2024 </t>
+  </si>
+  <si>
     <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1κ, (nirsevimab-alip), 0.5 mL, neonates and children to 24 months</t>
   </si>
   <si>
     <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1κ, (nirsevimab-alip), 1 mL, neonates and children to 24 months</t>
-  </si>
-  <si>
-    <t>yellow fever live</t>
-  </si>
-  <si>
-    <t>yellow fever vaccine live</t>
-  </si>
-  <si>
-    <t>Yellow fever vaccine live - alt</t>
-  </si>
-  <si>
-    <t>Yellow fever vaccine live - alternative formulation for vaccine shortage</t>
-  </si>
-  <si>
-    <t>This CVX is associated to an FDA unapproved drug to be used when there is a drug shortage. Stabilized with sorbitol and lactose and has been used outside the US for some time.</t>
-  </si>
-  <si>
-    <t>Yellow fever, unspecified</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>Anthrax vaccine, unspecified</t>
-  </si>
-  <si>
-    <t>Unspecified code to record historic administration when specific product is unknown</t>
   </si>
 </sst>
 </file>
@@ -2872,7 +2929,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" connectionId="1" xr16:uid="{D02DEEDB-31D5-426C-B588-3043BA303275}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" connectionId="1" xr16:uid="{1E523728-59BB-4929-BE00-655637F4CA7B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
@@ -2892,16 +2949,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8622DAB5-78D5-4996-AC2A-9BE56E619D7D}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" ref="A1:H274" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1434D6D-708D-4380-9421-3840925443E0}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" ref="A1:H280" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{2118B836-FCDC-4A04-B87E-E7774FE5052F}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{43D3AD75-8247-4AF4-836B-71EAE5205EF2}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{36A88CFA-E5B9-4FA6-91E8-1F24120E6696}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{D5413BAC-05D2-4D3A-86B6-312F6D0D7553}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{D4171E85-8D94-4A78-8590-12718C519E96}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{6401A5D1-6B09-4DF8-B63C-022C5BCE0E8A}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{CD46FD17-F8D9-4E32-B252-2192943CD905}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{A75629BE-D845-4E9D-AA23-47E8394504D4}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{425F6119-1CAC-481D-974B-9A53D5370240}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{66BF3BCC-4A62-4524-827B-867C99DEE14A}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{184C084A-5955-4026-8114-FA5BF1BFA269}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{26405ED7-245E-49FE-8861-6348A80FE43A}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{7D9F5ECD-8721-4B27-B9AB-EB25EE327C3C}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{F4D15D66-BCA4-4D30-B80F-3B54843374E4}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{0FDA1B71-36AD-42F3-9A41-C3D8D3258F45}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{8FE42A1E-FF55-409A-A3FE-7B78A8D55D6A}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3193,25 +3250,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB9EA7B-2066-4D27-BF4A-F4B3F6B47552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D97E6F-DF47-4B82-AB2F-3D53C3DBE81D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H274"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3243,7 +3299,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>833</v>
+        <v>798</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -3261,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H2" s="1">
         <v>40326</v>
@@ -3287,7 +3343,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H3" s="1">
         <v>40326</v>
@@ -3313,7 +3369,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H4" s="1">
         <v>40451</v>
@@ -3324,10 +3380,10 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>900</v>
+        <v>865</v>
       </c>
       <c r="C5" t="s">
-        <v>901</v>
+        <v>866</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -3339,7 +3395,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H5" s="1">
         <v>45316</v>
@@ -3365,7 +3421,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H6" s="1">
         <v>40326</v>
@@ -3391,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H7" s="1">
         <v>44078</v>
@@ -3417,7 +3473,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H8" s="1">
         <v>42538</v>
@@ -3443,7 +3499,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H9" s="1">
         <v>44078</v>
@@ -3454,13 +3510,13 @@
         <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>815</v>
+        <v>780</v>
       </c>
       <c r="C10" t="s">
-        <v>816</v>
+        <v>781</v>
       </c>
       <c r="D10" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -3469,7 +3525,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H10" s="1">
         <v>44973</v>
@@ -3495,7 +3551,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H11" s="1">
         <v>44078</v>
@@ -3521,7 +3577,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H12" s="1">
         <v>40326</v>
@@ -3547,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H13" s="1">
         <v>40326</v>
@@ -3573,7 +3629,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H14" s="1">
         <v>40326</v>
@@ -3599,7 +3655,7 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H15" s="1">
         <v>40451</v>
@@ -3625,7 +3681,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H16" s="1">
         <v>40326</v>
@@ -3651,7 +3707,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H17" s="1">
         <v>42814</v>
@@ -3677,7 +3733,7 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H18" s="1">
         <v>40326</v>
@@ -3703,7 +3759,7 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H19" s="1">
         <v>40326</v>
@@ -3729,7 +3785,7 @@
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H20" s="1">
         <v>40326</v>
@@ -3755,7 +3811,7 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H21" s="1">
         <v>42817</v>
@@ -3781,7 +3837,7 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H22" s="1">
         <v>42510</v>
@@ -3807,7 +3863,7 @@
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H23" s="1">
         <v>44083</v>
@@ -3833,7 +3889,7 @@
         <v>25</v>
       </c>
       <c r="G24" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H24" s="1">
         <v>40326</v>
@@ -3859,7 +3915,7 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H25" s="1">
         <v>40326</v>
@@ -3885,7 +3941,7 @@
         <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H26" s="1">
         <v>40326</v>
@@ -3911,7 +3967,7 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H27" s="1">
         <v>40451</v>
@@ -3937,7 +3993,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H28" s="1">
         <v>40451</v>
@@ -3963,7 +4019,7 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H29" s="1">
         <v>40326</v>
@@ -3989,7 +4045,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H30" s="1">
         <v>44078</v>
@@ -4006,7 +4062,7 @@
         <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -4015,7 +4071,7 @@
         <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H31" s="1">
         <v>43230</v>
@@ -4041,7 +4097,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H32" s="1">
         <v>40326</v>
@@ -4058,7 +4114,7 @@
         <v>152</v>
       </c>
       <c r="D33" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
       <c r="E33" t="s">
         <v>23</v>
@@ -4067,7 +4123,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H33" s="1">
         <v>43230</v>
@@ -4084,7 +4140,7 @@
         <v>155</v>
       </c>
       <c r="D34" t="s">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="E34" t="s">
         <v>23</v>
@@ -4093,7 +4149,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H34" s="1">
         <v>43593</v>
@@ -4119,7 +4175,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H35" s="1">
         <v>40451</v>
@@ -4145,7 +4201,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H36" s="1">
         <v>44083</v>
@@ -4171,7 +4227,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H37" s="1">
         <v>44083</v>
@@ -4197,7 +4253,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H38" s="1">
         <v>44083</v>
@@ -4223,7 +4279,7 @@
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H39" s="1">
         <v>40326</v>
@@ -4249,7 +4305,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H40" s="1">
         <v>40326</v>
@@ -4275,7 +4331,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H41" s="1">
         <v>40326</v>
@@ -4301,7 +4357,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H42" s="1">
         <v>40326</v>
@@ -4327,7 +4383,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H43" s="1">
         <v>40451</v>
@@ -4353,7 +4409,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H44" s="1">
         <v>42440</v>
@@ -4379,7 +4435,7 @@
         <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H45" s="1">
         <v>44083</v>
@@ -4405,7 +4461,7 @@
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H46" s="1">
         <v>40326</v>
@@ -4431,7 +4487,7 @@
         <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H47" s="1">
         <v>43984</v>
@@ -4457,7 +4513,7 @@
         <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H48" s="1">
         <v>44078</v>
@@ -4483,7 +4539,7 @@
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H49" s="1">
         <v>44078</v>
@@ -4509,7 +4565,7 @@
         <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H50" s="1">
         <v>44994</v>
@@ -4517,42 +4573,42 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>888</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>888</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>889</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F51">
         <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H51" s="1">
-        <v>41904</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D52" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -4561,7 +4617,7 @@
         <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H52" s="1">
         <v>40451</v>
@@ -4569,13 +4625,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="C53" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
         <v>26</v>
@@ -4587,7 +4643,7 @@
         <v>56</v>
       </c>
       <c r="G53" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H53" s="1">
         <v>40326</v>
@@ -4595,16 +4651,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -4613,7 +4669,7 @@
         <v>57</v>
       </c>
       <c r="G54" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H54" s="1">
         <v>40451</v>
@@ -4639,7 +4695,7 @@
         <v>58</v>
       </c>
       <c r="G55" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H55" s="1">
         <v>40326</v>
@@ -4647,13 +4703,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -4665,7 +4721,7 @@
         <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H56" s="1">
         <v>40326</v>
@@ -4673,16 +4729,16 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="B57" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="C57" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="D57" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -4691,7 +4747,7 @@
         <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H57" s="1">
         <v>42776</v>
@@ -4699,16 +4755,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="B58" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="C58" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="D58" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -4717,7 +4773,7 @@
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H58" s="1">
         <v>40451</v>
@@ -4725,13 +4781,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="D59" t="s">
         <v>26</v>
@@ -4743,7 +4799,7 @@
         <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H59" s="1">
         <v>42271</v>
@@ -4751,13 +4807,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C60" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D60" t="s">
         <v>26</v>
@@ -4769,7 +4825,7 @@
         <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H60" s="1">
         <v>44083</v>
@@ -4777,13 +4833,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B61" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="C61" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="D61" t="s">
         <v>26</v>
@@ -4795,7 +4851,7 @@
         <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H61" s="1">
         <v>44083</v>
@@ -4803,13 +4859,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B62" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="C62" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -4821,7 +4877,7 @@
         <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H62" s="1">
         <v>44083</v>
@@ -4829,13 +4885,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B63" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C63" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="D63" t="s">
         <v>26</v>
@@ -4847,7 +4903,7 @@
         <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H63" s="1">
         <v>40326</v>
@@ -4855,13 +4911,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="B64" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C64" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -4873,7 +4929,7 @@
         <v>68</v>
       </c>
       <c r="G64" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H64" s="1">
         <v>40326</v>
@@ -4881,13 +4937,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B65" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="C65" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="D65" t="s">
         <v>26</v>
@@ -4899,7 +4955,7 @@
         <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H65" s="1">
         <v>40326</v>
@@ -4907,13 +4963,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B66" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="C66" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D66" t="s">
         <v>26</v>
@@ -4925,7 +4981,7 @@
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H66" s="1">
         <v>40326</v>
@@ -4933,13 +4989,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="C67" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -4951,7 +5007,7 @@
         <v>71</v>
       </c>
       <c r="G67" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H67" s="1">
         <v>44083</v>
@@ -4959,13 +5015,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="B68" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C68" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="D68" t="s">
         <v>26</v>
@@ -4977,7 +5033,7 @@
         <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H68" s="1">
         <v>40421</v>
@@ -4985,13 +5041,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="C69" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="D69" t="s">
         <v>26</v>
@@ -5003,7 +5059,7 @@
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H69" s="1">
         <v>44083</v>
@@ -5011,13 +5067,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B70" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="C70" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="D70" t="s">
         <v>26</v>
@@ -5029,7 +5085,7 @@
         <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H70" s="1">
         <v>43035</v>
@@ -5037,13 +5093,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C71" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="D71" t="s">
         <v>26</v>
@@ -5055,7 +5111,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H71" s="1">
         <v>40326</v>
@@ -5063,13 +5119,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="B72" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C72" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="D72" t="s">
         <v>26</v>
@@ -5081,7 +5137,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H72" s="1">
         <v>40326</v>
@@ -5089,16 +5145,16 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B73" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C73" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="D73" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -5107,7 +5163,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H73" s="1">
         <v>42339</v>
@@ -5115,13 +5171,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C74" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="D74" t="s">
         <v>26</v>
@@ -5133,7 +5189,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H74" s="1">
         <v>42173</v>
@@ -5141,13 +5197,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="B75" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="C75" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="D75" t="s">
         <v>26</v>
@@ -5159,7 +5215,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H75" s="1">
         <v>40326</v>
@@ -5167,13 +5223,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="B76" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="C76" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="D76" t="s">
         <v>26</v>
@@ -5185,7 +5241,7 @@
         <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H76" s="1">
         <v>40326</v>
@@ -5193,13 +5249,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="B77" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="C77" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="D77" t="s">
         <v>26</v>
@@ -5211,7 +5267,7 @@
         <v>82</v>
       </c>
       <c r="G77" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H77" s="1">
         <v>43237</v>
@@ -5219,13 +5275,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B78" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="C78" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="D78" t="s">
         <v>26</v>
@@ -5237,7 +5293,7 @@
         <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H78" s="1">
         <v>40326</v>
@@ -5245,13 +5301,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="B79" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C79" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="D79" t="s">
         <v>26</v>
@@ -5263,7 +5319,7 @@
         <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H79" s="1">
         <v>41816</v>
@@ -5271,16 +5327,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="B80" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="C80" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="D80" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -5289,7 +5345,7 @@
         <v>85</v>
       </c>
       <c r="G80" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H80" s="1">
         <v>40451</v>
@@ -5297,13 +5353,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="C81" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="D81" t="s">
         <v>26</v>
@@ -5315,7 +5371,7 @@
         <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H81" s="1">
         <v>44083</v>
@@ -5323,16 +5379,16 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="B82" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="C82" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="D82" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -5341,7 +5397,7 @@
         <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H82" s="1">
         <v>42661</v>
@@ -5349,13 +5405,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="B83" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="C83" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D83" t="s">
         <v>26</v>
@@ -5367,7 +5423,7 @@
         <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H83" s="1">
         <v>42173</v>
@@ -5375,16 +5431,16 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="B84" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C84" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="D84" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -5393,7 +5449,7 @@
         <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H84" s="1">
         <v>40451</v>
@@ -5401,13 +5457,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="B85" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="C85" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="D85" t="s">
         <v>26</v>
@@ -5419,7 +5475,7 @@
         <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H85" s="1">
         <v>44083</v>
@@ -5427,13 +5483,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="B86" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C86" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="D86" t="s">
         <v>26</v>
@@ -5445,7 +5501,7 @@
         <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H86" s="1">
         <v>44083</v>
@@ -5453,13 +5509,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B87" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="C87" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="D87" t="s">
         <v>26</v>
@@ -5471,7 +5527,7 @@
         <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H87" s="1">
         <v>44078</v>
@@ -5479,13 +5535,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="B88" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="C88" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
@@ -5497,7 +5553,7 @@
         <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H88" s="1">
         <v>40326</v>
@@ -5505,13 +5561,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="B89" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="C89" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="D89" t="s">
         <v>26</v>
@@ -5523,7 +5579,7 @@
         <v>95</v>
       </c>
       <c r="G89" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H89" s="1">
         <v>40451</v>
@@ -5531,13 +5587,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="B90" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="C90" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
@@ -5549,7 +5605,7 @@
         <v>97</v>
       </c>
       <c r="G90" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H90" s="1">
         <v>40326</v>
@@ -5557,13 +5613,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="B91" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="C91" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
@@ -5575,7 +5631,7 @@
         <v>99</v>
       </c>
       <c r="G91" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H91" s="1">
         <v>40326</v>
@@ -5583,16 +5639,16 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="B92" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="C92" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="D92" t="s">
-        <v>839</v>
+        <v>804</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -5601,7 +5657,7 @@
         <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H92" s="1">
         <v>45126</v>
@@ -5609,13 +5665,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="B93" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="C93" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="D93" t="s">
         <v>26</v>
@@ -5627,7 +5683,7 @@
         <v>102</v>
       </c>
       <c r="G93" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H93" s="1">
         <v>44078</v>
@@ -5635,13 +5691,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="B94" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="C94" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="D94" t="s">
         <v>26</v>
@@ -5653,7 +5709,7 @@
         <v>103</v>
       </c>
       <c r="G94" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H94" s="1">
         <v>42173</v>
@@ -5661,13 +5717,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="B95" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="C95" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="D95" t="s">
         <v>26</v>
@@ -5679,7 +5735,7 @@
         <v>104</v>
       </c>
       <c r="G95" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H95" s="1">
         <v>40326</v>
@@ -5687,13 +5743,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="B96" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="C96" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="D96" t="s">
         <v>26</v>
@@ -5705,7 +5761,7 @@
         <v>105</v>
       </c>
       <c r="G96" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H96" s="1">
         <v>44994</v>
@@ -5713,13 +5769,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="B97" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="C97" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="D97" t="s">
         <v>26</v>
@@ -5731,7 +5787,7 @@
         <v>106</v>
       </c>
       <c r="G97" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H97" s="1">
         <v>45316</v>
@@ -5739,13 +5795,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="B98" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="C98" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="D98" t="s">
         <v>26</v>
@@ -5757,7 +5813,7 @@
         <v>107</v>
       </c>
       <c r="G98" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H98" s="1">
         <v>43035</v>
@@ -5765,13 +5821,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="B99" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="C99" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="D99" t="s">
         <v>26</v>
@@ -5783,7 +5839,7 @@
         <v>108</v>
       </c>
       <c r="G99" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H99" s="1">
         <v>40326</v>
@@ -5791,13 +5847,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="B100" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="C100" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
@@ -5809,7 +5865,7 @@
         <v>110</v>
       </c>
       <c r="G100" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H100" s="1">
         <v>42230</v>
@@ -5817,13 +5873,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="B101" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="C101" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="D101" t="s">
         <v>26</v>
@@ -5835,7 +5891,7 @@
         <v>111</v>
       </c>
       <c r="G101" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H101" s="1">
         <v>40451</v>
@@ -5843,16 +5899,16 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="B102" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="C102" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="D102" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="E102" t="s">
         <v>47</v>
@@ -5861,7 +5917,7 @@
         <v>112</v>
       </c>
       <c r="G102" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H102" s="1">
         <v>44624</v>
@@ -5869,13 +5925,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="B103" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="C103" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="D103" t="s">
         <v>26</v>
@@ -5887,7 +5943,7 @@
         <v>113</v>
       </c>
       <c r="G103" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H103" s="1">
         <v>44078</v>
@@ -5895,16 +5951,16 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="B104" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="C104" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="D104" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -5913,7 +5969,7 @@
         <v>114</v>
       </c>
       <c r="G104" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H104" s="1">
         <v>44994</v>
@@ -5921,16 +5977,16 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="B105" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="C105" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="D105" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -5939,7 +5995,7 @@
         <v>115</v>
       </c>
       <c r="G105" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H105" s="1">
         <v>44994</v>
@@ -5947,16 +6003,16 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="B106" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="C106" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="D106" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -5965,7 +6021,7 @@
         <v>116</v>
       </c>
       <c r="G106" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H106" s="1">
         <v>44994</v>
@@ -5973,16 +6029,16 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="B107" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="C107" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="D107" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -5991,7 +6047,7 @@
         <v>117</v>
       </c>
       <c r="G107" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H107" s="1">
         <v>44994</v>
@@ -5999,13 +6055,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="B108" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="C108" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="D108" t="s">
         <v>26</v>
@@ -6017,7 +6073,7 @@
         <v>118</v>
       </c>
       <c r="G108" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H108" s="1">
         <v>40326</v>
@@ -6025,16 +6081,16 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="B109" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="C109" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="D109" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -6043,7 +6099,7 @@
         <v>119</v>
       </c>
       <c r="G109" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H109" s="1">
         <v>40451</v>
@@ -6051,13 +6107,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="B110" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="C110" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="D110" t="s">
         <v>26</v>
@@ -6069,7 +6125,7 @@
         <v>120</v>
       </c>
       <c r="G110" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H110" s="1">
         <v>40326</v>
@@ -6077,13 +6133,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="B111" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="C111" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -6095,7 +6151,7 @@
         <v>121</v>
       </c>
       <c r="G111" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H111" s="1">
         <v>42229</v>
@@ -6103,13 +6159,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="B112" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="C112" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -6121,7 +6177,7 @@
         <v>122</v>
       </c>
       <c r="G112" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H112" s="1">
         <v>42173</v>
@@ -6129,13 +6185,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="B113" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="C113" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="D113" t="s">
         <v>26</v>
@@ -6147,7 +6203,7 @@
         <v>123</v>
       </c>
       <c r="G113" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H113" s="1">
         <v>40326</v>
@@ -6155,13 +6211,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="B114" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="C114" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="D114" t="s">
         <v>26</v>
@@ -6173,7 +6229,7 @@
         <v>124</v>
       </c>
       <c r="G114" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H114" s="1">
         <v>40326</v>
@@ -6181,13 +6237,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="B115" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
       <c r="C115" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="D115" t="s">
         <v>26</v>
@@ -6199,7 +6255,7 @@
         <v>125</v>
       </c>
       <c r="G115" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H115" s="1">
         <v>40326</v>
@@ -6207,13 +6263,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="B116" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="C116" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="D116" t="s">
         <v>26</v>
@@ -6225,7 +6281,7 @@
         <v>126</v>
       </c>
       <c r="G116" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H116" s="1">
         <v>44078</v>
@@ -6233,13 +6289,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="B117" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="C117" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="D117" t="s">
         <v>26</v>
@@ -6251,7 +6307,7 @@
         <v>127</v>
       </c>
       <c r="G117" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H117" s="1">
         <v>40326</v>
@@ -6259,13 +6315,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="B118" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
       <c r="C118" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="D118" t="s">
         <v>26</v>
@@ -6277,7 +6333,7 @@
         <v>128</v>
       </c>
       <c r="G118" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H118" s="1">
         <v>40326</v>
@@ -6285,13 +6341,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="B119" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="C119" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="D119" t="s">
         <v>26</v>
@@ -6303,7 +6359,7 @@
         <v>129</v>
       </c>
       <c r="G119" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H119" s="1">
         <v>40326</v>
@@ -6311,16 +6367,16 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="B120" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="C120" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="D120" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -6329,7 +6385,7 @@
         <v>130</v>
       </c>
       <c r="G120" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H120" s="1">
         <v>40451</v>
@@ -6337,13 +6393,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
       <c r="B121" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="C121" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="D121" t="s">
         <v>26</v>
@@ -6355,7 +6411,7 @@
         <v>131</v>
       </c>
       <c r="G121" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H121" s="1">
         <v>44078</v>
@@ -6363,13 +6419,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="B122" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="C122" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="D122" t="s">
         <v>26</v>
@@ -6381,7 +6437,7 @@
         <v>132</v>
       </c>
       <c r="G122" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H122" s="1">
         <v>44083</v>
@@ -6389,16 +6445,16 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="B123" t="s">
-        <v>917</v>
+        <v>879</v>
       </c>
       <c r="C123" t="s">
-        <v>918</v>
+        <v>880</v>
       </c>
       <c r="D123" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="E123" t="s">
         <v>23</v>
@@ -6407,7 +6463,7 @@
         <v>134</v>
       </c>
       <c r="G123" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H123" s="1">
         <v>45358</v>
@@ -6415,13 +6471,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="B124" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="C124" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="D124" t="s">
         <v>26</v>
@@ -6433,7 +6489,7 @@
         <v>135</v>
       </c>
       <c r="G124" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H124" s="1">
         <v>40326</v>
@@ -6459,7 +6515,7 @@
         <v>137</v>
       </c>
       <c r="G125" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H125" s="1">
         <v>44994</v>
@@ -6485,7 +6541,7 @@
         <v>138</v>
       </c>
       <c r="G126" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H126" s="1">
         <v>44131</v>
@@ -6511,7 +6567,7 @@
         <v>139</v>
       </c>
       <c r="G127" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H127" s="1">
         <v>44083</v>
@@ -6519,13 +6575,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="B128" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="C128" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="D128" t="s">
         <v>26</v>
@@ -6537,7 +6593,7 @@
         <v>141</v>
       </c>
       <c r="G128" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H128" s="1">
         <v>40326</v>
@@ -6545,13 +6601,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="D129" t="s">
         <v>26</v>
@@ -6563,7 +6619,7 @@
         <v>142</v>
       </c>
       <c r="G129" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H129" s="1">
         <v>40326</v>
@@ -6589,7 +6645,7 @@
         <v>144</v>
       </c>
       <c r="G130" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H130" s="1">
         <v>40451</v>
@@ -6597,13 +6653,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="B131" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C131" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="D131" t="s">
         <v>26</v>
@@ -6615,7 +6671,7 @@
         <v>145</v>
       </c>
       <c r="G131" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H131" s="1">
         <v>40326</v>
@@ -6626,13 +6682,13 @@
         <v>222</v>
       </c>
       <c r="B132" t="s">
-        <v>223</v>
+        <v>890</v>
       </c>
       <c r="C132" t="s">
-        <v>224</v>
+        <v>891</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>889</v>
       </c>
       <c r="E132" t="s">
         <v>23</v>
@@ -6641,21 +6697,21 @@
         <v>146</v>
       </c>
       <c r="G132" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H132" s="1">
-        <v>40326</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="B133" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="C133" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="D133" t="s">
         <v>26</v>
@@ -6667,7 +6723,7 @@
         <v>147</v>
       </c>
       <c r="G133" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H133" s="1">
         <v>40326</v>
@@ -6681,7 +6737,7 @@
         <v>95</v>
       </c>
       <c r="C134" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
       <c r="D134" t="s">
         <v>96</v>
@@ -6693,7 +6749,7 @@
         <v>148</v>
       </c>
       <c r="G134" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H134" s="1">
         <v>43230</v>
@@ -6701,16 +6757,16 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="B135" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="C135" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="D135" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -6719,7 +6775,7 @@
         <v>149</v>
       </c>
       <c r="G135" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H135" s="1">
         <v>40418</v>
@@ -6727,13 +6783,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="B136" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C136" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="D136" t="s">
         <v>26</v>
@@ -6745,7 +6801,7 @@
         <v>150</v>
       </c>
       <c r="G136" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H136" s="1">
         <v>40418</v>
@@ -6753,13 +6809,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="B137" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="C137" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="D137" t="s">
         <v>26</v>
@@ -6771,7 +6827,7 @@
         <v>151</v>
       </c>
       <c r="G137" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H137" s="1">
         <v>40418</v>
@@ -6779,13 +6835,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="B138" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="C138" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="D138" t="s">
         <v>26</v>
@@ -6797,7 +6853,7 @@
         <v>152</v>
       </c>
       <c r="G138" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H138" s="1">
         <v>40418</v>
@@ -6805,16 +6861,16 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="B139" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="C139" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="D139" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -6823,7 +6879,7 @@
         <v>154</v>
       </c>
       <c r="G139" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H139" s="1">
         <v>40451</v>
@@ -6831,16 +6887,16 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="B140" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="C140" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="D140" t="s">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -6849,7 +6905,7 @@
         <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H140" s="1">
         <v>43704</v>
@@ -6857,42 +6913,42 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B141" t="s">
-        <v>265</v>
+        <v>892</v>
       </c>
       <c r="C141" t="s">
-        <v>265</v>
+        <v>893</v>
       </c>
       <c r="D141" t="s">
-        <v>805</v>
+        <v>889</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F141">
         <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H141" s="1">
-        <v>44910</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B142" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="C142" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D142" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -6901,7 +6957,7 @@
         <v>157</v>
       </c>
       <c r="G142" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H142" s="1">
         <v>40451</v>
@@ -6909,16 +6965,16 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>894</v>
       </c>
       <c r="C143" t="s">
-        <v>262</v>
+        <v>895</v>
       </c>
       <c r="D143" t="s">
-        <v>263</v>
+        <v>889</v>
       </c>
       <c r="E143" t="s">
         <v>23</v>
@@ -6927,21 +6983,21 @@
         <v>159</v>
       </c>
       <c r="G143" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H143" s="1">
-        <v>41472</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="B144" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="C144" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="D144" t="s">
         <v>26</v>
@@ -6953,7 +7009,7 @@
         <v>160</v>
       </c>
       <c r="G144" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H144" s="1">
         <v>42230</v>
@@ -6979,7 +7035,7 @@
         <v>161</v>
       </c>
       <c r="G145" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H145" s="1">
         <v>40622</v>
@@ -6987,16 +7043,16 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B146" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="C146" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D146" t="s">
-        <v>806</v>
+        <v>773</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -7005,7 +7061,7 @@
         <v>162</v>
       </c>
       <c r="G146" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H146" s="1">
         <v>44910</v>
@@ -7013,13 +7069,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="B147" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="C147" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="D147" t="s">
         <v>26</v>
@@ -7031,7 +7087,7 @@
         <v>163</v>
       </c>
       <c r="G147" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H147" s="1">
         <v>44083</v>
@@ -7048,7 +7104,7 @@
         <v>77</v>
       </c>
       <c r="D148" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="E148" t="s">
         <v>23</v>
@@ -7057,7 +7113,7 @@
         <v>164</v>
       </c>
       <c r="G148" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H148" s="1">
         <v>44783</v>
@@ -7065,16 +7121,16 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="B149" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C149" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="D149" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -7083,7 +7139,7 @@
         <v>165</v>
       </c>
       <c r="G149" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H149" s="1">
         <v>40947</v>
@@ -7091,13 +7147,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B150" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C150" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="D150" t="s">
         <v>26</v>
@@ -7109,7 +7165,7 @@
         <v>166</v>
       </c>
       <c r="G150" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H150" s="1">
         <v>43231</v>
@@ -7117,16 +7173,16 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B151" t="s">
-        <v>252</v>
+        <v>896</v>
       </c>
       <c r="C151" t="s">
-        <v>252</v>
+        <v>896</v>
       </c>
       <c r="D151" t="s">
-        <v>253</v>
+        <v>897</v>
       </c>
       <c r="E151" t="s">
         <v>23</v>
@@ -7135,24 +7191,24 @@
         <v>167</v>
       </c>
       <c r="G151" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H151" s="1">
-        <v>41472</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B152" t="s">
-        <v>239</v>
+        <v>898</v>
       </c>
       <c r="C152" t="s">
-        <v>240</v>
+        <v>899</v>
       </c>
       <c r="D152" t="s">
-        <v>241</v>
+        <v>897</v>
       </c>
       <c r="E152" t="s">
         <v>23</v>
@@ -7161,10 +7217,10 @@
         <v>168</v>
       </c>
       <c r="G152" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H152" s="1">
-        <v>41472</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -7187,7 +7243,7 @@
         <v>169</v>
       </c>
       <c r="G153" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H153" s="1">
         <v>41302</v>
@@ -7195,16 +7251,16 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="B154" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="C154" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="D154" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -7213,7 +7269,7 @@
         <v>170</v>
       </c>
       <c r="G154" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H154" s="1">
         <v>41302</v>
@@ -7221,28 +7277,28 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B155" t="s">
-        <v>226</v>
+        <v>900</v>
       </c>
       <c r="C155" t="s">
-        <v>227</v>
+        <v>901</v>
       </c>
       <c r="D155" t="s">
-        <v>228</v>
+        <v>889</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F155">
         <v>171</v>
       </c>
       <c r="G155" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H155" s="1">
-        <v>42545</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -7265,7 +7321,7 @@
         <v>172</v>
       </c>
       <c r="G156" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H156" s="1">
         <v>44083</v>
@@ -7273,16 +7329,16 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B157" t="s">
-        <v>255</v>
+        <v>902</v>
       </c>
       <c r="C157" t="s">
-        <v>256</v>
+        <v>903</v>
       </c>
       <c r="D157" t="s">
-        <v>257</v>
+        <v>889</v>
       </c>
       <c r="E157" t="s">
         <v>23</v>
@@ -7291,24 +7347,24 @@
         <v>173</v>
       </c>
       <c r="G157" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H157" s="1">
-        <v>41472</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="B158" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="C158" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="D158" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="E158" t="s">
         <v>23</v>
@@ -7317,7 +7373,7 @@
         <v>174</v>
       </c>
       <c r="G158" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H158" s="1">
         <v>44078</v>
@@ -7325,16 +7381,16 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="B159" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C159" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="D159" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="E159" t="s">
         <v>23</v>
@@ -7343,7 +7399,7 @@
         <v>175</v>
       </c>
       <c r="G159" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H159" s="1">
         <v>44078</v>
@@ -7351,16 +7407,16 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B160" t="s">
-        <v>235</v>
+        <v>904</v>
       </c>
       <c r="C160" t="s">
-        <v>236</v>
+        <v>905</v>
       </c>
       <c r="D160" t="s">
-        <v>237</v>
+        <v>897</v>
       </c>
       <c r="E160" t="s">
         <v>23</v>
@@ -7369,21 +7425,21 @@
         <v>176</v>
       </c>
       <c r="G160" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H160" s="1">
-        <v>41506</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="B161" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="C161" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="D161" t="s">
         <v>26</v>
@@ -7395,7 +7451,7 @@
         <v>177</v>
       </c>
       <c r="G161" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H161" s="1">
         <v>44994</v>
@@ -7421,7 +7477,7 @@
         <v>178</v>
       </c>
       <c r="G162" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H162" s="1">
         <v>41786</v>
@@ -7447,7 +7503,7 @@
         <v>179</v>
       </c>
       <c r="G163" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H163" s="1">
         <v>44131</v>
@@ -7455,13 +7511,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B164" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C164" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D164" t="s">
         <v>26</v>
@@ -7473,7 +7529,7 @@
         <v>180</v>
       </c>
       <c r="G164" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H164" s="1">
         <v>41843</v>
@@ -7481,13 +7537,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B165" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="C165" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="D165" t="s">
         <v>26</v>
@@ -7499,7 +7555,7 @@
         <v>181</v>
       </c>
       <c r="G165" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H165" s="1">
         <v>41946</v>
@@ -7507,13 +7563,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B166" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C166" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="D166" t="s">
         <v>26</v>
@@ -7525,7 +7581,7 @@
         <v>182</v>
       </c>
       <c r="G166" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H166" s="1">
         <v>42037</v>
@@ -7533,13 +7589,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="C167" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="D167" t="s">
         <v>26</v>
@@ -7551,7 +7607,7 @@
         <v>183</v>
       </c>
       <c r="G167" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H167" s="1">
         <v>41946</v>
@@ -7577,7 +7633,7 @@
         <v>184</v>
       </c>
       <c r="G168" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H168" s="1">
         <v>41984</v>
@@ -7585,16 +7641,16 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B169" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C169" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D169" t="s">
-        <v>807</v>
+        <v>774</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -7603,7 +7659,7 @@
         <v>185</v>
       </c>
       <c r="G169" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H169" s="1">
         <v>44910</v>
@@ -7611,16 +7667,16 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B170" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="C170" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="D170" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -7629,7 +7685,7 @@
         <v>188</v>
       </c>
       <c r="G170" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H170" s="1">
         <v>42339</v>
@@ -7637,16 +7693,16 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B171" t="s">
-        <v>274</v>
+        <v>906</v>
       </c>
       <c r="C171" t="s">
-        <v>275</v>
+        <v>907</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>889</v>
       </c>
       <c r="E171" t="s">
         <v>23</v>
@@ -7655,10 +7711,10 @@
         <v>189</v>
       </c>
       <c r="G171" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H171" s="1">
-        <v>42348</v>
+        <v>45418</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -7681,7 +7737,7 @@
         <v>190</v>
       </c>
       <c r="G172" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H172" s="1">
         <v>42500</v>
@@ -7707,7 +7763,7 @@
         <v>191</v>
       </c>
       <c r="G173" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H173" s="1">
         <v>42510</v>
@@ -7715,16 +7771,16 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B174" t="s">
-        <v>230</v>
+        <v>908</v>
       </c>
       <c r="C174" t="s">
-        <v>231</v>
+        <v>909</v>
       </c>
       <c r="D174" t="s">
-        <v>26</v>
+        <v>910</v>
       </c>
       <c r="E174" t="s">
         <v>23</v>
@@ -7733,10 +7789,10 @@
         <v>192</v>
       </c>
       <c r="G174" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H174" s="1">
-        <v>45316</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -7759,7 +7815,7 @@
         <v>193</v>
       </c>
       <c r="G175" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H175" s="1">
         <v>42538</v>
@@ -7785,7 +7841,7 @@
         <v>194</v>
       </c>
       <c r="G176" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H176" s="1">
         <v>42538</v>
@@ -7811,7 +7867,7 @@
         <v>195</v>
       </c>
       <c r="G177" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H177" s="1">
         <v>42538</v>
@@ -7819,13 +7875,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="B178" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="C178" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="D178" t="s">
         <v>26</v>
@@ -7837,7 +7893,7 @@
         <v>196</v>
       </c>
       <c r="G178" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H178" s="1">
         <v>42661</v>
@@ -7845,13 +7901,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="B179" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="C179" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="D179" t="s">
         <v>26</v>
@@ -7863,7 +7919,7 @@
         <v>197</v>
       </c>
       <c r="G179" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H179" s="1">
         <v>42661</v>
@@ -7871,16 +7927,16 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="B180" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="C180" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="D180" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="E180" t="s">
         <v>47</v>
@@ -7889,7 +7945,7 @@
         <v>201</v>
       </c>
       <c r="G180" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H180" s="1">
         <v>42723</v>
@@ -7897,16 +7953,16 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B181" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="C181" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="D181" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="E181" t="s">
         <v>47</v>
@@ -7915,7 +7971,7 @@
         <v>202</v>
       </c>
       <c r="G181" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H181" s="1">
         <v>42752</v>
@@ -7923,16 +7979,16 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="B182" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="C182" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="D182" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="E182" t="s">
         <v>47</v>
@@ -7941,7 +7997,7 @@
         <v>203</v>
       </c>
       <c r="G182" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H182" s="1">
         <v>42752</v>
@@ -7949,16 +8005,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="B183" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="C183" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="D183" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -7967,7 +8023,7 @@
         <v>204</v>
       </c>
       <c r="G183" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H183" s="1">
         <v>44083</v>
@@ -7993,7 +8049,7 @@
         <v>205</v>
       </c>
       <c r="G184" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
       <c r="H184" s="1">
         <v>44078</v>
@@ -8001,16 +8057,16 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="B185" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C185" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="D185" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
@@ -8019,7 +8075,7 @@
         <v>206</v>
       </c>
       <c r="G185" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H185" s="1">
         <v>42752</v>
@@ -8027,16 +8083,16 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="B186" t="s">
-        <v>919</v>
+        <v>881</v>
       </c>
       <c r="C186" t="s">
-        <v>920</v>
+        <v>882</v>
       </c>
       <c r="D186" t="s">
-        <v>921</v>
+        <v>883</v>
       </c>
       <c r="E186" t="s">
         <v>23</v>
@@ -8045,7 +8101,7 @@
         <v>207</v>
       </c>
       <c r="G186" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H186" s="1">
         <v>45358</v>
@@ -8053,13 +8109,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="B187" t="s">
-        <v>922</v>
+        <v>884</v>
       </c>
       <c r="C187" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="D187" t="s">
         <v>26</v>
@@ -8071,7 +8127,7 @@
         <v>208</v>
       </c>
       <c r="G187" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H187" s="1">
         <v>45358</v>
@@ -8079,16 +8135,16 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B188" t="s">
-        <v>259</v>
+        <v>911</v>
       </c>
       <c r="C188" t="s">
-        <v>260</v>
+        <v>912</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>913</v>
       </c>
       <c r="E188" t="s">
         <v>23</v>
@@ -8097,24 +8153,24 @@
         <v>209</v>
       </c>
       <c r="G188" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H188" s="1">
-        <v>42846</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B189" t="s">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="C189" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>913</v>
       </c>
       <c r="E189" t="s">
         <v>23</v>
@@ -8123,21 +8179,21 @@
         <v>210</v>
       </c>
       <c r="G189" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H189" s="1">
-        <v>45316</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="B190" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
       <c r="C190" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="D190" t="s">
         <v>26</v>
@@ -8149,7 +8205,7 @@
         <v>211</v>
       </c>
       <c r="G190" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H190" s="1">
         <v>43035</v>
@@ -8157,16 +8213,16 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="B191" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="C191" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="D191" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
@@ -8175,7 +8231,7 @@
         <v>212</v>
       </c>
       <c r="G191" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H191" s="1">
         <v>43035</v>
@@ -8186,10 +8242,10 @@
         <v>142</v>
       </c>
       <c r="B192" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="C192" t="s">
-        <v>606</v>
+        <v>577</v>
       </c>
       <c r="D192" t="s">
         <v>26</v>
@@ -8201,7 +8257,7 @@
         <v>213</v>
       </c>
       <c r="G192" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H192" s="1">
         <v>43230</v>
@@ -8209,13 +8265,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="B193" t="s">
-        <v>608</v>
+        <v>579</v>
       </c>
       <c r="C193" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="D193" t="s">
         <v>26</v>
@@ -8227,7 +8283,7 @@
         <v>214</v>
       </c>
       <c r="G193" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H193" s="1">
         <v>44943</v>
@@ -8235,13 +8291,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="B194" t="s">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="C194" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="D194" t="s">
         <v>26</v>
@@ -8253,7 +8309,7 @@
         <v>215</v>
       </c>
       <c r="G194" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H194" s="1">
         <v>43230</v>
@@ -8261,13 +8317,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="B195" t="s">
-        <v>614</v>
+        <v>585</v>
       </c>
       <c r="C195" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="D195" t="s">
         <v>26</v>
@@ -8279,7 +8335,7 @@
         <v>216</v>
       </c>
       <c r="G195" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H195" s="1">
         <v>43230</v>
@@ -8287,16 +8343,16 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="B196" t="s">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="C196" t="s">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="D196" t="s">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="E196" t="s">
         <v>47</v>
@@ -8305,7 +8361,7 @@
         <v>217</v>
       </c>
       <c r="G196" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H196" s="1">
         <v>43333</v>
@@ -8313,16 +8369,16 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>591</v>
+      </c>
+      <c r="B197" t="s">
+        <v>592</v>
+      </c>
+      <c r="C197" t="s">
         <v>620</v>
       </c>
-      <c r="B197" t="s">
+      <c r="D197" t="s">
         <v>621</v>
-      </c>
-      <c r="C197" t="s">
-        <v>650</v>
-      </c>
-      <c r="D197" t="s">
-        <v>651</v>
       </c>
       <c r="E197" t="s">
         <v>11</v>
@@ -8331,7 +8387,7 @@
         <v>218</v>
       </c>
       <c r="G197" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H197" s="1">
         <v>44028</v>
@@ -8339,16 +8395,16 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="B198" t="s">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="C198" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="D198" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="E198" t="s">
         <v>47</v>
@@ -8357,7 +8413,7 @@
         <v>219</v>
       </c>
       <c r="G198" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H198" s="1">
         <v>44943</v>
@@ -8365,16 +8421,16 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="B199" t="s">
-        <v>628</v>
+        <v>599</v>
       </c>
       <c r="C199" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="D199" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="E199" t="s">
         <v>23</v>
@@ -8383,7 +8439,7 @@
         <v>220</v>
       </c>
       <c r="G199" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H199" s="1">
         <v>43692</v>
@@ -8391,16 +8447,16 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="B200" t="s">
-        <v>633</v>
+        <v>916</v>
       </c>
       <c r="C200" t="s">
-        <v>811</v>
+        <v>917</v>
       </c>
       <c r="D200" t="s">
-        <v>652</v>
+        <v>918</v>
       </c>
       <c r="E200" t="s">
         <v>23</v>
@@ -8409,24 +8465,24 @@
         <v>221</v>
       </c>
       <c r="G200" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H200" s="1">
-        <v>44943</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="B201" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="C201" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="D201" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="E201" t="s">
         <v>23</v>
@@ -8435,7 +8491,7 @@
         <v>222</v>
       </c>
       <c r="G201" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H201" s="1">
         <v>44943</v>
@@ -8443,16 +8499,16 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="B202" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="C202" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="D202" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="E202" t="s">
         <v>23</v>
@@ -8461,7 +8517,7 @@
         <v>223</v>
       </c>
       <c r="G202" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H202" s="1">
         <v>44943</v>
@@ -8469,16 +8525,16 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="B203" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="C203" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
       <c r="D203" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="E203" t="s">
         <v>23</v>
@@ -8487,7 +8543,7 @@
         <v>224</v>
       </c>
       <c r="G203" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H203" s="1">
         <v>44943</v>
@@ -8495,16 +8551,16 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
       <c r="B204" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="C204" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
       <c r="D204" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
       <c r="E204" t="s">
         <v>47</v>
@@ -8513,7 +8569,7 @@
         <v>225</v>
       </c>
       <c r="G204" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H204" s="1">
         <v>44943</v>
@@ -8521,13 +8577,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="B205" t="s">
-        <v>817</v>
+        <v>782</v>
       </c>
       <c r="C205" t="s">
-        <v>812</v>
+        <v>778</v>
       </c>
       <c r="D205" t="s">
         <v>26</v>
@@ -8539,7 +8595,7 @@
         <v>226</v>
       </c>
       <c r="G205" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H205" s="1">
         <v>44952</v>
@@ -8547,16 +8603,16 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="B206" t="s">
-        <v>655</v>
+        <v>919</v>
       </c>
       <c r="C206" t="s">
-        <v>813</v>
+        <v>920</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>921</v>
       </c>
       <c r="E206" t="s">
         <v>23</v>
@@ -8565,24 +8621,24 @@
         <v>228</v>
       </c>
       <c r="G206" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H206" s="1">
-        <v>44943</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="B207" t="s">
-        <v>818</v>
+        <v>783</v>
       </c>
       <c r="C207" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="D207" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="E207" t="s">
         <v>23</v>
@@ -8591,7 +8647,7 @@
         <v>229</v>
       </c>
       <c r="G207" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H207" s="1">
         <v>44971</v>
@@ -8599,16 +8655,16 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
       <c r="B208" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="C208" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="D208" t="s">
-        <v>879</v>
+        <v>844</v>
       </c>
       <c r="E208" t="s">
         <v>11</v>
@@ -8617,7 +8673,7 @@
         <v>230</v>
       </c>
       <c r="G208" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H208" s="1">
         <v>45223</v>
@@ -8625,16 +8681,16 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="B209" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="C209" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="D209" t="s">
-        <v>895</v>
+        <v>860</v>
       </c>
       <c r="E209" t="s">
         <v>11</v>
@@ -8643,7 +8699,7 @@
         <v>231</v>
       </c>
       <c r="G209" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H209" s="1">
         <v>45244</v>
@@ -8651,16 +8707,16 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="B210" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="C210" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="D210" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="E210" t="s">
         <v>11</v>
@@ -8669,7 +8725,7 @@
         <v>232</v>
       </c>
       <c r="G210" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H210" s="1">
         <v>44408</v>
@@ -8677,16 +8733,16 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="B211" t="s">
-        <v>903</v>
+        <v>867</v>
       </c>
       <c r="C211" t="s">
-        <v>904</v>
+        <v>868</v>
       </c>
       <c r="D211" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="E211" t="s">
         <v>47</v>
@@ -8695,7 +8751,7 @@
         <v>233</v>
       </c>
       <c r="G211" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H211" s="1">
         <v>45294</v>
@@ -8703,16 +8759,16 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="B212" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="C212" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="D212" t="s">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="E212" t="s">
         <v>11</v>
@@ -8721,7 +8777,7 @@
         <v>234</v>
       </c>
       <c r="G212" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H212" s="1">
         <v>45225</v>
@@ -8729,16 +8785,16 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="B213" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="C213" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="D213" t="s">
-        <v>814</v>
+        <v>779</v>
       </c>
       <c r="E213" t="s">
         <v>23</v>
@@ -8747,7 +8803,7 @@
         <v>235</v>
       </c>
       <c r="G213" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H213" s="1">
         <v>45294</v>
@@ -8755,13 +8811,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="B214" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
       <c r="C214" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
       <c r="D214" t="s">
         <v>26</v>
@@ -8773,7 +8829,7 @@
         <v>236</v>
       </c>
       <c r="G214" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H214" s="1">
         <v>44292</v>
@@ -8781,16 +8837,16 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="B215" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="C215" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="D215" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="E215" t="s">
         <v>11</v>
@@ -8799,7 +8855,7 @@
         <v>237</v>
       </c>
       <c r="G215" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H215" s="1">
         <v>45223</v>
@@ -8807,16 +8863,16 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="B216" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="C216" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="D216" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="E216" t="s">
         <v>47</v>
@@ -8825,7 +8881,7 @@
         <v>238</v>
       </c>
       <c r="G216" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H216" s="1">
         <v>44392</v>
@@ -8833,16 +8889,16 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="B217" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="C217" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="D217" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="E217" t="s">
         <v>47</v>
@@ -8851,7 +8907,7 @@
         <v>239</v>
       </c>
       <c r="G217" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H217" s="1">
         <v>44392</v>
@@ -8859,16 +8915,16 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="B218" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="C218" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="D218" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="E218" t="s">
         <v>47</v>
@@ -8877,7 +8933,7 @@
         <v>240</v>
       </c>
       <c r="G218" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H218" s="1">
         <v>44519</v>
@@ -8885,16 +8941,16 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="B219" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
       <c r="C219" t="s">
-        <v>905</v>
+        <v>869</v>
       </c>
       <c r="D219" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="E219" t="s">
         <v>47</v>
@@ -8903,7 +8959,7 @@
         <v>241</v>
       </c>
       <c r="G219" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H219" s="1">
         <v>45294</v>
@@ -8911,16 +8967,16 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="B220" t="s">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="C220" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
       <c r="D220" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="E220" t="s">
         <v>47</v>
@@ -8929,7 +8985,7 @@
         <v>242</v>
       </c>
       <c r="G220" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H220" s="1">
         <v>44392</v>
@@ -8937,16 +8993,16 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="B221" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="C221" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="D221" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="E221" t="s">
         <v>47</v>
@@ -8955,7 +9011,7 @@
         <v>243</v>
       </c>
       <c r="G221" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H221" s="1">
         <v>44392</v>
@@ -8963,16 +9019,16 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="B222" t="s">
-        <v>808</v>
+        <v>775</v>
       </c>
       <c r="C222" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="D222" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="E222" t="s">
         <v>47</v>
@@ -8981,7 +9037,7 @@
         <v>244</v>
       </c>
       <c r="G222" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H222" s="1">
         <v>44911</v>
@@ -8989,16 +9045,16 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="B223" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="C223" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="D223" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="E223" t="s">
         <v>47</v>
@@ -9007,7 +9063,7 @@
         <v>245</v>
       </c>
       <c r="G223" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H223" s="1">
         <v>44426</v>
@@ -9015,16 +9071,16 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="B224" t="s">
-        <v>697</v>
+        <v>665</v>
       </c>
       <c r="C224" t="s">
-        <v>906</v>
+        <v>870</v>
       </c>
       <c r="D224" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="E224" t="s">
         <v>47</v>
@@ -9033,7 +9089,7 @@
         <v>246</v>
       </c>
       <c r="G224" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H224" s="1">
         <v>45294</v>
@@ -9041,16 +9097,16 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="B225" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="C225" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="D225" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="E225" t="s">
         <v>47</v>
@@ -9059,7 +9115,7 @@
         <v>247</v>
       </c>
       <c r="G225" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H225" s="1">
         <v>44392</v>
@@ -9067,16 +9123,16 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="B226" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="C226" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="D226" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="E226" t="s">
         <v>47</v>
@@ -9085,7 +9141,7 @@
         <v>248</v>
       </c>
       <c r="G226" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H226" s="1">
         <v>44880</v>
@@ -9093,16 +9149,16 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="B227" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="C227" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="D227" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="E227" t="s">
         <v>47</v>
@@ -9111,7 +9167,7 @@
         <v>249</v>
       </c>
       <c r="G227" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H227" s="1">
         <v>44880</v>
@@ -9119,13 +9175,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="B228" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="C228" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="D228" t="s">
         <v>26</v>
@@ -9137,7 +9193,7 @@
         <v>250</v>
       </c>
       <c r="G228" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H228" s="1">
         <v>44426</v>
@@ -9145,13 +9201,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="B229" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="C229" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="D229" t="s">
         <v>26</v>
@@ -9163,7 +9219,7 @@
         <v>251</v>
       </c>
       <c r="G229" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H229" s="1">
         <v>44994</v>
@@ -9171,16 +9227,16 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
       <c r="B230" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="C230" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="D230" t="s">
-        <v>882</v>
+        <v>847</v>
       </c>
       <c r="E230" t="s">
         <v>11</v>
@@ -9189,7 +9245,7 @@
         <v>252</v>
       </c>
       <c r="G230" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H230" s="1">
         <v>45225</v>
@@ -9197,16 +9253,16 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="B231" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="C231" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="D231" t="s">
-        <v>883</v>
+        <v>848</v>
       </c>
       <c r="E231" t="s">
         <v>11</v>
@@ -9215,7 +9271,7 @@
         <v>253</v>
       </c>
       <c r="G231" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H231" s="1">
         <v>45232</v>
@@ -9223,16 +9279,16 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="B232" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="C232" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="D232" t="s">
-        <v>884</v>
+        <v>849</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -9241,7 +9297,7 @@
         <v>254</v>
       </c>
       <c r="G232" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H232" s="1">
         <v>45224</v>
@@ -9249,16 +9305,16 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="B233" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="C233" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="D233" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -9267,7 +9323,7 @@
         <v>255</v>
       </c>
       <c r="G233" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H233" s="1">
         <v>44606</v>
@@ -9275,16 +9331,16 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
       <c r="B234" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="C234" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="D234" t="s">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="E234" t="s">
         <v>11</v>
@@ -9293,7 +9349,7 @@
         <v>256</v>
       </c>
       <c r="G234" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H234" s="1">
         <v>45224</v>
@@ -9301,16 +9357,16 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="B235" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="C235" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="D235" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="E235" t="s">
         <v>11</v>
@@ -9319,7 +9375,7 @@
         <v>257</v>
       </c>
       <c r="G235" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H235" s="1">
         <v>44636</v>
@@ -9327,16 +9383,16 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
       <c r="B236" t="s">
-        <v>740</v>
+        <v>708</v>
       </c>
       <c r="C236" t="s">
-        <v>741</v>
+        <v>709</v>
       </c>
       <c r="D236" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
       <c r="E236" t="s">
         <v>23</v>
@@ -9345,7 +9401,7 @@
         <v>258</v>
       </c>
       <c r="G236" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H236" s="1">
         <v>44623</v>
@@ -9353,16 +9409,16 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="B237" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="C237" t="s">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="D237" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="E237" t="s">
         <v>23</v>
@@ -9371,7 +9427,7 @@
         <v>259</v>
       </c>
       <c r="G237" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H237" s="1">
         <v>44624</v>
@@ -9379,16 +9435,16 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="B238" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="C238" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="D238" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="E238" t="s">
         <v>59</v>
@@ -9397,7 +9453,7 @@
         <v>260</v>
       </c>
       <c r="G238" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H238" s="1">
         <v>44994</v>
@@ -9405,16 +9461,16 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>750</v>
+        <v>718</v>
       </c>
       <c r="B239" t="s">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="C239" t="s">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="D239" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="E239" t="s">
         <v>59</v>
@@ -9423,7 +9479,7 @@
         <v>261</v>
       </c>
       <c r="G239" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H239" s="1">
         <v>44994</v>
@@ -9431,16 +9487,16 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="B240" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="C240" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="D240" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="E240" t="s">
         <v>47</v>
@@ -9449,7 +9505,7 @@
         <v>262</v>
       </c>
       <c r="G240" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H240" s="1">
         <v>44663</v>
@@ -9457,16 +9513,16 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>759</v>
+        <v>727</v>
       </c>
       <c r="B241" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="C241" t="s">
-        <v>761</v>
+        <v>729</v>
       </c>
       <c r="D241" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="E241" t="s">
         <v>47</v>
@@ -9475,7 +9531,7 @@
         <v>263</v>
       </c>
       <c r="G241" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H241" s="1">
         <v>44663</v>
@@ -9483,16 +9539,16 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>762</v>
+        <v>730</v>
       </c>
       <c r="B242" t="s">
-        <v>763</v>
+        <v>731</v>
       </c>
       <c r="C242" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="D242" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="E242" t="s">
         <v>47</v>
@@ -9501,7 +9557,7 @@
         <v>264</v>
       </c>
       <c r="G242" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H242" s="1">
         <v>44663</v>
@@ -9509,16 +9565,16 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="B243" t="s">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="C243" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="D243" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="E243" t="s">
         <v>47</v>
@@ -9527,7 +9583,7 @@
         <v>265</v>
       </c>
       <c r="G243" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H243" s="1">
         <v>44663</v>
@@ -9535,16 +9591,16 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="B244" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="C244" t="s">
-        <v>770</v>
+        <v>738</v>
       </c>
       <c r="D244" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="E244" t="s">
         <v>47</v>
@@ -9553,7 +9609,7 @@
         <v>266</v>
       </c>
       <c r="G244" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H244" s="1">
         <v>44663</v>
@@ -9561,16 +9617,16 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>771</v>
+        <v>739</v>
       </c>
       <c r="B245" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
       <c r="C245" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="D245" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="E245" t="s">
         <v>47</v>
@@ -9579,7 +9635,7 @@
         <v>267</v>
       </c>
       <c r="G245" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H245" s="1">
         <v>44663</v>
@@ -9587,16 +9643,16 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="B246" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="C246" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="D246" t="s">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="E246" t="s">
         <v>11</v>
@@ -9605,7 +9661,7 @@
         <v>268</v>
       </c>
       <c r="G246" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H246" s="1">
         <v>45225</v>
@@ -9613,16 +9669,16 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="B247" t="s">
-        <v>778</v>
+        <v>746</v>
       </c>
       <c r="C247" t="s">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="D247" t="s">
-        <v>887</v>
+        <v>852</v>
       </c>
       <c r="E247" t="s">
         <v>11</v>
@@ -9631,7 +9687,7 @@
         <v>269</v>
       </c>
       <c r="G247" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H247" s="1">
         <v>45226</v>
@@ -9639,16 +9695,16 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="B248" t="s">
-        <v>825</v>
+        <v>790</v>
       </c>
       <c r="C248" t="s">
-        <v>826</v>
+        <v>791</v>
       </c>
       <c r="D248" t="s">
-        <v>888</v>
+        <v>853</v>
       </c>
       <c r="E248" t="s">
         <v>11</v>
@@ -9657,7 +9713,7 @@
         <v>270</v>
       </c>
       <c r="G248" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H248" s="1">
         <v>45225</v>
@@ -9665,16 +9721,16 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="B249" t="s">
-        <v>827</v>
+        <v>792</v>
       </c>
       <c r="C249" t="s">
-        <v>828</v>
+        <v>793</v>
       </c>
       <c r="D249" t="s">
-        <v>889</v>
+        <v>854</v>
       </c>
       <c r="E249" t="s">
         <v>11</v>
@@ -9683,7 +9739,7 @@
         <v>271</v>
       </c>
       <c r="G249" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H249" s="1">
         <v>45225</v>
@@ -9691,16 +9747,16 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="B250" t="s">
-        <v>829</v>
+        <v>794</v>
       </c>
       <c r="C250" t="s">
-        <v>830</v>
+        <v>795</v>
       </c>
       <c r="D250" t="s">
-        <v>890</v>
+        <v>855</v>
       </c>
       <c r="E250" t="s">
         <v>11</v>
@@ -9709,7 +9765,7 @@
         <v>272</v>
       </c>
       <c r="G250" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H250" s="1">
         <v>45225</v>
@@ -9717,16 +9773,16 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="B251" t="s">
-        <v>831</v>
+        <v>796</v>
       </c>
       <c r="C251" t="s">
-        <v>832</v>
+        <v>797</v>
       </c>
       <c r="D251" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="E251" t="s">
         <v>11</v>
@@ -9735,7 +9791,7 @@
         <v>273</v>
       </c>
       <c r="G251" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H251" s="1">
         <v>45225</v>
@@ -9743,16 +9799,16 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="B252" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="C252" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="D252" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="E252" t="s">
         <v>47</v>
@@ -9761,7 +9817,7 @@
         <v>274</v>
       </c>
       <c r="G252" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H252" s="1">
         <v>44882</v>
@@ -9769,16 +9825,16 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="B253" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="C253" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
       <c r="D253" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="E253" t="s">
         <v>47</v>
@@ -9787,7 +9843,7 @@
         <v>275</v>
       </c>
       <c r="G253" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H253" s="1">
         <v>44882</v>
@@ -9795,16 +9851,16 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="B254" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
       <c r="C254" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="D254" t="s">
-        <v>810</v>
+        <v>777</v>
       </c>
       <c r="E254" t="s">
         <v>47</v>
@@ -9813,7 +9869,7 @@
         <v>276</v>
       </c>
       <c r="G254" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H254" s="1">
         <v>44914</v>
@@ -9821,16 +9877,16 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>819</v>
+        <v>784</v>
       </c>
       <c r="B255" t="s">
-        <v>820</v>
+        <v>785</v>
       </c>
       <c r="C255" t="s">
-        <v>907</v>
+        <v>871</v>
       </c>
       <c r="D255" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="E255" t="s">
         <v>47</v>
@@ -9839,7 +9895,7 @@
         <v>277</v>
       </c>
       <c r="G255" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H255" s="1">
         <v>45294</v>
@@ -9847,16 +9903,16 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>821</v>
+        <v>786</v>
       </c>
       <c r="B256" t="s">
-        <v>822</v>
+        <v>787</v>
       </c>
       <c r="C256" t="s">
-        <v>823</v>
+        <v>788</v>
       </c>
       <c r="D256" t="s">
-        <v>824</v>
+        <v>789</v>
       </c>
       <c r="E256" t="s">
         <v>23</v>
@@ -9865,7 +9921,7 @@
         <v>278</v>
       </c>
       <c r="G256" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H256" s="1">
         <v>44999</v>
@@ -9873,16 +9929,16 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>834</v>
+        <v>799</v>
       </c>
       <c r="B257" t="s">
-        <v>835</v>
+        <v>800</v>
       </c>
       <c r="C257" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
       <c r="D257" t="s">
-        <v>837</v>
+        <v>802</v>
       </c>
       <c r="E257" t="s">
         <v>23</v>
@@ -9891,7 +9947,7 @@
         <v>279</v>
       </c>
       <c r="G257" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H257" s="1">
         <v>45083</v>
@@ -9899,16 +9955,16 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>838</v>
+        <v>803</v>
       </c>
       <c r="B258" t="s">
-        <v>908</v>
+        <v>872</v>
       </c>
       <c r="C258" t="s">
-        <v>908</v>
+        <v>872</v>
       </c>
       <c r="D258" t="s">
-        <v>871</v>
+        <v>836</v>
       </c>
       <c r="E258" t="s">
         <v>11</v>
@@ -9917,7 +9973,7 @@
         <v>280</v>
       </c>
       <c r="G258" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H258" s="1">
         <v>45294</v>
@@ -9925,16 +9981,16 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>840</v>
+        <v>805</v>
       </c>
       <c r="B259" t="s">
-        <v>841</v>
+        <v>806</v>
       </c>
       <c r="C259" t="s">
-        <v>842</v>
+        <v>807</v>
       </c>
       <c r="D259" t="s">
-        <v>837</v>
+        <v>802</v>
       </c>
       <c r="E259" t="s">
         <v>23</v>
@@ -9943,7 +9999,7 @@
         <v>281</v>
       </c>
       <c r="G259" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H259" s="1">
         <v>45120</v>
@@ -9951,16 +10007,16 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>843</v>
+        <v>808</v>
       </c>
       <c r="B260" t="s">
-        <v>844</v>
+        <v>809</v>
       </c>
       <c r="C260" t="s">
-        <v>915</v>
+        <v>943</v>
       </c>
       <c r="D260" t="s">
-        <v>845</v>
+        <v>810</v>
       </c>
       <c r="E260" t="s">
         <v>23</v>
@@ -9969,7 +10025,7 @@
         <v>282</v>
       </c>
       <c r="G260" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H260" s="1">
         <v>45132</v>
@@ -9977,16 +10033,16 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>846</v>
+        <v>811</v>
       </c>
       <c r="B261" t="s">
-        <v>847</v>
+        <v>812</v>
       </c>
       <c r="C261" t="s">
-        <v>916</v>
+        <v>944</v>
       </c>
       <c r="D261" t="s">
-        <v>845</v>
+        <v>810</v>
       </c>
       <c r="E261" t="s">
         <v>23</v>
@@ -9995,7 +10051,7 @@
         <v>283</v>
       </c>
       <c r="G261" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H261" s="1">
         <v>45147</v>
@@ -10003,16 +10059,16 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>848</v>
+        <v>813</v>
       </c>
       <c r="B262" t="s">
-        <v>849</v>
+        <v>814</v>
       </c>
       <c r="C262" t="s">
-        <v>850</v>
+        <v>815</v>
       </c>
       <c r="D262" t="s">
-        <v>851</v>
+        <v>816</v>
       </c>
       <c r="E262" t="s">
         <v>23</v>
@@ -10021,7 +10077,7 @@
         <v>284</v>
       </c>
       <c r="G262" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H262" s="1">
         <v>45170</v>
@@ -10029,16 +10085,16 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>852</v>
+        <v>817</v>
       </c>
       <c r="B263" t="s">
-        <v>853</v>
+        <v>818</v>
       </c>
       <c r="C263" t="s">
-        <v>854</v>
+        <v>819</v>
       </c>
       <c r="D263" t="s">
-        <v>855</v>
+        <v>820</v>
       </c>
       <c r="E263" t="s">
         <v>23</v>
@@ -10047,7 +10103,7 @@
         <v>285</v>
       </c>
       <c r="G263" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H263" s="1">
         <v>45182</v>
@@ -10055,16 +10111,16 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>856</v>
+        <v>821</v>
       </c>
       <c r="B264" t="s">
-        <v>857</v>
+        <v>822</v>
       </c>
       <c r="C264" t="s">
-        <v>858</v>
+        <v>823</v>
       </c>
       <c r="D264" t="s">
-        <v>859</v>
+        <v>824</v>
       </c>
       <c r="E264" t="s">
         <v>23</v>
@@ -10073,7 +10129,7 @@
         <v>286</v>
       </c>
       <c r="G264" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H264" s="1">
         <v>45182</v>
@@ -10081,16 +10137,16 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>860</v>
+        <v>825</v>
       </c>
       <c r="B265" t="s">
-        <v>861</v>
+        <v>826</v>
       </c>
       <c r="C265" t="s">
-        <v>862</v>
+        <v>827</v>
       </c>
       <c r="D265" t="s">
-        <v>863</v>
+        <v>828</v>
       </c>
       <c r="E265" t="s">
         <v>23</v>
@@ -10099,7 +10155,7 @@
         <v>287</v>
       </c>
       <c r="G265" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H265" s="1">
         <v>45182</v>
@@ -10107,16 +10163,16 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>864</v>
+        <v>829</v>
       </c>
       <c r="B266" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="C266" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="D266" t="s">
-        <v>866</v>
+        <v>831</v>
       </c>
       <c r="E266" t="s">
         <v>23</v>
@@ -10125,7 +10181,7 @@
         <v>288</v>
       </c>
       <c r="G266" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H266" s="1">
         <v>45182</v>
@@ -10133,16 +10189,16 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
       <c r="B267" t="s">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="C267" t="s">
-        <v>869</v>
+        <v>834</v>
       </c>
       <c r="D267" t="s">
-        <v>870</v>
+        <v>835</v>
       </c>
       <c r="E267" t="s">
         <v>23</v>
@@ -10151,7 +10207,7 @@
         <v>289</v>
       </c>
       <c r="G267" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H267" s="1">
         <v>45182</v>
@@ -10159,16 +10215,16 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>872</v>
+        <v>837</v>
       </c>
       <c r="B268" t="s">
-        <v>873</v>
+        <v>838</v>
       </c>
       <c r="C268" t="s">
-        <v>874</v>
+        <v>839</v>
       </c>
       <c r="D268" t="s">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="E268" t="s">
         <v>11</v>
@@ -10177,7 +10233,7 @@
         <v>290</v>
       </c>
       <c r="G268" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H268" s="1">
         <v>45188</v>
@@ -10185,16 +10241,16 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>876</v>
+        <v>841</v>
       </c>
       <c r="B269" t="s">
-        <v>877</v>
+        <v>842</v>
       </c>
       <c r="C269" t="s">
-        <v>877</v>
+        <v>842</v>
       </c>
       <c r="D269" t="s">
-        <v>878</v>
+        <v>843</v>
       </c>
       <c r="E269" t="s">
         <v>11</v>
@@ -10203,7 +10259,7 @@
         <v>291</v>
       </c>
       <c r="G269" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H269" s="1">
         <v>45188</v>
@@ -10211,16 +10267,16 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>893</v>
+        <v>858</v>
       </c>
       <c r="B270" t="s">
-        <v>909</v>
+        <v>873</v>
       </c>
       <c r="C270" t="s">
-        <v>910</v>
+        <v>874</v>
       </c>
       <c r="D270" t="s">
-        <v>894</v>
+        <v>859</v>
       </c>
       <c r="E270" t="s">
         <v>23</v>
@@ -10229,7 +10285,7 @@
         <v>292</v>
       </c>
       <c r="G270" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H270" s="1">
         <v>45316</v>
@@ -10237,16 +10293,16 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>896</v>
+        <v>861</v>
       </c>
       <c r="B271" t="s">
-        <v>899</v>
+        <v>864</v>
       </c>
       <c r="C271" t="s">
-        <v>897</v>
+        <v>862</v>
       </c>
       <c r="D271" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="E271" t="s">
         <v>23</v>
@@ -10255,7 +10311,7 @@
         <v>293</v>
       </c>
       <c r="G271" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H271" s="1">
         <v>45280</v>
@@ -10263,16 +10319,16 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>911</v>
+        <v>875</v>
       </c>
       <c r="B272" t="s">
-        <v>912</v>
+        <v>876</v>
       </c>
       <c r="C272" t="s">
-        <v>913</v>
+        <v>877</v>
       </c>
       <c r="D272" t="s">
-        <v>914</v>
+        <v>878</v>
       </c>
       <c r="E272" t="s">
         <v>23</v>
@@ -10281,7 +10337,7 @@
         <v>294</v>
       </c>
       <c r="G272" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H272" s="1">
         <v>45316</v>
@@ -10289,16 +10345,16 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>923</v>
+        <v>885</v>
       </c>
       <c r="B273" t="s">
-        <v>924</v>
+        <v>886</v>
       </c>
       <c r="C273" t="s">
-        <v>924</v>
+        <v>886</v>
       </c>
       <c r="D273" t="s">
-        <v>925</v>
+        <v>887</v>
       </c>
       <c r="E273" t="s">
         <v>11</v>
@@ -10307,7 +10363,7 @@
         <v>295</v>
       </c>
       <c r="G273" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H273" s="1">
         <v>45366</v>
@@ -10315,35 +10371,190 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>789</v>
+        <v>922</v>
       </c>
       <c r="B274" t="s">
-        <v>790</v>
+        <v>923</v>
       </c>
       <c r="C274" t="s">
-        <v>791</v>
+        <v>924</v>
       </c>
       <c r="D274" t="s">
-        <v>892</v>
+        <v>925</v>
       </c>
       <c r="E274" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F274">
         <v>296</v>
       </c>
       <c r="G274" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="H274" s="1">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>926</v>
+      </c>
+      <c r="B275" t="s">
+        <v>927</v>
+      </c>
+      <c r="C275" t="s">
+        <v>928</v>
+      </c>
+      <c r="D275" t="s">
+        <v>929</v>
+      </c>
+      <c r="E275" t="s">
+        <v>23</v>
+      </c>
+      <c r="F275">
+        <v>297</v>
+      </c>
+      <c r="G275" t="s">
+        <v>571</v>
+      </c>
+      <c r="H275" s="1">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>930</v>
+      </c>
+      <c r="B276" t="s">
+        <v>931</v>
+      </c>
+      <c r="C276" t="s">
+        <v>932</v>
+      </c>
+      <c r="D276" t="s">
+        <v>929</v>
+      </c>
+      <c r="E276" t="s">
+        <v>23</v>
+      </c>
+      <c r="F276">
+        <v>298</v>
+      </c>
+      <c r="G276" t="s">
+        <v>571</v>
+      </c>
+      <c r="H276" s="1">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>933</v>
+      </c>
+      <c r="B277" t="s">
+        <v>934</v>
+      </c>
+      <c r="C277" t="s">
+        <v>934</v>
+      </c>
+      <c r="D277" t="s">
+        <v>935</v>
+      </c>
+      <c r="E277" t="s">
+        <v>47</v>
+      </c>
+      <c r="F277">
+        <v>299</v>
+      </c>
+      <c r="G277" t="s">
+        <v>571</v>
+      </c>
+      <c r="H277" s="1">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>757</v>
+      </c>
+      <c r="B278" t="s">
+        <v>758</v>
+      </c>
+      <c r="C278" t="s">
+        <v>759</v>
+      </c>
+      <c r="D278" t="s">
+        <v>857</v>
+      </c>
+      <c r="E278" t="s">
+        <v>11</v>
+      </c>
+      <c r="F278">
+        <v>300</v>
+      </c>
+      <c r="G278" t="s">
+        <v>571</v>
+      </c>
+      <c r="H278" s="1">
         <v>45225</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>936</v>
+      </c>
+      <c r="B279" t="s">
+        <v>937</v>
+      </c>
+      <c r="C279" t="s">
+        <v>938</v>
+      </c>
+      <c r="D279" t="s">
+        <v>939</v>
+      </c>
+      <c r="E279" t="s">
+        <v>23</v>
+      </c>
+      <c r="F279">
+        <v>301</v>
+      </c>
+      <c r="G279" t="s">
+        <v>571</v>
+      </c>
+      <c r="H279" s="1">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>940</v>
+      </c>
+      <c r="B280" t="s">
+        <v>941</v>
+      </c>
+      <c r="C280" t="s">
+        <v>941</v>
+      </c>
+      <c r="D280" t="s">
+        <v>942</v>
+      </c>
+      <c r="E280" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280">
+        <v>302</v>
+      </c>
+      <c r="G280" t="s">
+        <v>571</v>
+      </c>
+      <c r="H280" s="1">
+        <v>45449</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="17" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
+++ b/cds-tcamt/cds-tcamt-controller/src/main/resources/codeset/web_cvx.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/ske5_cdc_gov/Documents/+My_Documents/Shilpa/CPT/downloads/New/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="658" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{799BB4FB-62B2-4662-A90E-A9490E63CE75}"/>
+  <xr:revisionPtr revIDLastSave="681" documentId="13_ncr:1_{4E4CFCED-0B0A-43B8-A237-65405DFDA4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7FD9DD2-A25C-49E8-A270-53994C64AC3C}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="936" windowWidth="21252" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Web_cvx" sheetId="71" r:id="rId1"/>
+    <sheet name="Web_cvx" sheetId="72" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$280</definedName>
+    <definedName name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" localSheetId="0" hidden="1">Web_cvx!$A$1:$H$281</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{F122FED2-8D7A-4D71-8572-501271B3B1D2}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes11111111111111111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" xr16:uid="{6E74380E-EF49-4442-9B15-CEA084F22A8F}" odcFile="\\cdc.gov\private\M314\ske5\My Data Sources\DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes.odc" keepAlive="1" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes111111111111111111111111111111111111111111111111111" type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=SQLOLEDB.1;Integrated Security=SSPI;Persist Security Info=True;User ID=insidenipdbo;Initial Catalog=NIP_INSIDENIP;Data Source=DSDV-INFC-1601\qsrv1;Use Procedure for Prepare=1;Auto Translate=True;Packet Size=4096;Workstation ID=D314248;Use Encryption for Data=False;Tag with column collation when possible=False" command="&quot;NIP_INSIDENIP&quot;.&quot;dbo&quot;.&quot;tblCVXCodes&quot;" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="948">
   <si>
     <t>CVX Code</t>
   </si>
@@ -2862,10 +2862,19 @@
     <t xml:space="preserve">Unspecified code H5xx vaccines to be used when specific formulation is unknown - for vaccines administered starting 2024 </t>
   </si>
   <si>
-    <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1κ, (nirsevimab-alip), 0.5 mL, neonates and children to 24 months</t>
-  </si>
-  <si>
-    <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1κ, (nirsevimab-alip), 1 mL, neonates and children to 24 months</t>
+    <t>327</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate PCV21, polysaccharide CRM197 conjugate, PF</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate vaccine, 21 valent (PCV21), polysaccharide CRM197 conjugate, preservative free</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1κ , (nirsevimab-alip), 0.5 mL, neonates and children to 24 months</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus (RSV) monoclonal antibody, IgG1κ , (nirsevimab-alip), 1 mL, neonates and children to 24 months</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2938,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" connectionId="1" xr16:uid="{1E523728-59BB-4929-BE00-655637F4CA7B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DSDV-INFC-1601_qsrv1 NIP_INSIDENIP tblCVXCodes" connectionId="1" xr16:uid="{820F95D8-8905-4A7F-B770-D3800C2AA8D5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="8">
       <queryTableField id="2" name="cvx_code" tableColumnId="2"/>
@@ -2949,16 +2958,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A1434D6D-708D-4380-9421-3840925443E0}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes_1" ref="A1:H280" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8584E41-B2DB-4C7C-BCE9-42832A4AD29E}" name="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" displayName="Table_DSDV_INFC_1601_qsrv1_NIP_INSIDENIP_tblCVXCodes" ref="A1:H281" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{425F6119-1CAC-481D-974B-9A53D5370240}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{66BF3BCC-4A62-4524-827B-867C99DEE14A}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{184C084A-5955-4026-8114-FA5BF1BFA269}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{26405ED7-245E-49FE-8861-6348A80FE43A}" uniqueName="5" name="Note" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{7D9F5ECD-8721-4B27-B9AB-EB25EE327C3C}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
-    <tableColumn id="1" xr3:uid="{F4D15D66-BCA4-4D30-B80F-3B54843374E4}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
-    <tableColumn id="8" xr3:uid="{0FDA1B71-36AD-42F3-9A41-C3D8D3258F45}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{8FE42A1E-FF55-409A-A3FE-7B78A8D55D6A}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5547DD2F-73B5-41CB-ABE0-D016542BC608}" uniqueName="2" name="CVX Code" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{1F5DB54C-D489-4BBF-8611-26399EF7EE03}" uniqueName="3" name="CVX Short Description" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{838FD752-E6A0-4D44-BC1E-2513C50F7F36}" uniqueName="4" name="Full Vaccine Name" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{AE06D11E-34CC-4778-B41B-B6AD7106870D}" uniqueName="5" name="Note" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{28DB2BAA-3376-45DF-8EA1-88FA0D5C59B3}" uniqueName="6" name="VaccineStatus" queryTableFieldId="6"/>
+    <tableColumn id="1" xr3:uid="{016014BD-5688-4F22-A266-DEAD493F9A39}" uniqueName="1" name="internalID" queryTableFieldId="1"/>
+    <tableColumn id="8" xr3:uid="{624389A5-8306-4A55-95F7-758EC4658A0D}" uniqueName="8" name="nonvaccine" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{C4ECF28B-E430-4850-B6D7-A7BD5E367EE2}" uniqueName="9" name="update_date" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3250,24 +3259,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D97E6F-DF47-4B82-AB2F-3D53C3DBE81D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A7C482-A330-4CBB-B47E-F284871B8414}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="4" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7532,7 +7541,7 @@
         <v>571</v>
       </c>
       <c r="H164" s="1">
-        <v>41843</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -9799,19 +9808,19 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B252" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C252" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D252" t="s">
-        <v>652</v>
+        <v>857</v>
       </c>
       <c r="E252" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F252">
         <v>274</v>
@@ -9820,7 +9829,7 @@
         <v>571</v>
       </c>
       <c r="H252" s="1">
-        <v>44882</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -10013,7 +10022,7 @@
         <v>809</v>
       </c>
       <c r="C260" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D260" t="s">
         <v>810</v>
@@ -10039,7 +10048,7 @@
         <v>812</v>
       </c>
       <c r="C261" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D261" t="s">
         <v>810</v>
@@ -10475,19 +10484,19 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B278" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="C278" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="D278" t="s">
-        <v>857</v>
+        <v>652</v>
       </c>
       <c r="E278" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F278">
         <v>300</v>
@@ -10496,7 +10505,7 @@
         <v>571</v>
       </c>
       <c r="H278" s="1">
-        <v>45225</v>
+        <v>44882</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -10527,19 +10536,19 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B280" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="C280" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="D280" t="s">
-        <v>942</v>
+        <v>26</v>
       </c>
       <c r="E280" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F280">
         <v>302</v>
@@ -10548,6 +10557,32 @@
         <v>571</v>
       </c>
       <c r="H280" s="1">
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>940</v>
+      </c>
+      <c r="B281" t="s">
+        <v>941</v>
+      </c>
+      <c r="C281" t="s">
+        <v>941</v>
+      </c>
+      <c r="D281" t="s">
+        <v>942</v>
+      </c>
+      <c r="E281" t="s">
+        <v>11</v>
+      </c>
+      <c r="F281">
+        <v>303</v>
+      </c>
+      <c r="G281" t="s">
+        <v>571</v>
+      </c>
+      <c r="H281" s="1">
         <v>45449</v>
       </c>
     </row>
